--- a/build_tools/Class_definitions/Class_definitions.xlsx
+++ b/build_tools/Class_definitions/Class_definitions.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="293">
   <si>
     <t>Slot</t>
   </si>
@@ -898,6 +898,15 @@
   </si>
   <si>
     <t>Is Area 1 currently closed (TRUE) or open (FALSE)? Defaults to FALSE</t>
+  </si>
+  <si>
+    <t>Misc</t>
+  </si>
+  <si>
+    <t>list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miscellaneous list for bio-economic parameters </t>
   </si>
 </sst>
 </file>
@@ -1837,10 +1846,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2172,6 +2181,17 @@
       </c>
       <c r="D20" s="3" t="s">
         <v>289</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>292</v>
       </c>
     </row>
   </sheetData>

--- a/build_tools/Class_definitions/Class_definitions.xlsx
+++ b/build_tools/Class_definitions/Class_definitions.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\OMtool\build_tools\Class_definitions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\MSEtool\build_tools\Class_definitions\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24040" windowHeight="14020" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24040" windowHeight="14020" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Stock" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="Obs" sheetId="5" r:id="rId3"/>
     <sheet name="Imp" sheetId="4" r:id="rId4"/>
     <sheet name="cpars" sheetId="3" r:id="rId5"/>
+    <sheet name="MSE" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="334">
   <si>
     <t>Slot</t>
   </si>
@@ -907,6 +908,129 @@
   </si>
   <si>
     <t xml:space="preserve">Miscellaneous list for bio-economic parameters </t>
+  </si>
+  <si>
+    <t>proyears</t>
+  </si>
+  <si>
+    <t>nMPs</t>
+  </si>
+  <si>
+    <t>MPs</t>
+  </si>
+  <si>
+    <t>nsim</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Imp</t>
+  </si>
+  <si>
+    <t>SB_SBMSY</t>
+  </si>
+  <si>
+    <t>F_FMSY</t>
+  </si>
+  <si>
+    <t>Hist</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>VB</t>
+  </si>
+  <si>
+    <t>SSB</t>
+  </si>
+  <si>
+    <t>FM</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>TAC</t>
+  </si>
+  <si>
+    <t>Effort</t>
+  </si>
+  <si>
+    <t>PPD</t>
+  </si>
+  <si>
+    <t>Name of the MSE object. Single value. Character string</t>
+  </si>
+  <si>
+    <t>The number of years for the historical simulation. Single value. Positive integer</t>
+  </si>
+  <si>
+    <t>The number of years for the projections - closed loop simulations. Single value. Positive integer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of management procedures simulation tested. Single value. Positive integer. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The names of the MPs that were tested. Vector of length nMPs. Character strings. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Number of simulations. Single value. Positive integer</t>
+  </si>
+  <si>
+    <t>Simulated spawning biomass relative to spawning BMSY over the projection. An array with dimensions: nsim, nMPs, proyears. Non-negative real numbers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simulated stock biomass over the projection. An array with dimensions: nsim, nMPs, proyears. Non-negative real numbers </t>
+  </si>
+  <si>
+    <t>Simulated fishing mortality rate relative to FMSY over the projection. An array with dimensions: nsim, nMPs, proyears. Non-negative real numbers</t>
+  </si>
+  <si>
+    <t>Simulated spawning stock biomass over the projection. An array with dimensions: nsim, nMPs, proyears. Non-negative real numbers</t>
+  </si>
+  <si>
+    <t>Simulated vulnerable biomass over the projection. An array with dimensions: nsim, nMPs, proyears. Non-negative real numbers</t>
+  </si>
+  <si>
+    <t>RefPoint</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Simulated fishing mortality rate over the projection. An array with dimensions: nsim, nMPs, proyears. Non-negative real numbers</t>
+  </si>
+  <si>
+    <t>TAE</t>
+  </si>
+  <si>
+    <t>Simulated relative fishing effort in the projection years. An array with dimensions: nsim, nMPs, proyears. Non-negative real numbers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miscellaneous output </t>
+  </si>
+  <si>
+    <t>Simulated catches (taken) over the projection. An array with dimensions: nsim, nMPs, proyears. Non-negative real numbers</t>
+  </si>
+  <si>
+    <t>Removals</t>
+  </si>
+  <si>
+    <t>Simulated removals (catch + discards) over the projection. An array with dimensions: nsim, nMPs, proyears. Non-negative real numbers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simulated Total Allowable Catch prescribed by MPs. An array with dimensions: nsim, nMPs, proyears. Non-negative real numbers </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simulated Total Allowable Effort prescribed by MPs. An array with dimensions: nsim, nMPs, proyears. Non-negative real numbers </t>
+  </si>
+  <si>
+    <t>Currently not used. Array to store bio-economic output for each MP and projection year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data from the historical spool-up period. Object of class `Hist` </t>
+  </si>
+  <si>
+    <t>Posterior predictive data. List of `Data` objects at the end of the projection period (length `nMPs`)</t>
   </si>
 </sst>
 </file>
@@ -1242,7 +1366,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="A1:G1"/>
+      <selection activeCell="D1" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="62.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1848,7 +1972,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
@@ -3429,4 +3553,218 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B4" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>294</v>
+      </c>
+      <c r="B5" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>295</v>
+      </c>
+      <c r="B6" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>296</v>
+      </c>
+      <c r="B7" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>299</v>
+      </c>
+      <c r="B11" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>300</v>
+      </c>
+      <c r="B12" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>302</v>
+      </c>
+      <c r="B13" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>304</v>
+      </c>
+      <c r="B14" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>303</v>
+      </c>
+      <c r="B15" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>305</v>
+      </c>
+      <c r="B16" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>306</v>
+      </c>
+      <c r="B17" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>327</v>
+      </c>
+      <c r="B18" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>308</v>
+      </c>
+      <c r="B19" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>307</v>
+      </c>
+      <c r="B20" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>323</v>
+      </c>
+      <c r="B21" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>227</v>
+      </c>
+      <c r="B22" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>301</v>
+      </c>
+      <c r="B24" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>309</v>
+      </c>
+      <c r="B25" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>290</v>
+      </c>
+      <c r="B26" t="s">
+        <v>325</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/build_tools/Class_definitions/Class_definitions.xlsx
+++ b/build_tools/Class_definitions/Class_definitions.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="340">
   <si>
     <t>Slot</t>
   </si>
@@ -925,9 +925,6 @@
     <t>OM</t>
   </si>
   <si>
-    <t>Imp</t>
-  </si>
-  <si>
     <t>SB_SBMSY</t>
   </si>
   <si>
@@ -1009,9 +1006,6 @@
     <t xml:space="preserve">Miscellaneous output </t>
   </si>
   <si>
-    <t>Simulated catches (taken) over the projection. An array with dimensions: nsim, nMPs, proyears. Non-negative real numbers</t>
-  </si>
-  <si>
     <t>Removals</t>
   </si>
   <si>
@@ -1024,13 +1018,37 @@
     <t xml:space="preserve">Simulated Total Allowable Effort prescribed by MPs. An array with dimensions: nsim, nMPs, proyears. Non-negative real numbers </t>
   </si>
   <si>
-    <t>Currently not used. Array to store bio-economic output for each MP and projection year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data from the historical spool-up period. Object of class `Hist` </t>
-  </si>
-  <si>
     <t>Posterior predictive data. List of `Data` objects at the end of the projection period (length `nMPs`)</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Simulated total numbers over the projection. An array with dimensions: nsim, maxage+1, nMPs, proyears, nareas. Non-negative real numbers.</t>
+  </si>
+  <si>
+    <t>Simulated catches (landings) over the projection. An array with dimensions: nsim, nMPs, proyears. Non-negative real numbers</t>
+  </si>
+  <si>
+    <t>SPR</t>
+  </si>
+  <si>
+    <t>Operating model parameters (last historical year used for time-varying parameters). Data.frame with `nsim` rows</t>
+  </si>
+  <si>
+    <t>Observation parameters (last historical year used for time-varying parameters). Data.frame with `nsim` rows</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Currently not used. </t>
+  </si>
+  <si>
+    <t>Named list with bio-economic output Only used if bio-economic parameters are included in OM</t>
+  </si>
+  <si>
+    <t>Named list of annual MSY reference points MSY, FMSY, and SBMSY. Array with dimensions: nsim, nMPs, nyears+proyears. Will be the same as `Hist@Ref$ByYear` unless selectivity is changed by MP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Information from the historical spool-up period. Object of class `Hist` </t>
   </si>
 </sst>
 </file>
@@ -3557,10 +3575,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3581,7 +3599,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -3589,7 +3607,7 @@
         <v>88</v>
       </c>
       <c r="B3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -3597,7 +3615,7 @@
         <v>293</v>
       </c>
       <c r="B4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -3605,7 +3623,7 @@
         <v>294</v>
       </c>
       <c r="B5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -3613,7 +3631,7 @@
         <v>295</v>
       </c>
       <c r="B6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -3621,94 +3639,103 @@
         <v>296</v>
       </c>
       <c r="B7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>297</v>
       </c>
+      <c r="B8" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>193</v>
       </c>
+      <c r="B9" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>298</v>
       </c>
+      <c r="B10" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>299</v>
       </c>
       <c r="B11" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="B12" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B13" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B14" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B15" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B16" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>306</v>
+        <v>333</v>
       </c>
       <c r="B17" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>327</v>
+        <v>305</v>
       </c>
       <c r="B18" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>308</v>
+        <v>325</v>
       </c>
       <c r="B19" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -3716,52 +3743,63 @@
         <v>307</v>
       </c>
       <c r="B20" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="B21" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>227</v>
+        <v>322</v>
       </c>
       <c r="B22" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>321</v>
+        <v>227</v>
+      </c>
+      <c r="B23" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>301</v>
+        <v>320</v>
       </c>
       <c r="B24" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="B25" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
+        <v>308</v>
+      </c>
+      <c r="B26" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
         <v>290</v>
       </c>
-      <c r="B26" t="s">
-        <v>325</v>
+      <c r="B27" t="s">
+        <v>324</v>
       </c>
     </row>
   </sheetData>

--- a/build_tools/Class_definitions/Class_definitions.xlsx
+++ b/build_tools/Class_definitions/Class_definitions.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24040" windowHeight="14020" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24040" windowHeight="14020" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Stock" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="374">
   <si>
     <t>Slot</t>
   </si>
@@ -814,9 +814,6 @@
     <t>Iobs</t>
   </si>
   <si>
-    <t>Ibiascv</t>
-  </si>
-  <si>
     <t>Btobs</t>
   </si>
   <si>
@@ -847,9 +844,6 @@
     <t>LFSbiascv</t>
   </si>
   <si>
-    <t>FMSYbiascv</t>
-  </si>
-  <si>
     <t>FMSY_Mbiascv</t>
   </si>
   <si>
@@ -1049,6 +1043,114 @@
   </si>
   <si>
     <t xml:space="preserve">Information from the historical spool-up period. Object of class `Hist` </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mean fraction of TAC taken. Uniform distribution lower and upper bounds. Positive real number. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Log-normal coefficient of variation in the fraction of Total Allowable Catch (TAC) taken. Uniform distribution lower and upper bounds. Non-negative real numbers. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean fraction of TAE taken. Uniform distribution lower and upper bounds. Positive real number. </t>
+  </si>
+  <si>
+    <t>Log-normal coefficient of variation in the fraction of Total Allowable Effort (TAE) taken. Uniform distribution lower and upper bounds. Non-negative real numbers.</t>
+  </si>
+  <si>
+    <t>The real minimum size that is retained expressed as a fraction of the size of retention. Uniform distribution lower and upper bounds. Positive real number.</t>
+  </si>
+  <si>
+    <t>Log-normal coefficient of variation controlling mismatch between a minimum size limit and the real minimum size retained. Uniform distribution lower and upper bounds. Non-negative real numbers.</t>
+  </si>
+  <si>
+    <t>sigmaRbiascv</t>
+  </si>
+  <si>
+    <t>The name of the Implementation error object. Single value. Character string.</t>
+  </si>
+  <si>
+    <t>The name of the Observation error object. Single value. Character string.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Log-normal catch observation error expressed as a coefficient of variation. Uniform distribution lower and upper bounds. Non-negative real numbers </t>
+  </si>
+  <si>
+    <t>Log-normal coefficient of variation controlling the sampling of bias in catch observations for each simulation. Single value.  Non-negative real number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of catch-at-age observation per time step. Uniform distribution lower and upper bounds. Positive real numbers   </t>
+  </si>
+  <si>
+    <t>Effective sample size (independent age draws) of the multinomial catch-at-age observation error model. Uniform distribution lower and upper bounds. Positive integers</t>
+  </si>
+  <si>
+    <t>Number of catch-at-length observation per time step. Uniform distribution lower and upper bounds. Positive integers</t>
+  </si>
+  <si>
+    <t>Effective sample size (independent length draws) of the multinomial catch-at-length observation error model. Uniform distribution lower and upper bounds. Positive integers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Observation error in the relative abundance indices expressed as a coefficient of variation. Uniform distribution lower and upper bounds. Positive real numbers  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Log-normal coefficient of variation controlling error in observations of current stock biomass among years. Uniform distribution lower and upper bounds. Positive real numbers </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uniform-log bounds for sampling persistent bias in current stock biomass. Uniform-log distribution lower and upper bounds. Positive real numbers </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A parameter controlling hyperstability/hyperdepletion where values below 1 lead to hyperstability (an index that decreases slower than true abundance) and values above 1 lead to hyperdepletion (an index that decreases more rapidly than true abundance). Uniform distribution lower and upper bounds. Positive real numbers </t>
+  </si>
+  <si>
+    <t>Log-normal coefficient of variation for sampling persistent bias in length at 50 percent maturity. Single value. Positive real numbers</t>
+  </si>
+  <si>
+    <t>Log-normal coefficient of variation for sampling persistent bias in observed natural mortality rate. Single value. Positive real number</t>
+  </si>
+  <si>
+    <t>Log-normal coefficient of variation for sampling persistent bias in observed growth parameter K. Single value. Positive real number</t>
+  </si>
+  <si>
+    <t>Log-normal coefficient of variation for sampling persistent bias in observed t0. Single value. Positive real number</t>
+  </si>
+  <si>
+    <t>Log-normal coefficient of variation for sampling persistent bias in observed maximum length. Single value. Positive real number</t>
+  </si>
+  <si>
+    <t>Log-normal coefficient of variation for sampling persistent bias in observed length at first capture. Single value. Positive real number</t>
+  </si>
+  <si>
+    <t>Log-normal coefficient of variation for sampling persistent bias in length-at-full selection. Single value. Positive real number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Log-normal coefficient of variation for sampling persistent bias in recent recruitment strength. Uniform distribution lower and upper bounds. Positive real numbers </t>
+  </si>
+  <si>
+    <t>Log-normal coefficient of variation for sampling persistent bias in steepness. Single value. Positive real number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Log-normal coefficient of variation controlling error in observations of stock depletion among years. Uniform distribution lower and upper bounds. Positive real numbers </t>
+  </si>
+  <si>
+    <t>Log-normal coefficient of variation for sampling persistent bias in stock depletion. Single value. Positive real number</t>
+  </si>
+  <si>
+    <t>Log-normal coefficient of variation for sampling persistent bias in MSY.  Single value. Positive real number</t>
+  </si>
+  <si>
+    <t>Log-normal coefficient of variation for sampling persistent bias in BMSY.  Single value. Positive real number</t>
+  </si>
+  <si>
+    <t>Log-normal coefficient of variation for sampling persistent bias in BMSY relative to unfished.  Single value. Positive real number</t>
+  </si>
+  <si>
+    <t>Log-normal coefficient of variation for sampling persistent bias in FMSY/M. Single value. Positive real number</t>
+  </si>
+  <si>
+    <t>Log-normal coefficeint of variation for sampling persistent bias in recruitment variability.  Single value. Positive real number</t>
+  </si>
+  <si>
+    <t>Log-normal coefficient of variation for sampling persistent bias in relative abundance index at BMSY.  Single value. Positive real number</t>
   </si>
 </sst>
 </file>
@@ -2313,7 +2415,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>111</v>
@@ -2322,18 +2424,18 @@
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>290</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -2343,18 +2445,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="A1:G1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13.6328125" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="4" max="4" width="53.90625" customWidth="1"/>
-    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="4" max="4" width="127.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7265625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.81640625" customWidth="1"/>
     <col min="7" max="7" width="13.1796875" customWidth="1"/>
   </cols>
@@ -2389,6 +2491,12 @@
       <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="D2" t="s">
+        <v>346</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
@@ -2397,6 +2505,9 @@
       <c r="B3" t="s">
         <v>20</v>
       </c>
+      <c r="D3" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
@@ -2405,6 +2516,9 @@
       <c r="B4" t="s">
         <v>20</v>
       </c>
+      <c r="D4" t="s">
+        <v>348</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
@@ -2413,6 +2527,9 @@
       <c r="B5" t="s">
         <v>20</v>
       </c>
+      <c r="D5" t="s">
+        <v>349</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
@@ -2421,6 +2538,9 @@
       <c r="B6" t="s">
         <v>20</v>
       </c>
+      <c r="D6" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
@@ -2429,6 +2549,9 @@
       <c r="B7" t="s">
         <v>20</v>
       </c>
+      <c r="D7" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
@@ -2437,6 +2560,9 @@
       <c r="B8" t="s">
         <v>20</v>
       </c>
+      <c r="D8" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
@@ -2445,6 +2571,9 @@
       <c r="B9" t="s">
         <v>20</v>
       </c>
+      <c r="D9" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
@@ -2453,6 +2582,9 @@
       <c r="B10" t="s">
         <v>20</v>
       </c>
+      <c r="D10" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
@@ -2461,6 +2593,9 @@
       <c r="B11" t="s">
         <v>20</v>
       </c>
+      <c r="D11" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
@@ -2469,6 +2604,9 @@
       <c r="B12" t="s">
         <v>20</v>
       </c>
+      <c r="D12" t="s">
+        <v>356</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
@@ -2477,6 +2615,9 @@
       <c r="B13" t="s">
         <v>20</v>
       </c>
+      <c r="D13" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
@@ -2485,6 +2626,9 @@
       <c r="B14" t="s">
         <v>20</v>
       </c>
+      <c r="D14" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
@@ -2493,6 +2637,9 @@
       <c r="B15" t="s">
         <v>20</v>
       </c>
+      <c r="D15" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
@@ -2501,117 +2648,151 @@
       <c r="B16" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D16" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>268</v>
       </c>
       <c r="B17" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D17" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>269</v>
       </c>
       <c r="B18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D18" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>270</v>
       </c>
       <c r="B19" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D19" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>271</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D20" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>272</v>
       </c>
       <c r="B21" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D21" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>273</v>
       </c>
       <c r="B22" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D22" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>274</v>
       </c>
       <c r="B23" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D23" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>275</v>
       </c>
       <c r="B24" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D24" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>276</v>
       </c>
       <c r="B25" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D25" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>277</v>
       </c>
       <c r="B26" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D26" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>278</v>
       </c>
       <c r="B27" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D27" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>279</v>
       </c>
       <c r="B28" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D28" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>280</v>
+        <v>344</v>
       </c>
       <c r="B29" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>281</v>
-      </c>
-      <c r="B30" t="s">
-        <v>20</v>
+      <c r="D29" t="s">
+        <v>372</v>
       </c>
     </row>
   </sheetData>
@@ -2624,15 +2805,19 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="83.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6328125" customWidth="1"/>
+    <col min="6" max="6" width="15.6328125" customWidth="1"/>
+    <col min="7" max="7" width="14.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2662,53 +2847,98 @@
       <c r="B2" t="s">
         <v>9</v>
       </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>345</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -3577,7 +3807,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
@@ -3599,7 +3829,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -3607,47 +3837,47 @@
         <v>88</v>
       </c>
       <c r="B3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B6" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B8" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -3655,111 +3885,111 @@
         <v>193</v>
       </c>
       <c r="B9" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B10" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B11" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B12" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B13" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B14" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B15" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B16" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B17" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B18" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B19" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B20" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B21" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B22" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
@@ -3767,39 +3997,39 @@
         <v>227</v>
       </c>
       <c r="B23" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B24" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B25" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B26" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B27" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
   </sheetData>

--- a/build_tools/Class_definitions/Class_definitions.xlsx
+++ b/build_tools/Class_definitions/Class_definitions.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24040" windowHeight="14020" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24040" windowHeight="14020" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Stock" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Imp" sheetId="4" r:id="rId4"/>
     <sheet name="cpars" sheetId="3" r:id="rId5"/>
     <sheet name="MSE" sheetId="6" r:id="rId6"/>
+    <sheet name="Data" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="521">
   <si>
     <t>Slot</t>
   </si>
@@ -1151,6 +1152,447 @@
   </si>
   <si>
     <t>Log-normal coefficient of variation for sampling persistent bias in relative abundance index at BMSY.  Single value. Positive real number</t>
+  </si>
+  <si>
+    <t>Common Name</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Last Historical Year</t>
+  </si>
+  <si>
+    <t>Previous TAC</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Previous TAE</t>
+  </si>
+  <si>
+    <t>nareas</t>
+  </si>
+  <si>
+    <t>Biology</t>
+  </si>
+  <si>
+    <t>Maximum age</t>
+  </si>
+  <si>
+    <t>CV M</t>
+  </si>
+  <si>
+    <t>Von Bertalanffy Linf parameter</t>
+  </si>
+  <si>
+    <t>CV von B. Linf parameter</t>
+  </si>
+  <si>
+    <t>Von Bertalanffy K parameter</t>
+  </si>
+  <si>
+    <t>CV von B. K parameter</t>
+  </si>
+  <si>
+    <t>Von Bertalanffy t0 parameter</t>
+  </si>
+  <si>
+    <t>CV von B. t0 parameter</t>
+  </si>
+  <si>
+    <t>Length-weight parameter a</t>
+  </si>
+  <si>
+    <t>CV Length-weight parameter a</t>
+  </si>
+  <si>
+    <t>Length-weight parameter b</t>
+  </si>
+  <si>
+    <t>CV Length-weight parameter b</t>
+  </si>
+  <si>
+    <t>CV Steepness</t>
+  </si>
+  <si>
+    <t>sigmaR</t>
+  </si>
+  <si>
+    <t>CV sigmaR</t>
+  </si>
+  <si>
+    <t>CV Length at 50% maturity</t>
+  </si>
+  <si>
+    <t>CV of length-at-age</t>
+  </si>
+  <si>
+    <t>Selectivity</t>
+  </si>
+  <si>
+    <t>Length at first capture</t>
+  </si>
+  <si>
+    <t>CV Length at first capture</t>
+  </si>
+  <si>
+    <t>Length at full selection</t>
+  </si>
+  <si>
+    <t>CV Length at full selection</t>
+  </si>
+  <si>
+    <t>Vulnerability at asymptotic length</t>
+  </si>
+  <si>
+    <t>Time-Series</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Catch</t>
+  </si>
+  <si>
+    <t>CV Catch</t>
+  </si>
+  <si>
+    <t>CV Effort</t>
+  </si>
+  <si>
+    <t>Abundance index</t>
+  </si>
+  <si>
+    <t>CV Abundance index</t>
+  </si>
+  <si>
+    <t>Spawning Abundance index</t>
+  </si>
+  <si>
+    <t>CV Spawning Abundance index</t>
+  </si>
+  <si>
+    <t>Vulnerable Abundance index</t>
+  </si>
+  <si>
+    <t>CV Vulnerable Abundance index</t>
+  </si>
+  <si>
+    <t>Index 1</t>
+  </si>
+  <si>
+    <t>CV Index 1</t>
+  </si>
+  <si>
+    <t>Vuln Index 1</t>
+  </si>
+  <si>
+    <t>Index 2</t>
+  </si>
+  <si>
+    <t>CV Index 2</t>
+  </si>
+  <si>
+    <t>Vuln Index 2</t>
+  </si>
+  <si>
+    <t>Recruitment index</t>
+  </si>
+  <si>
+    <t>CV Recruitment index</t>
+  </si>
+  <si>
+    <t>Mean length</t>
+  </si>
+  <si>
+    <t>Modal length (Lc)</t>
+  </si>
+  <si>
+    <t>Mean length above Lc</t>
+  </si>
+  <si>
+    <t>Catch-at-Age</t>
+  </si>
+  <si>
+    <t>Vuln CAA</t>
+  </si>
+  <si>
+    <t>CAA</t>
+  </si>
+  <si>
+    <t>Catch-at-Length</t>
+  </si>
+  <si>
+    <t>Vuln CAL</t>
+  </si>
+  <si>
+    <t>CAL_mids</t>
+  </si>
+  <si>
+    <t>CAL</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>Current stock depletion</t>
+  </si>
+  <si>
+    <t>CV current stock depletion</t>
+  </si>
+  <si>
+    <t>Current stock abundance</t>
+  </si>
+  <si>
+    <t>CV current stock abundance</t>
+  </si>
+  <si>
+    <t>Current spawning abundance</t>
+  </si>
+  <si>
+    <t>CV current spawning abundance</t>
+  </si>
+  <si>
+    <t>FMSY/M</t>
+  </si>
+  <si>
+    <t>CV FMSY/M</t>
+  </si>
+  <si>
+    <t>BMSY/B0</t>
+  </si>
+  <si>
+    <t>CV BMSY/B0</t>
+  </si>
+  <si>
+    <t>Catch Reference</t>
+  </si>
+  <si>
+    <t>CV Catch Reference</t>
+  </si>
+  <si>
+    <t>Biomass Reference</t>
+  </si>
+  <si>
+    <t>CV Biomass Reference</t>
+  </si>
+  <si>
+    <t>Index Reference</t>
+  </si>
+  <si>
+    <t>CV Index Reference</t>
+  </si>
+  <si>
+    <t>Duration t</t>
+  </si>
+  <si>
+    <t>Average catch over time t</t>
+  </si>
+  <si>
+    <t>CV Average catch over time t</t>
+  </si>
+  <si>
+    <t>Depletion over time t</t>
+  </si>
+  <si>
+    <t>CV Depletion over time t</t>
+  </si>
+  <si>
+    <t>Reference OFL</t>
+  </si>
+  <si>
+    <t>Reference OFL type</t>
+  </si>
+  <si>
+    <t>Numeric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Region </t>
+  </si>
+  <si>
+    <t>LHYear</t>
+  </si>
+  <si>
+    <t>MPrec</t>
+  </si>
+  <si>
+    <t>MPeff</t>
+  </si>
+  <si>
+    <t>MaxAge</t>
+  </si>
+  <si>
+    <t>Mort</t>
+  </si>
+  <si>
+    <t>CV_Mort</t>
+  </si>
+  <si>
+    <t>vbLinf</t>
+  </si>
+  <si>
+    <t>vbK</t>
+  </si>
+  <si>
+    <t>CV_vbLinf</t>
+  </si>
+  <si>
+    <t>CV_vbK</t>
+  </si>
+  <si>
+    <t>vbt0</t>
+  </si>
+  <si>
+    <t>CV_vbt0</t>
+  </si>
+  <si>
+    <t>wla</t>
+  </si>
+  <si>
+    <t>CV_wla</t>
+  </si>
+  <si>
+    <t>wlb</t>
+  </si>
+  <si>
+    <t>CV_wlb</t>
+  </si>
+  <si>
+    <t>steep</t>
+  </si>
+  <si>
+    <t>CV_steep</t>
+  </si>
+  <si>
+    <t>CV_sigmaR</t>
+  </si>
+  <si>
+    <t>CV_L50</t>
+  </si>
+  <si>
+    <t>LFC</t>
+  </si>
+  <si>
+    <t>CV_LFC</t>
+  </si>
+  <si>
+    <t>CV_LFS</t>
+  </si>
+  <si>
+    <t>Cat</t>
+  </si>
+  <si>
+    <t>CV_Cat</t>
+  </si>
+  <si>
+    <t>CV_Effort</t>
+  </si>
+  <si>
+    <t>Ind</t>
+  </si>
+  <si>
+    <t>CV_Ind</t>
+  </si>
+  <si>
+    <t>SpInd</t>
+  </si>
+  <si>
+    <t>CV_SpInd</t>
+  </si>
+  <si>
+    <t>VInd</t>
+  </si>
+  <si>
+    <t>CV_VInd</t>
+  </si>
+  <si>
+    <t>Rec</t>
+  </si>
+  <si>
+    <t>CV_Rec</t>
+  </si>
+  <si>
+    <t>ML</t>
+  </si>
+  <si>
+    <t>Lc</t>
+  </si>
+  <si>
+    <t>Lbar</t>
+  </si>
+  <si>
+    <t>Dep</t>
+  </si>
+  <si>
+    <t>Ref</t>
+  </si>
+  <si>
+    <t>CV_Dep</t>
+  </si>
+  <si>
+    <t>Abun</t>
+  </si>
+  <si>
+    <t>CV_Abun</t>
+  </si>
+  <si>
+    <t>SpAbun</t>
+  </si>
+  <si>
+    <t>CV_SpAbun</t>
+  </si>
+  <si>
+    <t>FMSY_M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CV_FMSY_M </t>
+  </si>
+  <si>
+    <t>BMSY_B0</t>
+  </si>
+  <si>
+    <t>CV_BMSY_B0</t>
+  </si>
+  <si>
+    <t>Cref</t>
+  </si>
+  <si>
+    <t>Iref</t>
+  </si>
+  <si>
+    <t>CV_Cref</t>
+  </si>
+  <si>
+    <t>Bref</t>
+  </si>
+  <si>
+    <t>CV_Bref</t>
+  </si>
+  <si>
+    <t>CV_Iref</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>AvC</t>
+  </si>
+  <si>
+    <t>CV_AvC</t>
+  </si>
+  <si>
+    <t>Dt</t>
+  </si>
+  <si>
+    <t>CV_Dt</t>
+  </si>
+  <si>
+    <t>Timeseries</t>
+  </si>
+  <si>
+    <t>Ref_type</t>
   </si>
 </sst>
 </file>
@@ -1174,12 +1616,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1194,7 +1642,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1203,6 +1651,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2447,7 +2896,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
@@ -4035,4 +4484,826 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D100"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B101" sqref="B101"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="28.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>374</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>375</v>
+      </c>
+      <c r="B5" t="s">
+        <v>459</v>
+      </c>
+      <c r="C5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>376</v>
+      </c>
+      <c r="B6" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>377</v>
+      </c>
+      <c r="B7" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>378</v>
+      </c>
+      <c r="B8" t="s">
+        <v>378</v>
+      </c>
+      <c r="C8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>379</v>
+      </c>
+      <c r="B9" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>380</v>
+      </c>
+      <c r="B10" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>382</v>
+      </c>
+      <c r="B13" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>383</v>
+      </c>
+      <c r="B15" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>384</v>
+      </c>
+      <c r="B16" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>385</v>
+      </c>
+      <c r="B17" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>386</v>
+      </c>
+      <c r="B18" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>387</v>
+      </c>
+      <c r="B19" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>388</v>
+      </c>
+      <c r="B20" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>389</v>
+      </c>
+      <c r="B21" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>390</v>
+      </c>
+      <c r="B22" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>391</v>
+      </c>
+      <c r="B23" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>392</v>
+      </c>
+      <c r="B24" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>393</v>
+      </c>
+      <c r="B25" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>394</v>
+      </c>
+      <c r="B27" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>395</v>
+      </c>
+      <c r="B28" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>396</v>
+      </c>
+      <c r="B29" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>397</v>
+      </c>
+      <c r="B31" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>133</v>
+      </c>
+      <c r="B32" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>398</v>
+      </c>
+      <c r="B33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>400</v>
+      </c>
+      <c r="B36" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>401</v>
+      </c>
+      <c r="B37" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>402</v>
+      </c>
+      <c r="B38" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>403</v>
+      </c>
+      <c r="B39" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>404</v>
+      </c>
+      <c r="B40" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>406</v>
+      </c>
+      <c r="B43" t="s">
+        <v>406</v>
+      </c>
+      <c r="D43" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>407</v>
+      </c>
+      <c r="B44" t="s">
+        <v>483</v>
+      </c>
+      <c r="D44" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>408</v>
+      </c>
+      <c r="B45" t="s">
+        <v>484</v>
+      </c>
+      <c r="D45" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>305</v>
+      </c>
+      <c r="B46" t="s">
+        <v>305</v>
+      </c>
+      <c r="D46" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>409</v>
+      </c>
+      <c r="B47" t="s">
+        <v>485</v>
+      </c>
+      <c r="D47" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>410</v>
+      </c>
+      <c r="B48" t="s">
+        <v>486</v>
+      </c>
+      <c r="D48" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>411</v>
+      </c>
+      <c r="B49" t="s">
+        <v>487</v>
+      </c>
+      <c r="D49" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>412</v>
+      </c>
+      <c r="B50" t="s">
+        <v>488</v>
+      </c>
+      <c r="D50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>413</v>
+      </c>
+      <c r="B51" t="s">
+        <v>489</v>
+      </c>
+      <c r="D51" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>414</v>
+      </c>
+      <c r="B52" t="s">
+        <v>490</v>
+      </c>
+      <c r="D52" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>415</v>
+      </c>
+      <c r="B53" t="s">
+        <v>491</v>
+      </c>
+      <c r="D53" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D54" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="D55" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="D56" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="D57" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="D58" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="D59" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="D60" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>422</v>
+      </c>
+      <c r="B61" t="s">
+        <v>492</v>
+      </c>
+      <c r="D61" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>423</v>
+      </c>
+      <c r="B62" t="s">
+        <v>493</v>
+      </c>
+      <c r="D62" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>424</v>
+      </c>
+      <c r="B63" t="s">
+        <v>494</v>
+      </c>
+      <c r="D63" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>425</v>
+      </c>
+      <c r="B64" t="s">
+        <v>495</v>
+      </c>
+      <c r="D64" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>426</v>
+      </c>
+      <c r="B65" t="s">
+        <v>496</v>
+      </c>
+      <c r="D65" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A68" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="D68" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>429</v>
+      </c>
+      <c r="D69" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A71" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A72" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="D72" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>124</v>
+      </c>
+      <c r="D73" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>432</v>
+      </c>
+      <c r="D74" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>433</v>
+      </c>
+      <c r="D75" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A77" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>435</v>
+      </c>
+      <c r="B78" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>436</v>
+      </c>
+      <c r="B79" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>437</v>
+      </c>
+      <c r="B80" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>438</v>
+      </c>
+      <c r="B81" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>439</v>
+      </c>
+      <c r="B82" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>440</v>
+      </c>
+      <c r="B83" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>441</v>
+      </c>
+      <c r="B84" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>442</v>
+      </c>
+      <c r="B85" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>443</v>
+      </c>
+      <c r="B86" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>444</v>
+      </c>
+      <c r="B87" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>445</v>
+      </c>
+      <c r="B88" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>446</v>
+      </c>
+      <c r="B89" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>447</v>
+      </c>
+      <c r="B90" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>448</v>
+      </c>
+      <c r="B91" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>449</v>
+      </c>
+      <c r="B92" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>450</v>
+      </c>
+      <c r="B93" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>451</v>
+      </c>
+      <c r="B94" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>452</v>
+      </c>
+      <c r="B95" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>453</v>
+      </c>
+      <c r="B96" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>454</v>
+      </c>
+      <c r="B97" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>455</v>
+      </c>
+      <c r="B98" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>456</v>
+      </c>
+      <c r="B99" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>457</v>
+      </c>
+      <c r="B100" t="s">
+        <v>520</v>
+      </c>
+      <c r="C100" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/build_tools/Class_definitions/Class_definitions.xlsx
+++ b/build_tools/Class_definitions/Class_definitions.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\MSEtool\build_tools\Class_definitions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adrian\Documents\GitHub\MSEtool\build_tools\Class_definitions\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC5CF2D-DE80-42D3-AB64-FF29FAF366F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24040" windowHeight="14020" activeTab="6"/>
+    <workbookView xWindow="28680" yWindow="-2385" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stock" sheetId="1" r:id="rId1"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="530">
   <si>
     <t>Slot</t>
   </si>
@@ -941,9 +942,6 @@
     <t>FM</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>TAC</t>
   </si>
   <si>
@@ -1043,9 +1041,6 @@
     <t>Named list of annual MSY reference points MSY, FMSY, and SBMSY. Array with dimensions: nsim, nMPs, nyears+proyears. Will be the same as `Hist@Ref$ByYear` unless selectivity is changed by MP</t>
   </si>
   <si>
-    <t xml:space="preserve">Information from the historical spool-up period. Object of class `Hist` </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Mean fraction of TAC taken. Uniform distribution lower and upper bounds. Positive real number. </t>
   </si>
   <si>
@@ -1593,12 +1588,45 @@
   </si>
   <si>
     <t>Ref_type</t>
+  </si>
+  <si>
+    <t>CB_hist</t>
+  </si>
+  <si>
+    <t>FM_hist</t>
+  </si>
+  <si>
+    <t>SSB_hist</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Simulated fishing mortality rate from the spool-up period. An array with dimensions: nsim, nyears Non-negative real numbers</t>
+  </si>
+  <si>
+    <t>Simulated catches (landings) from the spool-up period. An array with dimensions: nsim, nyears. Non-negative real numbers</t>
+  </si>
+  <si>
+    <t>Simulated spawning stock biomass from the spool-up period. An array with dimensions: nsim, nyears. Non-negative real numbers</t>
+  </si>
+  <si>
+    <t>Information from the historical spool-up period. Object of class `Hist`. Only returned if `extended=TRUE` in `runMSE`</t>
+  </si>
+  <si>
+    <t>Eobs</t>
+  </si>
+  <si>
+    <t>Ebiascv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Log-normal effort observation error expressed as a coefficient of variation. Uniform distribution lower and upper bounds. Non-negative real numbers </t>
+  </si>
+  <si>
+    <t>Log-normal coefficient of variation controlling the sampling of bias in effort observations for each simulation. Single value.  Non-negative real number</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1931,25 +1959,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="62.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="62.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="106.81640625" customWidth="1"/>
-    <col min="5" max="5" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="106.85546875" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="38" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.54296875" customWidth="1"/>
+    <col min="7" max="7" width="32.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1972,7 +2000,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -1991,7 +2019,7 @@
       </c>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -2010,7 +2038,7 @@
       </c>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
@@ -2029,7 +2057,7 @@
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
@@ -2050,7 +2078,7 @@
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>19</v>
       </c>
@@ -2071,7 +2099,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>24</v>
       </c>
@@ -2092,7 +2120,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>27</v>
       </c>
@@ -2113,7 +2141,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>30</v>
       </c>
@@ -2134,7 +2162,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>33</v>
       </c>
@@ -2155,7 +2183,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>36</v>
       </c>
@@ -2176,7 +2204,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>39</v>
       </c>
@@ -2197,7 +2225,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>42</v>
       </c>
@@ -2218,7 +2246,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>45</v>
       </c>
@@ -2239,7 +2267,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>48</v>
       </c>
@@ -2260,7 +2288,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>51</v>
       </c>
@@ -2281,7 +2309,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>54</v>
       </c>
@@ -2302,7 +2330,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>57</v>
       </c>
@@ -2323,7 +2351,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>60</v>
       </c>
@@ -2344,7 +2372,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>63</v>
       </c>
@@ -2365,7 +2393,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>66</v>
       </c>
@@ -2386,7 +2414,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>69</v>
       </c>
@@ -2407,7 +2435,7 @@
       </c>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>71</v>
       </c>
@@ -2428,7 +2456,7 @@
       </c>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>73</v>
       </c>
@@ -2449,7 +2477,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>76</v>
       </c>
@@ -2470,7 +2498,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>79</v>
       </c>
@@ -2491,7 +2519,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>82</v>
       </c>
@@ -2512,7 +2540,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>85</v>
       </c>
@@ -2538,26 +2566,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.90625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9.6328125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="4.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="95.6328125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="16.26953125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.54296875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="28.90625" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="8.7265625" style="3"/>
+    <col min="1" max="1" width="9.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="4.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="95.5703125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="28.85546875" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="8.7109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2580,7 +2608,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -2597,7 +2625,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>88</v>
       </c>
@@ -2617,7 +2645,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>90</v>
       </c>
@@ -2637,7 +2665,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>92</v>
       </c>
@@ -2654,7 +2682,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>94</v>
       </c>
@@ -2671,7 +2699,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>96</v>
       </c>
@@ -2688,7 +2716,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>98</v>
       </c>
@@ -2708,7 +2736,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>100</v>
       </c>
@@ -2722,7 +2750,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>102</v>
       </c>
@@ -2736,7 +2764,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>104</v>
       </c>
@@ -2750,7 +2778,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>106</v>
       </c>
@@ -2764,7 +2792,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>108</v>
       </c>
@@ -2778,7 +2806,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>110</v>
       </c>
@@ -2792,7 +2820,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>113</v>
       </c>
@@ -2806,7 +2834,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>115</v>
       </c>
@@ -2820,7 +2848,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>117</v>
       </c>
@@ -2834,7 +2862,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>119</v>
       </c>
@@ -2848,7 +2876,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>121</v>
       </c>
@@ -2862,7 +2890,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>286</v>
       </c>
@@ -2876,7 +2904,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>288</v>
       </c>
@@ -2893,24 +2921,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.6328125" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="4" max="4" width="127.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.81640625" customWidth="1"/>
-    <col min="7" max="7" width="13.1796875" customWidth="1"/>
+    <col min="4" max="4" width="127.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2933,7 +2961,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -2941,13 +2969,13 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>254</v>
       </c>
@@ -2955,10 +2983,10 @@
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>255</v>
       </c>
@@ -2966,10 +2994,10 @@
         <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>256</v>
       </c>
@@ -2977,10 +3005,10 @@
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>257</v>
       </c>
@@ -2988,10 +3016,10 @@
         <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>258</v>
       </c>
@@ -2999,10 +3027,10 @@
         <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>259</v>
       </c>
@@ -3010,10 +3038,10 @@
         <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>260</v>
       </c>
@@ -3021,10 +3049,10 @@
         <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>261</v>
       </c>
@@ -3032,10 +3060,10 @@
         <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>262</v>
       </c>
@@ -3043,10 +3071,10 @@
         <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>263</v>
       </c>
@@ -3054,10 +3082,10 @@
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>264</v>
       </c>
@@ -3065,10 +3093,10 @@
         <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>265</v>
       </c>
@@ -3076,10 +3104,10 @@
         <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>266</v>
       </c>
@@ -3087,10 +3115,10 @@
         <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>267</v>
       </c>
@@ -3098,10 +3126,10 @@
         <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>268</v>
       </c>
@@ -3109,10 +3137,10 @@
         <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>269</v>
       </c>
@@ -3120,10 +3148,10 @@
         <v>20</v>
       </c>
       <c r="D18" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>270</v>
       </c>
@@ -3131,10 +3159,10 @@
         <v>20</v>
       </c>
       <c r="D19" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>271</v>
       </c>
@@ -3142,10 +3170,10 @@
         <v>20</v>
       </c>
       <c r="D20" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>272</v>
       </c>
@@ -3153,10 +3181,10 @@
         <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>273</v>
       </c>
@@ -3164,10 +3192,10 @@
         <v>20</v>
       </c>
       <c r="D22" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>274</v>
       </c>
@@ -3175,10 +3203,10 @@
         <v>20</v>
       </c>
       <c r="D23" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>275</v>
       </c>
@@ -3186,10 +3214,10 @@
         <v>20</v>
       </c>
       <c r="D24" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>276</v>
       </c>
@@ -3197,10 +3225,10 @@
         <v>20</v>
       </c>
       <c r="D25" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>277</v>
       </c>
@@ -3208,10 +3236,10 @@
         <v>20</v>
       </c>
       <c r="D26" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>278</v>
       </c>
@@ -3219,10 +3247,10 @@
         <v>20</v>
       </c>
       <c r="D27" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>279</v>
       </c>
@@ -3230,18 +3258,40 @@
         <v>20</v>
       </c>
       <c r="D28" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B29" t="s">
         <v>20</v>
       </c>
       <c r="D29" t="s">
-        <v>372</v>
+        <v>370</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>526</v>
+      </c>
+      <c r="B30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>527</v>
+      </c>
+      <c r="B31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" t="s">
+        <v>529</v>
       </c>
     </row>
   </sheetData>
@@ -3250,23 +3300,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="83.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.6328125" customWidth="1"/>
-    <col min="6" max="6" width="15.6328125" customWidth="1"/>
-    <col min="7" max="7" width="14.54296875" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="83.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3289,7 +3339,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -3300,13 +3350,13 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>280</v>
       </c>
@@ -3317,10 +3367,10 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>281</v>
       </c>
@@ -3331,10 +3381,10 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>282</v>
       </c>
@@ -3345,10 +3395,10 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>283</v>
       </c>
@@ -3359,10 +3409,10 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>284</v>
       </c>
@@ -3373,10 +3423,10 @@
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>285</v>
       </c>
@@ -3387,7 +3437,7 @@
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -3396,22 +3446,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D73"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.453125" customWidth="1"/>
-    <col min="3" max="3" width="49.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="3" max="3" width="49.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3425,73 +3475,73 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>124</v>
       </c>
@@ -3505,7 +3555,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>128</v>
       </c>
@@ -3519,7 +3569,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>131</v>
       </c>
@@ -3533,7 +3583,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>134</v>
       </c>
@@ -3547,7 +3597,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>137</v>
       </c>
@@ -3561,7 +3611,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>140</v>
       </c>
@@ -3575,7 +3625,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>143</v>
       </c>
@@ -3589,7 +3639,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>146</v>
       </c>
@@ -3603,7 +3653,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>148</v>
       </c>
@@ -3617,7 +3667,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>150</v>
       </c>
@@ -3631,7 +3681,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>152</v>
       </c>
@@ -3645,7 +3695,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>154</v>
       </c>
@@ -3659,7 +3709,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>156</v>
       </c>
@@ -3673,7 +3723,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>158</v>
       </c>
@@ -3687,7 +3737,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>161</v>
       </c>
@@ -3701,7 +3751,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>163</v>
       </c>
@@ -3715,7 +3765,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>165</v>
       </c>
@@ -3729,7 +3779,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>167</v>
       </c>
@@ -3743,7 +3793,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>169</v>
       </c>
@@ -3757,7 +3807,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>172</v>
       </c>
@@ -3771,7 +3821,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>174</v>
       </c>
@@ -3785,7 +3835,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>177</v>
       </c>
@@ -3799,7 +3849,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>181</v>
       </c>
@@ -3813,7 +3863,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>183</v>
       </c>
@@ -3827,7 +3877,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>185</v>
       </c>
@@ -3841,7 +3891,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>188</v>
       </c>
@@ -3855,7 +3905,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>190</v>
       </c>
@@ -3869,7 +3919,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>192</v>
       </c>
@@ -3883,7 +3933,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>195</v>
       </c>
@@ -3897,7 +3947,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>197</v>
       </c>
@@ -3911,7 +3961,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>199</v>
       </c>
@@ -3925,7 +3975,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>201</v>
       </c>
@@ -3939,7 +3989,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>203</v>
       </c>
@@ -3953,7 +4003,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>205</v>
       </c>
@@ -3967,7 +4017,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>207</v>
       </c>
@@ -3981,7 +4031,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>209</v>
       </c>
@@ -3995,7 +4045,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>211</v>
       </c>
@@ -4009,7 +4059,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>213</v>
       </c>
@@ -4023,7 +4073,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>215</v>
       </c>
@@ -4037,7 +4087,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>217</v>
       </c>
@@ -4051,7 +4101,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>219</v>
       </c>
@@ -4065,7 +4115,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>221</v>
       </c>
@@ -4079,7 +4129,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>223</v>
       </c>
@@ -4093,7 +4143,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>226</v>
       </c>
@@ -4107,7 +4157,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>229</v>
       </c>
@@ -4121,7 +4171,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>231</v>
       </c>
@@ -4135,7 +4185,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>233</v>
       </c>
@@ -4149,7 +4199,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>235</v>
       </c>
@@ -4163,7 +4213,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>237</v>
       </c>
@@ -4177,7 +4227,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>239</v>
       </c>
@@ -4191,7 +4241,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>242</v>
       </c>
@@ -4205,7 +4255,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>245</v>
       </c>
@@ -4219,7 +4269,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>248</v>
       </c>
@@ -4233,7 +4283,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>250</v>
       </c>
@@ -4253,19 +4303,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4273,234 +4323,259 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>88</v>
       </c>
       <c r="B3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>291</v>
       </c>
       <c r="B4" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>292</v>
       </c>
       <c r="B5" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>293</v>
       </c>
       <c r="B6" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>294</v>
       </c>
       <c r="B7" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>295</v>
       </c>
       <c r="B8" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>193</v>
       </c>
       <c r="B9" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>296</v>
       </c>
       <c r="B10" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>297</v>
       </c>
       <c r="B11" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>327</v>
+      </c>
+      <c r="B12" t="s">
         <v>328</v>
       </c>
-      <c r="B12" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>299</v>
       </c>
       <c r="B13" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>301</v>
       </c>
       <c r="B14" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>300</v>
       </c>
       <c r="B15" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>302</v>
       </c>
       <c r="B16" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>330</v>
+      </c>
+      <c r="B17" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>405</v>
+      </c>
+      <c r="B18" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>322</v>
+      </c>
+      <c r="B19" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>304</v>
+      </c>
+      <c r="B20" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>303</v>
+      </c>
+      <c r="B21" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>331</v>
-      </c>
-      <c r="B17" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>303</v>
-      </c>
-      <c r="B18" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>323</v>
-      </c>
-      <c r="B19" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>305</v>
-      </c>
-      <c r="B20" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>304</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>320</v>
-      </c>
-      <c r="B22" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>227</v>
       </c>
       <c r="B23" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>317</v>
+      </c>
+      <c r="B24" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>318</v>
-      </c>
-      <c r="B24" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>519</v>
+      </c>
+      <c r="B25" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>520</v>
+      </c>
+      <c r="B26" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>521</v>
+      </c>
+      <c r="B27" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>298</v>
       </c>
-      <c r="B25" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>306</v>
-      </c>
-      <c r="B26" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+      <c r="B28" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>305</v>
+      </c>
+      <c r="B29" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>288</v>
       </c>
-      <c r="B27" t="s">
-        <v>322</v>
+      <c r="B30" t="s">
+        <v>321</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="B101" sqref="B101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -4508,13 +4583,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -4525,9 +4600,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
@@ -4536,7 +4611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -4547,202 +4622,202 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B5" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>374</v>
+      </c>
+      <c r="B6" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>375</v>
+      </c>
+      <c r="B7" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>376</v>
       </c>
-      <c r="B6" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>377</v>
-      </c>
-      <c r="B7" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>378</v>
-      </c>
       <c r="B8" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>377</v>
+      </c>
+      <c r="B9" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>378</v>
+      </c>
+      <c r="B10" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="B9" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>380</v>
       </c>
-      <c r="B10" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>382</v>
-      </c>
       <c r="B13" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>24</v>
       </c>
       <c r="B14" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>381</v>
+      </c>
+      <c r="B15" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>382</v>
+      </c>
+      <c r="B16" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>383</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B17" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>384</v>
+      </c>
+      <c r="B18" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>384</v>
-      </c>
-      <c r="B16" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>385</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B19" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>386</v>
+      </c>
+      <c r="B20" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>386</v>
-      </c>
-      <c r="B18" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>387</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B21" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>388</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B22" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>389</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B23" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>390</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B24" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>391</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B25" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>392</v>
-      </c>
-      <c r="B24" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>393</v>
-      </c>
-      <c r="B25" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>32</v>
       </c>
       <c r="B26" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>392</v>
+      </c>
+      <c r="B27" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>393</v>
+      </c>
+      <c r="B28" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>394</v>
+      </c>
+      <c r="B29" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>394</v>
-      </c>
-      <c r="B27" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>395</v>
-      </c>
-      <c r="B28" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>396</v>
-      </c>
-      <c r="B29" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>62</v>
       </c>
@@ -4750,15 +4825,15 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B31" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>133</v>
       </c>
@@ -4766,328 +4841,328 @@
         <v>131</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B33" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>398</v>
+      </c>
+      <c r="B36" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
+      <c r="B37" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>400</v>
-      </c>
-      <c r="B36" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>401</v>
-      </c>
-      <c r="B37" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>402</v>
       </c>
       <c r="B38" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B39" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B40" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B43" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D43" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B44" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D44" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B45" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D45" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B46" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D46" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B47" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D47" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B48" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D48" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B49" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D49" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B50" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D50" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D51" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B52" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D52" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B53" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D53" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D54" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D55" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D56" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D57" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D58" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D59" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D60" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B61" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D61" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B62" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D62" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B63" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D63" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B64" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D64" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B65" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D65" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D68" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D69" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D72" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>124</v>
       </c>
@@ -5095,209 +5170,209 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D74" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D75" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>433</v>
+      </c>
+      <c r="B78" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
+      <c r="B79" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>435</v>
       </c>
-      <c r="B78" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
+      <c r="B80" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>436</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B81" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>437</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B82" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>438</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B83" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>439</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B84" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>440</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B85" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>441</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B86" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>442</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B87" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>443</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B88" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>444</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B89" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>445</v>
+      </c>
+      <c r="B90" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>446</v>
+      </c>
+      <c r="B91" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>447</v>
+      </c>
+      <c r="B92" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
-        <v>445</v>
-      </c>
-      <c r="B88" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A89" t="s">
-        <v>446</v>
-      </c>
-      <c r="B89" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A90" t="s">
-        <v>447</v>
-      </c>
-      <c r="B90" t="s">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>448</v>
+      </c>
+      <c r="B93" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A91" t="s">
-        <v>448</v>
-      </c>
-      <c r="B91" t="s">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>449</v>
+      </c>
+      <c r="B94" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A92" t="s">
-        <v>449</v>
-      </c>
-      <c r="B92" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A93" t="s">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
         <v>450</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B95" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A94" t="s">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
         <v>451</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B96" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A95" t="s">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
         <v>452</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B97" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A96" t="s">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
         <v>453</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B98" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A97" t="s">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
         <v>454</v>
       </c>
-      <c r="B97" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A98" t="s">
+      <c r="B99" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
         <v>455</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B100" t="s">
         <v>518</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A99" t="s">
-        <v>456</v>
-      </c>
-      <c r="B99" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A100" t="s">
-        <v>457</v>
-      </c>
-      <c r="B100" t="s">
-        <v>520</v>
       </c>
       <c r="C100" t="b">
         <v>0</v>

--- a/build_tools/Class_definitions/Class_definitions.xlsx
+++ b/build_tools/Class_definitions/Class_definitions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adrian\Documents\GitHub\MSEtool\build_tools\Class_definitions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC5CF2D-DE80-42D3-AB64-FF29FAF366F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44FFBA51-04A0-42DB-B305-5A972D750715}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-2385" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-2385" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stock" sheetId="1" r:id="rId1"/>
@@ -31,14 +31,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="600">
   <si>
     <t>Slot</t>
   </si>
   <si>
-    <t>Description</t>
-  </si>
-  <si>
     <t>Class</t>
   </si>
   <si>
@@ -375,9 +372,6 @@
     <t>LR5</t>
   </si>
   <si>
-    <t>Shortest length corresponding ot 5 percent retention. Uniform distribution lower and upper bounds. Non-negative real numbers</t>
-  </si>
-  <si>
     <t>LFR</t>
   </si>
   <si>
@@ -438,21 +432,9 @@
     <t>Perr_y</t>
   </si>
   <si>
-    <t>numeric matrix dim = c(nsim, maxage+proyears+nyears-1)</t>
-  </si>
-  <si>
     <t>Recruitment process error by simulation and year (plus maxage for initial age comp)</t>
   </si>
   <si>
-    <t>M_at_Length</t>
-  </si>
-  <si>
-    <t>numeric matrix dim = c(n.lengths, 3)</t>
-  </si>
-  <si>
-    <t>Data frame with column 1 lengths in absolute units, and colums 2:3 lower and upper bounds on M</t>
-  </si>
-  <si>
     <t>Asize</t>
   </si>
   <si>
@@ -510,9 +492,6 @@
     <t>M_ageArray</t>
   </si>
   <si>
-    <t>numeric array dim = c(nsim, maxage, nyears+proyears)</t>
-  </si>
-  <si>
     <t>M by simulation, age and year. No variability is added</t>
   </si>
   <si>
@@ -543,9 +522,6 @@
     <t>mov</t>
   </si>
   <si>
-    <t>numeric array dim = c(nsim, maxage, narea, narea) OR  dim = c(nsim, maxage, narea, narea, nyears+proyears)</t>
-  </si>
-  <si>
     <t>Movement matrix by simulation, age, and area (to and from) Optional by year</t>
   </si>
   <si>
@@ -648,12 +624,6 @@
     <t>Bias in observed LFC</t>
   </si>
   <si>
-    <t>FMSYbias</t>
-  </si>
-  <si>
-    <t>Bias in observed FMSY</t>
-  </si>
-  <si>
     <t>FMSY_Mbias</t>
   </si>
   <si>
@@ -1621,6 +1591,246 @@
   </si>
   <si>
     <t>Log-normal coefficient of variation controlling the sampling of bias in effort observations for each simulation. Single value.  Non-negative real number</t>
+  </si>
+  <si>
+    <t>hs</t>
+  </si>
+  <si>
+    <t>Steepness values</t>
+  </si>
+  <si>
+    <t>numeric matrix dim = c(nsim, maxage+proyears+nyears)</t>
+  </si>
+  <si>
+    <t>t0array</t>
+  </si>
+  <si>
+    <t>von B t0 by simulation and year. No variability is added</t>
+  </si>
+  <si>
+    <t>numeric array dim = c(nsim, maxage+1, nyears+proyears)</t>
+  </si>
+  <si>
+    <t>ageMarray</t>
+  </si>
+  <si>
+    <t>numeric matrix dim=c(nsim, proyears+nyears)</t>
+  </si>
+  <si>
+    <t>age of 50% maturity by simulation and year</t>
+  </si>
+  <si>
+    <t>age95array</t>
+  </si>
+  <si>
+    <t>age of 95% maturity by simulation and year</t>
+  </si>
+  <si>
+    <t>Marray</t>
+  </si>
+  <si>
+    <t>Mean M (mature) by simulation and year</t>
+  </si>
+  <si>
+    <t>numeric array dim = c(nsim, maxage+1, narea, narea) OR  dim = c(nsim, maxage+1, narea, narea, nyears+proyears)</t>
+  </si>
+  <si>
+    <t>qvar</t>
+  </si>
+  <si>
+    <t>numeric matrix dim =c(nsim, proyears)</t>
+  </si>
+  <si>
+    <t>Variability in catchability for projection years</t>
+  </si>
+  <si>
+    <t>Fdisc_array1</t>
+  </si>
+  <si>
+    <t>numeric array dim=c(nsim, maxage+1, nyears+proyears)</t>
+  </si>
+  <si>
+    <t>Discard mortality by simulation, age, and year (overrides Stock@Fdisc if used)</t>
+  </si>
+  <si>
+    <t>Fdisc_array2</t>
+  </si>
+  <si>
+    <t>numeric array dim=c(nsim, nLengthBins, nyears+proyears)</t>
+  </si>
+  <si>
+    <t>Discard mortality by simulation, length-class, and year (overrides Stock@Fdisc if used)</t>
+  </si>
+  <si>
+    <t>numeric matrix dim=c(nyears+proyears, nareas)</t>
+  </si>
+  <si>
+    <t>numeric matrix of fishing by year and area (0=closed, 1=open)</t>
+  </si>
+  <si>
+    <t>Csd</t>
+  </si>
+  <si>
+    <t>Catch observation standard deviation by simulation</t>
+  </si>
+  <si>
+    <t>Cbias</t>
+  </si>
+  <si>
+    <t>Catch bias by simulation</t>
+  </si>
+  <si>
+    <t>Cerr_y</t>
+  </si>
+  <si>
+    <t>numeric matrix dim=c(nsim, nyears+proyears)</t>
+  </si>
+  <si>
+    <t>Catch observation error by simulation and year</t>
+  </si>
+  <si>
+    <t>Isd</t>
+  </si>
+  <si>
+    <t>Abundance index obs error (log normal sd)</t>
+  </si>
+  <si>
+    <t>Ierr_y</t>
+  </si>
+  <si>
+    <t>SpIerr_y</t>
+  </si>
+  <si>
+    <t>VIerr_y</t>
+  </si>
+  <si>
+    <t>Derr</t>
+  </si>
+  <si>
+    <t>Derr_y</t>
+  </si>
+  <si>
+    <t>LFSbias</t>
+  </si>
+  <si>
+    <t>Aerr</t>
+  </si>
+  <si>
+    <t>Abias</t>
+  </si>
+  <si>
+    <t>Aerr_y</t>
+  </si>
+  <si>
+    <t>Recsd</t>
+  </si>
+  <si>
+    <t>Recerr_y</t>
+  </si>
+  <si>
+    <t>sigmaRbias</t>
+  </si>
+  <si>
+    <t>Eerr_y</t>
+  </si>
+  <si>
+    <t>Eobs_y</t>
+  </si>
+  <si>
+    <t>Bias in observed LFS</t>
+  </si>
+  <si>
+    <t>Observation error in total index by simulation and year</t>
+  </si>
+  <si>
+    <t>Observation error in total spawing index by simulation and year</t>
+  </si>
+  <si>
+    <t>Observation error in total vulnerable index by simulation and year</t>
+  </si>
+  <si>
+    <t>Mean depletion observation error</t>
+  </si>
+  <si>
+    <t>Observation error in depletion by simulation and year</t>
+  </si>
+  <si>
+    <t>Mean abundance observation error</t>
+  </si>
+  <si>
+    <t>Abundance bias by simulation</t>
+  </si>
+  <si>
+    <t>Observation error in abundance by simulation and year</t>
+  </si>
+  <si>
+    <t>Standard deviation of observation error in recruitment index</t>
+  </si>
+  <si>
+    <t>Observation error in recruitment by simulation and year</t>
+  </si>
+  <si>
+    <t>Bias in observed sigmaR</t>
+  </si>
+  <si>
+    <t>Effort observation error by simulation and year (Ebias added to this)</t>
+  </si>
+  <si>
+    <t>Effort observation error by simulation and year (no additional bias added)</t>
+  </si>
+  <si>
+    <t>Catchability increase for projection years</t>
+  </si>
+  <si>
+    <t>Catchability CV for projection years</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Shortest length corresponding to 5 percent vulnerability</t>
+  </si>
+  <si>
+    <t>Shortest length that is fully vulnerable to fishing</t>
+  </si>
+  <si>
+    <t>The vulnerability of fish at \code{Stock@Linf}</t>
+  </si>
+  <si>
+    <t>Shortest length corresponding at 5 percent retention. Uniform distribution lower and upper bounds. Non-negative real numbers</t>
+  </si>
+  <si>
+    <t>Shortest length corresponding at 5 percent retention</t>
+  </si>
+  <si>
+    <t>Shortest length that is fully retained</t>
+  </si>
+  <si>
+    <t>Discard rate - the fraction of caught fish that are discarded</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The retention of fish at \code{Stock@Linf}</t>
+  </si>
+  <si>
+    <t>bution of fishing in relation to spatial biomass: fishing distribution is proportional to B^Spat_targ</t>
+  </si>
+  <si>
+    <t>Var</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mean fraction of TAC taken</t>
+  </si>
+  <si>
+    <t>Log-normal coefficient of variation in the fraction of Total Allowable Catch (TAC) taken.</t>
+  </si>
+  <si>
+    <t>Mean fraction of TAE taken</t>
+  </si>
+  <si>
+    <t>Log-normal coefficient of variation in the fraction of Total Allowable Effort (TAE) taken</t>
+  </si>
+  <si>
+    <t>he real minimum size that is retained expressed as a fraction of the size of retention</t>
+  </si>
+  <si>
+    <t>Log-normal coefficient of variation controlling mismatch between a minimum size limit and the real minimum size retained</t>
   </si>
 </sst>
 </file>
@@ -1670,7 +1880,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1680,6 +1890,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1963,599 +2174,599 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="A1:D1"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="62.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="106.85546875" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.5703125" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="106.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="B2" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="B3" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="C5" s="3">
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="3">
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="3">
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="3">
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="3">
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="3">
         <v>2</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="3">
         <v>2</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="3">
         <v>2</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="3">
         <v>2</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" s="3">
         <v>2</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" s="3">
         <v>2</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="3">
         <v>2</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" s="3">
         <v>2</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" s="3">
         <v>2</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="3">
         <v>2</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" s="3">
         <v>2</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C22" s="3">
         <v>2</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E22" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" s="3">
         <v>2</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E23" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C24" s="3">
         <v>2</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C25" s="3">
         <v>2</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C26" s="3">
         <v>2</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C27" s="3">
         <v>2</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E28" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G28" s="3"/>
     </row>
@@ -2569,350 +2780,419 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="51.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="4.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="95.5703125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="28.85546875" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="8.7109375" style="3"/>
+    <col min="1" max="1" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="91" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="51.28515625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="D2" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E2" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" s="3">
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E3" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E4" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>93</v>
       </c>
       <c r="E5" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="E6" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>97</v>
       </c>
       <c r="E7" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="3">
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E8" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="3">
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>102</v>
-      </c>
       <c r="B10" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="3">
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="3">
         <v>2</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="3">
         <v>2</v>
       </c>
       <c r="D12" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>108</v>
-      </c>
       <c r="B13" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="3">
         <v>2</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>111</v>
       </c>
       <c r="C14" s="3">
         <v>2</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
+      </c>
+      <c r="E14" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" s="3">
         <v>2</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>114</v>
+        <v>587</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" s="3">
         <v>2</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="3">
         <v>2</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" s="3">
         <v>2</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" s="3">
         <v>2</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C20" s="3">
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+      <c r="E20" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>290</v>
+        <v>280</v>
+      </c>
+      <c r="E21" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2924,374 +3204,442 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="4" max="4" width="127.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="67.140625" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="D2" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>254</v>
+      <c r="A3" s="3" t="s">
+        <v>244</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>345</v>
+        <v>335</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>346</v>
+        <v>336</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>351</v>
+        <v>341</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>352</v>
+        <v>342</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>353</v>
+        <v>343</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>355</v>
+        <v>345</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>356</v>
+        <v>346</v>
+      </c>
+      <c r="E14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>357</v>
+        <v>347</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>257</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" t="s">
+        <v>348</v>
+      </c>
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>258</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" t="s">
+        <v>349</v>
+      </c>
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>259</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" t="s">
+        <v>350</v>
+      </c>
+      <c r="E18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>260</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" t="s">
+        <v>351</v>
+      </c>
+      <c r="E19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>261</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" t="s">
+        <v>359</v>
+      </c>
+      <c r="E20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>262</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" t="s">
+        <v>358</v>
+      </c>
+      <c r="E21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>263</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" t="s">
+        <v>361</v>
+      </c>
+      <c r="E22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>264</v>
+      </c>
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" t="s">
+        <v>357</v>
+      </c>
+      <c r="E23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>265</v>
+      </c>
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" t="s">
+        <v>356</v>
+      </c>
+      <c r="E24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>266</v>
+      </c>
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" t="s">
+        <v>355</v>
+      </c>
+      <c r="E25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>267</v>
       </c>
-      <c r="B16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" t="s">
+        <v>354</v>
+      </c>
+      <c r="E26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>268</v>
       </c>
-      <c r="B17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" t="s">
+        <v>353</v>
+      </c>
+      <c r="E27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>269</v>
       </c>
-      <c r="B18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="B28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" t="s">
+        <v>352</v>
+      </c>
+      <c r="E28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>332</v>
+      </c>
+      <c r="B29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>270</v>
-      </c>
-      <c r="B19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>271</v>
-      </c>
-      <c r="B20" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>272</v>
-      </c>
-      <c r="B21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>273</v>
-      </c>
-      <c r="B22" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>274</v>
-      </c>
-      <c r="B23" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>275</v>
-      </c>
-      <c r="B24" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>276</v>
-      </c>
-      <c r="B25" t="s">
-        <v>20</v>
-      </c>
-      <c r="D25" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>277</v>
-      </c>
-      <c r="B26" t="s">
-        <v>20</v>
-      </c>
-      <c r="D26" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>278</v>
-      </c>
-      <c r="B27" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>279</v>
-      </c>
-      <c r="B28" t="s">
-        <v>20</v>
-      </c>
-      <c r="D28" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>342</v>
-      </c>
-      <c r="B29" t="s">
-        <v>20</v>
-      </c>
-      <c r="D29" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="B30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D30" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>518</v>
+      </c>
+      <c r="E30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="B31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D31" t="s">
-        <v>529</v>
+        <v>519</v>
+      </c>
+      <c r="E31" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3304,16 +3652,16 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="83.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="98" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" customWidth="1"/>
+    <col min="6" max="6" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -3321,123 +3669,159 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
         <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+      <c r="F3" t="s">
+        <v>594</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+      <c r="F4" t="s">
+        <v>595</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+      <c r="F5" t="s">
+        <v>596</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+      <c r="F6" t="s">
+        <v>597</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+      <c r="F7" t="s">
+        <v>598</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>341</v>
+        <v>331</v>
+      </c>
+      <c r="F8" t="s">
+        <v>599</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -3447,858 +3831,1143 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D73"/>
+  <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" customWidth="1"/>
-    <col min="3" max="3" width="49.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="99.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="89.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>593</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>123</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="A2" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="A3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3" t="s">
+        <v>522</v>
+      </c>
+      <c r="C3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D3" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="A4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D4" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="A5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D5" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="A6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D6" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="A7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D7" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="A8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D8" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="A9" t="s">
+        <v>523</v>
+      </c>
+      <c r="B9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C9" t="s">
+        <v>524</v>
+      </c>
+      <c r="D9" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="A10" t="s">
+        <v>160</v>
+      </c>
+      <c r="B10" t="s">
+        <v>525</v>
+      </c>
+      <c r="C10" t="s">
+        <v>161</v>
+      </c>
+      <c r="D10" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="A11" t="s">
+        <v>156</v>
+      </c>
+      <c r="B11" t="s">
+        <v>525</v>
+      </c>
+      <c r="C11" t="s">
+        <v>157</v>
+      </c>
+      <c r="D11" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="A12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D12" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B13" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C13" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D13" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>128</v>
+        <v>166</v>
       </c>
       <c r="B14" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="C14" t="s">
-        <v>129</v>
+        <v>168</v>
       </c>
       <c r="D14" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="B15" t="s">
-        <v>132</v>
+        <v>525</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>159</v>
       </c>
       <c r="D15" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="B16" t="s">
-        <v>125</v>
+        <v>525</v>
       </c>
       <c r="C16" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="D16" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>137</v>
+        <v>526</v>
       </c>
       <c r="B17" t="s">
-        <v>125</v>
+        <v>527</v>
       </c>
       <c r="C17" t="s">
-        <v>138</v>
+        <v>528</v>
       </c>
       <c r="D17" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>140</v>
+        <v>529</v>
       </c>
       <c r="B18" t="s">
-        <v>125</v>
+        <v>527</v>
       </c>
       <c r="C18" t="s">
-        <v>141</v>
+        <v>530</v>
       </c>
       <c r="D18" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="B19" t="s">
-        <v>125</v>
+        <v>525</v>
       </c>
       <c r="C19" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="D19" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>146</v>
+        <v>531</v>
       </c>
       <c r="B20" t="s">
-        <v>125</v>
+        <v>527</v>
       </c>
       <c r="C20" t="s">
-        <v>144</v>
+        <v>532</v>
       </c>
       <c r="D20" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="B21" t="s">
-        <v>125</v>
+        <v>533</v>
       </c>
       <c r="C21" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="D21" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="B22" t="s">
-        <v>125</v>
+        <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="D22" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="B23" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="C23" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D23" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B24" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="C24" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D24" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B25" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="C25" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="D25" t="s">
-        <v>157</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B26" t="s">
-        <v>125</v>
+        <v>21</v>
       </c>
       <c r="C26" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="D26" t="s">
-        <v>160</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>161</v>
+        <v>211</v>
       </c>
       <c r="B27" t="s">
-        <v>125</v>
+        <v>21</v>
       </c>
       <c r="C27" t="s">
-        <v>159</v>
+        <v>212</v>
       </c>
       <c r="D27" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>163</v>
-      </c>
-      <c r="B28" t="s">
-        <v>125</v>
-      </c>
-      <c r="C28" t="s">
-        <v>159</v>
-      </c>
-      <c r="D28" t="s">
-        <v>164</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B29" t="s">
-        <v>125</v>
+        <v>171</v>
       </c>
       <c r="C29" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="D29" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="B30" t="s">
-        <v>125</v>
+        <v>21</v>
       </c>
       <c r="C30" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="D30" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>169</v>
+        <v>238</v>
       </c>
       <c r="B31" t="s">
-        <v>125</v>
+        <v>21</v>
       </c>
       <c r="C31" t="s">
+        <v>239</v>
+      </c>
+      <c r="D31" t="s">
         <v>170</v>
-      </c>
-      <c r="D31" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>172</v>
+        <v>534</v>
       </c>
       <c r="B32" t="s">
-        <v>125</v>
+        <v>535</v>
       </c>
       <c r="C32" t="s">
-        <v>22</v>
+        <v>536</v>
       </c>
       <c r="D32" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B33" t="s">
-        <v>125</v>
+        <v>525</v>
       </c>
       <c r="C33" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D33" t="s">
-        <v>176</v>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>177</v>
+      </c>
+      <c r="B34" t="s">
+        <v>178</v>
+      </c>
+      <c r="C34" t="s">
+        <v>179</v>
+      </c>
+      <c r="D34" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B35" t="s">
-        <v>178</v>
+        <v>525</v>
       </c>
       <c r="C35" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D35" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B36" t="s">
         <v>178</v>
       </c>
       <c r="C36" t="s">
-        <v>22</v>
+        <v>183</v>
       </c>
       <c r="D36" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>183</v>
+        <v>240</v>
       </c>
       <c r="B37" t="s">
-        <v>178</v>
+        <v>241</v>
       </c>
       <c r="C37" t="s">
-        <v>159</v>
+        <v>242</v>
       </c>
       <c r="D37" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>185</v>
+        <v>537</v>
       </c>
       <c r="B38" t="s">
-        <v>178</v>
+        <v>538</v>
       </c>
       <c r="C38" t="s">
-        <v>186</v>
+        <v>539</v>
       </c>
       <c r="D38" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>188</v>
+        <v>540</v>
       </c>
       <c r="B39" t="s">
-        <v>178</v>
+        <v>541</v>
       </c>
       <c r="C39" t="s">
-        <v>159</v>
+        <v>542</v>
       </c>
       <c r="D39" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>190</v>
+        <v>276</v>
       </c>
       <c r="B40" t="s">
-        <v>178</v>
+        <v>543</v>
       </c>
       <c r="C40" t="s">
-        <v>186</v>
+        <v>544</v>
       </c>
       <c r="D40" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>192</v>
+        <v>545</v>
       </c>
       <c r="B42" t="s">
-        <v>193</v>
+        <v>21</v>
       </c>
       <c r="C42" t="s">
-        <v>22</v>
+        <v>546</v>
       </c>
       <c r="D42" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>195</v>
+        <v>547</v>
       </c>
       <c r="B43" t="s">
-        <v>193</v>
+        <v>21</v>
       </c>
       <c r="C43" t="s">
-        <v>22</v>
+        <v>548</v>
       </c>
       <c r="D43" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>197</v>
+        <v>549</v>
       </c>
       <c r="B44" t="s">
-        <v>193</v>
+        <v>550</v>
       </c>
       <c r="C44" t="s">
-        <v>22</v>
+        <v>551</v>
       </c>
       <c r="D44" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>199</v>
+        <v>552</v>
       </c>
       <c r="B45" t="s">
-        <v>193</v>
+        <v>21</v>
       </c>
       <c r="C45" t="s">
-        <v>22</v>
+        <v>553</v>
       </c>
       <c r="D45" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>201</v>
+        <v>554</v>
       </c>
       <c r="B46" t="s">
-        <v>193</v>
+        <v>550</v>
       </c>
       <c r="C46" t="s">
-        <v>22</v>
+        <v>569</v>
       </c>
       <c r="D46" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>203</v>
+        <v>555</v>
       </c>
       <c r="B47" t="s">
-        <v>193</v>
+        <v>550</v>
       </c>
       <c r="C47" t="s">
-        <v>22</v>
+        <v>570</v>
       </c>
       <c r="D47" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>205</v>
+        <v>556</v>
       </c>
       <c r="B48" t="s">
-        <v>193</v>
+        <v>550</v>
       </c>
       <c r="C48" t="s">
-        <v>22</v>
+        <v>571</v>
       </c>
       <c r="D48" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>207</v>
+        <v>557</v>
       </c>
       <c r="B49" t="s">
-        <v>193</v>
+        <v>21</v>
       </c>
       <c r="C49" t="s">
-        <v>22</v>
+        <v>572</v>
       </c>
       <c r="D49" t="s">
-        <v>208</v>
+        <v>185</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B50" t="s">
-        <v>193</v>
+        <v>21</v>
       </c>
       <c r="C50" t="s">
-        <v>22</v>
+        <v>208</v>
       </c>
       <c r="D50" t="s">
-        <v>210</v>
+        <v>185</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>211</v>
+        <v>558</v>
       </c>
       <c r="B51" t="s">
-        <v>193</v>
+        <v>550</v>
       </c>
       <c r="C51" t="s">
-        <v>22</v>
+        <v>573</v>
       </c>
       <c r="D51" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>213</v>
+        <v>187</v>
       </c>
       <c r="B52" t="s">
-        <v>193</v>
+        <v>21</v>
       </c>
       <c r="C52" t="s">
-        <v>22</v>
+        <v>188</v>
       </c>
       <c r="D52" t="s">
-        <v>214</v>
+        <v>185</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="B53" t="s">
-        <v>193</v>
+        <v>21</v>
       </c>
       <c r="C53" t="s">
-        <v>22</v>
+        <v>198</v>
       </c>
       <c r="D53" t="s">
-        <v>216</v>
+        <v>185</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="B54" t="s">
-        <v>193</v>
+        <v>21</v>
       </c>
       <c r="C54" t="s">
-        <v>22</v>
+        <v>200</v>
       </c>
       <c r="D54" t="s">
-        <v>218</v>
+        <v>185</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>219</v>
+        <v>184</v>
       </c>
       <c r="B55" t="s">
-        <v>193</v>
+        <v>21</v>
       </c>
       <c r="C55" t="s">
-        <v>22</v>
+        <v>186</v>
       </c>
       <c r="D55" t="s">
-        <v>220</v>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>195</v>
+      </c>
+      <c r="B56" t="s">
+        <v>21</v>
+      </c>
+      <c r="C56" t="s">
+        <v>196</v>
+      </c>
+      <c r="D56" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>221</v>
+        <v>559</v>
       </c>
       <c r="B57" t="s">
-        <v>125</v>
+        <v>21</v>
       </c>
       <c r="C57" t="s">
-        <v>22</v>
+        <v>568</v>
       </c>
       <c r="D57" t="s">
-        <v>222</v>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>560</v>
+      </c>
+      <c r="B58" t="s">
+        <v>21</v>
+      </c>
+      <c r="C58" t="s">
+        <v>574</v>
+      </c>
+      <c r="D58" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>223</v>
+        <v>561</v>
       </c>
       <c r="B59" t="s">
-        <v>223</v>
+        <v>21</v>
       </c>
       <c r="C59" t="s">
-        <v>224</v>
+        <v>575</v>
       </c>
       <c r="D59" t="s">
-        <v>225</v>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>562</v>
+      </c>
+      <c r="B60" t="s">
+        <v>550</v>
+      </c>
+      <c r="C60" t="s">
+        <v>576</v>
+      </c>
+      <c r="D60" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>226</v>
+        <v>189</v>
       </c>
       <c r="B61" t="s">
-        <v>227</v>
+        <v>21</v>
       </c>
       <c r="C61" t="s">
-        <v>22</v>
+        <v>190</v>
       </c>
       <c r="D61" t="s">
-        <v>228</v>
+        <v>185</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>229</v>
+        <v>191</v>
       </c>
       <c r="B62" t="s">
-        <v>227</v>
+        <v>21</v>
       </c>
       <c r="C62" t="s">
-        <v>22</v>
+        <v>192</v>
       </c>
       <c r="D62" t="s">
-        <v>230</v>
+        <v>185</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>231</v>
+        <v>193</v>
       </c>
       <c r="B63" t="s">
-        <v>227</v>
+        <v>21</v>
       </c>
       <c r="C63" t="s">
-        <v>22</v>
+        <v>194</v>
       </c>
       <c r="D63" t="s">
-        <v>232</v>
+        <v>185</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>233</v>
+        <v>201</v>
       </c>
       <c r="B64" t="s">
-        <v>227</v>
+        <v>21</v>
       </c>
       <c r="C64" t="s">
-        <v>22</v>
+        <v>202</v>
       </c>
       <c r="D64" t="s">
-        <v>234</v>
+        <v>185</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>235</v>
+        <v>205</v>
       </c>
       <c r="B65" t="s">
-        <v>227</v>
+        <v>21</v>
       </c>
       <c r="C65" t="s">
-        <v>22</v>
+        <v>206</v>
       </c>
       <c r="D65" t="s">
-        <v>236</v>
+        <v>185</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>237</v>
+        <v>203</v>
       </c>
       <c r="B66" t="s">
-        <v>227</v>
+        <v>21</v>
       </c>
       <c r="C66" t="s">
-        <v>22</v>
+        <v>204</v>
       </c>
       <c r="D66" t="s">
-        <v>238</v>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>563</v>
+      </c>
+      <c r="B67" t="s">
+        <v>21</v>
+      </c>
+      <c r="C67" t="s">
+        <v>577</v>
+      </c>
+      <c r="D67" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>239</v>
+        <v>564</v>
       </c>
       <c r="B68" t="s">
-        <v>193</v>
+        <v>550</v>
       </c>
       <c r="C68" t="s">
-        <v>240</v>
+        <v>578</v>
       </c>
       <c r="D68" t="s">
-        <v>241</v>
+        <v>185</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>242</v>
+        <v>565</v>
       </c>
       <c r="B69" t="s">
-        <v>193</v>
+        <v>21</v>
       </c>
       <c r="C69" t="s">
-        <v>243</v>
+        <v>579</v>
       </c>
       <c r="D69" t="s">
-        <v>244</v>
+        <v>185</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>245</v>
+        <v>566</v>
       </c>
       <c r="B70" t="s">
-        <v>193</v>
+        <v>550</v>
       </c>
       <c r="C70" t="s">
-        <v>246</v>
+        <v>580</v>
       </c>
       <c r="D70" t="s">
-        <v>247</v>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>567</v>
+      </c>
+      <c r="B71" t="s">
+        <v>550</v>
+      </c>
+      <c r="C71" t="s">
+        <v>581</v>
+      </c>
+      <c r="D71" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="B72" t="s">
-        <v>178</v>
+        <v>230</v>
       </c>
       <c r="C72" t="s">
-        <v>22</v>
+        <v>231</v>
       </c>
       <c r="D72" t="s">
-        <v>249</v>
+        <v>185</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="B73" t="s">
-        <v>178</v>
+        <v>233</v>
       </c>
       <c r="C73" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="D73" t="s">
-        <v>252</v>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>235</v>
+      </c>
+      <c r="B74" t="s">
+        <v>236</v>
+      </c>
+      <c r="C74" t="s">
+        <v>237</v>
+      </c>
+      <c r="D74" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>209</v>
+      </c>
+      <c r="B75" t="s">
+        <v>21</v>
+      </c>
+      <c r="C75" t="s">
+        <v>210</v>
+      </c>
+      <c r="D75" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>216</v>
+      </c>
+      <c r="B77" t="s">
+        <v>21</v>
+      </c>
+      <c r="C77" t="s">
+        <v>218</v>
+      </c>
+      <c r="D77" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>219</v>
+      </c>
+      <c r="B78" t="s">
+        <v>21</v>
+      </c>
+      <c r="C78" t="s">
+        <v>220</v>
+      </c>
+      <c r="D78" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>221</v>
+      </c>
+      <c r="B79" t="s">
+        <v>21</v>
+      </c>
+      <c r="C79" t="s">
+        <v>222</v>
+      </c>
+      <c r="D79" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>223</v>
+      </c>
+      <c r="B80" t="s">
+        <v>21</v>
+      </c>
+      <c r="C80" t="s">
+        <v>224</v>
+      </c>
+      <c r="D80" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>225</v>
+      </c>
+      <c r="B81" t="s">
+        <v>21</v>
+      </c>
+      <c r="C81" t="s">
+        <v>226</v>
+      </c>
+      <c r="D81" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>227</v>
+      </c>
+      <c r="B82" t="s">
+        <v>21</v>
+      </c>
+      <c r="C82" t="s">
+        <v>228</v>
+      </c>
+      <c r="D82" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>213</v>
+      </c>
+      <c r="B84" t="s">
+        <v>214</v>
+      </c>
+      <c r="C84" t="s">
+        <v>215</v>
+      </c>
+      <c r="D84" t="s">
+        <v>213</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4320,239 +4989,239 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="B4" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="B5" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="B6" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="B7" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="B8" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="B9" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="B10" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="B11" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="B12" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="B13" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="B14" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="B15" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="B16" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="B17" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="B18" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="B19" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="B20" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="B21" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="B22" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="B23" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="B24" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="B25" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="B26" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="B27" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="B28" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="B29" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="B30" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -4577,24 +5246,24 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
@@ -4602,10 +5271,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
@@ -4613,10 +5282,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
@@ -4624,10 +5293,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="B5" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -4635,26 +5304,26 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="B6" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="B7" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="B8" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -4662,249 +5331,249 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="B9" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="B10" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="B13" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="B15" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="B16" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="B17" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="B18" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="B19" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="B20" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="B21" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="B22" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="B23" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="B24" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="B25" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="B27" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="B28" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="B29" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="B31" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B32" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="B33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="B36" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="B37" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="B38" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="B39" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="B40" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="B43" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="D43" t="b">
         <v>1</v>
@@ -4912,10 +5581,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="B44" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="D44" t="b">
         <v>1</v>
@@ -4923,10 +5592,10 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="B45" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="D45" t="b">
         <v>1</v>
@@ -4934,10 +5603,10 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="B46" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="D46" t="b">
         <v>1</v>
@@ -4945,10 +5614,10 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="B47" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="D47" t="b">
         <v>1</v>
@@ -4956,10 +5625,10 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="B48" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="D48" t="b">
         <v>1</v>
@@ -4967,10 +5636,10 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="B49" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="D49" t="b">
         <v>1</v>
@@ -4978,10 +5647,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="B50" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="D50" t="b">
         <v>1</v>
@@ -4989,10 +5658,10 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="B51" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="D51" t="b">
         <v>1</v>
@@ -5000,10 +5669,10 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="B52" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="D52" t="b">
         <v>1</v>
@@ -5011,10 +5680,10 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="B53" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="D53" t="b">
         <v>1</v>
@@ -5027,7 +5696,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="D55" t="b">
         <v>1</v>
@@ -5035,7 +5704,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="D56" t="b">
         <v>1</v>
@@ -5043,7 +5712,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="D57" t="b">
         <v>1</v>
@@ -5051,7 +5720,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="D58" t="b">
         <v>1</v>
@@ -5059,7 +5728,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="D59" t="b">
         <v>1</v>
@@ -5067,7 +5736,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="D60" t="b">
         <v>1</v>
@@ -5075,10 +5744,10 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="B61" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="D61" t="b">
         <v>1</v>
@@ -5086,10 +5755,10 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="B62" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="D62" t="b">
         <v>1</v>
@@ -5097,10 +5766,10 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="B63" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="D63" t="b">
         <v>1</v>
@@ -5108,10 +5777,10 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="B64" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="D64" t="b">
         <v>1</v>
@@ -5119,10 +5788,10 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="B65" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="D65" t="b">
         <v>1</v>
@@ -5130,12 +5799,12 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="D68" t="b">
         <v>1</v>
@@ -5143,7 +5812,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="D69" t="b">
         <v>1</v>
@@ -5151,12 +5820,12 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="D72" t="b">
         <v>1</v>
@@ -5164,7 +5833,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D73" t="b">
         <v>1</v>
@@ -5172,7 +5841,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="D74" t="b">
         <v>1</v>
@@ -5180,7 +5849,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="D75" t="b">
         <v>1</v>
@@ -5188,191 +5857,191 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="B78" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="B79" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="B80" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="B81" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="B82" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="B83" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="B84" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="B85" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="B86" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="B87" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="B88" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="B89" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="B90" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="B91" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="B92" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="B93" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="B94" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="B95" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="B96" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="B97" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="B98" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="B99" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="B100" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="C100" t="b">
         <v>0</v>

--- a/build_tools/Class_definitions/Class_definitions.xlsx
+++ b/build_tools/Class_definitions/Class_definitions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adrian\Documents\GitHub\MSEtool\build_tools\Class_definitions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44FFBA51-04A0-42DB-B305-5A972D750715}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B15B5E8C-1BD7-4F92-A64A-9C63B878BBDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-2385" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-2385" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stock" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="601">
   <si>
     <t>Slot</t>
   </si>
@@ -1831,6 +1831,9 @@
   </si>
   <si>
     <t>Log-normal coefficient of variation controlling mismatch between a minimum size limit and the real minimum size retained</t>
+  </si>
+  <si>
+    <t>AddIndType</t>
   </si>
 </sst>
 </file>
@@ -2780,7 +2783,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
@@ -5232,10 +5235,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:D100"/>
+  <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B101" sqref="B101"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5744,32 +5747,26 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>410</v>
+        <v>600</v>
       </c>
       <c r="B61" t="s">
-        <v>480</v>
-      </c>
-      <c r="D61" t="b">
-        <v>1</v>
+        <v>600</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>411</v>
+        <v>235</v>
       </c>
       <c r="B62" t="s">
-        <v>481</v>
-      </c>
-      <c r="D62" t="b">
-        <v>1</v>
+        <v>235</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B63" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D63" t="b">
         <v>1</v>
@@ -5777,10 +5774,10 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B64" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D64" t="b">
         <v>1</v>
@@ -5788,60 +5785,66 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B65" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D65" t="b">
         <v>1</v>
       </c>
     </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>413</v>
+      </c>
+      <c r="B66" t="s">
+        <v>483</v>
+      </c>
+      <c r="D66" t="b">
+        <v>1</v>
+      </c>
+    </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
+      <c r="A67" t="s">
+        <v>414</v>
+      </c>
+      <c r="B67" t="s">
+        <v>484</v>
+      </c>
+      <c r="D67" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="4" t="s">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="D68" t="b">
+      <c r="D70" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>417</v>
       </c>
-      <c r="D69" t="b">
+      <c r="D71" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="4" t="s">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
         <v>419</v>
-      </c>
-      <c r="D72" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>122</v>
-      </c>
-      <c r="D73" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>420</v>
       </c>
       <c r="D74" t="b">
         <v>1</v>
@@ -5849,205 +5852,222 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>421</v>
+        <v>122</v>
       </c>
       <c r="D75" t="b">
         <v>1</v>
       </c>
     </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>420</v>
+      </c>
+      <c r="D76" t="b">
+        <v>1</v>
+      </c>
+    </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
+      <c r="A77" t="s">
+        <v>421</v>
+      </c>
+      <c r="D77" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
         <v>422</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>423</v>
-      </c>
-      <c r="B78" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>424</v>
-      </c>
-      <c r="B79" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B80" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B81" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B82" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B83" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B84" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B85" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B86" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B87" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B88" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B89" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B90" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B91" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B92" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B93" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B94" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B95" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B96" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B97" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B98" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B99" t="s">
-        <v>486</v>
+        <v>505</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
+        <v>443</v>
+      </c>
+      <c r="B100" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>444</v>
+      </c>
+      <c r="B101" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
         <v>445</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B102" t="s">
         <v>508</v>
       </c>
-      <c r="C100" t="b">
+      <c r="C102" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/build_tools/Class_definitions/Class_definitions.xlsx
+++ b/build_tools/Class_definitions/Class_definitions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adrian\Documents\GitHub\MSEtool\build_tools\Class_definitions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B15B5E8C-1BD7-4F92-A64A-9C63B878BBDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19777005-90FE-4FC8-A2D6-03C7437232A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-2385" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="603">
   <si>
     <t>Slot</t>
   </si>
@@ -1834,6 +1834,12 @@
   </si>
   <si>
     <t>AddIndType</t>
+  </si>
+  <si>
+    <t>Vuln_CAA</t>
+  </si>
+  <si>
+    <t>Vuln_CAL</t>
   </si>
 </sst>
 </file>
@@ -2176,8 +2182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2460,9 +2466,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>19</v>
@@ -2471,19 +2477,19 @@
         <v>2</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>19</v>
@@ -2492,11 +2498,11 @@
         <v>2</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>21</v>
@@ -2504,7 +2510,7 @@
     </row>
     <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>19</v>
@@ -2513,11 +2519,11 @@
         <v>2</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>21</v>
@@ -2525,7 +2531,7 @@
     </row>
     <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>19</v>
@@ -2534,11 +2540,11 @@
         <v>2</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>21</v>
@@ -2546,7 +2552,7 @@
     </row>
     <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>19</v>
@@ -2555,11 +2561,11 @@
         <v>2</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>21</v>
@@ -2783,8 +2789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="51.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5238,7 +5244,7 @@
   <dimension ref="A1:D102"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="G62" sqref="G62"/>
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5825,6 +5831,9 @@
       <c r="A70" s="4" t="s">
         <v>416</v>
       </c>
+      <c r="B70" t="s">
+        <v>601</v>
+      </c>
       <c r="D70" t="b">
         <v>1</v>
       </c>
@@ -5833,6 +5842,9 @@
       <c r="A71" t="s">
         <v>417</v>
       </c>
+      <c r="B71" t="s">
+        <v>417</v>
+      </c>
       <c r="D71" t="b">
         <v>1</v>
       </c>
@@ -5846,6 +5858,9 @@
       <c r="A74" s="4" t="s">
         <v>419</v>
       </c>
+      <c r="B74" t="s">
+        <v>602</v>
+      </c>
       <c r="D74" t="b">
         <v>1</v>
       </c>
@@ -5854,6 +5869,9 @@
       <c r="A75" t="s">
         <v>122</v>
       </c>
+      <c r="B75" t="s">
+        <v>122</v>
+      </c>
       <c r="D75" t="b">
         <v>1</v>
       </c>
@@ -5862,12 +5880,18 @@
       <c r="A76" t="s">
         <v>420</v>
       </c>
+      <c r="B76" t="s">
+        <v>420</v>
+      </c>
       <c r="D76" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
+        <v>421</v>
+      </c>
+      <c r="B77" t="s">
         <v>421</v>
       </c>
       <c r="D77" t="b">

--- a/build_tools/Class_definitions/Class_definitions.xlsx
+++ b/build_tools/Class_definitions/Class_definitions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adrian\Documents\GitHub\MSEtool\build_tools\Class_definitions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19777005-90FE-4FC8-A2D6-03C7437232A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA4B6B9-98EC-4C55-9055-C5919CC0EBB0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-2385" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-2385" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stock" sheetId="1" r:id="rId1"/>
@@ -1113,9 +1113,6 @@
     <t>Log-normal coefficient of variation for sampling persistent bias in FMSY/M. Single value. Positive real number</t>
   </si>
   <si>
-    <t>Log-normal coefficeint of variation for sampling persistent bias in recruitment variability.  Single value. Positive real number</t>
-  </si>
-  <si>
     <t>Log-normal coefficient of variation for sampling persistent bias in relative abundance index at BMSY.  Single value. Positive real number</t>
   </si>
   <si>
@@ -1840,6 +1837,9 @@
   </si>
   <si>
     <t>Vuln_CAL</t>
+  </si>
+  <si>
+    <t>Log-normal coefficient of variation for sampling persistent bias in recruitment variability.  Single value. Positive real number</t>
   </si>
 </sst>
 </file>
@@ -2970,7 +2970,7 @@
         <v>100</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>21</v>
@@ -2990,7 +2990,7 @@
         <v>102</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>21</v>
@@ -3010,7 +3010,7 @@
         <v>104</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>21</v>
@@ -3030,7 +3030,7 @@
         <v>106</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>21</v>
@@ -3050,7 +3050,7 @@
         <v>108</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>21</v>
@@ -3084,10 +3084,10 @@
         <v>2</v>
       </c>
       <c r="D15" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>587</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>588</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>21</v>
@@ -3107,7 +3107,7 @@
         <v>114</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>21</v>
@@ -3127,7 +3127,7 @@
         <v>116</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>21</v>
@@ -3147,7 +3147,7 @@
         <v>118</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>21</v>
@@ -3167,7 +3167,7 @@
         <v>120</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>21</v>
@@ -3213,13 +3213,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="67.140625" customWidth="1"/>
+    <col min="4" max="4" width="255.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3519,7 +3519,7 @@
         <v>19</v>
       </c>
       <c r="D22" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
@@ -3617,7 +3617,7 @@
         <v>19</v>
       </c>
       <c r="D29" t="s">
-        <v>360</v>
+        <v>602</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
@@ -3625,13 +3625,13 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B30" t="s">
         <v>19</v>
       </c>
       <c r="D30" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
@@ -3639,13 +3639,13 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B31" t="s">
         <v>19</v>
       </c>
       <c r="D31" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
@@ -3727,7 +3727,7 @@
         <v>326</v>
       </c>
       <c r="F3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>21</v>
@@ -3747,7 +3747,7 @@
         <v>327</v>
       </c>
       <c r="F4" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>21</v>
@@ -3767,7 +3767,7 @@
         <v>328</v>
       </c>
       <c r="F5" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>21</v>
@@ -3787,7 +3787,7 @@
         <v>329</v>
       </c>
       <c r="F6" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>21</v>
@@ -3807,7 +3807,7 @@
         <v>330</v>
       </c>
       <c r="F7" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>21</v>
@@ -3827,7 +3827,7 @@
         <v>331</v>
       </c>
       <c r="F8" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>21</v>
@@ -3856,7 +3856,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -3870,13 +3870,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>520</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>521</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>123</v>
@@ -3887,7 +3887,7 @@
         <v>132</v>
       </c>
       <c r="B3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C3" t="s">
         <v>133</v>
@@ -3968,13 +3968,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B9" t="s">
         <v>138</v>
       </c>
       <c r="C9" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D9" t="s">
         <v>123</v>
@@ -3985,7 +3985,7 @@
         <v>160</v>
       </c>
       <c r="B10" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C10" t="s">
         <v>161</v>
@@ -3999,7 +3999,7 @@
         <v>156</v>
       </c>
       <c r="B11" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C11" t="s">
         <v>157</v>
@@ -4055,7 +4055,7 @@
         <v>158</v>
       </c>
       <c r="B15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C15" t="s">
         <v>159</v>
@@ -4069,7 +4069,7 @@
         <v>154</v>
       </c>
       <c r="B16" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C16" t="s">
         <v>155</v>
@@ -4080,13 +4080,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>525</v>
+      </c>
+      <c r="B17" t="s">
         <v>526</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>527</v>
-      </c>
-      <c r="C17" t="s">
-        <v>528</v>
       </c>
       <c r="D17" t="s">
         <v>123</v>
@@ -4094,13 +4094,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>528</v>
+      </c>
+      <c r="B18" t="s">
+        <v>526</v>
+      </c>
+      <c r="C18" t="s">
         <v>529</v>
-      </c>
-      <c r="B18" t="s">
-        <v>527</v>
-      </c>
-      <c r="C18" t="s">
-        <v>530</v>
       </c>
       <c r="D18" t="s">
         <v>123</v>
@@ -4111,7 +4111,7 @@
         <v>152</v>
       </c>
       <c r="B19" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C19" t="s">
         <v>153</v>
@@ -4122,13 +4122,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>530</v>
+      </c>
+      <c r="B20" t="s">
+        <v>526</v>
+      </c>
+      <c r="C20" t="s">
         <v>531</v>
-      </c>
-      <c r="B20" t="s">
-        <v>527</v>
-      </c>
-      <c r="C20" t="s">
-        <v>532</v>
       </c>
       <c r="D20" t="s">
         <v>123</v>
@@ -4139,7 +4139,7 @@
         <v>162</v>
       </c>
       <c r="B21" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C21" t="s">
         <v>163</v>
@@ -4276,13 +4276,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>533</v>
+      </c>
+      <c r="B32" t="s">
         <v>534</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>535</v>
-      </c>
-      <c r="C32" t="s">
-        <v>536</v>
       </c>
       <c r="D32" t="s">
         <v>170</v>
@@ -4293,7 +4293,7 @@
         <v>175</v>
       </c>
       <c r="B33" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C33" t="s">
         <v>176</v>
@@ -4321,7 +4321,7 @@
         <v>180</v>
       </c>
       <c r="B35" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C35" t="s">
         <v>181</v>
@@ -4360,13 +4360,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>536</v>
+      </c>
+      <c r="B38" t="s">
         <v>537</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>538</v>
-      </c>
-      <c r="C38" t="s">
-        <v>539</v>
       </c>
       <c r="D38" t="s">
         <v>170</v>
@@ -4374,13 +4374,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>539</v>
+      </c>
+      <c r="B39" t="s">
         <v>540</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>541</v>
-      </c>
-      <c r="C39" t="s">
-        <v>542</v>
       </c>
       <c r="D39" t="s">
         <v>170</v>
@@ -4391,10 +4391,10 @@
         <v>276</v>
       </c>
       <c r="B40" t="s">
+        <v>542</v>
+      </c>
+      <c r="C40" t="s">
         <v>543</v>
-      </c>
-      <c r="C40" t="s">
-        <v>544</v>
       </c>
       <c r="D40" t="s">
         <v>170</v>
@@ -4402,13 +4402,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>544</v>
+      </c>
+      <c r="B42" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" t="s">
         <v>545</v>
-      </c>
-      <c r="B42" t="s">
-        <v>21</v>
-      </c>
-      <c r="C42" t="s">
-        <v>546</v>
       </c>
       <c r="D42" t="s">
         <v>185</v>
@@ -4416,13 +4416,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>546</v>
+      </c>
+      <c r="B43" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43" t="s">
         <v>547</v>
-      </c>
-      <c r="B43" t="s">
-        <v>21</v>
-      </c>
-      <c r="C43" t="s">
-        <v>548</v>
       </c>
       <c r="D43" t="s">
         <v>185</v>
@@ -4430,13 +4430,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>548</v>
+      </c>
+      <c r="B44" t="s">
         <v>549</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>550</v>
-      </c>
-      <c r="C44" t="s">
-        <v>551</v>
       </c>
       <c r="D44" t="s">
         <v>185</v>
@@ -4444,13 +4444,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>551</v>
+      </c>
+      <c r="B45" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" t="s">
         <v>552</v>
-      </c>
-      <c r="B45" t="s">
-        <v>21</v>
-      </c>
-      <c r="C45" t="s">
-        <v>553</v>
       </c>
       <c r="D45" t="s">
         <v>185</v>
@@ -4458,13 +4458,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B46" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C46" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D46" t="s">
         <v>185</v>
@@ -4472,13 +4472,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B47" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C47" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D47" t="s">
         <v>185</v>
@@ -4486,13 +4486,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B48" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C48" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D48" t="s">
         <v>185</v>
@@ -4500,13 +4500,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B49" t="s">
         <v>21</v>
       </c>
       <c r="C49" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D49" t="s">
         <v>185</v>
@@ -4528,13 +4528,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B51" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C51" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D51" t="s">
         <v>185</v>
@@ -4612,13 +4612,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B57" t="s">
         <v>21</v>
       </c>
       <c r="C57" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D57" t="s">
         <v>185</v>
@@ -4626,13 +4626,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B58" t="s">
         <v>21</v>
       </c>
       <c r="C58" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D58" t="s">
         <v>185</v>
@@ -4640,13 +4640,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B59" t="s">
         <v>21</v>
       </c>
       <c r="C59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D59" t="s">
         <v>185</v>
@@ -4654,13 +4654,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B60" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C60" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D60" t="s">
         <v>185</v>
@@ -4752,13 +4752,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B67" t="s">
         <v>21</v>
       </c>
       <c r="C67" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D67" t="s">
         <v>185</v>
@@ -4766,13 +4766,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B68" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C68" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D68" t="s">
         <v>185</v>
@@ -4780,13 +4780,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B69" t="s">
         <v>21</v>
       </c>
       <c r="C69" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D69" t="s">
         <v>185</v>
@@ -4794,13 +4794,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B70" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C70" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D70" t="s">
         <v>185</v>
@@ -4808,13 +4808,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B71" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C71" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D71" t="s">
         <v>185</v>
@@ -5131,7 +5131,7 @@
     </row>
     <row r="18" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B18" t="s">
         <v>319</v>
@@ -5187,26 +5187,26 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B25" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B26" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B27" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -5214,7 +5214,7 @@
         <v>288</v>
       </c>
       <c r="B28" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -5243,7 +5243,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
@@ -5261,10 +5261,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -5280,7 +5280,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -5302,10 +5302,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -5313,26 +5313,26 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -5340,31 +5340,31 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B9" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B13" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -5372,95 +5372,95 @@
         <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B15" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B16" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B17" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B18" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B19" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B20" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B21" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B22" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B23" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B24" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B25" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -5468,31 +5468,31 @@
         <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B27" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B28" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B29" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -5505,10 +5505,10 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B31" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -5521,7 +5521,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B33" t="s">
         <v>50</v>
@@ -5529,28 +5529,28 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B36" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B37" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B38" t="s">
         <v>105</v>
@@ -5558,15 +5558,15 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B39" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B40" t="s">
         <v>107</v>
@@ -5574,15 +5574,15 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B43" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D43" t="b">
         <v>1</v>
@@ -5590,10 +5590,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B44" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D44" t="b">
         <v>1</v>
@@ -5601,10 +5601,10 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B45" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D45" t="b">
         <v>1</v>
@@ -5623,10 +5623,10 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B47" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D47" t="b">
         <v>1</v>
@@ -5634,10 +5634,10 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B48" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D48" t="b">
         <v>1</v>
@@ -5645,10 +5645,10 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B49" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D49" t="b">
         <v>1</v>
@@ -5656,10 +5656,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B50" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D50" t="b">
         <v>1</v>
@@ -5667,10 +5667,10 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B51" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D51" t="b">
         <v>1</v>
@@ -5678,10 +5678,10 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B52" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D52" t="b">
         <v>1</v>
@@ -5689,10 +5689,10 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B53" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D53" t="b">
         <v>1</v>
@@ -5705,7 +5705,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D55" t="b">
         <v>1</v>
@@ -5713,7 +5713,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D56" t="b">
         <v>1</v>
@@ -5721,7 +5721,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D57" t="b">
         <v>1</v>
@@ -5729,7 +5729,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D58" t="b">
         <v>1</v>
@@ -5737,7 +5737,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D59" t="b">
         <v>1</v>
@@ -5745,7 +5745,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D60" t="b">
         <v>1</v>
@@ -5753,10 +5753,10 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B61" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -5769,10 +5769,10 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B63" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D63" t="b">
         <v>1</v>
@@ -5780,10 +5780,10 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B64" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D64" t="b">
         <v>1</v>
@@ -5791,10 +5791,10 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B65" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D65" t="b">
         <v>1</v>
@@ -5802,10 +5802,10 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B66" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D66" t="b">
         <v>1</v>
@@ -5813,10 +5813,10 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B67" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D67" t="b">
         <v>1</v>
@@ -5824,15 +5824,15 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B70" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D70" t="b">
         <v>1</v>
@@ -5840,10 +5840,10 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B71" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D71" t="b">
         <v>1</v>
@@ -5851,15 +5851,15 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B74" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D74" t="b">
         <v>1</v>
@@ -5878,10 +5878,10 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B76" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D76" t="b">
         <v>1</v>
@@ -5889,10 +5889,10 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B77" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D77" t="b">
         <v>1</v>
@@ -5900,191 +5900,191 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B80" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B81" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B82" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B83" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B84" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B85" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B86" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B87" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B88" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B89" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B90" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B91" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B92" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B93" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B94" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B95" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B96" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B97" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B98" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B99" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B100" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B101" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B102" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C102" t="b">
         <v>0</v>

--- a/build_tools/Class_definitions/Class_definitions.xlsx
+++ b/build_tools/Class_definitions/Class_definitions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adrian\Documents\GitHub\MSEtool\build_tools\Class_definitions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA4B6B9-98EC-4C55-9055-C5919CC0EBB0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3486F1B6-F192-4D3C-85F5-0DE4996578DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-2385" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stock" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="608">
   <si>
     <t>Slot</t>
   </si>
@@ -1840,6 +1840,21 @@
   </si>
   <si>
     <t>Log-normal coefficient of variation for sampling persistent bias in recruitment variability.  Single value. Positive real number</t>
+  </si>
+  <si>
+    <t>Catch-at-age sample size</t>
+  </si>
+  <si>
+    <t>Catch-at-length sample size</t>
+  </si>
+  <si>
+    <t>Catch-at-age effective sample size</t>
+  </si>
+  <si>
+    <t>Catch-at-length effective sample size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter controlling hyperstability/hyperdepletion where values below 1 lead to hyperstability (an index that decreases slower than true abundance) and values above 1 lead to hyperdepletion (an index that decreases more rapidly than true abundance). </t>
   </si>
 </sst>
 </file>
@@ -2789,8 +2804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="51.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2949,9 +2964,6 @@
       <c r="D8" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E8" s="3" t="b">
-        <v>0</v>
-      </c>
       <c r="F8" s="3" t="s">
         <v>243</v>
       </c>
@@ -3186,9 +3198,6 @@
       <c r="D20" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="E20" s="3" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
@@ -3206,6 +3215,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3213,14 +3223,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.5703125" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -3288,7 +3300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>246</v>
       </c>
@@ -3298,8 +3310,14 @@
       <c r="D5" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>603</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>247</v>
       </c>
@@ -3309,8 +3327,14 @@
       <c r="D6" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>605</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>248</v>
       </c>
@@ -3320,8 +3344,14 @@
       <c r="D7" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>604</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>249</v>
       </c>
@@ -3330,6 +3360,12 @@
       </c>
       <c r="D8" t="s">
         <v>340</v>
+      </c>
+      <c r="F8" t="s">
+        <v>606</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -3374,7 +3410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>253</v>
       </c>
@@ -3383,6 +3419,12 @@
       </c>
       <c r="D12" t="s">
         <v>344</v>
+      </c>
+      <c r="F12" t="s">
+        <v>607</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">

--- a/build_tools/Class_definitions/Class_definitions.xlsx
+++ b/build_tools/Class_definitions/Class_definitions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adrian\Documents\GitHub\MSEtool\build_tools\Class_definitions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3486F1B6-F192-4D3C-85F5-0DE4996578DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38680FB7-6AC0-4C3B-93B8-36A03682A123}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-2385" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stock" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="608">
   <si>
     <t>Slot</t>
   </si>
@@ -2197,7 +2197,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
@@ -2804,8 +2804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="51.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2816,7 +2816,7 @@
     <col min="4" max="4" width="91" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="42.5703125" style="3" customWidth="1"/>
     <col min="8" max="16384" width="51.28515625" style="3"/>
   </cols>
   <sheetData>
@@ -2967,6 +2967,9 @@
       <c r="F8" s="3" t="s">
         <v>243</v>
       </c>
+      <c r="G8" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -3185,7 +3188,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>276</v>
       </c>
@@ -3197,6 +3200,12 @@
       </c>
       <c r="D20" s="3" t="s">
         <v>277</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -3223,7 +3232,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -3884,8 +3893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/build_tools/Class_definitions/Class_definitions.xlsx
+++ b/build_tools/Class_definitions/Class_definitions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adrian\Documents\GitHub\MSEtool\build_tools\Class_definitions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38680FB7-6AC0-4C3B-93B8-36A03682A123}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3709A00F-179C-4365-8776-232F7D90AAAC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-2385" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stock" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="614">
   <si>
     <t>Slot</t>
   </si>
@@ -1855,6 +1855,24 @@
   </si>
   <si>
     <t xml:space="preserve">Parameter controlling hyperstability/hyperdepletion where values below 1 lead to hyperstability (an index that decreases slower than true abundance) and values above 1 lead to hyperdepletion (an index that decreases more rapidly than true abundance). </t>
+  </si>
+  <si>
+    <t>I_beta</t>
+  </si>
+  <si>
+    <t>VI_beta</t>
+  </si>
+  <si>
+    <t>SpI_beta</t>
+  </si>
+  <si>
+    <t>Beta for hyperstability/depletion for `Data@Ind`</t>
+  </si>
+  <si>
+    <t>Beta for hyperstability/depletion for `Data@VInd`</t>
+  </si>
+  <si>
+    <t>Beta for hyperstability/depletion for `Data@SpInd`</t>
   </si>
 </sst>
 </file>
@@ -2804,7 +2822,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -3168,7 +3186,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>119</v>
       </c>
@@ -3188,7 +3206,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>276</v>
       </c>
@@ -3233,7 +3251,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3891,10 +3909,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D84"/>
+  <dimension ref="A1:D87"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4927,57 +4945,57 @@
         <v>185</v>
       </c>
     </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>608</v>
+      </c>
+      <c r="B76" t="s">
+        <v>21</v>
+      </c>
+      <c r="C76" t="s">
+        <v>611</v>
+      </c>
+      <c r="D76" t="s">
+        <v>185</v>
+      </c>
+    </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>216</v>
+        <v>609</v>
       </c>
       <c r="B77" t="s">
         <v>21</v>
       </c>
       <c r="C77" t="s">
-        <v>218</v>
+        <v>612</v>
       </c>
       <c r="D77" t="s">
-        <v>217</v>
+        <v>185</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>219</v>
+        <v>610</v>
       </c>
       <c r="B78" t="s">
         <v>21</v>
       </c>
       <c r="C78" t="s">
-        <v>220</v>
+        <v>613</v>
       </c>
       <c r="D78" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>221</v>
-      </c>
-      <c r="B79" t="s">
-        <v>21</v>
-      </c>
-      <c r="C79" t="s">
-        <v>222</v>
-      </c>
-      <c r="D79" t="s">
-        <v>217</v>
+        <v>185</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B80" t="s">
         <v>21</v>
       </c>
       <c r="C80" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D80" t="s">
         <v>217</v>
@@ -4985,13 +5003,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B81" t="s">
         <v>21</v>
       </c>
       <c r="C81" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D81" t="s">
         <v>217</v>
@@ -4999,29 +5017,71 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B82" t="s">
         <v>21</v>
       </c>
       <c r="C82" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="D82" t="s">
         <v>217</v>
       </c>
     </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>223</v>
+      </c>
+      <c r="B83" t="s">
+        <v>21</v>
+      </c>
+      <c r="C83" t="s">
+        <v>224</v>
+      </c>
+      <c r="D83" t="s">
+        <v>217</v>
+      </c>
+    </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
+        <v>225</v>
+      </c>
+      <c r="B84" t="s">
+        <v>21</v>
+      </c>
+      <c r="C84" t="s">
+        <v>226</v>
+      </c>
+      <c r="D84" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>227</v>
+      </c>
+      <c r="B85" t="s">
+        <v>21</v>
+      </c>
+      <c r="C85" t="s">
+        <v>228</v>
+      </c>
+      <c r="D85" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>213</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B87" t="s">
         <v>214</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C87" t="s">
         <v>215</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D87" t="s">
         <v>213</v>
       </c>
     </row>

--- a/build_tools/Class_definitions/Class_definitions.xlsx
+++ b/build_tools/Class_definitions/Class_definitions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adrian\Documents\GitHub\MSEtool\build_tools\Class_definitions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3709A00F-179C-4365-8776-232F7D90AAAC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C9E2247-08B1-4FC3-B3C0-23B605EF0223}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stock" sheetId="1" r:id="rId1"/>
@@ -60,42 +60,27 @@
     <t>character</t>
   </si>
   <si>
-    <t xml:space="preserve">The name of the Stock object. Single value. Character string </t>
-  </si>
-  <si>
     <t>Not stochastic</t>
   </si>
   <si>
     <t>Common_Name</t>
   </si>
   <si>
-    <t>Common name of the species. Character string</t>
-  </si>
-  <si>
     <t>Species</t>
   </si>
   <si>
-    <t xml:space="preserve"> Scientific name of the species. Genus and species name. Character string</t>
-  </si>
-  <si>
     <t>maxage</t>
   </si>
   <si>
     <t>integer</t>
   </si>
   <si>
-    <t>The maximum age of individuals that is simulated (there is no 'plus group'). Single value. Positive integer</t>
-  </si>
-  <si>
     <t>R0</t>
   </si>
   <si>
     <t>numeric</t>
   </si>
   <si>
-    <t>The magnitude of unfished recruitment. Single value. Positive real number</t>
-  </si>
-  <si>
     <t>numeric vector length nsim</t>
   </si>
   <si>
@@ -105,183 +90,120 @@
     <t>M</t>
   </si>
   <si>
-    <t xml:space="preserve">Natural mortality rate. Uniform distribution lower and upper bounds. Positive real number </t>
-  </si>
-  <si>
     <t>Natural mortality</t>
   </si>
   <si>
     <t>Msd</t>
   </si>
   <si>
-    <t xml:space="preserve">Inter-annual variability in natural mortality rate expressed as a coefficient of variation. Uniform distribution lower and upper bounds. Non-negative real numbers </t>
-  </si>
-  <si>
     <t>Inter-annual variability in M</t>
   </si>
   <si>
     <t>h</t>
   </si>
   <si>
-    <t>Steepness of the stock recruit relationship. Uniform distribution lower and upper bounds. Values from 1/5 to 1</t>
-  </si>
-  <si>
     <t>Steepness</t>
   </si>
   <si>
     <t>SRrel</t>
   </si>
   <si>
-    <t xml:space="preserve">Type of stock-recruit relationship. Single value, switch (1) Beverton-Holt (2) Ricker. Integer </t>
-  </si>
-  <si>
     <t>Stock-Recruit Relationship</t>
   </si>
   <si>
     <t>Perr</t>
   </si>
   <si>
-    <t>Process error, the CV of log-normal recruitment deviations. Uniform distribution lower and upper bounds. Non-negative real numbers</t>
-  </si>
-  <si>
     <t>Recruitment process error</t>
   </si>
   <si>
     <t>AC</t>
   </si>
   <si>
-    <t xml:space="preserve">Auto-correlation in recruitment deviations rec(t)=AC*rec(t-1)+(1-AC)*sigma(t). Uniform distribution lower and upper bounds. Non-negative real numbers </t>
-  </si>
-  <si>
     <t>Recruitment auto-correlation</t>
   </si>
   <si>
     <t>Linf</t>
   </si>
   <si>
-    <t xml:space="preserve">Maximum length. Uniform distribution lower and upper bounds. Positive real numbers </t>
-  </si>
-  <si>
     <t>von B asymptotic length</t>
   </si>
   <si>
     <t>K</t>
   </si>
   <si>
-    <t>von Bertalanffy growth parameter k. Uniform distribution lower and upper bounds. Positive real numbers</t>
-  </si>
-  <si>
     <t>von B growth coefficient</t>
   </si>
   <si>
     <t>t0</t>
   </si>
   <si>
-    <t>von Bertalanffy theoretical age at length zero. Uniform distribution lower and upper bounds. Non-positive real numbers</t>
-  </si>
-  <si>
     <t>von B t0</t>
   </si>
   <si>
     <t>LenCV</t>
   </si>
   <si>
-    <t>Coefficient of variation of length-at-age (assumed constant for all age classes). Uniform distribution lower and upper bounds. Positive real numbers</t>
-  </si>
-  <si>
     <t>Variability in length-at-age</t>
   </si>
   <si>
     <t>Ksd</t>
   </si>
   <si>
-    <t xml:space="preserve">Inter-annual variability in growth parameter k expressed as coefficient of variation. Uniform distribution lower and upper bounds. Non-negative real numbers </t>
-  </si>
-  <si>
     <t>Inter-annual variability in K</t>
   </si>
   <si>
     <t>Linfsd</t>
   </si>
   <si>
-    <t xml:space="preserve">Inter-annual variability in maximum length expressed as a coefficient of variation. Uniform distribution lower and upper bounds. Non-negative real numbers </t>
-  </si>
-  <si>
     <t>Inter-annual variability in Linf</t>
   </si>
   <si>
     <t>L50</t>
   </si>
   <si>
-    <t xml:space="preserve"> Length at 50 percent maturity. Uniform distribution lower and upper bounds. Positive real numbers </t>
-  </si>
-  <si>
     <t>Length at 50% maturity</t>
   </si>
   <si>
     <t>L50_95</t>
   </si>
   <si>
-    <t>Length increment from 50 percent to 95 percent maturity. Uniform distribution lower and upper bounds. Positive real numbers</t>
-  </si>
-  <si>
     <t>Increment between L95 and L50</t>
   </si>
   <si>
     <t>D</t>
   </si>
   <si>
-    <t>Current level of stock depletion SSB(current)/SSB(unfished). Uniform distribution lower and upper bounds. Fraction</t>
-  </si>
-  <si>
     <t>Depletion</t>
   </si>
   <si>
     <t>a</t>
   </si>
   <si>
-    <t>Length-weight parameter alpha. Single value. Positive real number</t>
-  </si>
-  <si>
     <t>b</t>
   </si>
   <si>
-    <t>Length-weight parameter beta. Single value. Positive real number</t>
-  </si>
-  <si>
     <t>Size_area_1</t>
   </si>
   <si>
-    <t>The size of area 1 relative to area 2. Uniform distribution lower and upper bounds. Positive real numbers</t>
-  </si>
-  <si>
     <t>Size of Area 1 relative to Area 2</t>
   </si>
   <si>
     <t>Frac_area_1</t>
   </si>
   <si>
-    <t>The fraction of the unfished biomass in stock 1. Uniform distribution lower and upper bounds. Positive real numbers</t>
-  </si>
-  <si>
     <t>Fraction of Stock in Area 1</t>
   </si>
   <si>
     <t>Prob_staying</t>
   </si>
   <si>
-    <t>The probability of individuals in area 1 remaining in area 1 over the course of one year. Uniform distribution lower and upper bounds. Positive fraction.</t>
-  </si>
-  <si>
     <t>Probablity of staying in Area 1 in 1 time-step</t>
   </si>
   <si>
     <t>Fdisc</t>
   </si>
   <si>
-    <t xml:space="preserve">Fraction of discarded fish that die. Uniform distribution lower and upper bounds. Non-negative real numbers </t>
-  </si>
-  <si>
     <t>Discard mortality (fraction)</t>
   </si>
   <si>
@@ -1873,6 +1795,84 @@
   </si>
   <si>
     <t>Beta for hyperstability/depletion for `Data@SpInd`</t>
+  </si>
+  <si>
+    <t>The maximum age of individuals that is simulated. There are `maxage+1`  (recruitment to age-0) age classes in the storage matrices.  `maxage` is the 'plus group' where all age-classes &gt; `maxage` are grouped, unless option switched off with `OM@cpars$plusgroup=0`. Single value. Positive integer.</t>
+  </si>
+  <si>
+    <t>An identifying name for the Stock object. Single value. Character string.</t>
+  </si>
+  <si>
+    <t>Common name of the species. Character string.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Scientific name of the species. Genus and species name. Character string.</t>
+  </si>
+  <si>
+    <t>The instantaneous rate of natural mortality. For each simulation a single value is drawn from a uniform distribution specified by the upper and lower bounds provided. Uniform distribution lower and upper bounds. Non-negative real numbers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inter-annual variation in `M` expressed as a coefficient of variation of a log-normal distribution. For each simulation a single value is drawn from a uniform distribution specified by the upper and lower bounds provided. If this parameter has a positive value, yearly `M` is drawn from a log-normal distribution with a mean specified by `log(M)` drawn for that simulation and a standard deviation in log space specified by the value of `Msd` drawn for that simulation.  Uniform distribution lower and upper bounds. Non-negative real numbers </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The instantaneous discard mortality rate the stock experiences when fished using the gear type specified in the corresponding fleet object and discarded. For each simulation a single value is drawn from a uniform distribution specified by the upper and lower bounds provided. Uniform distribution lower and upper bounds. Non-negative real numbers.  </t>
+  </si>
+  <si>
+    <t>Initial number of unfished recruits to age-0. This number is used to scale the size of the population to match catch or data, but does not affect any of the population dynamics unless the OM has been conditioned with data. As a result, for a data-limited fishery any number can be used for `R0`. In data-rich stocks `R0` may be estimated as part of a stock assessment, but for data limited stocks users can choose either an arbitrary number (say, 1000) or choose a number that produces simulated catches in recent historical years that are similar to real world catch data. Single value. Positive real number.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type of stock-recruit relationship. Use 1 to select a Beverton Holt relationship, 2 to select a Ricker relationship. Single value. Integer </t>
+  </si>
+  <si>
+    <t>Steepness of the stock recruit relationship. Steepness governs the proportion of unfished recruits produced when the stock is at 20% of the unfished population size. For each simulation a single value is drawn from a uniform distribution specified by the upper and lower bounds provided. This value is the same in all years of a given simulation. Uniform distribution lower and upper bounds. Values from 1/5 to 1.</t>
+  </si>
+  <si>
+    <t>Recruitment process error, which is defined as the standard deviation of the recruitment deviations in log space. For each simulation a single value is drawn from a uniform distribution specified by the upper and lower bounds provided. Uniform distribution lower and upper bounds. Non-negative real numbers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autocorrelation in the recruitment deviations in log space. For each simulation a single value is drawn from a uniform distribution specified by the upper and lower bounds provided, and used to add lag-1 auto-correlation to the log recruitment deviations. Uniform distribution lower and upper bounds. Non-negative real numbers. </t>
+  </si>
+  <si>
+    <t>The von Bertalanffy growth parameter Linf, which specifies the average maximum size that would reached by adult fish if they lived indefinitely. For each simulation a single value is drawn from a uniform distribution specified by the upper and lower bounds provided. This value is the same in all years unless `Linfsd` is a positive number. Uniform distribution lower and upper bounds. Positive real numbers.</t>
+  </si>
+  <si>
+    <t>The von Bertalanffy growth parameter k, which specifies the average rate of growth. For each simulation a single value is drawn from a uniform distribution specified by the upper and lower bounds provided. This value is the same in all years unless `Ksd` is a positive number. Uniform distribution lower and upper bounds. Positive real numbers.</t>
+  </si>
+  <si>
+    <t>The von Bertalanffy growth parameter t0, which specifies the theoretical age at a size 0. For each simulation a single value is drawn from a uniform distribution specified by the upper and lower bounds provided. Uniform distribution lower and upper bounds. Non-positive real numbers.</t>
+  </si>
+  <si>
+    <t>The coefficient of variation (defined as the standard deviation divided by mean) of the length-at-age.  For each simulation a single value is drawn from a uniform distribution specified by the upper and lower bounds provided to specify the distribution of observed length-at-age, and the CV of this distribution is constant for all age classes (i.e, standard deviation increases proportionally with the mean). Uniform distribution lower and upper bounds. Positive real numbers.</t>
+  </si>
+  <si>
+    <t>Inter-annual variation in K. For each simulation a single value is drawn from a uniform distribution specified by the upper and lower bounds provided. If this parameter has a positive value, yearly K is drawn from a log-normal distribution with a mean specified by the value of `K` drawn for that simulation and a standard deviation (in log space) specified by the value of `Ksd` drawn for that simulation. Uniform distribution lower and upper bounds. Non-negative real numbers.</t>
+  </si>
+  <si>
+    <t>Inter-annual variation in Linf. For each simulation a single value is drawn from a uniform distribution specified by the upper and lower bounds provided. If this parameter has a positive value, yearly Linf is drawn from a log-normal distribution with a mean specified by the value of `Linf` drawn for that simulation and a standard deviation (in log space) specified by the value of `Linfsd` drawn for that simulation. Uniform distribution lower and upper bounds. Non-negative real numbers.</t>
+  </si>
+  <si>
+    <t>The alpha parameter in allometric length-weight relationship. Single value. Weight parameters are used to determine catch-at-age and population-at-age from the number of individuals in each age class and the length of each individual, which is drawn from a normal distribution determined by the `Linf`, `K`, `t0`, and `LenCV` parameters. As a result, they function as a way to scale between numbers at age and biomass, and are not stochastic parameters. Single value. Positive real number.</t>
+  </si>
+  <si>
+    <t>The beta parameter in allometric length-weight relationship. Single value. Weight parameters are used to determine catch-at-age and population-at-age from the number of individuals in each age class and the length of each individual, which is drawn from a normal distribution determine by the `Linf`, `K`, `t0`, and `LenCV` parameters. As a result, they function as a way to scale between numbers at age and biomass, and are not stochastic parameters. Single value. Positive real number.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Length at 50% maturity. For each simulation a single value is drawn from a uniform distribution specified by the upper and lower bounds provided. The `L50` and `L50_95` parameters are converted to ages using the growth parameters provided and used to construct a logistic curve to determine the proportion of the population that is mature in each age class. Uniform distribution lower and upper bounds. Positive real numbers. </t>
+  </si>
+  <si>
+    <t>Difference in lengths between 50% and 95% maturity. For each simulation a single value is drawn from a uniform distribution specified by the upper and lower bounds provided. The value drawn is then added to the length at 50% maturity to determine the length at 95% maturity. This parameterization is used `instead` of specifying the size at 95 percent maturity to avoid situations where the value drawn for the size at 95% maturity is smaller than that at 50% maturity. The `L50` and `L50_95` parameters are converted to ages using the growth parameters provided and used to construct a logistic curve to determine the proportion of the population that is mature in each age class. Uniform distribution lower and upper bounds. Positive real numbers.</t>
+  </si>
+  <si>
+    <t>Estimated current level of stock depletion, which is defined as the current spawning stock biomass divided by the unfished spawning stock biomass. For each simulation a single value is drawn from a uniform distribution specified by the upper and lower bounds provided. This parameter is used during model initialization to select a series of yearly historical recruitment values and fishing mortality rates that, based on the information provided, could have resulted in the specified depletion level in the simulated last historical year. Uniform distribution lower and upper bounds. Positive real numbers (typically &lt; 1)</t>
+  </si>
+  <si>
+    <t>The size of area 1 relative to area 2. The fraction of the unfished biomass in area 1. Please specify numbers between 0 and 1. For each simulation a single value is drawn from a uniform distribution specified by the upper and lower bounds provided. For example, if Size_area_1 is 0.2, then 20% of the total area is allocated to area 1. Fishing can occur in both areas, or can be turned off in one area to simulate the effects of a no take marine reserve. Uniform distribution lower and upper bounds. Positive real numbers.</t>
+  </si>
+  <si>
+    <t>The fraction of the unfished biomass in area 1. Please specify numbers between 0 and 1. For each simulation a single value is drawn from a uniform distribution specified by the upper and lower bounds provided. For example, if Frac_area_1 is 0.5, then 50% of the unfished biomass is allocated to area 1, regardless of the size of area 1 (i.e, size and fraction in each area determine the density of fish, which may impact fishing spatial targeting). In each time step recruits are allocated to each area based on the proportion specified in Frac_area_1. Uniform distribution lower and upper bounds. Positive real numbers.</t>
+  </si>
+  <si>
+    <t>The probability of individuals in area 1 remaining in area 1 over the course of one year. Please specify numbers between 0 and 1. For each simulation a single value is drawn from a uniform distribution specified by the upper and lower bounds provided. For example, in an area with a Prob_staying value of 0.95 each fish has a 95% probability of staying in that area in each time step, and a 5% probability of moving to the other area.  Uniform distribution lower and upper bounds. Positive fraction.</t>
   </si>
 </sst>
 </file>
@@ -2215,8 +2215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2262,553 +2262,553 @@
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>9</v>
+        <v>589</v>
       </c>
       <c r="E2" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>12</v>
+        <v>590</v>
       </c>
       <c r="E3" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>14</v>
+        <v>591</v>
       </c>
       <c r="E4" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C5" s="3">
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>17</v>
+        <v>588</v>
       </c>
       <c r="E5" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>20</v>
+        <v>595</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C7" s="3">
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>24</v>
+        <v>592</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C8" s="3">
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>27</v>
+        <v>593</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C9" s="3">
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>30</v>
+        <v>597</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C10" s="3">
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>33</v>
+        <v>596</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C11" s="3">
         <v>2</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>36</v>
+        <v>598</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C12" s="3">
         <v>2</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>39</v>
+        <v>599</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C13" s="3">
         <v>2</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>42</v>
+        <v>600</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C14" s="3">
         <v>2</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>57</v>
+        <v>605</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C15" s="3">
         <v>2</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>45</v>
+        <v>601</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C16" s="3">
         <v>2</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>54</v>
+        <v>604</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C17" s="3">
         <v>2</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>48</v>
+        <v>602</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C18" s="3">
         <v>2</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>51</v>
+        <v>603</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C19" s="3">
         <v>2</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>60</v>
+        <v>608</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C20" s="3">
         <v>2</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>63</v>
+        <v>609</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C21" s="3">
         <v>2</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>66</v>
+        <v>610</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C22" s="3">
         <v>2</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>69</v>
+        <v>606</v>
       </c>
       <c r="E22" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C23" s="3">
         <v>2</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>71</v>
+        <v>607</v>
       </c>
       <c r="E23" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C24" s="3">
         <v>2</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>73</v>
+        <v>611</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C25" s="3">
         <v>2</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>76</v>
+        <v>612</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C26" s="3">
         <v>2</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>79</v>
+        <v>613</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C27" s="3">
         <v>2</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>82</v>
+        <v>594</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="E28" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G28" s="3"/>
     </row>
@@ -2869,238 +2869,238 @@
         <v>8</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="E2" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C3" s="3">
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="E3" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="E4" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="E5" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="E6" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="E7" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C8" s="3">
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C9" s="3">
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>581</v>
+        <v>555</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C10" s="3">
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>582</v>
+        <v>556</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C11" s="3">
         <v>2</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>583</v>
+        <v>557</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C12" s="3">
         <v>2</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>584</v>
+        <v>558</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C13" s="3">
         <v>2</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>585</v>
+        <v>559</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="C14" s="3">
         <v>2</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="E14" s="3" t="b">
         <v>0</v>
@@ -3108,133 +3108,133 @@
     </row>
     <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C15" s="3">
         <v>2</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>586</v>
+        <v>560</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>587</v>
+        <v>561</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C16" s="3">
         <v>2</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>588</v>
+        <v>562</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C17" s="3">
         <v>2</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>590</v>
+        <v>564</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C18" s="3">
         <v>2</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>589</v>
+        <v>563</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C19" s="3">
         <v>2</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>591</v>
+        <v>565</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="C20" s="3">
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>277</v>
+        <v>251</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>543</v>
+        <v>517</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>542</v>
+        <v>516</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="E21" s="3" t="b">
         <v>0</v>
@@ -3293,7 +3293,7 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>334</v>
+        <v>308</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
@@ -3301,13 +3301,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>335</v>
+        <v>309</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -3315,13 +3315,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>245</v>
+        <v>219</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>336</v>
+        <v>310</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
@@ -3329,81 +3329,81 @@
     </row>
     <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>246</v>
+        <v>220</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>337</v>
+        <v>311</v>
       </c>
       <c r="F5" t="s">
-        <v>603</v>
+        <v>577</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>338</v>
+        <v>312</v>
       </c>
       <c r="F6" t="s">
-        <v>605</v>
+        <v>579</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>339</v>
+        <v>313</v>
       </c>
       <c r="F7" t="s">
-        <v>604</v>
+        <v>578</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>340</v>
+        <v>314</v>
       </c>
       <c r="F8" t="s">
-        <v>606</v>
+        <v>580</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>250</v>
+        <v>224</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>341</v>
+        <v>315</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
@@ -3411,13 +3411,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>342</v>
+        <v>316</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
@@ -3425,13 +3425,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>252</v>
+        <v>226</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>343</v>
+        <v>317</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
@@ -3439,30 +3439,30 @@
     </row>
     <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>344</v>
+        <v>318</v>
       </c>
       <c r="F12" t="s">
-        <v>607</v>
+        <v>581</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>345</v>
+        <v>319</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
@@ -3470,13 +3470,13 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>346</v>
+        <v>320</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
@@ -3484,13 +3484,13 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D15" t="s">
-        <v>347</v>
+        <v>321</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
@@ -3498,13 +3498,13 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>257</v>
+        <v>231</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>348</v>
+        <v>322</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
@@ -3512,13 +3512,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D17" t="s">
-        <v>349</v>
+        <v>323</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
@@ -3526,13 +3526,13 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>259</v>
+        <v>233</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D18" t="s">
-        <v>350</v>
+        <v>324</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
@@ -3540,13 +3540,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>260</v>
+        <v>234</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>351</v>
+        <v>325</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
@@ -3554,13 +3554,13 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>261</v>
+        <v>235</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D20" t="s">
-        <v>359</v>
+        <v>333</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
@@ -3568,13 +3568,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D21" t="s">
-        <v>358</v>
+        <v>332</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
@@ -3582,13 +3582,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>263</v>
+        <v>237</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D22" t="s">
-        <v>360</v>
+        <v>334</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
@@ -3596,13 +3596,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>264</v>
+        <v>238</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D23" t="s">
-        <v>357</v>
+        <v>331</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
@@ -3610,13 +3610,13 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="B24" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D24" t="s">
-        <v>356</v>
+        <v>330</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
@@ -3624,13 +3624,13 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>266</v>
+        <v>240</v>
       </c>
       <c r="B25" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D25" t="s">
-        <v>355</v>
+        <v>329</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
@@ -3638,13 +3638,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>267</v>
+        <v>241</v>
       </c>
       <c r="B26" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D26" t="s">
-        <v>354</v>
+        <v>328</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
@@ -3652,13 +3652,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>268</v>
+        <v>242</v>
       </c>
       <c r="B27" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D27" t="s">
-        <v>353</v>
+        <v>327</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
@@ -3666,13 +3666,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>269</v>
+        <v>243</v>
       </c>
       <c r="B28" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D28" t="s">
-        <v>352</v>
+        <v>326</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
@@ -3680,13 +3680,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>332</v>
+        <v>306</v>
       </c>
       <c r="B29" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D29" t="s">
-        <v>602</v>
+        <v>576</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
@@ -3694,13 +3694,13 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>515</v>
+        <v>489</v>
       </c>
       <c r="B30" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D30" t="s">
-        <v>517</v>
+        <v>491</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
@@ -3708,13 +3708,13 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>516</v>
+        <v>490</v>
       </c>
       <c r="B31" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D31" t="s">
-        <v>518</v>
+        <v>492</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
@@ -3776,7 +3776,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>333</v>
+        <v>307</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
@@ -3784,122 +3784,122 @@
     </row>
     <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>270</v>
+        <v>244</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>326</v>
+        <v>300</v>
       </c>
       <c r="F3" t="s">
-        <v>593</v>
+        <v>567</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>271</v>
+        <v>245</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>327</v>
+        <v>301</v>
       </c>
       <c r="F4" t="s">
-        <v>594</v>
+        <v>568</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>272</v>
+        <v>246</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>328</v>
+        <v>302</v>
       </c>
       <c r="F5" t="s">
-        <v>595</v>
+        <v>569</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>273</v>
+        <v>247</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>329</v>
+        <v>303</v>
       </c>
       <c r="F6" t="s">
-        <v>596</v>
+        <v>570</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>274</v>
+        <v>248</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>330</v>
+        <v>304</v>
       </c>
       <c r="F7" t="s">
-        <v>597</v>
+        <v>571</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>331</v>
+        <v>305</v>
       </c>
       <c r="F8" t="s">
-        <v>598</v>
+        <v>572</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -3911,7 +3911,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
@@ -3925,7 +3925,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>592</v>
+        <v>566</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -3934,1155 +3934,1155 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>519</v>
+        <v>493</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>520</v>
+        <v>494</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="B3" t="s">
-        <v>521</v>
+        <v>495</v>
       </c>
       <c r="C3" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="D3" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="B4" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="C4" t="s">
-        <v>147</v>
+        <v>121</v>
       </c>
       <c r="D4" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>142</v>
+        <v>116</v>
       </c>
       <c r="B5" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="C5" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="D5" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="B6" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="C6" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="D6" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="B7" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="C7" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="D7" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="B8" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="C8" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="D8" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>522</v>
+        <v>496</v>
       </c>
       <c r="B9" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="C9" t="s">
-        <v>523</v>
+        <v>497</v>
       </c>
       <c r="D9" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>160</v>
+        <v>134</v>
       </c>
       <c r="B10" t="s">
-        <v>524</v>
+        <v>498</v>
       </c>
       <c r="C10" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
       <c r="D10" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>156</v>
+        <v>130</v>
       </c>
       <c r="B11" t="s">
-        <v>524</v>
+        <v>498</v>
       </c>
       <c r="C11" t="s">
-        <v>157</v>
+        <v>131</v>
       </c>
       <c r="D11" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="B12" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="C12" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="D12" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="B13" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="C13" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="D13" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>166</v>
+        <v>140</v>
       </c>
       <c r="B14" t="s">
-        <v>167</v>
+        <v>141</v>
       </c>
       <c r="C14" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="D14" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="B15" t="s">
-        <v>524</v>
+        <v>498</v>
       </c>
       <c r="C15" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="D15" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
       <c r="B16" t="s">
-        <v>524</v>
+        <v>498</v>
       </c>
       <c r="C16" t="s">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="D16" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>525</v>
+        <v>499</v>
       </c>
       <c r="B17" t="s">
-        <v>526</v>
+        <v>500</v>
       </c>
       <c r="C17" t="s">
-        <v>527</v>
+        <v>501</v>
       </c>
       <c r="D17" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>528</v>
+        <v>502</v>
       </c>
       <c r="B18" t="s">
-        <v>526</v>
+        <v>500</v>
       </c>
       <c r="C18" t="s">
-        <v>529</v>
+        <v>503</v>
       </c>
       <c r="D18" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="B19" t="s">
-        <v>524</v>
+        <v>498</v>
       </c>
       <c r="C19" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="D19" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>530</v>
+        <v>504</v>
       </c>
       <c r="B20" t="s">
-        <v>526</v>
+        <v>500</v>
       </c>
       <c r="C20" t="s">
-        <v>531</v>
+        <v>505</v>
       </c>
       <c r="D20" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="B21" t="s">
-        <v>532</v>
+        <v>506</v>
       </c>
       <c r="C21" t="s">
-        <v>163</v>
+        <v>137</v>
       </c>
       <c r="D21" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="D22" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="B23" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="C23" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="D23" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>148</v>
+        <v>122</v>
       </c>
       <c r="B24" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="C24" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="D24" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="B25" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="C25" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="D25" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="B26" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C26" t="s">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="D26" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>211</v>
+        <v>185</v>
       </c>
       <c r="B27" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C27" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
       <c r="D27" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>169</v>
+        <v>143</v>
       </c>
       <c r="B29" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="C29" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="D29" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>173</v>
+        <v>147</v>
       </c>
       <c r="B30" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C30" t="s">
-        <v>174</v>
+        <v>148</v>
       </c>
       <c r="D30" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>238</v>
+        <v>212</v>
       </c>
       <c r="B31" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C31" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
       <c r="D31" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>533</v>
+        <v>507</v>
       </c>
       <c r="B32" t="s">
-        <v>534</v>
+        <v>508</v>
       </c>
       <c r="C32" t="s">
-        <v>535</v>
+        <v>509</v>
       </c>
       <c r="D32" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>175</v>
+        <v>149</v>
       </c>
       <c r="B33" t="s">
-        <v>524</v>
+        <v>498</v>
       </c>
       <c r="C33" t="s">
-        <v>176</v>
+        <v>150</v>
       </c>
       <c r="D33" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>177</v>
+        <v>151</v>
       </c>
       <c r="B34" t="s">
-        <v>178</v>
+        <v>152</v>
       </c>
       <c r="C34" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="D34" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>180</v>
+        <v>154</v>
       </c>
       <c r="B35" t="s">
-        <v>524</v>
+        <v>498</v>
       </c>
       <c r="C35" t="s">
-        <v>181</v>
+        <v>155</v>
       </c>
       <c r="D35" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>182</v>
+        <v>156</v>
       </c>
       <c r="B36" t="s">
-        <v>178</v>
+        <v>152</v>
       </c>
       <c r="C36" t="s">
-        <v>183</v>
+        <v>157</v>
       </c>
       <c r="D36" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>240</v>
+        <v>214</v>
       </c>
       <c r="B37" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="C37" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="D37" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>536</v>
+        <v>510</v>
       </c>
       <c r="B38" t="s">
-        <v>537</v>
+        <v>511</v>
       </c>
       <c r="C38" t="s">
-        <v>538</v>
+        <v>512</v>
       </c>
       <c r="D38" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>539</v>
+        <v>513</v>
       </c>
       <c r="B39" t="s">
-        <v>540</v>
+        <v>514</v>
       </c>
       <c r="C39" t="s">
-        <v>541</v>
+        <v>515</v>
       </c>
       <c r="D39" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="B40" t="s">
-        <v>542</v>
+        <v>516</v>
       </c>
       <c r="C40" t="s">
-        <v>543</v>
+        <v>517</v>
       </c>
       <c r="D40" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>544</v>
+        <v>518</v>
       </c>
       <c r="B42" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C42" t="s">
-        <v>545</v>
+        <v>519</v>
       </c>
       <c r="D42" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>546</v>
+        <v>520</v>
       </c>
       <c r="B43" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C43" t="s">
-        <v>547</v>
+        <v>521</v>
       </c>
       <c r="D43" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>548</v>
+        <v>522</v>
       </c>
       <c r="B44" t="s">
-        <v>549</v>
+        <v>523</v>
       </c>
       <c r="C44" t="s">
-        <v>550</v>
+        <v>524</v>
       </c>
       <c r="D44" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>551</v>
+        <v>525</v>
       </c>
       <c r="B45" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C45" t="s">
-        <v>552</v>
+        <v>526</v>
       </c>
       <c r="D45" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>553</v>
+        <v>527</v>
       </c>
       <c r="B46" t="s">
-        <v>549</v>
+        <v>523</v>
       </c>
       <c r="C46" t="s">
-        <v>568</v>
+        <v>542</v>
       </c>
       <c r="D46" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>554</v>
+        <v>528</v>
       </c>
       <c r="B47" t="s">
-        <v>549</v>
+        <v>523</v>
       </c>
       <c r="C47" t="s">
-        <v>569</v>
+        <v>543</v>
       </c>
       <c r="D47" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>555</v>
+        <v>529</v>
       </c>
       <c r="B48" t="s">
-        <v>549</v>
+        <v>523</v>
       </c>
       <c r="C48" t="s">
-        <v>570</v>
+        <v>544</v>
       </c>
       <c r="D48" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>556</v>
+        <v>530</v>
       </c>
       <c r="B49" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C49" t="s">
-        <v>571</v>
+        <v>545</v>
       </c>
       <c r="D49" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
       <c r="B50" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C50" t="s">
-        <v>208</v>
+        <v>182</v>
       </c>
       <c r="D50" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>557</v>
+        <v>531</v>
       </c>
       <c r="B51" t="s">
-        <v>549</v>
+        <v>523</v>
       </c>
       <c r="C51" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
       <c r="D51" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
       <c r="B52" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C52" t="s">
-        <v>188</v>
+        <v>162</v>
       </c>
       <c r="D52" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="B53" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C53" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="D53" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
       <c r="B54" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C54" t="s">
-        <v>200</v>
+        <v>174</v>
       </c>
       <c r="D54" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="B55" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C55" t="s">
-        <v>186</v>
+        <v>160</v>
       </c>
       <c r="D55" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="B56" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C56" t="s">
-        <v>196</v>
+        <v>170</v>
       </c>
       <c r="D56" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>558</v>
+        <v>532</v>
       </c>
       <c r="B57" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C57" t="s">
-        <v>567</v>
+        <v>541</v>
       </c>
       <c r="D57" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>559</v>
+        <v>533</v>
       </c>
       <c r="B58" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C58" t="s">
-        <v>573</v>
+        <v>547</v>
       </c>
       <c r="D58" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>560</v>
+        <v>534</v>
       </c>
       <c r="B59" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C59" t="s">
-        <v>574</v>
+        <v>548</v>
       </c>
       <c r="D59" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>561</v>
+        <v>535</v>
       </c>
       <c r="B60" t="s">
+        <v>523</v>
+      </c>
+      <c r="C60" t="s">
         <v>549</v>
       </c>
-      <c r="C60" t="s">
-        <v>575</v>
-      </c>
       <c r="D60" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>189</v>
+        <v>163</v>
       </c>
       <c r="B61" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C61" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="D61" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>191</v>
+        <v>165</v>
       </c>
       <c r="B62" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C62" t="s">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c r="D62" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>193</v>
+        <v>167</v>
       </c>
       <c r="B63" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C63" t="s">
-        <v>194</v>
+        <v>168</v>
       </c>
       <c r="D63" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>201</v>
+        <v>175</v>
       </c>
       <c r="B64" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C64" t="s">
-        <v>202</v>
+        <v>176</v>
       </c>
       <c r="D64" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>205</v>
+        <v>179</v>
       </c>
       <c r="B65" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C65" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
       <c r="D65" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>203</v>
+        <v>177</v>
       </c>
       <c r="B66" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C66" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
       <c r="D66" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>562</v>
+        <v>536</v>
       </c>
       <c r="B67" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C67" t="s">
-        <v>576</v>
+        <v>550</v>
       </c>
       <c r="D67" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>563</v>
+        <v>537</v>
       </c>
       <c r="B68" t="s">
-        <v>549</v>
+        <v>523</v>
       </c>
       <c r="C68" t="s">
-        <v>577</v>
+        <v>551</v>
       </c>
       <c r="D68" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>564</v>
+        <v>538</v>
       </c>
       <c r="B69" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C69" t="s">
-        <v>578</v>
+        <v>552</v>
       </c>
       <c r="D69" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>565</v>
+        <v>539</v>
       </c>
       <c r="B70" t="s">
-        <v>549</v>
+        <v>523</v>
       </c>
       <c r="C70" t="s">
-        <v>579</v>
+        <v>553</v>
       </c>
       <c r="D70" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>566</v>
+        <v>540</v>
       </c>
       <c r="B71" t="s">
-        <v>549</v>
+        <v>523</v>
       </c>
       <c r="C71" t="s">
-        <v>580</v>
+        <v>554</v>
       </c>
       <c r="D71" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="B72" t="s">
-        <v>230</v>
+        <v>204</v>
       </c>
       <c r="C72" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
       <c r="D72" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>232</v>
+        <v>206</v>
       </c>
       <c r="B73" t="s">
-        <v>233</v>
+        <v>207</v>
       </c>
       <c r="C73" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="D73" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>235</v>
+        <v>209</v>
       </c>
       <c r="B74" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="C74" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="D74" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="B75" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C75" t="s">
-        <v>210</v>
+        <v>184</v>
       </c>
       <c r="D75" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>608</v>
+        <v>582</v>
       </c>
       <c r="B76" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C76" t="s">
-        <v>611</v>
+        <v>585</v>
       </c>
       <c r="D76" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>609</v>
+        <v>583</v>
       </c>
       <c r="B77" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C77" t="s">
-        <v>612</v>
+        <v>586</v>
       </c>
       <c r="D77" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>610</v>
+        <v>584</v>
       </c>
       <c r="B78" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C78" t="s">
-        <v>613</v>
+        <v>587</v>
       </c>
       <c r="D78" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="B80" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C80" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="D80" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="B81" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C81" t="s">
-        <v>220</v>
+        <v>194</v>
       </c>
       <c r="D81" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>221</v>
+        <v>195</v>
       </c>
       <c r="B82" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C82" t="s">
-        <v>222</v>
+        <v>196</v>
       </c>
       <c r="D82" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="B83" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C83" t="s">
-        <v>224</v>
+        <v>198</v>
       </c>
       <c r="D83" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>225</v>
+        <v>199</v>
       </c>
       <c r="B84" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C84" t="s">
-        <v>226</v>
+        <v>200</v>
       </c>
       <c r="D84" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>227</v>
+        <v>201</v>
       </c>
       <c r="B85" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C85" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="D85" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>213</v>
+        <v>187</v>
       </c>
       <c r="B87" t="s">
-        <v>214</v>
+        <v>188</v>
       </c>
       <c r="C87" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="D87" t="s">
-        <v>213</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -5117,231 +5117,231 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>296</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>281</v>
+        <v>255</v>
       </c>
       <c r="B4" t="s">
-        <v>298</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>282</v>
+        <v>256</v>
       </c>
       <c r="B5" t="s">
-        <v>299</v>
+        <v>273</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>283</v>
+        <v>257</v>
       </c>
       <c r="B6" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>284</v>
+        <v>258</v>
       </c>
       <c r="B7" t="s">
-        <v>301</v>
+        <v>275</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>285</v>
+        <v>259</v>
       </c>
       <c r="B8" t="s">
-        <v>321</v>
+        <v>295</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
       <c r="B9" t="s">
-        <v>322</v>
+        <v>296</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>286</v>
+        <v>260</v>
       </c>
       <c r="B10" t="s">
-        <v>302</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c r="B11" t="s">
-        <v>304</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>317</v>
+        <v>291</v>
       </c>
       <c r="B12" t="s">
-        <v>318</v>
+        <v>292</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>289</v>
+        <v>263</v>
       </c>
       <c r="B13" t="s">
-        <v>303</v>
+        <v>277</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>291</v>
+        <v>265</v>
       </c>
       <c r="B14" t="s">
-        <v>305</v>
+        <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>290</v>
+        <v>264</v>
       </c>
       <c r="B15" t="s">
-        <v>306</v>
+        <v>280</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>292</v>
+        <v>266</v>
       </c>
       <c r="B16" t="s">
-        <v>308</v>
+        <v>282</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>320</v>
+        <v>294</v>
       </c>
       <c r="B17" t="s">
-        <v>323</v>
+        <v>297</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>394</v>
+        <v>368</v>
       </c>
       <c r="B18" t="s">
-        <v>319</v>
+        <v>293</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>312</v>
+        <v>286</v>
       </c>
       <c r="B19" t="s">
-        <v>313</v>
+        <v>287</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>294</v>
+        <v>268</v>
       </c>
       <c r="B20" t="s">
-        <v>310</v>
+        <v>284</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>293</v>
+        <v>267</v>
       </c>
       <c r="B21" t="s">
-        <v>314</v>
+        <v>288</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="B22" t="s">
-        <v>315</v>
+        <v>289</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="B23" t="s">
-        <v>324</v>
+        <v>298</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>307</v>
+        <v>281</v>
       </c>
       <c r="B24" t="s">
-        <v>325</v>
+        <v>299</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>508</v>
+        <v>482</v>
       </c>
       <c r="B25" t="s">
-        <v>512</v>
+        <v>486</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>509</v>
+        <v>483</v>
       </c>
       <c r="B26" t="s">
-        <v>511</v>
+        <v>485</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>510</v>
+        <v>484</v>
       </c>
       <c r="B27" t="s">
-        <v>513</v>
+        <v>487</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>288</v>
+        <v>262</v>
       </c>
       <c r="B28" t="s">
-        <v>514</v>
+        <v>488</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>295</v>
+        <v>269</v>
       </c>
       <c r="B29" t="s">
-        <v>316</v>
+        <v>290</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="B30" t="s">
-        <v>311</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -5372,10 +5372,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>445</v>
+        <v>419</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>506</v>
+        <v>480</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -5391,10 +5391,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>361</v>
+        <v>335</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
@@ -5402,10 +5402,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
@@ -5413,10 +5413,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>362</v>
+        <v>336</v>
       </c>
       <c r="B5" t="s">
-        <v>446</v>
+        <v>420</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -5424,26 +5424,26 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>363</v>
+        <v>337</v>
       </c>
       <c r="B6" t="s">
-        <v>447</v>
+        <v>421</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>364</v>
+        <v>338</v>
       </c>
       <c r="B7" t="s">
-        <v>448</v>
+        <v>422</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>365</v>
+        <v>339</v>
       </c>
       <c r="B8" t="s">
-        <v>365</v>
+        <v>339</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -5451,249 +5451,249 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>366</v>
+        <v>340</v>
       </c>
       <c r="B9" t="s">
-        <v>449</v>
+        <v>423</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>367</v>
+        <v>341</v>
       </c>
       <c r="B10" t="s">
-        <v>367</v>
+        <v>341</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>368</v>
+        <v>342</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>369</v>
+        <v>343</v>
       </c>
       <c r="B13" t="s">
-        <v>450</v>
+        <v>424</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>451</v>
+        <v>425</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>370</v>
+        <v>344</v>
       </c>
       <c r="B15" t="s">
-        <v>452</v>
+        <v>426</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>371</v>
+        <v>345</v>
       </c>
       <c r="B16" t="s">
-        <v>453</v>
+        <v>427</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>372</v>
+        <v>346</v>
       </c>
       <c r="B17" t="s">
-        <v>455</v>
+        <v>429</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>373</v>
+        <v>347</v>
       </c>
       <c r="B18" t="s">
-        <v>454</v>
+        <v>428</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>374</v>
+        <v>348</v>
       </c>
       <c r="B19" t="s">
-        <v>456</v>
+        <v>430</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>375</v>
+        <v>349</v>
       </c>
       <c r="B20" t="s">
-        <v>457</v>
+        <v>431</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>376</v>
+        <v>350</v>
       </c>
       <c r="B21" t="s">
-        <v>458</v>
+        <v>432</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>377</v>
+        <v>351</v>
       </c>
       <c r="B22" t="s">
-        <v>459</v>
+        <v>433</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>378</v>
+        <v>352</v>
       </c>
       <c r="B23" t="s">
-        <v>460</v>
+        <v>434</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>379</v>
+        <v>353</v>
       </c>
       <c r="B24" t="s">
-        <v>461</v>
+        <v>435</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>380</v>
+        <v>354</v>
       </c>
       <c r="B25" t="s">
-        <v>462</v>
+        <v>436</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>463</v>
+        <v>437</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>381</v>
+        <v>355</v>
       </c>
       <c r="B27" t="s">
-        <v>464</v>
+        <v>438</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>382</v>
+        <v>356</v>
       </c>
       <c r="B28" t="s">
-        <v>382</v>
+        <v>356</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>383</v>
+        <v>357</v>
       </c>
       <c r="B29" t="s">
-        <v>465</v>
+        <v>439</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="B30" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>384</v>
+        <v>358</v>
       </c>
       <c r="B31" t="s">
-        <v>466</v>
+        <v>440</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="B32" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>385</v>
+        <v>359</v>
       </c>
       <c r="B33" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>386</v>
+        <v>360</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>387</v>
+        <v>361</v>
       </c>
       <c r="B36" t="s">
-        <v>467</v>
+        <v>441</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>388</v>
+        <v>362</v>
       </c>
       <c r="B37" t="s">
-        <v>468</v>
+        <v>442</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>389</v>
+        <v>363</v>
       </c>
       <c r="B38" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>390</v>
+        <v>364</v>
       </c>
       <c r="B39" t="s">
-        <v>469</v>
+        <v>443</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>391</v>
+        <v>365</v>
       </c>
       <c r="B40" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>392</v>
+        <v>366</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>393</v>
+        <v>367</v>
       </c>
       <c r="B43" t="s">
-        <v>393</v>
+        <v>367</v>
       </c>
       <c r="D43" t="b">
         <v>1</v>
@@ -5701,10 +5701,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>394</v>
+        <v>368</v>
       </c>
       <c r="B44" t="s">
-        <v>470</v>
+        <v>444</v>
       </c>
       <c r="D44" t="b">
         <v>1</v>
@@ -5712,10 +5712,10 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>395</v>
+        <v>369</v>
       </c>
       <c r="B45" t="s">
-        <v>471</v>
+        <v>445</v>
       </c>
       <c r="D45" t="b">
         <v>1</v>
@@ -5723,10 +5723,10 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>294</v>
+        <v>268</v>
       </c>
       <c r="B46" t="s">
-        <v>294</v>
+        <v>268</v>
       </c>
       <c r="D46" t="b">
         <v>1</v>
@@ -5734,10 +5734,10 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>396</v>
+        <v>370</v>
       </c>
       <c r="B47" t="s">
-        <v>472</v>
+        <v>446</v>
       </c>
       <c r="D47" t="b">
         <v>1</v>
@@ -5745,10 +5745,10 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>397</v>
+        <v>371</v>
       </c>
       <c r="B48" t="s">
-        <v>473</v>
+        <v>447</v>
       </c>
       <c r="D48" t="b">
         <v>1</v>
@@ -5756,10 +5756,10 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>398</v>
+        <v>372</v>
       </c>
       <c r="B49" t="s">
-        <v>474</v>
+        <v>448</v>
       </c>
       <c r="D49" t="b">
         <v>1</v>
@@ -5767,10 +5767,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>399</v>
+        <v>373</v>
       </c>
       <c r="B50" t="s">
-        <v>475</v>
+        <v>449</v>
       </c>
       <c r="D50" t="b">
         <v>1</v>
@@ -5778,10 +5778,10 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>400</v>
+        <v>374</v>
       </c>
       <c r="B51" t="s">
-        <v>476</v>
+        <v>450</v>
       </c>
       <c r="D51" t="b">
         <v>1</v>
@@ -5789,10 +5789,10 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>401</v>
+        <v>375</v>
       </c>
       <c r="B52" t="s">
-        <v>477</v>
+        <v>451</v>
       </c>
       <c r="D52" t="b">
         <v>1</v>
@@ -5800,10 +5800,10 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>402</v>
+        <v>376</v>
       </c>
       <c r="B53" t="s">
-        <v>478</v>
+        <v>452</v>
       </c>
       <c r="D53" t="b">
         <v>1</v>
@@ -5816,7 +5816,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>403</v>
+        <v>377</v>
       </c>
       <c r="D55" t="b">
         <v>1</v>
@@ -5824,7 +5824,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>404</v>
+        <v>378</v>
       </c>
       <c r="D56" t="b">
         <v>1</v>
@@ -5832,7 +5832,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>405</v>
+        <v>379</v>
       </c>
       <c r="D57" t="b">
         <v>1</v>
@@ -5840,7 +5840,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>406</v>
+        <v>380</v>
       </c>
       <c r="D58" t="b">
         <v>1</v>
@@ -5848,7 +5848,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>407</v>
+        <v>381</v>
       </c>
       <c r="D59" t="b">
         <v>1</v>
@@ -5856,7 +5856,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>408</v>
+        <v>382</v>
       </c>
       <c r="D60" t="b">
         <v>1</v>
@@ -5864,26 +5864,26 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>599</v>
+        <v>573</v>
       </c>
       <c r="B61" t="s">
-        <v>599</v>
+        <v>573</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>235</v>
+        <v>209</v>
       </c>
       <c r="B62" t="s">
-        <v>235</v>
+        <v>209</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>409</v>
+        <v>383</v>
       </c>
       <c r="B63" t="s">
-        <v>479</v>
+        <v>453</v>
       </c>
       <c r="D63" t="b">
         <v>1</v>
@@ -5891,10 +5891,10 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>410</v>
+        <v>384</v>
       </c>
       <c r="B64" t="s">
-        <v>480</v>
+        <v>454</v>
       </c>
       <c r="D64" t="b">
         <v>1</v>
@@ -5902,10 +5902,10 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>411</v>
+        <v>385</v>
       </c>
       <c r="B65" t="s">
-        <v>481</v>
+        <v>455</v>
       </c>
       <c r="D65" t="b">
         <v>1</v>
@@ -5913,10 +5913,10 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>412</v>
+        <v>386</v>
       </c>
       <c r="B66" t="s">
-        <v>482</v>
+        <v>456</v>
       </c>
       <c r="D66" t="b">
         <v>1</v>
@@ -5924,10 +5924,10 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>413</v>
+        <v>387</v>
       </c>
       <c r="B67" t="s">
-        <v>483</v>
+        <v>457</v>
       </c>
       <c r="D67" t="b">
         <v>1</v>
@@ -5935,15 +5935,15 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>414</v>
+        <v>388</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>415</v>
+        <v>389</v>
       </c>
       <c r="B70" t="s">
-        <v>600</v>
+        <v>574</v>
       </c>
       <c r="D70" t="b">
         <v>1</v>
@@ -5951,10 +5951,10 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>416</v>
+        <v>390</v>
       </c>
       <c r="B71" t="s">
-        <v>416</v>
+        <v>390</v>
       </c>
       <c r="D71" t="b">
         <v>1</v>
@@ -5962,15 +5962,15 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>417</v>
+        <v>391</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>418</v>
+        <v>392</v>
       </c>
       <c r="B74" t="s">
-        <v>601</v>
+        <v>575</v>
       </c>
       <c r="D74" t="b">
         <v>1</v>
@@ -5978,10 +5978,10 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="B75" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="D75" t="b">
         <v>1</v>
@@ -5989,10 +5989,10 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>419</v>
+        <v>393</v>
       </c>
       <c r="B76" t="s">
-        <v>419</v>
+        <v>393</v>
       </c>
       <c r="D76" t="b">
         <v>1</v>
@@ -6000,10 +6000,10 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>420</v>
+        <v>394</v>
       </c>
       <c r="B77" t="s">
-        <v>420</v>
+        <v>394</v>
       </c>
       <c r="D77" t="b">
         <v>1</v>
@@ -6011,191 +6011,191 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>421</v>
+        <v>395</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>422</v>
+        <v>396</v>
       </c>
       <c r="B80" t="s">
-        <v>484</v>
+        <v>458</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>423</v>
+        <v>397</v>
       </c>
       <c r="B81" t="s">
-        <v>486</v>
+        <v>460</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>424</v>
+        <v>398</v>
       </c>
       <c r="B82" t="s">
-        <v>487</v>
+        <v>461</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>425</v>
+        <v>399</v>
       </c>
       <c r="B83" t="s">
-        <v>488</v>
+        <v>462</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>426</v>
+        <v>400</v>
       </c>
       <c r="B84" t="s">
-        <v>489</v>
+        <v>463</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>427</v>
+        <v>401</v>
       </c>
       <c r="B85" t="s">
-        <v>490</v>
+        <v>464</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>428</v>
+        <v>402</v>
       </c>
       <c r="B86" t="s">
-        <v>491</v>
+        <v>465</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="B87" t="s">
-        <v>492</v>
+        <v>466</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>430</v>
+        <v>404</v>
       </c>
       <c r="B88" t="s">
-        <v>493</v>
+        <v>467</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>431</v>
+        <v>405</v>
       </c>
       <c r="B89" t="s">
-        <v>494</v>
+        <v>468</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>432</v>
+        <v>406</v>
       </c>
       <c r="B90" t="s">
-        <v>495</v>
+        <v>469</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>433</v>
+        <v>407</v>
       </c>
       <c r="B91" t="s">
-        <v>497</v>
+        <v>471</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>434</v>
+        <v>408</v>
       </c>
       <c r="B92" t="s">
-        <v>498</v>
+        <v>472</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>435</v>
+        <v>409</v>
       </c>
       <c r="B93" t="s">
-        <v>499</v>
+        <v>473</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>436</v>
+        <v>410</v>
       </c>
       <c r="B94" t="s">
-        <v>496</v>
+        <v>470</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>437</v>
+        <v>411</v>
       </c>
       <c r="B95" t="s">
-        <v>500</v>
+        <v>474</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>438</v>
+        <v>412</v>
       </c>
       <c r="B96" t="s">
-        <v>501</v>
+        <v>475</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>439</v>
+        <v>413</v>
       </c>
       <c r="B97" t="s">
-        <v>502</v>
+        <v>476</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>440</v>
+        <v>414</v>
       </c>
       <c r="B98" t="s">
-        <v>503</v>
+        <v>477</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>441</v>
+        <v>415</v>
       </c>
       <c r="B99" t="s">
-        <v>504</v>
+        <v>478</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>442</v>
+        <v>416</v>
       </c>
       <c r="B100" t="s">
-        <v>505</v>
+        <v>479</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>443</v>
+        <v>417</v>
       </c>
       <c r="B101" t="s">
-        <v>485</v>
+        <v>459</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>444</v>
+        <v>418</v>
       </c>
       <c r="B102" t="s">
-        <v>507</v>
+        <v>481</v>
       </c>
       <c r="C102" t="b">
         <v>0</v>

--- a/build_tools/Class_definitions/Class_definitions.xlsx
+++ b/build_tools/Class_definitions/Class_definitions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adrian\Documents\GitHub\MSEtool\build_tools\Class_definitions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C9E2247-08B1-4FC3-B3C0-23B605EF0223}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92753C14-83A1-4BA1-8E7A-F5E9EFFF73B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1812,9 +1812,6 @@
     <t>The instantaneous rate of natural mortality. For each simulation a single value is drawn from a uniform distribution specified by the upper and lower bounds provided. Uniform distribution lower and upper bounds. Non-negative real numbers.</t>
   </si>
   <si>
-    <t xml:space="preserve">Inter-annual variation in `M` expressed as a coefficient of variation of a log-normal distribution. For each simulation a single value is drawn from a uniform distribution specified by the upper and lower bounds provided. If this parameter has a positive value, yearly `M` is drawn from a log-normal distribution with a mean specified by `log(M)` drawn for that simulation and a standard deviation in log space specified by the value of `Msd` drawn for that simulation.  Uniform distribution lower and upper bounds. Non-negative real numbers </t>
-  </si>
-  <si>
     <t xml:space="preserve">The instantaneous discard mortality rate the stock experiences when fished using the gear type specified in the corresponding fleet object and discarded. For each simulation a single value is drawn from a uniform distribution specified by the upper and lower bounds provided. Uniform distribution lower and upper bounds. Non-negative real numbers.  </t>
   </si>
   <si>
@@ -1873,6 +1870,9 @@
   </si>
   <si>
     <t>The probability of individuals in area 1 remaining in area 1 over the course of one year. Please specify numbers between 0 and 1. For each simulation a single value is drawn from a uniform distribution specified by the upper and lower bounds provided. For example, in an area with a Prob_staying value of 0.95 each fish has a 95% probability of staying in that area in each time step, and a 5% probability of moving to the other area.  Uniform distribution lower and upper bounds. Positive fraction.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inter-annual variation in `M` expressed as a coefficient of variation of a log-normal distribution. For each simulation a single value is drawn from a uniform distribution specified by the upper and lower bounds provided. If this parameter is positive, yearly `M` is drawn from a log-normal distribution with a mean specified by `log(M)` drawn for that simulation and a standard deviation in log space specified by the value of `Msd` drawn for that simulation.  Uniform distribution lower and upper bounds. Non-negative real numbers </t>
   </si>
 </sst>
 </file>
@@ -2216,7 +2216,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2342,7 +2342,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" t="s">
@@ -2384,7 +2384,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>593</v>
+        <v>613</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" t="s">
@@ -2405,7 +2405,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" t="s">
@@ -2426,7 +2426,7 @@
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" t="s">
@@ -2447,7 +2447,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" t="s">
@@ -2468,7 +2468,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" t="s">
@@ -2489,7 +2489,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" t="s">
@@ -2510,7 +2510,7 @@
         <v>2</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" t="s">
@@ -2531,7 +2531,7 @@
         <v>2</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" t="s">
@@ -2552,7 +2552,7 @@
         <v>2</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" t="s">
@@ -2573,7 +2573,7 @@
         <v>2</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" t="s">
@@ -2594,7 +2594,7 @@
         <v>2</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" t="s">
@@ -2615,7 +2615,7 @@
         <v>2</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" t="s">
@@ -2636,7 +2636,7 @@
         <v>2</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" t="s">
@@ -2657,7 +2657,7 @@
         <v>2</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" t="s">
@@ -2678,7 +2678,7 @@
         <v>2</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E22" s="3" t="b">
         <v>0</v>
@@ -2699,7 +2699,7 @@
         <v>2</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E23" s="3" t="b">
         <v>0</v>
@@ -2720,7 +2720,7 @@
         <v>2</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" t="s">
@@ -2741,7 +2741,7 @@
         <v>2</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" t="s">
@@ -2762,7 +2762,7 @@
         <v>2</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" t="s">
@@ -2783,7 +2783,7 @@
         <v>2</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" t="s">

--- a/build_tools/Class_definitions/Class_definitions.xlsx
+++ b/build_tools/Class_definitions/Class_definitions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adrian\Documents\GitHub\MSEtool\build_tools\Class_definitions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92753C14-83A1-4BA1-8E7A-F5E9EFFF73B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{424A729D-9852-4958-A224-28FE2B5C5D5A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stock" sheetId="1" r:id="rId1"/>
@@ -213,111 +213,60 @@
     <t>A reference to a website or article from which parameters were taken to define the stock object. Single value. Character string.</t>
   </si>
   <si>
-    <t>Name of the Fleet object. Single value. Character string.</t>
-  </si>
-  <si>
     <t>nyears</t>
   </si>
   <si>
-    <t xml:space="preserve">The number of years for the historical 'spool-up' simulation. Single value. Positive integer </t>
-  </si>
-  <si>
     <t>CurrentYr</t>
   </si>
   <si>
-    <t>The current calendar year (final year) of the historical simulations (eg 2011). Single value. Positive integer</t>
-  </si>
-  <si>
     <t>EffYears</t>
   </si>
   <si>
-    <t xml:space="preserve">Years representing join-points (vertices) of time-varying effort. Vector. Non-negative real numbers </t>
-  </si>
-  <si>
     <t>EffLower</t>
   </si>
   <si>
-    <t>Lower bound on relative effort corresponding to EffYears. Vector. Non-negative real numbers</t>
-  </si>
-  <si>
     <t>EffUpper</t>
   </si>
   <si>
-    <t xml:space="preserve">Upper bound on relative effort corresponding to EffYears. Vector. Non-negative real numbers </t>
-  </si>
-  <si>
     <t>Esd</t>
   </si>
   <si>
-    <t xml:space="preserve">Additional inter-annual variability in fishing mortality rate. Uniform distribution lower and upper bounds. Non-negative real numbers </t>
-  </si>
-  <si>
     <t>qinc</t>
   </si>
   <si>
-    <t>Average percentage change in fishing efficiency (applicable only to forward projection and input controls). Uniform distribution lower and upper bounds. Non-negative real numbers</t>
-  </si>
-  <si>
     <t>qcv</t>
   </si>
   <si>
-    <t>Inter-annual variability in fishing efficiency (applicable only to forward projection and input controls). Uniform distribution lower and upper bounds. Non-negative real numbers</t>
-  </si>
-  <si>
     <t>L5</t>
   </si>
   <si>
-    <t xml:space="preserve"> Shortest length corresponding to 5 percent vulnerability. Uniform distribution lower and upper bounds. Positive real numbers </t>
-  </si>
-  <si>
     <t>LFS</t>
   </si>
   <si>
-    <t>Shortest length that is fully vulnerable to fishing. Uniform distribution lower and upper bounds. Positive real numbers</t>
-  </si>
-  <si>
     <t>Vmaxlen</t>
   </si>
   <si>
-    <t xml:space="preserve">The vulnerability of fish at \code{Stock@Linf}. Uniform distribution lower and upper bounds. Fraction </t>
-  </si>
-  <si>
     <t>isRel</t>
   </si>
   <si>
     <t>logical</t>
   </si>
   <si>
-    <t>Selectivity parameters in units of size-of-maturity (or absolute eg cm). Single value. Boolean</t>
-  </si>
-  <si>
     <t>LR5</t>
   </si>
   <si>
     <t>LFR</t>
   </si>
   <si>
-    <t>Shortest length that is fully retained. Uniform distribution lower and upper bounds. Non-negative real numbers</t>
-  </si>
-  <si>
     <t>Rmaxlen</t>
   </si>
   <si>
-    <t xml:space="preserve"> The retention of fish at \code{Stock@Linf}. Uniform distribution lower and upper bounds. Non-negative real numbers</t>
-  </si>
-  <si>
     <t>DR</t>
   </si>
   <si>
-    <t>Discard rate - the fraction of caught fish that are discarded. Uniform distribution lower and upper bounds. Fraction</t>
-  </si>
-  <si>
     <t>Spat_targ</t>
   </si>
   <si>
-    <t xml:space="preserve">Distribution of fishing in relation to spatial biomass: fishing distribution is proportional to B^Spat_targ. Uniform distribution lower and upper bounds. Real numbers </t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -786,9 +735,6 @@
     <t>MPA</t>
   </si>
   <si>
-    <t>Is Area 1 currently closed (TRUE) or open (FALSE)? Defaults to FALSE</t>
-  </si>
-  <si>
     <t>Misc</t>
   </si>
   <si>
@@ -1713,9 +1659,6 @@
     <t>The vulnerability of fish at \code{Stock@Linf}</t>
   </si>
   <si>
-    <t>Shortest length corresponding at 5 percent retention. Uniform distribution lower and upper bounds. Non-negative real numbers</t>
-  </si>
-  <si>
     <t>Shortest length corresponding at 5 percent retention</t>
   </si>
   <si>
@@ -1797,9 +1740,6 @@
     <t>Beta for hyperstability/depletion for `Data@SpInd`</t>
   </si>
   <si>
-    <t>The maximum age of individuals that is simulated. There are `maxage+1`  (recruitment to age-0) age classes in the storage matrices.  `maxage` is the 'plus group' where all age-classes &gt; `maxage` are grouped, unless option switched off with `OM@cpars$plusgroup=0`. Single value. Positive integer.</t>
-  </si>
-  <si>
     <t>An identifying name for the Stock object. Single value. Character string.</t>
   </si>
   <si>
@@ -1873,6 +1813,66 @@
   </si>
   <si>
     <t xml:space="preserve">Inter-annual variation in `M` expressed as a coefficient of variation of a log-normal distribution. For each simulation a single value is drawn from a uniform distribution specified by the upper and lower bounds provided. If this parameter is positive, yearly `M` is drawn from a log-normal distribution with a mean specified by `log(M)` drawn for that simulation and a standard deviation in log space specified by the value of `Msd` drawn for that simulation.  Uniform distribution lower and upper bounds. Non-negative real numbers </t>
+  </si>
+  <si>
+    <t>Logical argument (TRUE or FALSE). Creates an MPA in Area 1 for all years if true is selected. Defaults to FALSE.</t>
+  </si>
+  <si>
+    <t>Distribution of fishing in relation to vulnerable biomass (VB) across areas. The distribution of fishing effort is proportional to VB^Spat_targ. Upper and lower bounds of a uniform distribution. For each simulation a single value is drawn from a uniform distribution specified by the upper and lower bounds provided. This parameter allows the user to model either avoidance or spatial targeting behavior by the fleet. If the parameter value is 1, fishing effort is allocated across areas in proportion to the population density of that area. Values below 1 simulate an avoidance behavior and values above 1 simulate a targeting behavior.</t>
+  </si>
+  <si>
+    <t>Discard rate, defined as the proportion of fully selected fish that are discarded by the fleet. Upper and Lower bounds between 0 and 1, with a value of 1 indicates that 100% of selected fish are discarded. For each simulation a single value is drawn from a uniform distribution specified by the upper and lower bounds provided.</t>
+  </si>
+  <si>
+    <t>The maximum age of individuals that is simulated. There are `maxage+1`  (recruitment to age-0) age classes in the storage matrices.  `maxage` is the 'plus group' where all age-classes &gt; `maxage` are grouped, unless option switched off with \code{OM@cpars$plusgroup=0}. Single value. Positive integer.</t>
+  </si>
+  <si>
+    <t>Proportion of fish retained at the asymptotic length (\code{Stock@Linf}). Upper and Lower bounds between 0 and 1.  A value of 1 indicates that 100% of fish are retained at the asymptotic length, and the selection curve is logistic. If `Rmaxlen` is less than 1 the retention curve is dome shaped. For example, if `Rmaxlen` is 0.4, then only 40% of fish at the asymptotic length are retained.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shortest length where 100% of the population is vulnerable to retention by the fleet. Values can either be specified as lengths (in the same units used for the maturity and growth parameters in the stock object) or as a percentage of the size of maturity (see the parameter `isRel` for more information). For each simulation a single value is drawn from a uniform distribution specified by the upper and lower bounds provided. This value is the same in all years unless cpars is used to provide time-varying selection. </t>
+  </si>
+  <si>
+    <t>Shortest length at which 5% of the population is vulnerable to retention by the fleet. Values can either be specified as lengths (in the same units used for the maturity and growth parameters in the stock object) or as a percentage of the size of maturity (see the parameter isRel for more information). For each simulation a single value is drawn from a uniform distribution specified by the upper and lower bounds provided. This value is the same in all years unless cpars is used to provide time-varying selection.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specify whether selection and retention parameters use absolute lengths or relative to the size of maturity. Single logical value (TRUE or FALSE). </t>
+  </si>
+  <si>
+    <t>Proportion of fish selected by the gear at the asymptotic length (\code{Stock@Linf}). Upper and Lower bounds between 0 and 1.  A value of 1 indicates that 100% of fish are selected at the asymptotic length, and the selection curve is logistic. If `Vmaxlen` is less than 1 the selection curve is dome shaped. For example, if `Vmaxlen` is 0.4, then only 40% of fish are vulnerable to the fishing gear at the asymptotic length.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shortest length at which 100% of the population is vulnerable to selection by the gear used by this fleet. Values can either be specified as lengths (in the same units used for the maturity and growth parameters in the stock object) or as a percentage of the size of maturity (see the parameter isRel for more information). For each simulation a single value is drawn from a uniform distribution specified by the upper and lower bounds provided. This value is the same in all years unless cpars is used to provide time-varying selection. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shortest length at which 5% of the population is vulnerable to selection by the gear used in this fleet. Values can either be specified as lengths (in the same units used for the maturity and growth parameters in the stock object) or as a percentage of the size of maturity (see the parameter isRel for more information). For each simulation a single value is drawn from a uniform distribution specified by the upper and lower bounds provided. This value is the same in all years unless cpars is used to provide time-varying selection. </t>
+  </si>
+  <si>
+    <t>Inter-annual variability in catchability expressed as a coefficient of variation. For each simulation a single value is drawn from a uniform distribution specified by the upper and lower bounds provided. This parameter applies only to forward projections.</t>
+  </si>
+  <si>
+    <t>Mean temporal trend in catchability (also though of as the efficiency of fishing gear) parameter, expressed as a percentage change in catchability (q) per year. For each simulation a single value is drawn from a uniform distribution specified by the upper and lower bounds provided. Positive numbers indicate an increase and negative numbers indicate a decrease. q then changes by this amount for in each year of the simulation This parameter applies only to forward projections.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Additional inter-annual variability in fishing mortality rate. For each historical simulation a single value is drawn from a uniform distribution specified by the upper and lower bounds provided. If this parameter has a positive (non-zero) value, the yearly fishing mortality rate is drawn from a log-normal distribution with a standard deviation (in log space) specified by the value of `Esd` drawn for that simulation. This parameter applies only to historical projections. </t>
+  </si>
+  <si>
+    <t>Upper bound on relative fishing effort corresponding to EffYears. EffUpper must be a vector that is the same length as EffYears describing how fishing effort has changed over time. Information on relative fishing effort can be entered in any units provided they are consistent across the entire vector because the data provided will be scaled to 1 (divided by the maximum number provided).</t>
+  </si>
+  <si>
+    <t>Lower bound on relative fishing effort corresponding to EffYears. EffLower must be a vector that is the same length as EffYears describing how fishing effort has changed over time. Information on relative fishing effort can be entered in any units provided they are consistent across the entire vector because the data provided will be scaled to 1 (divided by the maximum number provided).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vector indicating the historical years where there is information available to infer the relative fishing effort expended.This vector is specified in terms of the position of the year in the vector rather than the calendar year. For example, say our simulation starts with an unfished stock in 1975,and the current year (the last year for which there is data available) is 2019. Then there are 45 historical years simulated, and EffYears should include numbers between 1 and 45. Note that there may not be information available for every historical year, especially for data poor fisheries. In these situations, the EffYears vector should include only the positions of the years for which there is information, and the vector may be shorter than the total number of simulated historical years (nyears). </t>
+  </si>
+  <si>
+    <t>The last historical year simulated before projections begin. Single value. Note that this should match the last historical year specified in the `Data` object, which is usually the last historical year for which data is available.</t>
+  </si>
+  <si>
+    <t>The number of years for the historical simulation. Single value. For example, if the simulated population is assumed to be unfished in 1975 and this is the year you want to start your historical simulations, and the most recent year for which there is data available is 2019, then nyears equals 45.</t>
+  </si>
+  <si>
+    <t>Identifying name for the fleet. Usually includes location and gear type.</t>
   </si>
 </sst>
 </file>
@@ -2215,8 +2215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2262,7 +2262,7 @@
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>589</v>
+        <v>569</v>
       </c>
       <c r="E2" s="3" t="b">
         <v>0</v>
@@ -2281,7 +2281,7 @@
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>590</v>
+        <v>570</v>
       </c>
       <c r="E3" s="3" t="b">
         <v>0</v>
@@ -2300,7 +2300,7 @@
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>591</v>
+        <v>571</v>
       </c>
       <c r="E4" s="3" t="b">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>588</v>
+        <v>597</v>
       </c>
       <c r="E5" s="3" t="b">
         <v>0</v>
@@ -2342,7 +2342,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>594</v>
+        <v>574</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" t="s">
@@ -2363,7 +2363,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>592</v>
+        <v>572</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" t="s">
@@ -2384,7 +2384,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>613</v>
+        <v>593</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" t="s">
@@ -2405,7 +2405,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>596</v>
+        <v>576</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" t="s">
@@ -2426,7 +2426,7 @@
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>595</v>
+        <v>575</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" t="s">
@@ -2447,7 +2447,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>597</v>
+        <v>577</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" t="s">
@@ -2468,7 +2468,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>598</v>
+        <v>578</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" t="s">
@@ -2489,7 +2489,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>599</v>
+        <v>579</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" t="s">
@@ -2510,7 +2510,7 @@
         <v>2</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>604</v>
+        <v>584</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" t="s">
@@ -2531,7 +2531,7 @@
         <v>2</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>600</v>
+        <v>580</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" t="s">
@@ -2552,7 +2552,7 @@
         <v>2</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>603</v>
+        <v>583</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" t="s">
@@ -2573,7 +2573,7 @@
         <v>2</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>601</v>
+        <v>581</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" t="s">
@@ -2594,7 +2594,7 @@
         <v>2</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>602</v>
+        <v>582</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" t="s">
@@ -2615,7 +2615,7 @@
         <v>2</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>607</v>
+        <v>587</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" t="s">
@@ -2636,7 +2636,7 @@
         <v>2</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>608</v>
+        <v>588</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" t="s">
@@ -2657,7 +2657,7 @@
         <v>2</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>609</v>
+        <v>589</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" t="s">
@@ -2678,7 +2678,7 @@
         <v>2</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>605</v>
+        <v>585</v>
       </c>
       <c r="E22" s="3" t="b">
         <v>0</v>
@@ -2699,7 +2699,7 @@
         <v>2</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>606</v>
+        <v>586</v>
       </c>
       <c r="E23" s="3" t="b">
         <v>0</v>
@@ -2720,7 +2720,7 @@
         <v>2</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>610</v>
+        <v>590</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" t="s">
@@ -2741,7 +2741,7 @@
         <v>2</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>611</v>
+        <v>591</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" t="s">
@@ -2762,7 +2762,7 @@
         <v>2</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>612</v>
+        <v>592</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" t="s">
@@ -2783,7 +2783,7 @@
         <v>2</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>593</v>
+        <v>573</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" t="s">
@@ -2822,8 +2822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="51.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2869,7 +2869,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>60</v>
+        <v>613</v>
       </c>
       <c r="E2" s="3" t="b">
         <v>0</v>
@@ -2878,9 +2878,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>13</v>
@@ -2889,7 +2889,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>62</v>
+        <v>612</v>
       </c>
       <c r="E3" s="3" t="b">
         <v>0</v>
@@ -2898,9 +2898,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>13</v>
@@ -2909,7 +2909,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>64</v>
+        <v>611</v>
       </c>
       <c r="E4" s="3" t="b">
         <v>0</v>
@@ -2918,15 +2918,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>66</v>
+        <v>610</v>
       </c>
       <c r="E5" s="3" t="b">
         <v>0</v>
@@ -2935,15 +2935,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>68</v>
+        <v>609</v>
       </c>
       <c r="E6" s="3" t="b">
         <v>0</v>
@@ -2952,15 +2952,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>70</v>
+        <v>608</v>
       </c>
       <c r="E7" s="3" t="b">
         <v>0</v>
@@ -2969,9 +2969,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>15</v>
@@ -2980,18 +2980,18 @@
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>72</v>
+        <v>607</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>15</v>
@@ -3000,18 +3000,18 @@
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>74</v>
+        <v>606</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>555</v>
+        <v>537</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>15</v>
@@ -3020,18 +3020,18 @@
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>76</v>
+        <v>605</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>556</v>
+        <v>538</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>15</v>
@@ -3040,18 +3040,18 @@
         <v>2</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>78</v>
+        <v>604</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>557</v>
+        <v>539</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>15</v>
@@ -3060,18 +3060,18 @@
         <v>2</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>80</v>
+        <v>603</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>558</v>
+        <v>540</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>15</v>
@@ -3080,35 +3080,35 @@
         <v>2</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>82</v>
+        <v>602</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>559</v>
+        <v>541</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C14" s="3">
         <v>2</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>85</v>
+        <v>601</v>
       </c>
       <c r="E14" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>15</v>
@@ -3117,18 +3117,18 @@
         <v>2</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>561</v>
+        <v>542</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>15</v>
@@ -3137,18 +3137,18 @@
         <v>2</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>88</v>
+        <v>599</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>562</v>
+        <v>543</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>15</v>
@@ -3157,18 +3157,18 @@
         <v>2</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>90</v>
+        <v>598</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>564</v>
+        <v>545</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>15</v>
@@ -3177,18 +3177,18 @@
         <v>2</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>92</v>
+        <v>596</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>563</v>
+        <v>544</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>15</v>
@@ -3197,10 +3197,10 @@
         <v>2</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>94</v>
+        <v>595</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>565</v>
+        <v>546</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>16</v>
@@ -3208,33 +3208,33 @@
     </row>
     <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C20" s="3">
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>251</v>
+        <v>594</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>517</v>
+        <v>499</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>516</v>
+        <v>498</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="E21" s="3" t="b">
         <v>0</v>
@@ -3293,7 +3293,7 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
@@ -3301,13 +3301,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -3315,13 +3315,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
@@ -3329,16 +3329,16 @@
     </row>
     <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
       <c r="F5" t="s">
-        <v>577</v>
+        <v>558</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>16</v>
@@ -3346,16 +3346,16 @@
     </row>
     <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
       <c r="F6" t="s">
-        <v>579</v>
+        <v>560</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>16</v>
@@ -3363,16 +3363,16 @@
     </row>
     <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="F7" t="s">
-        <v>578</v>
+        <v>559</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>16</v>
@@ -3380,16 +3380,16 @@
     </row>
     <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="F8" t="s">
-        <v>580</v>
+        <v>561</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>16</v>
@@ -3397,13 +3397,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
@@ -3411,13 +3411,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
@@ -3425,13 +3425,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
@@ -3439,16 +3439,16 @@
     </row>
     <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="F12" t="s">
-        <v>581</v>
+        <v>562</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>16</v>
@@ -3456,13 +3456,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
@@ -3470,13 +3470,13 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
@@ -3484,13 +3484,13 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
       </c>
       <c r="D15" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
@@ -3498,13 +3498,13 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
@@ -3512,13 +3512,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
       </c>
       <c r="D17" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
@@ -3526,13 +3526,13 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="B18" t="s">
         <v>15</v>
       </c>
       <c r="D18" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
@@ -3540,13 +3540,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="B19" t="s">
         <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>325</v>
+        <v>307</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
@@ -3554,13 +3554,13 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B20" t="s">
         <v>15</v>
       </c>
       <c r="D20" t="s">
-        <v>333</v>
+        <v>315</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
@@ -3568,13 +3568,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="B21" t="s">
         <v>15</v>
       </c>
       <c r="D21" t="s">
-        <v>332</v>
+        <v>314</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
@@ -3582,13 +3582,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="B22" t="s">
         <v>15</v>
       </c>
       <c r="D22" t="s">
-        <v>334</v>
+        <v>316</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
@@ -3596,13 +3596,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="B23" t="s">
         <v>15</v>
       </c>
       <c r="D23" t="s">
-        <v>331</v>
+        <v>313</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
@@ -3610,13 +3610,13 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="B24" t="s">
         <v>15</v>
       </c>
       <c r="D24" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
@@ -3624,13 +3624,13 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="B25" t="s">
         <v>15</v>
       </c>
       <c r="D25" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
@@ -3638,13 +3638,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="B26" t="s">
         <v>15</v>
       </c>
       <c r="D26" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
@@ -3652,13 +3652,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="B27" t="s">
         <v>15</v>
       </c>
       <c r="D27" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
@@ -3666,13 +3666,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="B28" t="s">
         <v>15</v>
       </c>
       <c r="D28" t="s">
-        <v>326</v>
+        <v>308</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
@@ -3680,13 +3680,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>306</v>
+        <v>288</v>
       </c>
       <c r="B29" t="s">
         <v>15</v>
       </c>
       <c r="D29" t="s">
-        <v>576</v>
+        <v>557</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
@@ -3694,13 +3694,13 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>489</v>
+        <v>471</v>
       </c>
       <c r="B30" t="s">
         <v>15</v>
       </c>
       <c r="D30" t="s">
-        <v>491</v>
+        <v>473</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
@@ -3708,13 +3708,13 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>490</v>
+        <v>472</v>
       </c>
       <c r="B31" t="s">
         <v>15</v>
       </c>
       <c r="D31" t="s">
-        <v>492</v>
+        <v>474</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
@@ -3776,7 +3776,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
@@ -3784,7 +3784,7 @@
     </row>
     <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
@@ -3793,10 +3793,10 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="F3" t="s">
-        <v>567</v>
+        <v>548</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>16</v>
@@ -3804,7 +3804,7 @@
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -3813,10 +3813,10 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="F4" t="s">
-        <v>568</v>
+        <v>549</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>16</v>
@@ -3824,7 +3824,7 @@
     </row>
     <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -3833,10 +3833,10 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>302</v>
+        <v>284</v>
       </c>
       <c r="F5" t="s">
-        <v>569</v>
+        <v>550</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>16</v>
@@ -3844,7 +3844,7 @@
     </row>
     <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -3853,10 +3853,10 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>303</v>
+        <v>285</v>
       </c>
       <c r="F6" t="s">
-        <v>570</v>
+        <v>551</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>16</v>
@@ -3864,7 +3864,7 @@
     </row>
     <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
@@ -3873,10 +3873,10 @@
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>304</v>
+        <v>286</v>
       </c>
       <c r="F7" t="s">
-        <v>571</v>
+        <v>552</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>16</v>
@@ -3884,7 +3884,7 @@
     </row>
     <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
@@ -3893,10 +3893,10 @@
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>305</v>
+        <v>287</v>
       </c>
       <c r="F8" t="s">
-        <v>572</v>
+        <v>553</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>16</v>
@@ -3925,7 +3925,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>566</v>
+        <v>547</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -3934,1155 +3934,1155 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>494</v>
+        <v>476</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="B3" t="s">
-        <v>495</v>
+        <v>477</v>
       </c>
       <c r="C3" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="D3" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="C4" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="D4" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="B5" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="C5" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="D5" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="B6" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="C6" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="D6" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="B7" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="C7" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="D7" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="B8" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="C8" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="D8" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>496</v>
+        <v>478</v>
       </c>
       <c r="B9" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="C9" t="s">
-        <v>497</v>
+        <v>479</v>
       </c>
       <c r="D9" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="B10" t="s">
-        <v>498</v>
+        <v>480</v>
       </c>
       <c r="C10" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="D10" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="B11" t="s">
-        <v>498</v>
+        <v>480</v>
       </c>
       <c r="C11" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="D11" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="B12" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="C12" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="D12" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="B13" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="C13" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="D13" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="B14" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="C14" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="D14" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="B15" t="s">
-        <v>498</v>
+        <v>480</v>
       </c>
       <c r="C15" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="D15" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="B16" t="s">
-        <v>498</v>
+        <v>480</v>
       </c>
       <c r="C16" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="D16" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>499</v>
+        <v>481</v>
       </c>
       <c r="B17" t="s">
-        <v>500</v>
+        <v>482</v>
       </c>
       <c r="C17" t="s">
-        <v>501</v>
+        <v>483</v>
       </c>
       <c r="D17" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>502</v>
+        <v>484</v>
       </c>
       <c r="B18" t="s">
-        <v>500</v>
+        <v>482</v>
       </c>
       <c r="C18" t="s">
-        <v>503</v>
+        <v>485</v>
       </c>
       <c r="D18" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="B19" t="s">
-        <v>498</v>
+        <v>480</v>
       </c>
       <c r="C19" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="D19" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>504</v>
+        <v>486</v>
       </c>
       <c r="B20" t="s">
-        <v>500</v>
+        <v>482</v>
       </c>
       <c r="C20" t="s">
-        <v>505</v>
+        <v>487</v>
       </c>
       <c r="D20" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="B21" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="C21" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="D21" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="B22" t="s">
         <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="D22" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="B23" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="C23" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="D23" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="B24" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="C24" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="D24" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="B25" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="C25" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="D25" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="B26" t="s">
         <v>16</v>
       </c>
       <c r="C26" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="D26" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="B27" t="s">
         <v>16</v>
       </c>
       <c r="C27" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="D27" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="B29" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="C29" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="D29" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="B30" t="s">
         <v>16</v>
       </c>
       <c r="C30" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="D30" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="B31" t="s">
         <v>16</v>
       </c>
       <c r="C31" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="D31" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>507</v>
+        <v>489</v>
       </c>
       <c r="B32" t="s">
-        <v>508</v>
+        <v>490</v>
       </c>
       <c r="C32" t="s">
-        <v>509</v>
+        <v>491</v>
       </c>
       <c r="D32" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="B33" t="s">
-        <v>498</v>
+        <v>480</v>
       </c>
       <c r="C33" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="D33" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="B34" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="C34" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="D34" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="B35" t="s">
-        <v>498</v>
+        <v>480</v>
       </c>
       <c r="C35" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="D35" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="B36" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="C36" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="D36" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="B37" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="C37" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="D37" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>510</v>
+        <v>492</v>
       </c>
       <c r="B38" t="s">
-        <v>511</v>
+        <v>493</v>
       </c>
       <c r="C38" t="s">
-        <v>512</v>
+        <v>494</v>
       </c>
       <c r="D38" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>513</v>
+        <v>495</v>
       </c>
       <c r="B39" t="s">
-        <v>514</v>
+        <v>496</v>
       </c>
       <c r="C39" t="s">
-        <v>515</v>
+        <v>497</v>
       </c>
       <c r="D39" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="B40" t="s">
-        <v>516</v>
+        <v>498</v>
       </c>
       <c r="C40" t="s">
-        <v>517</v>
+        <v>499</v>
       </c>
       <c r="D40" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>518</v>
+        <v>500</v>
       </c>
       <c r="B42" t="s">
         <v>16</v>
       </c>
       <c r="C42" t="s">
-        <v>519</v>
+        <v>501</v>
       </c>
       <c r="D42" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>520</v>
+        <v>502</v>
       </c>
       <c r="B43" t="s">
         <v>16</v>
       </c>
       <c r="C43" t="s">
-        <v>521</v>
+        <v>503</v>
       </c>
       <c r="D43" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>522</v>
+        <v>504</v>
       </c>
       <c r="B44" t="s">
-        <v>523</v>
+        <v>505</v>
       </c>
       <c r="C44" t="s">
-        <v>524</v>
+        <v>506</v>
       </c>
       <c r="D44" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>525</v>
+        <v>507</v>
       </c>
       <c r="B45" t="s">
         <v>16</v>
       </c>
       <c r="C45" t="s">
-        <v>526</v>
+        <v>508</v>
       </c>
       <c r="D45" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>527</v>
+        <v>509</v>
       </c>
       <c r="B46" t="s">
-        <v>523</v>
+        <v>505</v>
       </c>
       <c r="C46" t="s">
-        <v>542</v>
+        <v>524</v>
       </c>
       <c r="D46" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>528</v>
+        <v>510</v>
       </c>
       <c r="B47" t="s">
-        <v>523</v>
+        <v>505</v>
       </c>
       <c r="C47" t="s">
-        <v>543</v>
+        <v>525</v>
       </c>
       <c r="D47" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>529</v>
+        <v>511</v>
       </c>
       <c r="B48" t="s">
-        <v>523</v>
+        <v>505</v>
       </c>
       <c r="C48" t="s">
-        <v>544</v>
+        <v>526</v>
       </c>
       <c r="D48" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>530</v>
+        <v>512</v>
       </c>
       <c r="B49" t="s">
         <v>16</v>
       </c>
       <c r="C49" t="s">
-        <v>545</v>
+        <v>527</v>
       </c>
       <c r="D49" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="B50" t="s">
         <v>16</v>
       </c>
       <c r="C50" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="D50" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>531</v>
+        <v>513</v>
       </c>
       <c r="B51" t="s">
-        <v>523</v>
+        <v>505</v>
       </c>
       <c r="C51" t="s">
-        <v>546</v>
+        <v>528</v>
       </c>
       <c r="D51" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="B52" t="s">
         <v>16</v>
       </c>
       <c r="C52" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="D52" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="B53" t="s">
         <v>16</v>
       </c>
       <c r="C53" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="D53" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="B54" t="s">
         <v>16</v>
       </c>
       <c r="C54" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="D54" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="B55" t="s">
         <v>16</v>
       </c>
       <c r="C55" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="D55" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="B56" t="s">
         <v>16</v>
       </c>
       <c r="C56" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="D56" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>532</v>
+        <v>514</v>
       </c>
       <c r="B57" t="s">
         <v>16</v>
       </c>
       <c r="C57" t="s">
-        <v>541</v>
+        <v>523</v>
       </c>
       <c r="D57" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>533</v>
+        <v>515</v>
       </c>
       <c r="B58" t="s">
         <v>16</v>
       </c>
       <c r="C58" t="s">
-        <v>547</v>
+        <v>529</v>
       </c>
       <c r="D58" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>534</v>
+        <v>516</v>
       </c>
       <c r="B59" t="s">
         <v>16</v>
       </c>
       <c r="C59" t="s">
-        <v>548</v>
+        <v>530</v>
       </c>
       <c r="D59" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>535</v>
+        <v>517</v>
       </c>
       <c r="B60" t="s">
-        <v>523</v>
+        <v>505</v>
       </c>
       <c r="C60" t="s">
-        <v>549</v>
+        <v>531</v>
       </c>
       <c r="D60" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="B61" t="s">
         <v>16</v>
       </c>
       <c r="C61" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="D61" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="B62" t="s">
         <v>16</v>
       </c>
       <c r="C62" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="D62" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="B63" t="s">
         <v>16</v>
       </c>
       <c r="C63" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="D63" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="B64" t="s">
         <v>16</v>
       </c>
       <c r="C64" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="D64" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="B65" t="s">
         <v>16</v>
       </c>
       <c r="C65" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="D65" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="B66" t="s">
         <v>16</v>
       </c>
       <c r="C66" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="D66" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>536</v>
+        <v>518</v>
       </c>
       <c r="B67" t="s">
         <v>16</v>
       </c>
       <c r="C67" t="s">
-        <v>550</v>
+        <v>532</v>
       </c>
       <c r="D67" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>537</v>
+        <v>519</v>
       </c>
       <c r="B68" t="s">
-        <v>523</v>
+        <v>505</v>
       </c>
       <c r="C68" t="s">
-        <v>551</v>
+        <v>533</v>
       </c>
       <c r="D68" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>538</v>
+        <v>520</v>
       </c>
       <c r="B69" t="s">
         <v>16</v>
       </c>
       <c r="C69" t="s">
-        <v>552</v>
+        <v>534</v>
       </c>
       <c r="D69" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>539</v>
+        <v>521</v>
       </c>
       <c r="B70" t="s">
-        <v>523</v>
+        <v>505</v>
       </c>
       <c r="C70" t="s">
-        <v>553</v>
+        <v>535</v>
       </c>
       <c r="D70" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>540</v>
+        <v>522</v>
       </c>
       <c r="B71" t="s">
-        <v>523</v>
+        <v>505</v>
       </c>
       <c r="C71" t="s">
-        <v>554</v>
+        <v>536</v>
       </c>
       <c r="D71" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="B72" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="C72" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="D72" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="B73" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="C73" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="D73" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="B74" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="C74" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="D74" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="B75" t="s">
         <v>16</v>
       </c>
       <c r="C75" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="D75" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>582</v>
+        <v>563</v>
       </c>
       <c r="B76" t="s">
         <v>16</v>
       </c>
       <c r="C76" t="s">
-        <v>585</v>
+        <v>566</v>
       </c>
       <c r="D76" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>583</v>
+        <v>564</v>
       </c>
       <c r="B77" t="s">
         <v>16</v>
       </c>
       <c r="C77" t="s">
-        <v>586</v>
+        <v>567</v>
       </c>
       <c r="D77" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>584</v>
+        <v>565</v>
       </c>
       <c r="B78" t="s">
         <v>16</v>
       </c>
       <c r="C78" t="s">
-        <v>587</v>
+        <v>568</v>
       </c>
       <c r="D78" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="B80" t="s">
         <v>16</v>
       </c>
       <c r="C80" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="D80" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="B81" t="s">
         <v>16</v>
       </c>
       <c r="C81" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="D81" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="B82" t="s">
         <v>16</v>
       </c>
       <c r="C82" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="D82" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="B83" t="s">
         <v>16</v>
       </c>
       <c r="C83" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="D83" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="B84" t="s">
         <v>16</v>
       </c>
       <c r="C84" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="D84" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="B85" t="s">
         <v>16</v>
       </c>
       <c r="C85" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="D85" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="B87" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="C87" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="D87" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -5117,231 +5117,231 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="B4" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="B5" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="B6" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="B7" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="B8" t="s">
-        <v>295</v>
+        <v>277</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="B9" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="B10" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="B11" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
       <c r="B12" t="s">
-        <v>292</v>
+        <v>274</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>263</v>
+        <v>245</v>
       </c>
       <c r="B13" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="B14" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="B15" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="B16" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
       <c r="B17" t="s">
-        <v>297</v>
+        <v>279</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>368</v>
+        <v>350</v>
       </c>
       <c r="B18" t="s">
-        <v>293</v>
+        <v>275</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="B19" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="B20" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="B21" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="B22" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="B23" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>263</v>
+      </c>
+      <c r="B24" t="s">
         <v>281</v>
-      </c>
-      <c r="B24" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>482</v>
+        <v>464</v>
       </c>
       <c r="B25" t="s">
-        <v>486</v>
+        <v>468</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>483</v>
+        <v>465</v>
       </c>
       <c r="B26" t="s">
-        <v>485</v>
+        <v>467</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>484</v>
+        <v>466</v>
       </c>
       <c r="B27" t="s">
-        <v>487</v>
+        <v>469</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="B28" t="s">
-        <v>488</v>
+        <v>470</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="B29" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="B30" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -5372,10 +5372,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>419</v>
+        <v>401</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>480</v>
+        <v>462</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -5391,7 +5391,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>335</v>
+        <v>317</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -5413,10 +5413,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>336</v>
+        <v>318</v>
       </c>
       <c r="B5" t="s">
-        <v>420</v>
+        <v>402</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -5424,26 +5424,26 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>337</v>
+        <v>319</v>
       </c>
       <c r="B6" t="s">
-        <v>421</v>
+        <v>403</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="B7" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>339</v>
+        <v>321</v>
       </c>
       <c r="B8" t="s">
-        <v>339</v>
+        <v>321</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -5451,31 +5451,31 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="B9" t="s">
-        <v>423</v>
+        <v>405</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>341</v>
+        <v>323</v>
       </c>
       <c r="B10" t="s">
-        <v>341</v>
+        <v>323</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>342</v>
+        <v>324</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>343</v>
+        <v>325</v>
       </c>
       <c r="B13" t="s">
-        <v>424</v>
+        <v>406</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -5483,95 +5483,95 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>425</v>
+        <v>407</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>344</v>
+        <v>326</v>
       </c>
       <c r="B15" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>345</v>
+        <v>327</v>
       </c>
       <c r="B16" t="s">
-        <v>427</v>
+        <v>409</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>346</v>
+        <v>328</v>
       </c>
       <c r="B17" t="s">
-        <v>429</v>
+        <v>411</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>347</v>
+        <v>329</v>
       </c>
       <c r="B18" t="s">
-        <v>428</v>
+        <v>410</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>348</v>
+        <v>330</v>
       </c>
       <c r="B19" t="s">
-        <v>430</v>
+        <v>412</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>349</v>
+        <v>331</v>
       </c>
       <c r="B20" t="s">
-        <v>431</v>
+        <v>413</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>350</v>
+        <v>332</v>
       </c>
       <c r="B21" t="s">
-        <v>432</v>
+        <v>414</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>351</v>
+        <v>333</v>
       </c>
       <c r="B22" t="s">
-        <v>433</v>
+        <v>415</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>352</v>
+        <v>334</v>
       </c>
       <c r="B23" t="s">
-        <v>434</v>
+        <v>416</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>353</v>
+        <v>335</v>
       </c>
       <c r="B24" t="s">
-        <v>435</v>
+        <v>417</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="B25" t="s">
-        <v>436</v>
+        <v>418</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -5579,31 +5579,31 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>355</v>
+        <v>337</v>
       </c>
       <c r="B27" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>356</v>
+        <v>338</v>
       </c>
       <c r="B28" t="s">
-        <v>356</v>
+        <v>338</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
       <c r="B29" t="s">
-        <v>439</v>
+        <v>421</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -5616,23 +5616,23 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>358</v>
+        <v>340</v>
       </c>
       <c r="B31" t="s">
-        <v>440</v>
+        <v>422</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="B32" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>359</v>
+        <v>341</v>
       </c>
       <c r="B33" t="s">
         <v>36</v>
@@ -5640,60 +5640,60 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>360</v>
+        <v>342</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>361</v>
+        <v>343</v>
       </c>
       <c r="B36" t="s">
-        <v>441</v>
+        <v>423</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>362</v>
+        <v>344</v>
       </c>
       <c r="B37" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>363</v>
+        <v>345</v>
       </c>
       <c r="B38" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>364</v>
+        <v>346</v>
       </c>
       <c r="B39" t="s">
-        <v>443</v>
+        <v>425</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="B40" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>366</v>
+        <v>348</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>367</v>
+        <v>349</v>
       </c>
       <c r="B43" t="s">
-        <v>367</v>
+        <v>349</v>
       </c>
       <c r="D43" t="b">
         <v>1</v>
@@ -5701,10 +5701,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>368</v>
+        <v>350</v>
       </c>
       <c r="B44" t="s">
-        <v>444</v>
+        <v>426</v>
       </c>
       <c r="D44" t="b">
         <v>1</v>
@@ -5712,10 +5712,10 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>369</v>
+        <v>351</v>
       </c>
       <c r="B45" t="s">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="D45" t="b">
         <v>1</v>
@@ -5723,10 +5723,10 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="B46" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="D46" t="b">
         <v>1</v>
@@ -5734,10 +5734,10 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>370</v>
+        <v>352</v>
       </c>
       <c r="B47" t="s">
-        <v>446</v>
+        <v>428</v>
       </c>
       <c r="D47" t="b">
         <v>1</v>
@@ -5745,10 +5745,10 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>371</v>
+        <v>353</v>
       </c>
       <c r="B48" t="s">
-        <v>447</v>
+        <v>429</v>
       </c>
       <c r="D48" t="b">
         <v>1</v>
@@ -5756,10 +5756,10 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>372</v>
+        <v>354</v>
       </c>
       <c r="B49" t="s">
-        <v>448</v>
+        <v>430</v>
       </c>
       <c r="D49" t="b">
         <v>1</v>
@@ -5767,10 +5767,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="B50" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="D50" t="b">
         <v>1</v>
@@ -5778,10 +5778,10 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="B51" t="s">
-        <v>450</v>
+        <v>432</v>
       </c>
       <c r="D51" t="b">
         <v>1</v>
@@ -5789,10 +5789,10 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>375</v>
+        <v>357</v>
       </c>
       <c r="B52" t="s">
-        <v>451</v>
+        <v>433</v>
       </c>
       <c r="D52" t="b">
         <v>1</v>
@@ -5800,10 +5800,10 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>376</v>
+        <v>358</v>
       </c>
       <c r="B53" t="s">
-        <v>452</v>
+        <v>434</v>
       </c>
       <c r="D53" t="b">
         <v>1</v>
@@ -5816,7 +5816,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>377</v>
+        <v>359</v>
       </c>
       <c r="D55" t="b">
         <v>1</v>
@@ -5824,7 +5824,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="D56" t="b">
         <v>1</v>
@@ -5832,7 +5832,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="D57" t="b">
         <v>1</v>
@@ -5840,7 +5840,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="D58" t="b">
         <v>1</v>
@@ -5848,7 +5848,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="D59" t="b">
         <v>1</v>
@@ -5856,7 +5856,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>382</v>
+        <v>364</v>
       </c>
       <c r="D60" t="b">
         <v>1</v>
@@ -5864,26 +5864,26 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>573</v>
+        <v>554</v>
       </c>
       <c r="B61" t="s">
-        <v>573</v>
+        <v>554</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="B62" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>383</v>
+        <v>365</v>
       </c>
       <c r="B63" t="s">
-        <v>453</v>
+        <v>435</v>
       </c>
       <c r="D63" t="b">
         <v>1</v>
@@ -5891,10 +5891,10 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>384</v>
+        <v>366</v>
       </c>
       <c r="B64" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
       <c r="D64" t="b">
         <v>1</v>
@@ -5902,10 +5902,10 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>385</v>
+        <v>367</v>
       </c>
       <c r="B65" t="s">
-        <v>455</v>
+        <v>437</v>
       </c>
       <c r="D65" t="b">
         <v>1</v>
@@ -5913,10 +5913,10 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="B66" t="s">
-        <v>456</v>
+        <v>438</v>
       </c>
       <c r="D66" t="b">
         <v>1</v>
@@ -5924,10 +5924,10 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>387</v>
+        <v>369</v>
       </c>
       <c r="B67" t="s">
-        <v>457</v>
+        <v>439</v>
       </c>
       <c r="D67" t="b">
         <v>1</v>
@@ -5935,15 +5935,15 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>388</v>
+        <v>370</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>389</v>
+        <v>371</v>
       </c>
       <c r="B70" t="s">
-        <v>574</v>
+        <v>555</v>
       </c>
       <c r="D70" t="b">
         <v>1</v>
@@ -5951,10 +5951,10 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>390</v>
+        <v>372</v>
       </c>
       <c r="B71" t="s">
-        <v>390</v>
+        <v>372</v>
       </c>
       <c r="D71" t="b">
         <v>1</v>
@@ -5962,15 +5962,15 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
       <c r="B74" t="s">
-        <v>575</v>
+        <v>556</v>
       </c>
       <c r="D74" t="b">
         <v>1</v>
@@ -5978,10 +5978,10 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="B75" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="D75" t="b">
         <v>1</v>
@@ -5989,10 +5989,10 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>393</v>
+        <v>375</v>
       </c>
       <c r="B76" t="s">
-        <v>393</v>
+        <v>375</v>
       </c>
       <c r="D76" t="b">
         <v>1</v>
@@ -6000,10 +6000,10 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
       <c r="B77" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
       <c r="D77" t="b">
         <v>1</v>
@@ -6011,191 +6011,191 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>395</v>
+        <v>377</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>396</v>
+        <v>378</v>
       </c>
       <c r="B80" t="s">
-        <v>458</v>
+        <v>440</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>397</v>
+        <v>379</v>
       </c>
       <c r="B81" t="s">
-        <v>460</v>
+        <v>442</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>398</v>
+        <v>380</v>
       </c>
       <c r="B82" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>399</v>
+        <v>381</v>
       </c>
       <c r="B83" t="s">
-        <v>462</v>
+        <v>444</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>400</v>
+        <v>382</v>
       </c>
       <c r="B84" t="s">
-        <v>463</v>
+        <v>445</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>401</v>
+        <v>383</v>
       </c>
       <c r="B85" t="s">
-        <v>464</v>
+        <v>446</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
       <c r="B86" t="s">
-        <v>465</v>
+        <v>447</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
       <c r="B87" t="s">
-        <v>466</v>
+        <v>448</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
       <c r="B88" t="s">
-        <v>467</v>
+        <v>449</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>405</v>
+        <v>387</v>
       </c>
       <c r="B89" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>406</v>
+        <v>388</v>
       </c>
       <c r="B90" t="s">
-        <v>469</v>
+        <v>451</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>407</v>
+        <v>389</v>
       </c>
       <c r="B91" t="s">
-        <v>471</v>
+        <v>453</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>408</v>
+        <v>390</v>
       </c>
       <c r="B92" t="s">
-        <v>472</v>
+        <v>454</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>409</v>
+        <v>391</v>
       </c>
       <c r="B93" t="s">
-        <v>473</v>
+        <v>455</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>410</v>
+        <v>392</v>
       </c>
       <c r="B94" t="s">
-        <v>470</v>
+        <v>452</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>411</v>
+        <v>393</v>
       </c>
       <c r="B95" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>412</v>
+        <v>394</v>
       </c>
       <c r="B96" t="s">
-        <v>475</v>
+        <v>457</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>413</v>
+        <v>395</v>
       </c>
       <c r="B97" t="s">
-        <v>476</v>
+        <v>458</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>414</v>
+        <v>396</v>
       </c>
       <c r="B98" t="s">
-        <v>477</v>
+        <v>459</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>415</v>
+        <v>397</v>
       </c>
       <c r="B99" t="s">
-        <v>478</v>
+        <v>460</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>416</v>
+        <v>398</v>
       </c>
       <c r="B100" t="s">
-        <v>479</v>
+        <v>461</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>417</v>
+        <v>399</v>
       </c>
       <c r="B101" t="s">
-        <v>459</v>
+        <v>441</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>418</v>
+        <v>400</v>
       </c>
       <c r="B102" t="s">
-        <v>481</v>
+        <v>463</v>
       </c>
       <c r="C102" t="b">
         <v>0</v>

--- a/build_tools/Class_definitions/Class_definitions.xlsx
+++ b/build_tools/Class_definitions/Class_definitions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adrian\Documents\GitHub\MSEtool\build_tools\Class_definitions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{424A729D-9852-4958-A224-28FE2B5C5D5A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{98FA5DAF-CA20-41DF-8C57-27E80D8289DB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stock" sheetId="1" r:id="rId1"/>
@@ -906,84 +906,6 @@
     <t>The name of the Observation error object. Single value. Character string.</t>
   </si>
   <si>
-    <t xml:space="preserve">Log-normal catch observation error expressed as a coefficient of variation. Uniform distribution lower and upper bounds. Non-negative real numbers </t>
-  </si>
-  <si>
-    <t>Log-normal coefficient of variation controlling the sampling of bias in catch observations for each simulation. Single value.  Non-negative real number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of catch-at-age observation per time step. Uniform distribution lower and upper bounds. Positive real numbers   </t>
-  </si>
-  <si>
-    <t>Effective sample size (independent age draws) of the multinomial catch-at-age observation error model. Uniform distribution lower and upper bounds. Positive integers</t>
-  </si>
-  <si>
-    <t>Number of catch-at-length observation per time step. Uniform distribution lower and upper bounds. Positive integers</t>
-  </si>
-  <si>
-    <t>Effective sample size (independent length draws) of the multinomial catch-at-length observation error model. Uniform distribution lower and upper bounds. Positive integers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Observation error in the relative abundance indices expressed as a coefficient of variation. Uniform distribution lower and upper bounds. Positive real numbers  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Log-normal coefficient of variation controlling error in observations of current stock biomass among years. Uniform distribution lower and upper bounds. Positive real numbers </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uniform-log bounds for sampling persistent bias in current stock biomass. Uniform-log distribution lower and upper bounds. Positive real numbers </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A parameter controlling hyperstability/hyperdepletion where values below 1 lead to hyperstability (an index that decreases slower than true abundance) and values above 1 lead to hyperdepletion (an index that decreases more rapidly than true abundance). Uniform distribution lower and upper bounds. Positive real numbers </t>
-  </si>
-  <si>
-    <t>Log-normal coefficient of variation for sampling persistent bias in length at 50 percent maturity. Single value. Positive real numbers</t>
-  </si>
-  <si>
-    <t>Log-normal coefficient of variation for sampling persistent bias in observed natural mortality rate. Single value. Positive real number</t>
-  </si>
-  <si>
-    <t>Log-normal coefficient of variation for sampling persistent bias in observed growth parameter K. Single value. Positive real number</t>
-  </si>
-  <si>
-    <t>Log-normal coefficient of variation for sampling persistent bias in observed t0. Single value. Positive real number</t>
-  </si>
-  <si>
-    <t>Log-normal coefficient of variation for sampling persistent bias in observed maximum length. Single value. Positive real number</t>
-  </si>
-  <si>
-    <t>Log-normal coefficient of variation for sampling persistent bias in observed length at first capture. Single value. Positive real number</t>
-  </si>
-  <si>
-    <t>Log-normal coefficient of variation for sampling persistent bias in length-at-full selection. Single value. Positive real number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Log-normal coefficient of variation for sampling persistent bias in recent recruitment strength. Uniform distribution lower and upper bounds. Positive real numbers </t>
-  </si>
-  <si>
-    <t>Log-normal coefficient of variation for sampling persistent bias in steepness. Single value. Positive real number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Log-normal coefficient of variation controlling error in observations of stock depletion among years. Uniform distribution lower and upper bounds. Positive real numbers </t>
-  </si>
-  <si>
-    <t>Log-normal coefficient of variation for sampling persistent bias in stock depletion. Single value. Positive real number</t>
-  </si>
-  <si>
-    <t>Log-normal coefficient of variation for sampling persistent bias in MSY.  Single value. Positive real number</t>
-  </si>
-  <si>
-    <t>Log-normal coefficient of variation for sampling persistent bias in BMSY.  Single value. Positive real number</t>
-  </si>
-  <si>
-    <t>Log-normal coefficient of variation for sampling persistent bias in BMSY relative to unfished.  Single value. Positive real number</t>
-  </si>
-  <si>
-    <t>Log-normal coefficient of variation for sampling persistent bias in FMSY/M. Single value. Positive real number</t>
-  </si>
-  <si>
-    <t>Log-normal coefficient of variation for sampling persistent bias in relative abundance index at BMSY.  Single value. Positive real number</t>
-  </si>
-  <si>
     <t>Common Name</t>
   </si>
   <si>
@@ -1452,12 +1374,6 @@
     <t>Ebiascv</t>
   </si>
   <si>
-    <t xml:space="preserve">Log-normal effort observation error expressed as a coefficient of variation. Uniform distribution lower and upper bounds. Non-negative real numbers </t>
-  </si>
-  <si>
-    <t>Log-normal coefficient of variation controlling the sampling of bias in effort observations for each simulation. Single value.  Non-negative real number</t>
-  </si>
-  <si>
     <t>hs</t>
   </si>
   <si>
@@ -1704,9 +1620,6 @@
     <t>Vuln_CAL</t>
   </si>
   <si>
-    <t>Log-normal coefficient of variation for sampling persistent bias in recruitment variability.  Single value. Positive real number</t>
-  </si>
-  <si>
     <t>Catch-at-age sample size</t>
   </si>
   <si>
@@ -1873,6 +1786,93 @@
   </si>
   <si>
     <t>Identifying name for the fleet. Usually includes location and gear type.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Observation error around the total catch. Observation error in the total catch is expressed as a coefficient of variation (CV). Cobs requires upper and lower bounds of a uniform distribution, and for each simulation a CV is sampled from this distribution. Each CV is used to specify a log-normal error distribution with a mean of 1 and a standard deviation equal to the CV. The yearly observation error values for the catch data are then drawn from this distribution. For each time step the simulation model records the true catch, but the observed catch is generated by applying this yearly error term (plus any bias, if specified) to the true catch. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Log-normally distributed coefficient of variation controlling the sampling bias in observed catch for each simulation. Bias occurs when catches are systematically skewed away from the true catch level (for example, due to underreporting of catch or undetected illegal catches). Cbiascv is a single value specifying the standard deviation of a log-normal distribution with a mean of 1. For each simulation a bias value is drawn from this distribution, and that bias is applied across all years. </t>
+  </si>
+  <si>
+    <t>Observation error around the total effort. Observation error in the total effort is expressed as a coefficient of variation (CV). Eobs requires upper and lower bounds of a uniform distribution, and for each simulation a CV is sampled from this distribution. Each CV is used to specify a log-normal error distribution with a mean of 1 and a standard deviation equal to the CV. The yearly observation error values for the effort data are then drawn from this distribution. For each time step the simulation model records the true effort, but the observed effort is generated by applying this yearly error term (plus any bias, if specified) to the true effort.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Log-normally distributed coefficient of variation controlling the sampling bias in observed effort for each simulation. Bias occurs when effort is systematically skewed away from the true effort level. Ebiascv is a single value specifying the standard deviation of a log-normal distribution with a mean of 1. For each simulation a bias value is drawn from this distribution, and that bias is applied across all years. </t>
+  </si>
+  <si>
+    <t>Number of catch-at-age observations collected per time step. For each time step a single value is drawn from a uniform distribution specified by the upper and lower bounds provided. Positive integers.</t>
+  </si>
+  <si>
+    <t>Effective sample size of catch-at-age observations collected per time step. For each time step a single value is drawn from a uniform distribution specified by the upper and lower bounds provided. CAA_ESS should not exceed CAA_nsamp. Positive integers.</t>
+  </si>
+  <si>
+    <t>Number of catch-at-length observations collected per time step. For each time step a single value is drawn from a uniform distribution specified by the upper and lower bounds provided. Positive integers.</t>
+  </si>
+  <si>
+    <t>Effective sample size. For each time step a single value is drawn from a uniform distribution specified by the upper and lower bounds provided. CAL_ESS should not exceed CAL_nsamp. Positive integers.</t>
+  </si>
+  <si>
+    <t>Log-normal coefficient of variation for sampling bias in observed length at 50 percent maturity. LenMbiascv is a single value specifying the standard deviation of a log-normal distribution with a mean of 1. For each simulation a bias value is drawn from this distribution, and that bias is applied across all years. Positive real numbers.</t>
+  </si>
+  <si>
+    <t>Log-normal coefficient of variation for sampling bias in observed natural mortality rate. Uniform distribution lower and upper bounds. Mbiascv is a single value specifying the standard deviation of a log-normal distribution with a mean of 1. For each simulation a bias value is drawn from this distribution, and that bias is applied across all years. Positive real numbers.</t>
+  </si>
+  <si>
+    <t>Log-normal coefficient of variation for sampling bias in observed growth parameter K. Kbiascv is a single value specifying the standard deviation of a log-normal distribution with a mean of 1. For each simulation a bias value is drawn from this distribution, and that bias is applied across all years. Positive real numbers.</t>
+  </si>
+  <si>
+    <t>Log-normal coefficient of variation for sampling bias in observed t0. t0biascv is a single value specifying the standard deviation of a log-normal distribution with a mean of 1. For each simulation a bias value is drawn from this distribution, and that bias is applied across all years. Positive real numbers.</t>
+  </si>
+  <si>
+    <t>Log-normal coefficient of variation for sampling bias in observed maximum length. Linfbiascv is a single value specifying the standard deviation of a log-normal distribution with a mean of 1. For each simulation a bias value is drawn from this distribution, and that bias is applied across all years. Positive real numbers.</t>
+  </si>
+  <si>
+    <t>Log-normal coefficient of variation for sampling bias in observed length at first capture. LFCbiascv is a single value specifying the standard deviation of a log-normal distribution with a mean of 1. For each simulation a bias value is drawn from this distribution, and that bias is applied across all years. Positive real numbers.</t>
+  </si>
+  <si>
+    <t>Log-normal coefficient of variation for sampling bias in length-at-full selection. LFSbiascv is a single value specifying the standard deviation of a log-normal distribution with a mean of 1. For each simulation a bias value is drawn from this distribution, and that bias is applied across all years. Positive real numbers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Observation error in the relative abundance index expressed as a coefficient of variation (CV). Iobs requires upper and lower bounds of a uniform distribution, and for each simulation a CV is sampled from this distribution. Each CV is used to specify a log-normal error distribution with a mean of 1 and a standard deviation equal to the CV. The yearly observation error values for the index of abundance data are then drawn from this distribution. For each time step the simulation model records the true change in abundance, but the observed index is generated by applying this yearly error term (plus any bias, if specified) to the true relative change in abundance. Positive real numbers. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Observation error in the absolute abundance expressed as a coefficient of variation (CV). Btobs requires upper and lower bounds of a uniform distribution, and for each simulation a CV is sampled from this distribution. Each CV is used to specify a log-normal error distribution with a mean of 1 and a standard deviation equal to the CV. The yearly observation error values for the absolute abundance data are then drawn from this distribution. For each time step the simulation model records the true abundance, but the observed abundance is generated by applying this yearly error term (plus any bias, if specified) to the true abundance. Positive real numbers. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Log-normally distributed coefficient (CV) controlling error in observations of the current stock biomass. Bias occurs when the observed index of abundance is is systematically higher or lower than the true relative abundance. Btbiascv is a single value specifying the standard deviation of a log-normal distribution with a mean of 1. For each simulation a bias value is drawn from this distribution, and that bias is applied across all years. Positive real numbers. </t>
+  </si>
+  <si>
+    <t>A parameter controlling hyperstability/hyperdepletion in the measurement of abundance. For each simulation a single value is drawn from a uniform distribution specified by the upper and lower bounds provided. Values below 1 lead to hyperstability (the observed index decreases more slowly than the true abundance) and values above 1 lead to hyperdepletion (the observed index decreases more rapidly than true abundance).  Positive real numbers.</t>
+  </si>
+  <si>
+    <t>Log-normal coefficient of variation for sampling bias in estimates of the ratio of the fishing mortality rate that gives the maximum sustainable yield relative to the assumed instantaneous natural mortality rate. FMSY/M. FMSY_Mbiascv is a single value specifying the standard deviation of a log-normal distribution with a mean of 1. For each simulation a bias value is drawn from this distribution, and that bias is applied across all years. Positive real numbers.</t>
+  </si>
+  <si>
+    <t>Log-normal coefficient of variation for sampling bias in estimates of the BMSY relative to unfished biomass (BMSY/B0). BMSY_B0biascv is a single value specifying the standard deviation of a log-normal distribution with a mean of 1. For each simulation a bias value is drawn from this distribution, and that bias is applied across all years. Positive real numbers.</t>
+  </si>
+  <si>
+    <t>Log-normal coefficient of variation for sampling bias in the observed relative index of abundance (Iref). Irefbiascv is a single value specifying the standard deviation of a log-normal distribution with a mean of 1. For each simulation a bias value is drawn from this distribution, and that bias is applied across all years. Positive real numbers.</t>
+  </si>
+  <si>
+    <t>Log-normal coefficient of variation for sampling bias in the observed reference biomass (Bref). Brefbiascv is a single value specifying the standard deviation of a log-normal distribution with a mean of 1. For each simulation a bias value is drawn from this distribution, and that bias is applied across all years. Positive real numbers.</t>
+  </si>
+  <si>
+    <t>Log-normal coefficient of variation for sampling bias in the observed reference catch (Cref). Crefbiascv is a single value specifying the standard deviation of a log-normal distribution with a mean of 1. For each simulation a bias value is drawn from this distribution, and that bias is applied across all years. Positive real numbers.</t>
+  </si>
+  <si>
+    <t>Log-normal coefficient of variation for sampling bias in the observed depletion level.  Dbiascv is a single value specifying the standard deviation of a log-normal distribution with a mean of 1. For each simulation a bias value is drawn from this distribution, and that bias is applied across all years. Positive real numbers.</t>
+  </si>
+  <si>
+    <t>Log-normal coefficient of variation controlling error in observations of stock depletion among years. Observation error in the depletion expressed as a coefficient of variation (CV). Dobs requires the upper and lower bounds of a uniform distribution, and for each simulation a CV is sampled from this distribution. Each CV is used to specify a log-normal error distribution with a mean of 1 and a standard deviation equal to the CV. The yearly observation error values for the depletion data are then drawn from this distribution. For each time step the simulation model records the true depletion, but the observed depletion is generated by applying this yearly error term (plus any bias, if specified) to the true depletion.</t>
+  </si>
+  <si>
+    <t>Log-normal coefficient of variation for sampling persistent bias in steepness. hbiascv is a single value specifying the standard deviation of a log-normal distribution with a mean of 1. For each simulation a bias value is drawn from this distribution, and that bias is applied across all years. Positive real numbers.</t>
+  </si>
+  <si>
+    <t>Log-normal coefficient of variation for sampling persistent bias in recent recruitment strength. Recbiascv requires the upper and lower bounds of a uniform distribution, and for each simulation a CV is sampled from this distribution. Each CV is used to specify a log-normal error distribution with a mean of 1 and a standard deviation equal to the CV. The yearly bias values for the depletion data are then drawn from this distribution. Positive real numbers.</t>
+  </si>
+  <si>
+    <t>Log-normal coefficient of variation for sampling persistent bias in recruitment variability. sigmaRbiascv is a single value specifying the standard deviation of a log-normal distribution with a mean of 1. For each simulation a bias value is drawn from this distribution, and that bias is applied across all years. Positive real numbers.</t>
   </si>
 </sst>
 </file>
@@ -2223,14 +2223,14 @@
   <cols>
     <col min="1" max="1" width="17.140625" customWidth="1"/>
     <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="106.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="106.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="41" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2262,7 +2262,7 @@
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>569</v>
+        <v>540</v>
       </c>
       <c r="E2" s="3" t="b">
         <v>0</v>
@@ -2281,7 +2281,7 @@
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>570</v>
+        <v>541</v>
       </c>
       <c r="E3" s="3" t="b">
         <v>0</v>
@@ -2300,7 +2300,7 @@
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>571</v>
+        <v>542</v>
       </c>
       <c r="E4" s="3" t="b">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>597</v>
+        <v>568</v>
       </c>
       <c r="E5" s="3" t="b">
         <v>0</v>
@@ -2342,7 +2342,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>574</v>
+        <v>545</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" t="s">
@@ -2363,7 +2363,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>572</v>
+        <v>543</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" t="s">
@@ -2384,7 +2384,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>593</v>
+        <v>564</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" t="s">
@@ -2405,7 +2405,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>576</v>
+        <v>547</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" t="s">
@@ -2426,7 +2426,7 @@
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>575</v>
+        <v>546</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" t="s">
@@ -2447,7 +2447,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>577</v>
+        <v>548</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" t="s">
@@ -2468,7 +2468,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>578</v>
+        <v>549</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" t="s">
@@ -2489,7 +2489,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>579</v>
+        <v>550</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" t="s">
@@ -2510,7 +2510,7 @@
         <v>2</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>584</v>
+        <v>555</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" t="s">
@@ -2531,7 +2531,7 @@
         <v>2</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>580</v>
+        <v>551</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" t="s">
@@ -2552,7 +2552,7 @@
         <v>2</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>583</v>
+        <v>554</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" t="s">
@@ -2573,7 +2573,7 @@
         <v>2</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>581</v>
+        <v>552</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" t="s">
@@ -2594,7 +2594,7 @@
         <v>2</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>582</v>
+        <v>553</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" t="s">
@@ -2615,7 +2615,7 @@
         <v>2</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>587</v>
+        <v>558</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" t="s">
@@ -2636,7 +2636,7 @@
         <v>2</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>588</v>
+        <v>559</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" t="s">
@@ -2657,7 +2657,7 @@
         <v>2</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>589</v>
+        <v>560</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" t="s">
@@ -2678,7 +2678,7 @@
         <v>2</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>585</v>
+        <v>556</v>
       </c>
       <c r="E22" s="3" t="b">
         <v>0</v>
@@ -2699,7 +2699,7 @@
         <v>2</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>586</v>
+        <v>557</v>
       </c>
       <c r="E23" s="3" t="b">
         <v>0</v>
@@ -2720,7 +2720,7 @@
         <v>2</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>590</v>
+        <v>561</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" t="s">
@@ -2741,7 +2741,7 @@
         <v>2</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>591</v>
+        <v>562</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" t="s">
@@ -2762,7 +2762,7 @@
         <v>2</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>592</v>
+        <v>563</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" t="s">
@@ -2783,7 +2783,7 @@
         <v>2</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>573</v>
+        <v>544</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" t="s">
@@ -2822,7 +2822,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -2830,15 +2830,15 @@
   <cols>
     <col min="1" max="1" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="91" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="42.5703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="42.42578125" style="3" customWidth="1"/>
     <col min="8" max="16384" width="51.28515625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2869,7 +2869,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>613</v>
+        <v>584</v>
       </c>
       <c r="E2" s="3" t="b">
         <v>0</v>
@@ -2889,7 +2889,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>612</v>
+        <v>583</v>
       </c>
       <c r="E3" s="3" t="b">
         <v>0</v>
@@ -2909,7 +2909,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>611</v>
+        <v>582</v>
       </c>
       <c r="E4" s="3" t="b">
         <v>0</v>
@@ -2926,7 +2926,7 @@
         <v>15</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>610</v>
+        <v>581</v>
       </c>
       <c r="E5" s="3" t="b">
         <v>0</v>
@@ -2943,7 +2943,7 @@
         <v>15</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>609</v>
+        <v>580</v>
       </c>
       <c r="E6" s="3" t="b">
         <v>0</v>
@@ -2960,7 +2960,7 @@
         <v>15</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>608</v>
+        <v>579</v>
       </c>
       <c r="E7" s="3" t="b">
         <v>0</v>
@@ -2980,7 +2980,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>607</v>
+        <v>578</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>200</v>
@@ -3000,10 +3000,10 @@
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>606</v>
+        <v>577</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>537</v>
+        <v>509</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>16</v>
@@ -3020,10 +3020,10 @@
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>605</v>
+        <v>576</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>538</v>
+        <v>510</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>16</v>
@@ -3040,10 +3040,10 @@
         <v>2</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>604</v>
+        <v>575</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>539</v>
+        <v>511</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>16</v>
@@ -3060,10 +3060,10 @@
         <v>2</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>603</v>
+        <v>574</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>540</v>
+        <v>512</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>16</v>
@@ -3080,10 +3080,10 @@
         <v>2</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>602</v>
+        <v>573</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>541</v>
+        <v>513</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>16</v>
@@ -3100,7 +3100,7 @@
         <v>2</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>601</v>
+        <v>572</v>
       </c>
       <c r="E14" s="3" t="b">
         <v>0</v>
@@ -3117,10 +3117,10 @@
         <v>2</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>542</v>
+        <v>514</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>16</v>
@@ -3137,10 +3137,10 @@
         <v>2</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>599</v>
+        <v>570</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>543</v>
+        <v>515</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>16</v>
@@ -3157,10 +3157,10 @@
         <v>2</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>598</v>
+        <v>569</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>545</v>
+        <v>517</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>16</v>
@@ -3177,10 +3177,10 @@
         <v>2</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>596</v>
+        <v>567</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>544</v>
+        <v>516</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>16</v>
@@ -3197,10 +3197,10 @@
         <v>2</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>595</v>
+        <v>566</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>546</v>
+        <v>518</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>16</v>
@@ -3217,13 +3217,13 @@
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>594</v>
+        <v>565</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>499</v>
+        <v>471</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>498</v>
+        <v>470</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -3250,14 +3250,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="47.5703125" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="75.140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
     <col min="6" max="6" width="34.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.7109375" customWidth="1"/>
   </cols>
@@ -3292,429 +3292,429 @@
       <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>290</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>201</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
-        <v>291</v>
+      <c r="D3" s="3" t="s">
+        <v>585</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>202</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
-        <v>292</v>
+      <c r="D4" s="3" t="s">
+        <v>586</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>203</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s">
-        <v>293</v>
+      <c r="D5" s="3" t="s">
+        <v>589</v>
       </c>
       <c r="F5" t="s">
-        <v>558</v>
+        <v>529</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>204</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" t="s">
-        <v>294</v>
+      <c r="D6" s="3" t="s">
+        <v>590</v>
       </c>
       <c r="F6" t="s">
-        <v>560</v>
+        <v>531</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>205</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="D7" t="s">
-        <v>295</v>
+      <c r="D7" s="3" t="s">
+        <v>591</v>
       </c>
       <c r="F7" t="s">
-        <v>559</v>
+        <v>530</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>206</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
       </c>
-      <c r="D8" t="s">
-        <v>296</v>
+      <c r="D8" s="3" t="s">
+        <v>592</v>
       </c>
       <c r="F8" t="s">
-        <v>561</v>
+        <v>532</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>207</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
-      <c r="D9" t="s">
-        <v>297</v>
+      <c r="D9" s="3" t="s">
+        <v>600</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>208</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
       </c>
-      <c r="D10" t="s">
-        <v>298</v>
+      <c r="D10" s="3" t="s">
+        <v>601</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>209</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
       </c>
-      <c r="D11" t="s">
-        <v>299</v>
+      <c r="D11" s="3" t="s">
+        <v>602</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>210</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
       </c>
-      <c r="D12" t="s">
-        <v>300</v>
+      <c r="D12" s="3" t="s">
+        <v>603</v>
       </c>
       <c r="F12" t="s">
-        <v>562</v>
+        <v>533</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>211</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
       </c>
-      <c r="D13" t="s">
-        <v>301</v>
+      <c r="D13" s="3" t="s">
+        <v>593</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>212</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
       </c>
-      <c r="D14" t="s">
-        <v>302</v>
+      <c r="D14" s="3" t="s">
+        <v>594</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>213</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
       </c>
-      <c r="D15" t="s">
-        <v>303</v>
+      <c r="D15" s="3" t="s">
+        <v>595</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>214</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
       </c>
-      <c r="D16" t="s">
-        <v>304</v>
+      <c r="D16" s="3" t="s">
+        <v>596</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>215</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
       </c>
-      <c r="D17" t="s">
-        <v>305</v>
+      <c r="D17" s="3" t="s">
+        <v>597</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>216</v>
       </c>
       <c r="B18" t="s">
         <v>15</v>
       </c>
-      <c r="D18" t="s">
-        <v>306</v>
+      <c r="D18" s="3" t="s">
+        <v>598</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>217</v>
       </c>
       <c r="B19" t="s">
         <v>15</v>
       </c>
-      <c r="D19" t="s">
-        <v>307</v>
+      <c r="D19" s="3" t="s">
+        <v>599</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>218</v>
       </c>
       <c r="B20" t="s">
         <v>15</v>
       </c>
-      <c r="D20" t="s">
-        <v>315</v>
+      <c r="D20" s="3" t="s">
+        <v>604</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>219</v>
       </c>
       <c r="B21" t="s">
         <v>15</v>
       </c>
-      <c r="D21" t="s">
-        <v>314</v>
+      <c r="D21" s="3" t="s">
+        <v>605</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>220</v>
       </c>
       <c r="B22" t="s">
         <v>15</v>
       </c>
-      <c r="D22" t="s">
-        <v>316</v>
+      <c r="D22" s="3" t="s">
+        <v>606</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>221</v>
       </c>
       <c r="B23" t="s">
         <v>15</v>
       </c>
-      <c r="D23" t="s">
-        <v>313</v>
+      <c r="D23" s="3" t="s">
+        <v>607</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>222</v>
       </c>
       <c r="B24" t="s">
         <v>15</v>
       </c>
-      <c r="D24" t="s">
-        <v>312</v>
+      <c r="D24" s="3" t="s">
+        <v>608</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>223</v>
       </c>
       <c r="B25" t="s">
         <v>15</v>
       </c>
-      <c r="D25" t="s">
-        <v>311</v>
+      <c r="D25" s="3" t="s">
+        <v>609</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>224</v>
       </c>
       <c r="B26" t="s">
         <v>15</v>
       </c>
-      <c r="D26" t="s">
-        <v>310</v>
+      <c r="D26" s="3" t="s">
+        <v>610</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>225</v>
       </c>
       <c r="B27" t="s">
         <v>15</v>
       </c>
-      <c r="D27" t="s">
-        <v>309</v>
+      <c r="D27" s="3" t="s">
+        <v>611</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>226</v>
       </c>
       <c r="B28" t="s">
         <v>15</v>
       </c>
-      <c r="D28" t="s">
-        <v>308</v>
+      <c r="D28" s="3" t="s">
+        <v>612</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>288</v>
       </c>
       <c r="B29" t="s">
         <v>15</v>
       </c>
-      <c r="D29" t="s">
-        <v>557</v>
+      <c r="D29" s="3" t="s">
+        <v>613</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>471</v>
+        <v>445</v>
       </c>
       <c r="B30" t="s">
         <v>15</v>
       </c>
-      <c r="D30" t="s">
-        <v>473</v>
+      <c r="D30" s="3" t="s">
+        <v>587</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>472</v>
+        <v>446</v>
       </c>
       <c r="B31" t="s">
         <v>15</v>
       </c>
-      <c r="D31" t="s">
-        <v>474</v>
+      <c r="D31" s="3" t="s">
+        <v>588</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
@@ -3733,11 +3733,11 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="98" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
     <col min="6" max="6" width="25.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="39" customWidth="1"/>
   </cols>
@@ -3782,7 +3782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>227</v>
       </c>
@@ -3796,13 +3796,13 @@
         <v>282</v>
       </c>
       <c r="F3" t="s">
-        <v>548</v>
+        <v>520</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>228</v>
       </c>
@@ -3816,13 +3816,13 @@
         <v>283</v>
       </c>
       <c r="F4" t="s">
-        <v>549</v>
+        <v>521</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>229</v>
       </c>
@@ -3836,13 +3836,13 @@
         <v>284</v>
       </c>
       <c r="F5" t="s">
-        <v>550</v>
+        <v>522</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>230</v>
       </c>
@@ -3856,13 +3856,13 @@
         <v>285</v>
       </c>
       <c r="F6" t="s">
-        <v>551</v>
+        <v>523</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>231</v>
       </c>
@@ -3876,13 +3876,13 @@
         <v>286</v>
       </c>
       <c r="F7" t="s">
-        <v>552</v>
+        <v>524</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>232</v>
       </c>
@@ -3896,7 +3896,7 @@
         <v>287</v>
       </c>
       <c r="F8" t="s">
-        <v>553</v>
+        <v>525</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>16</v>
@@ -3915,7 +3915,7 @@
       <selection activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="99.42578125" bestFit="1" customWidth="1"/>
@@ -3925,7 +3925,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>547</v>
+        <v>519</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -3939,13 +3939,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>475</v>
+        <v>447</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>476</v>
+        <v>448</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>80</v>
@@ -3956,7 +3956,7 @@
         <v>89</v>
       </c>
       <c r="B3" t="s">
-        <v>477</v>
+        <v>449</v>
       </c>
       <c r="C3" t="s">
         <v>90</v>
@@ -4037,13 +4037,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>478</v>
+        <v>450</v>
       </c>
       <c r="B9" t="s">
         <v>95</v>
       </c>
       <c r="C9" t="s">
-        <v>479</v>
+        <v>451</v>
       </c>
       <c r="D9" t="s">
         <v>80</v>
@@ -4054,7 +4054,7 @@
         <v>117</v>
       </c>
       <c r="B10" t="s">
-        <v>480</v>
+        <v>452</v>
       </c>
       <c r="C10" t="s">
         <v>118</v>
@@ -4068,7 +4068,7 @@
         <v>113</v>
       </c>
       <c r="B11" t="s">
-        <v>480</v>
+        <v>452</v>
       </c>
       <c r="C11" t="s">
         <v>114</v>
@@ -4124,7 +4124,7 @@
         <v>115</v>
       </c>
       <c r="B15" t="s">
-        <v>480</v>
+        <v>452</v>
       </c>
       <c r="C15" t="s">
         <v>116</v>
@@ -4138,7 +4138,7 @@
         <v>111</v>
       </c>
       <c r="B16" t="s">
-        <v>480</v>
+        <v>452</v>
       </c>
       <c r="C16" t="s">
         <v>112</v>
@@ -4149,13 +4149,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>481</v>
+        <v>453</v>
       </c>
       <c r="B17" t="s">
-        <v>482</v>
+        <v>454</v>
       </c>
       <c r="C17" t="s">
-        <v>483</v>
+        <v>455</v>
       </c>
       <c r="D17" t="s">
         <v>80</v>
@@ -4163,13 +4163,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>484</v>
+        <v>456</v>
       </c>
       <c r="B18" t="s">
-        <v>482</v>
+        <v>454</v>
       </c>
       <c r="C18" t="s">
-        <v>485</v>
+        <v>457</v>
       </c>
       <c r="D18" t="s">
         <v>80</v>
@@ -4180,7 +4180,7 @@
         <v>109</v>
       </c>
       <c r="B19" t="s">
-        <v>480</v>
+        <v>452</v>
       </c>
       <c r="C19" t="s">
         <v>110</v>
@@ -4191,13 +4191,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>486</v>
+        <v>458</v>
       </c>
       <c r="B20" t="s">
-        <v>482</v>
+        <v>454</v>
       </c>
       <c r="C20" t="s">
-        <v>487</v>
+        <v>459</v>
       </c>
       <c r="D20" t="s">
         <v>80</v>
@@ -4208,7 +4208,7 @@
         <v>119</v>
       </c>
       <c r="B21" t="s">
-        <v>488</v>
+        <v>460</v>
       </c>
       <c r="C21" t="s">
         <v>120</v>
@@ -4345,13 +4345,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>489</v>
+        <v>461</v>
       </c>
       <c r="B32" t="s">
-        <v>490</v>
+        <v>462</v>
       </c>
       <c r="C32" t="s">
-        <v>491</v>
+        <v>463</v>
       </c>
       <c r="D32" t="s">
         <v>127</v>
@@ -4362,7 +4362,7 @@
         <v>132</v>
       </c>
       <c r="B33" t="s">
-        <v>480</v>
+        <v>452</v>
       </c>
       <c r="C33" t="s">
         <v>133</v>
@@ -4390,7 +4390,7 @@
         <v>137</v>
       </c>
       <c r="B35" t="s">
-        <v>480</v>
+        <v>452</v>
       </c>
       <c r="C35" t="s">
         <v>138</v>
@@ -4429,13 +4429,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>492</v>
+        <v>464</v>
       </c>
       <c r="B38" t="s">
-        <v>493</v>
+        <v>465</v>
       </c>
       <c r="C38" t="s">
-        <v>494</v>
+        <v>466</v>
       </c>
       <c r="D38" t="s">
         <v>127</v>
@@ -4443,13 +4443,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>495</v>
+        <v>467</v>
       </c>
       <c r="B39" t="s">
-        <v>496</v>
+        <v>468</v>
       </c>
       <c r="C39" t="s">
-        <v>497</v>
+        <v>469</v>
       </c>
       <c r="D39" t="s">
         <v>127</v>
@@ -4460,10 +4460,10 @@
         <v>233</v>
       </c>
       <c r="B40" t="s">
-        <v>498</v>
+        <v>470</v>
       </c>
       <c r="C40" t="s">
-        <v>499</v>
+        <v>471</v>
       </c>
       <c r="D40" t="s">
         <v>127</v>
@@ -4471,13 +4471,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>500</v>
+        <v>472</v>
       </c>
       <c r="B42" t="s">
         <v>16</v>
       </c>
       <c r="C42" t="s">
-        <v>501</v>
+        <v>473</v>
       </c>
       <c r="D42" t="s">
         <v>142</v>
@@ -4485,13 +4485,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>502</v>
+        <v>474</v>
       </c>
       <c r="B43" t="s">
         <v>16</v>
       </c>
       <c r="C43" t="s">
-        <v>503</v>
+        <v>475</v>
       </c>
       <c r="D43" t="s">
         <v>142</v>
@@ -4499,13 +4499,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>504</v>
+        <v>476</v>
       </c>
       <c r="B44" t="s">
-        <v>505</v>
+        <v>477</v>
       </c>
       <c r="C44" t="s">
-        <v>506</v>
+        <v>478</v>
       </c>
       <c r="D44" t="s">
         <v>142</v>
@@ -4513,13 +4513,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>507</v>
+        <v>479</v>
       </c>
       <c r="B45" t="s">
         <v>16</v>
       </c>
       <c r="C45" t="s">
-        <v>508</v>
+        <v>480</v>
       </c>
       <c r="D45" t="s">
         <v>142</v>
@@ -4527,13 +4527,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>509</v>
+        <v>481</v>
       </c>
       <c r="B46" t="s">
-        <v>505</v>
+        <v>477</v>
       </c>
       <c r="C46" t="s">
-        <v>524</v>
+        <v>496</v>
       </c>
       <c r="D46" t="s">
         <v>142</v>
@@ -4541,13 +4541,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>510</v>
+        <v>482</v>
       </c>
       <c r="B47" t="s">
-        <v>505</v>
+        <v>477</v>
       </c>
       <c r="C47" t="s">
-        <v>525</v>
+        <v>497</v>
       </c>
       <c r="D47" t="s">
         <v>142</v>
@@ -4555,13 +4555,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>511</v>
+        <v>483</v>
       </c>
       <c r="B48" t="s">
-        <v>505</v>
+        <v>477</v>
       </c>
       <c r="C48" t="s">
-        <v>526</v>
+        <v>498</v>
       </c>
       <c r="D48" t="s">
         <v>142</v>
@@ -4569,13 +4569,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>512</v>
+        <v>484</v>
       </c>
       <c r="B49" t="s">
         <v>16</v>
       </c>
       <c r="C49" t="s">
-        <v>527</v>
+        <v>499</v>
       </c>
       <c r="D49" t="s">
         <v>142</v>
@@ -4597,13 +4597,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>513</v>
+        <v>485</v>
       </c>
       <c r="B51" t="s">
-        <v>505</v>
+        <v>477</v>
       </c>
       <c r="C51" t="s">
-        <v>528</v>
+        <v>500</v>
       </c>
       <c r="D51" t="s">
         <v>142</v>
@@ -4681,13 +4681,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>514</v>
+        <v>486</v>
       </c>
       <c r="B57" t="s">
         <v>16</v>
       </c>
       <c r="C57" t="s">
-        <v>523</v>
+        <v>495</v>
       </c>
       <c r="D57" t="s">
         <v>142</v>
@@ -4695,13 +4695,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>515</v>
+        <v>487</v>
       </c>
       <c r="B58" t="s">
         <v>16</v>
       </c>
       <c r="C58" t="s">
-        <v>529</v>
+        <v>501</v>
       </c>
       <c r="D58" t="s">
         <v>142</v>
@@ -4709,13 +4709,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>516</v>
+        <v>488</v>
       </c>
       <c r="B59" t="s">
         <v>16</v>
       </c>
       <c r="C59" t="s">
-        <v>530</v>
+        <v>502</v>
       </c>
       <c r="D59" t="s">
         <v>142</v>
@@ -4723,13 +4723,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>517</v>
+        <v>489</v>
       </c>
       <c r="B60" t="s">
-        <v>505</v>
+        <v>477</v>
       </c>
       <c r="C60" t="s">
-        <v>531</v>
+        <v>503</v>
       </c>
       <c r="D60" t="s">
         <v>142</v>
@@ -4821,13 +4821,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>518</v>
+        <v>490</v>
       </c>
       <c r="B67" t="s">
         <v>16</v>
       </c>
       <c r="C67" t="s">
-        <v>532</v>
+        <v>504</v>
       </c>
       <c r="D67" t="s">
         <v>142</v>
@@ -4835,13 +4835,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>519</v>
+        <v>491</v>
       </c>
       <c r="B68" t="s">
+        <v>477</v>
+      </c>
+      <c r="C68" t="s">
         <v>505</v>
-      </c>
-      <c r="C68" t="s">
-        <v>533</v>
       </c>
       <c r="D68" t="s">
         <v>142</v>
@@ -4849,13 +4849,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>520</v>
+        <v>492</v>
       </c>
       <c r="B69" t="s">
         <v>16</v>
       </c>
       <c r="C69" t="s">
-        <v>534</v>
+        <v>506</v>
       </c>
       <c r="D69" t="s">
         <v>142</v>
@@ -4863,13 +4863,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>521</v>
+        <v>493</v>
       </c>
       <c r="B70" t="s">
-        <v>505</v>
+        <v>477</v>
       </c>
       <c r="C70" t="s">
-        <v>535</v>
+        <v>507</v>
       </c>
       <c r="D70" t="s">
         <v>142</v>
@@ -4877,13 +4877,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>522</v>
+        <v>494</v>
       </c>
       <c r="B71" t="s">
-        <v>505</v>
+        <v>477</v>
       </c>
       <c r="C71" t="s">
-        <v>536</v>
+        <v>508</v>
       </c>
       <c r="D71" t="s">
         <v>142</v>
@@ -4947,13 +4947,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>563</v>
+        <v>534</v>
       </c>
       <c r="B76" t="s">
         <v>16</v>
       </c>
       <c r="C76" t="s">
-        <v>566</v>
+        <v>537</v>
       </c>
       <c r="D76" t="s">
         <v>142</v>
@@ -4961,13 +4961,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>564</v>
+        <v>535</v>
       </c>
       <c r="B77" t="s">
         <v>16</v>
       </c>
       <c r="C77" t="s">
-        <v>567</v>
+        <v>538</v>
       </c>
       <c r="D77" t="s">
         <v>142</v>
@@ -4975,13 +4975,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>565</v>
+        <v>536</v>
       </c>
       <c r="B78" t="s">
         <v>16</v>
       </c>
       <c r="C78" t="s">
-        <v>568</v>
+        <v>539</v>
       </c>
       <c r="D78" t="s">
         <v>142</v>
@@ -5099,7 +5099,7 @@
       <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
   </cols>
@@ -5242,7 +5242,7 @@
     </row>
     <row r="18" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>350</v>
+        <v>324</v>
       </c>
       <c r="B18" t="s">
         <v>275</v>
@@ -5298,26 +5298,26 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>464</v>
+        <v>438</v>
       </c>
       <c r="B25" t="s">
-        <v>468</v>
+        <v>442</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>465</v>
+        <v>439</v>
       </c>
       <c r="B26" t="s">
-        <v>467</v>
+        <v>441</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>466</v>
+        <v>440</v>
       </c>
       <c r="B27" t="s">
-        <v>469</v>
+        <v>443</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -5325,7 +5325,7 @@
         <v>244</v>
       </c>
       <c r="B28" t="s">
-        <v>470</v>
+        <v>444</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -5358,7 +5358,7 @@
       <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
@@ -5372,10 +5372,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>401</v>
+        <v>375</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>462</v>
+        <v>436</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -5391,7 +5391,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>317</v>
+        <v>291</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -5413,10 +5413,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>318</v>
+        <v>292</v>
       </c>
       <c r="B5" t="s">
-        <v>402</v>
+        <v>376</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -5424,26 +5424,26 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>319</v>
+        <v>293</v>
       </c>
       <c r="B6" t="s">
-        <v>403</v>
+        <v>377</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>320</v>
+        <v>294</v>
       </c>
       <c r="B7" t="s">
-        <v>404</v>
+        <v>378</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>321</v>
+        <v>295</v>
       </c>
       <c r="B8" t="s">
-        <v>321</v>
+        <v>295</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -5451,31 +5451,31 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>322</v>
+        <v>296</v>
       </c>
       <c r="B9" t="s">
-        <v>405</v>
+        <v>379</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>323</v>
+        <v>297</v>
       </c>
       <c r="B10" t="s">
-        <v>323</v>
+        <v>297</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>324</v>
+        <v>298</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>325</v>
+        <v>299</v>
       </c>
       <c r="B13" t="s">
-        <v>406</v>
+        <v>380</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -5483,95 +5483,95 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>407</v>
+        <v>381</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>326</v>
+        <v>300</v>
       </c>
       <c r="B15" t="s">
-        <v>408</v>
+        <v>382</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>327</v>
+        <v>301</v>
       </c>
       <c r="B16" t="s">
-        <v>409</v>
+        <v>383</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>328</v>
+        <v>302</v>
       </c>
       <c r="B17" t="s">
-        <v>411</v>
+        <v>385</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>329</v>
+        <v>303</v>
       </c>
       <c r="B18" t="s">
-        <v>410</v>
+        <v>384</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>330</v>
+        <v>304</v>
       </c>
       <c r="B19" t="s">
-        <v>412</v>
+        <v>386</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>331</v>
+        <v>305</v>
       </c>
       <c r="B20" t="s">
-        <v>413</v>
+        <v>387</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>332</v>
+        <v>306</v>
       </c>
       <c r="B21" t="s">
-        <v>414</v>
+        <v>388</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>333</v>
+        <v>307</v>
       </c>
       <c r="B22" t="s">
-        <v>415</v>
+        <v>389</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>334</v>
+        <v>308</v>
       </c>
       <c r="B23" t="s">
-        <v>416</v>
+        <v>390</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>335</v>
+        <v>309</v>
       </c>
       <c r="B24" t="s">
-        <v>417</v>
+        <v>391</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>336</v>
+        <v>310</v>
       </c>
       <c r="B25" t="s">
-        <v>418</v>
+        <v>392</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -5579,31 +5579,31 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>419</v>
+        <v>393</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>337</v>
+        <v>311</v>
       </c>
       <c r="B27" t="s">
-        <v>420</v>
+        <v>394</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>338</v>
+        <v>312</v>
       </c>
       <c r="B28" t="s">
-        <v>338</v>
+        <v>312</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>339</v>
+        <v>313</v>
       </c>
       <c r="B29" t="s">
-        <v>421</v>
+        <v>395</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -5616,10 +5616,10 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>340</v>
+        <v>314</v>
       </c>
       <c r="B31" t="s">
-        <v>422</v>
+        <v>396</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -5632,7 +5632,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>341</v>
+        <v>315</v>
       </c>
       <c r="B33" t="s">
         <v>36</v>
@@ -5640,28 +5640,28 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>342</v>
+        <v>316</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>343</v>
+        <v>317</v>
       </c>
       <c r="B36" t="s">
-        <v>423</v>
+        <v>397</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>344</v>
+        <v>318</v>
       </c>
       <c r="B37" t="s">
-        <v>424</v>
+        <v>398</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>345</v>
+        <v>319</v>
       </c>
       <c r="B38" t="s">
         <v>69</v>
@@ -5669,15 +5669,15 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>346</v>
+        <v>320</v>
       </c>
       <c r="B39" t="s">
-        <v>425</v>
+        <v>399</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>347</v>
+        <v>321</v>
       </c>
       <c r="B40" t="s">
         <v>70</v>
@@ -5685,15 +5685,15 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>348</v>
+        <v>322</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>349</v>
+        <v>323</v>
       </c>
       <c r="B43" t="s">
-        <v>349</v>
+        <v>323</v>
       </c>
       <c r="D43" t="b">
         <v>1</v>
@@ -5701,10 +5701,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>350</v>
+        <v>324</v>
       </c>
       <c r="B44" t="s">
-        <v>426</v>
+        <v>400</v>
       </c>
       <c r="D44" t="b">
         <v>1</v>
@@ -5712,10 +5712,10 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>351</v>
+        <v>325</v>
       </c>
       <c r="B45" t="s">
-        <v>427</v>
+        <v>401</v>
       </c>
       <c r="D45" t="b">
         <v>1</v>
@@ -5734,10 +5734,10 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>352</v>
+        <v>326</v>
       </c>
       <c r="B47" t="s">
-        <v>428</v>
+        <v>402</v>
       </c>
       <c r="D47" t="b">
         <v>1</v>
@@ -5745,10 +5745,10 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>353</v>
+        <v>327</v>
       </c>
       <c r="B48" t="s">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="D48" t="b">
         <v>1</v>
@@ -5756,10 +5756,10 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>354</v>
+        <v>328</v>
       </c>
       <c r="B49" t="s">
-        <v>430</v>
+        <v>404</v>
       </c>
       <c r="D49" t="b">
         <v>1</v>
@@ -5767,10 +5767,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>355</v>
+        <v>329</v>
       </c>
       <c r="B50" t="s">
-        <v>431</v>
+        <v>405</v>
       </c>
       <c r="D50" t="b">
         <v>1</v>
@@ -5778,10 +5778,10 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>356</v>
+        <v>330</v>
       </c>
       <c r="B51" t="s">
-        <v>432</v>
+        <v>406</v>
       </c>
       <c r="D51" t="b">
         <v>1</v>
@@ -5789,10 +5789,10 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>357</v>
+        <v>331</v>
       </c>
       <c r="B52" t="s">
-        <v>433</v>
+        <v>407</v>
       </c>
       <c r="D52" t="b">
         <v>1</v>
@@ -5800,10 +5800,10 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>358</v>
+        <v>332</v>
       </c>
       <c r="B53" t="s">
-        <v>434</v>
+        <v>408</v>
       </c>
       <c r="D53" t="b">
         <v>1</v>
@@ -5816,7 +5816,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>359</v>
+        <v>333</v>
       </c>
       <c r="D55" t="b">
         <v>1</v>
@@ -5824,7 +5824,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>360</v>
+        <v>334</v>
       </c>
       <c r="D56" t="b">
         <v>1</v>
@@ -5832,7 +5832,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>361</v>
+        <v>335</v>
       </c>
       <c r="D57" t="b">
         <v>1</v>
@@ -5840,7 +5840,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>362</v>
+        <v>336</v>
       </c>
       <c r="D58" t="b">
         <v>1</v>
@@ -5848,7 +5848,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>363</v>
+        <v>337</v>
       </c>
       <c r="D59" t="b">
         <v>1</v>
@@ -5856,7 +5856,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>364</v>
+        <v>338</v>
       </c>
       <c r="D60" t="b">
         <v>1</v>
@@ -5864,10 +5864,10 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>554</v>
+        <v>526</v>
       </c>
       <c r="B61" t="s">
-        <v>554</v>
+        <v>526</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -5880,10 +5880,10 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>365</v>
+        <v>339</v>
       </c>
       <c r="B63" t="s">
-        <v>435</v>
+        <v>409</v>
       </c>
       <c r="D63" t="b">
         <v>1</v>
@@ -5891,10 +5891,10 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>366</v>
+        <v>340</v>
       </c>
       <c r="B64" t="s">
-        <v>436</v>
+        <v>410</v>
       </c>
       <c r="D64" t="b">
         <v>1</v>
@@ -5902,10 +5902,10 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>367</v>
+        <v>341</v>
       </c>
       <c r="B65" t="s">
-        <v>437</v>
+        <v>411</v>
       </c>
       <c r="D65" t="b">
         <v>1</v>
@@ -5913,10 +5913,10 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>368</v>
+        <v>342</v>
       </c>
       <c r="B66" t="s">
-        <v>438</v>
+        <v>412</v>
       </c>
       <c r="D66" t="b">
         <v>1</v>
@@ -5924,10 +5924,10 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>369</v>
+        <v>343</v>
       </c>
       <c r="B67" t="s">
-        <v>439</v>
+        <v>413</v>
       </c>
       <c r="D67" t="b">
         <v>1</v>
@@ -5935,15 +5935,15 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>370</v>
+        <v>344</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>371</v>
+        <v>345</v>
       </c>
       <c r="B70" t="s">
-        <v>555</v>
+        <v>527</v>
       </c>
       <c r="D70" t="b">
         <v>1</v>
@@ -5951,10 +5951,10 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>372</v>
+        <v>346</v>
       </c>
       <c r="B71" t="s">
-        <v>372</v>
+        <v>346</v>
       </c>
       <c r="D71" t="b">
         <v>1</v>
@@ -5962,15 +5962,15 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>373</v>
+        <v>347</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>374</v>
+        <v>348</v>
       </c>
       <c r="B74" t="s">
-        <v>556</v>
+        <v>528</v>
       </c>
       <c r="D74" t="b">
         <v>1</v>
@@ -5989,10 +5989,10 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>375</v>
+        <v>349</v>
       </c>
       <c r="B76" t="s">
-        <v>375</v>
+        <v>349</v>
       </c>
       <c r="D76" t="b">
         <v>1</v>
@@ -6000,10 +6000,10 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>376</v>
+        <v>350</v>
       </c>
       <c r="B77" t="s">
-        <v>376</v>
+        <v>350</v>
       </c>
       <c r="D77" t="b">
         <v>1</v>
@@ -6011,191 +6011,191 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>377</v>
+        <v>351</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>378</v>
+        <v>352</v>
       </c>
       <c r="B80" t="s">
-        <v>440</v>
+        <v>414</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>379</v>
+        <v>353</v>
       </c>
       <c r="B81" t="s">
-        <v>442</v>
+        <v>416</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>380</v>
+        <v>354</v>
       </c>
       <c r="B82" t="s">
-        <v>443</v>
+        <v>417</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>381</v>
+        <v>355</v>
       </c>
       <c r="B83" t="s">
-        <v>444</v>
+        <v>418</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>382</v>
+        <v>356</v>
       </c>
       <c r="B84" t="s">
-        <v>445</v>
+        <v>419</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>383</v>
+        <v>357</v>
       </c>
       <c r="B85" t="s">
-        <v>446</v>
+        <v>420</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>384</v>
+        <v>358</v>
       </c>
       <c r="B86" t="s">
-        <v>447</v>
+        <v>421</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>385</v>
+        <v>359</v>
       </c>
       <c r="B87" t="s">
-        <v>448</v>
+        <v>422</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>386</v>
+        <v>360</v>
       </c>
       <c r="B88" t="s">
-        <v>449</v>
+        <v>423</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>387</v>
+        <v>361</v>
       </c>
       <c r="B89" t="s">
-        <v>450</v>
+        <v>424</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>388</v>
+        <v>362</v>
       </c>
       <c r="B90" t="s">
-        <v>451</v>
+        <v>425</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>389</v>
+        <v>363</v>
       </c>
       <c r="B91" t="s">
-        <v>453</v>
+        <v>427</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>390</v>
+        <v>364</v>
       </c>
       <c r="B92" t="s">
-        <v>454</v>
+        <v>428</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>391</v>
+        <v>365</v>
       </c>
       <c r="B93" t="s">
-        <v>455</v>
+        <v>429</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>392</v>
+        <v>366</v>
       </c>
       <c r="B94" t="s">
-        <v>452</v>
+        <v>426</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>393</v>
+        <v>367</v>
       </c>
       <c r="B95" t="s">
-        <v>456</v>
+        <v>430</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>394</v>
+        <v>368</v>
       </c>
       <c r="B96" t="s">
-        <v>457</v>
+        <v>431</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>395</v>
+        <v>369</v>
       </c>
       <c r="B97" t="s">
-        <v>458</v>
+        <v>432</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>396</v>
+        <v>370</v>
       </c>
       <c r="B98" t="s">
-        <v>459</v>
+        <v>433</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>397</v>
+        <v>371</v>
       </c>
       <c r="B99" t="s">
-        <v>460</v>
+        <v>434</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>398</v>
+        <v>372</v>
       </c>
       <c r="B100" t="s">
-        <v>461</v>
+        <v>435</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>399</v>
+        <v>373</v>
       </c>
       <c r="B101" t="s">
-        <v>441</v>
+        <v>415</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>400</v>
+        <v>374</v>
       </c>
       <c r="B102" t="s">
-        <v>463</v>
+        <v>437</v>
       </c>
       <c r="C102" t="b">
         <v>0</v>

--- a/build_tools/Class_definitions/Class_definitions.xlsx
+++ b/build_tools/Class_definitions/Class_definitions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adrian\Documents\GitHub\MSEtool\build_tools\Class_definitions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98FA5DAF-CA20-41DF-8C57-27E80D8289DB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC54643-BEA9-44E4-B127-CAABF58FCCAA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1788,18 +1788,6 @@
     <t>Identifying name for the fleet. Usually includes location and gear type.</t>
   </si>
   <si>
-    <t xml:space="preserve">Observation error around the total catch. Observation error in the total catch is expressed as a coefficient of variation (CV). Cobs requires upper and lower bounds of a uniform distribution, and for each simulation a CV is sampled from this distribution. Each CV is used to specify a log-normal error distribution with a mean of 1 and a standard deviation equal to the CV. The yearly observation error values for the catch data are then drawn from this distribution. For each time step the simulation model records the true catch, but the observed catch is generated by applying this yearly error term (plus any bias, if specified) to the true catch. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Log-normally distributed coefficient of variation controlling the sampling bias in observed catch for each simulation. Bias occurs when catches are systematically skewed away from the true catch level (for example, due to underreporting of catch or undetected illegal catches). Cbiascv is a single value specifying the standard deviation of a log-normal distribution with a mean of 1. For each simulation a bias value is drawn from this distribution, and that bias is applied across all years. </t>
-  </si>
-  <si>
-    <t>Observation error around the total effort. Observation error in the total effort is expressed as a coefficient of variation (CV). Eobs requires upper and lower bounds of a uniform distribution, and for each simulation a CV is sampled from this distribution. Each CV is used to specify a log-normal error distribution with a mean of 1 and a standard deviation equal to the CV. The yearly observation error values for the effort data are then drawn from this distribution. For each time step the simulation model records the true effort, but the observed effort is generated by applying this yearly error term (plus any bias, if specified) to the true effort.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Log-normally distributed coefficient of variation controlling the sampling bias in observed effort for each simulation. Bias occurs when effort is systematically skewed away from the true effort level. Ebiascv is a single value specifying the standard deviation of a log-normal distribution with a mean of 1. For each simulation a bias value is drawn from this distribution, and that bias is applied across all years. </t>
-  </si>
-  <si>
     <t>Number of catch-at-age observations collected per time step. For each time step a single value is drawn from a uniform distribution specified by the upper and lower bounds provided. Positive integers.</t>
   </si>
   <si>
@@ -1812,67 +1800,79 @@
     <t>Effective sample size. For each time step a single value is drawn from a uniform distribution specified by the upper and lower bounds provided. CAL_ESS should not exceed CAL_nsamp. Positive integers.</t>
   </si>
   <si>
-    <t>Log-normal coefficient of variation for sampling bias in observed length at 50 percent maturity. LenMbiascv is a single value specifying the standard deviation of a log-normal distribution with a mean of 1. For each simulation a bias value is drawn from this distribution, and that bias is applied across all years. Positive real numbers.</t>
-  </si>
-  <si>
-    <t>Log-normal coefficient of variation for sampling bias in observed natural mortality rate. Uniform distribution lower and upper bounds. Mbiascv is a single value specifying the standard deviation of a log-normal distribution with a mean of 1. For each simulation a bias value is drawn from this distribution, and that bias is applied across all years. Positive real numbers.</t>
-  </si>
-  <si>
-    <t>Log-normal coefficient of variation for sampling bias in observed growth parameter K. Kbiascv is a single value specifying the standard deviation of a log-normal distribution with a mean of 1. For each simulation a bias value is drawn from this distribution, and that bias is applied across all years. Positive real numbers.</t>
-  </si>
-  <si>
-    <t>Log-normal coefficient of variation for sampling bias in observed t0. t0biascv is a single value specifying the standard deviation of a log-normal distribution with a mean of 1. For each simulation a bias value is drawn from this distribution, and that bias is applied across all years. Positive real numbers.</t>
-  </si>
-  <si>
-    <t>Log-normal coefficient of variation for sampling bias in observed maximum length. Linfbiascv is a single value specifying the standard deviation of a log-normal distribution with a mean of 1. For each simulation a bias value is drawn from this distribution, and that bias is applied across all years. Positive real numbers.</t>
-  </si>
-  <si>
-    <t>Log-normal coefficient of variation for sampling bias in observed length at first capture. LFCbiascv is a single value specifying the standard deviation of a log-normal distribution with a mean of 1. For each simulation a bias value is drawn from this distribution, and that bias is applied across all years. Positive real numbers.</t>
-  </si>
-  <si>
-    <t>Log-normal coefficient of variation for sampling bias in length-at-full selection. LFSbiascv is a single value specifying the standard deviation of a log-normal distribution with a mean of 1. For each simulation a bias value is drawn from this distribution, and that bias is applied across all years. Positive real numbers.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Observation error in the relative abundance index expressed as a coefficient of variation (CV). Iobs requires upper and lower bounds of a uniform distribution, and for each simulation a CV is sampled from this distribution. Each CV is used to specify a log-normal error distribution with a mean of 1 and a standard deviation equal to the CV. The yearly observation error values for the index of abundance data are then drawn from this distribution. For each time step the simulation model records the true change in abundance, but the observed index is generated by applying this yearly error term (plus any bias, if specified) to the true relative change in abundance. Positive real numbers. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Observation error in the absolute abundance expressed as a coefficient of variation (CV). Btobs requires upper and lower bounds of a uniform distribution, and for each simulation a CV is sampled from this distribution. Each CV is used to specify a log-normal error distribution with a mean of 1 and a standard deviation equal to the CV. The yearly observation error values for the absolute abundance data are then drawn from this distribution. For each time step the simulation model records the true abundance, but the observed abundance is generated by applying this yearly error term (plus any bias, if specified) to the true abundance. Positive real numbers. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Log-normally distributed coefficient (CV) controlling error in observations of the current stock biomass. Bias occurs when the observed index of abundance is is systematically higher or lower than the true relative abundance. Btbiascv is a single value specifying the standard deviation of a log-normal distribution with a mean of 1. For each simulation a bias value is drawn from this distribution, and that bias is applied across all years. Positive real numbers. </t>
-  </si>
-  <si>
     <t>A parameter controlling hyperstability/hyperdepletion in the measurement of abundance. For each simulation a single value is drawn from a uniform distribution specified by the upper and lower bounds provided. Values below 1 lead to hyperstability (the observed index decreases more slowly than the true abundance) and values above 1 lead to hyperdepletion (the observed index decreases more rapidly than true abundance).  Positive real numbers.</t>
   </si>
   <si>
-    <t>Log-normal coefficient of variation for sampling bias in estimates of the ratio of the fishing mortality rate that gives the maximum sustainable yield relative to the assumed instantaneous natural mortality rate. FMSY/M. FMSY_Mbiascv is a single value specifying the standard deviation of a log-normal distribution with a mean of 1. For each simulation a bias value is drawn from this distribution, and that bias is applied across all years. Positive real numbers.</t>
-  </si>
-  <si>
-    <t>Log-normal coefficient of variation for sampling bias in estimates of the BMSY relative to unfished biomass (BMSY/B0). BMSY_B0biascv is a single value specifying the standard deviation of a log-normal distribution with a mean of 1. For each simulation a bias value is drawn from this distribution, and that bias is applied across all years. Positive real numbers.</t>
-  </si>
-  <si>
-    <t>Log-normal coefficient of variation for sampling bias in the observed relative index of abundance (Iref). Irefbiascv is a single value specifying the standard deviation of a log-normal distribution with a mean of 1. For each simulation a bias value is drawn from this distribution, and that bias is applied across all years. Positive real numbers.</t>
-  </si>
-  <si>
-    <t>Log-normal coefficient of variation for sampling bias in the observed reference biomass (Bref). Brefbiascv is a single value specifying the standard deviation of a log-normal distribution with a mean of 1. For each simulation a bias value is drawn from this distribution, and that bias is applied across all years. Positive real numbers.</t>
-  </si>
-  <si>
-    <t>Log-normal coefficient of variation for sampling bias in the observed reference catch (Cref). Crefbiascv is a single value specifying the standard deviation of a log-normal distribution with a mean of 1. For each simulation a bias value is drawn from this distribution, and that bias is applied across all years. Positive real numbers.</t>
-  </si>
-  <si>
-    <t>Log-normal coefficient of variation for sampling bias in the observed depletion level.  Dbiascv is a single value specifying the standard deviation of a log-normal distribution with a mean of 1. For each simulation a bias value is drawn from this distribution, and that bias is applied across all years. Positive real numbers.</t>
-  </si>
-  <si>
-    <t>Log-normal coefficient of variation controlling error in observations of stock depletion among years. Observation error in the depletion expressed as a coefficient of variation (CV). Dobs requires the upper and lower bounds of a uniform distribution, and for each simulation a CV is sampled from this distribution. Each CV is used to specify a log-normal error distribution with a mean of 1 and a standard deviation equal to the CV. The yearly observation error values for the depletion data are then drawn from this distribution. For each time step the simulation model records the true depletion, but the observed depletion is generated by applying this yearly error term (plus any bias, if specified) to the true depletion.</t>
-  </si>
-  <si>
-    <t>Log-normal coefficient of variation for sampling persistent bias in steepness. hbiascv is a single value specifying the standard deviation of a log-normal distribution with a mean of 1. For each simulation a bias value is drawn from this distribution, and that bias is applied across all years. Positive real numbers.</t>
-  </si>
-  <si>
-    <t>Log-normal coefficient of variation for sampling persistent bias in recent recruitment strength. Recbiascv requires the upper and lower bounds of a uniform distribution, and for each simulation a CV is sampled from this distribution. Each CV is used to specify a log-normal error distribution with a mean of 1 and a standard deviation equal to the CV. The yearly bias values for the depletion data are then drawn from this distribution. Positive real numbers.</t>
-  </si>
-  <si>
-    <t>Log-normal coefficient of variation for sampling persistent bias in recruitment variability. sigmaRbiascv is a single value specifying the standard deviation of a log-normal distribution with a mean of 1. For each simulation a bias value is drawn from this distribution, and that bias is applied across all years. Positive real numbers.</t>
+    <t xml:space="preserve">Log-normally distributed coefficient of variation controlling the sampling bias in observed catch for each simulation. Bias occurs when catches are systematically skewed away from the true catch level (for example, due to underreporting of catch or undetected illegal catches). Cbiascv is a single value specifying the standard deviation of a log-normal distribution with a mean of 1  and a standard deviation equal to the sampled CV. For each simulation a bias value is drawn from this distribution, and that bias is applied across all years. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Observation error around the total catch. Observation error in the total catch is expressed as a coefficient of variation (CV). Cobs requires upper and lower bounds of a uniform distribution, and for each simulation a CV is sampled from this distribution. Each CV is used to specify a log-normal error distribution with a mean of 1 and a standard deviation equal to the sampled CV. The yearly observation error values for the catch data are then drawn from this distribution. For each time step the simulation model records the true catch, but the observed catch is generated by applying this yearly error term (plus any bias, if specified) to the true catch. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Observation error in the relative abundance index expressed as a coefficient of variation (CV). Iobs requires upper and lower bounds of a uniform distribution, and for each simulation a CV is sampled from this distribution. Each CV is used to specify a log-normal error distribution with a mean of 1 and a standard deviation equal to the sampled CV. The yearly observation error values for the index of abundance data are then drawn from this distribution. For each time step the simulation model records the true change in abundance, but the observed index is generated by applying this yearly error term (plus any bias, if specified) to the true relative change in abundance. Positive real numbers. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Observation error in the absolute abundance expressed as a coefficient of variation (CV). Btobs requires upper and lower bounds of a uniform distribution, and for each simulation a CV is sampled from this distribution. Each CV is used to specify a log-normal error distribution with a mean of 1 and a standard deviation equal to the sampled CV. The yearly observation error values for the absolute abundance data are then drawn from this distribution. For each time step the simulation model records the true abundance, but the observed abundance is generated by applying this yearly error term (plus any bias, if specified) to the true abundance. Positive real numbers. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Log-normally distributed coefficient (CV) controlling error in observations of the current stock biomass. Bias occurs when the observed index of abundance is is systematically higher or lower than the true relative abundance. Btbiascv is a single value specifying the standard deviation of a log-normal distribution with a mean of 1  and a standard deviation equal to the sampled CV. For each simulation a bias value is drawn from this distribution, and that bias is applied across all years. Positive real numbers. </t>
+  </si>
+  <si>
+    <t>Log-normal coefficient of variation for sampling bias in observed length at 50 percent maturity. LenMbiascv is a single value specifying the standard deviation of a log-normal distribution with a mean of 1  and a standard deviation equal to the sampled CV. For each simulation a bias value is drawn from this distribution, and that bias is applied across all years. Positive real numbers.</t>
+  </si>
+  <si>
+    <t>Log-normal coefficient of variation for sampling bias in observed natural mortality rate. Uniform distribution lower and upper bounds. Mbiascv is a single value specifying the standard deviation of a log-normal distribution with a mean of 1  and a standard deviation equal to the sampled CV. For each simulation a bias value is drawn from this distribution, and that bias is applied across all years. Positive real numbers.</t>
+  </si>
+  <si>
+    <t>Log-normal coefficient of variation for sampling bias in observed growth parameter K. Kbiascv is a single value specifying the standard deviation of a log-normal distribution with a mean of 1  and a standard deviation equal to the sampled CV. For each simulation a bias value is drawn from this distribution, and that bias is applied across all years. Positive real numbers.</t>
+  </si>
+  <si>
+    <t>Log-normal coefficient of variation for sampling bias in observed t0. t0biascv is a single value specifying the standard deviation of a log-normal distribution with a mean of 1  and a standard deviation equal to the sampled CV. For each simulation a bias value is drawn from this distribution, and that bias is applied across all years. Positive real numbers.</t>
+  </si>
+  <si>
+    <t>Log-normal coefficient of variation for sampling bias in observed maximum length. Linfbiascv is a single value specifying the standard deviation of a log-normal distribution with a mean of 1  and a standard deviation equal to the sampled CV. For each simulation a bias value is drawn from this distribution, and that bias is applied across all years. Positive real numbers.</t>
+  </si>
+  <si>
+    <t>Log-normal coefficient of variation for sampling bias in observed length at first capture. LFCbiascv is a single value specifying the standard deviation of a log-normal distribution with a mean of 1  and a standard deviation equal to the sampled CV. For each simulation a bias value is drawn from this distribution, and that bias is applied across all years. Positive real numbers.</t>
+  </si>
+  <si>
+    <t>Log-normal coefficient of variation for sampling bias in length-at-full selection. LFSbiascv is a single value specifying the standard deviation of a log-normal distribution with a mean of 1  and a standard deviation equal to the sampled CV. For each simulation a bias value is drawn from this distribution, and that bias is applied across all years. Positive real numbers.</t>
+  </si>
+  <si>
+    <t>Log-normal coefficient of variation for sampling bias in estimates of the ratio of the fishing mortality rate that gives the maximum sustainable yield relative to the assumed instantaneous natural mortality rate. FMSY/M. FMSY_Mbiascv is a single value specifying the standard deviation of a log-normal distribution with a mean of 1  and a standard deviation equal to the sampled CV. For each simulation a bias value is drawn from this distribution, and that bias is applied across all years. Positive real numbers.</t>
+  </si>
+  <si>
+    <t>Log-normal coefficient of variation for sampling bias in estimates of the BMSY relative to unfished biomass (BMSY/B0). BMSY_B0biascv is a single value specifying the standard deviation of a log-normal distribution with a mean of 1  and a standard deviation equal to the sampled CV. For each simulation a bias value is drawn from this distribution, and that bias is applied across all years. Positive real numbers.</t>
+  </si>
+  <si>
+    <t>Log-normal coefficient of variation for sampling bias in the observed relative index of abundance (Iref). Irefbiascv is a single value specifying the standard deviation of a log-normal distribution with a mean of 1  and a standard deviation equal to the sampled CV. For each simulation a bias value is drawn from this distribution, and that bias is applied across all years. Positive real numbers.</t>
+  </si>
+  <si>
+    <t>Log-normal coefficient of variation for sampling bias in the observed reference biomass (Bref). Brefbiascv is a single value specifying the standard deviation of a log-normal distribution with a mean of 1  and a standard deviation equal to the sampled CV. For each simulation a bias value is drawn from this distribution, and that bias is applied across all years. Positive real numbers.</t>
+  </si>
+  <si>
+    <t>Log-normal coefficient of variation for sampling bias in the observed reference catch (Cref). Crefbiascv is a single value specifying the standard deviation of a log-normal distribution with a mean of 1  and a standard deviation equal to the sampled CV. For each simulation a bias value is drawn from this distribution, and that bias is applied across all years. Positive real numbers.</t>
+  </si>
+  <si>
+    <t>Log-normal coefficient of variation for sampling bias in the observed depletion level.  Dbiascv is a single value specifying the standard deviation of a log-normal distribution with a mean of 1  and a standard deviation equal to the sampled CV. For each simulation a bias value is drawn from this distribution, and that bias is applied across all years. Positive real numbers.</t>
+  </si>
+  <si>
+    <t>Log-normal coefficient of variation controlling error in observations of stock depletion among years. Observation error in the depletion expressed as a coefficient of variation (CV). Dobs requires the upper and lower bounds of a uniform distribution, and for each simulation a CV is sampled from this distribution. Each CV is used to specify a log-normal error distribution with a mean of 1 and a standard deviation equal to the sampled CV. The yearly observation error values for the depletion data are then drawn from this distribution. For each time step the simulation model records the true depletion, but the observed depletion is generated by applying this yearly error term (plus any bias, if specified) to the true depletion.</t>
+  </si>
+  <si>
+    <t>Log-normal coefficient of variation for sampling persistent bias in steepness. hbiascv is a single value specifying the standard deviation of a log-normal distribution with a mean of 1  and a standard deviation equal to the sampled CV. For each simulation a bias value is drawn from this distribution, and that bias is applied across all years. Positive real numbers.</t>
+  </si>
+  <si>
+    <t>Log-normal coefficient of variation for sampling persistent bias in recent recruitment strength. Recbiascv requires the upper and lower bounds of a uniform distribution, and for each simulation a CV is sampled from this distribution. Each CV is used to specify a log-normal error distribution with a mean of 1 and a standard deviation equal to the sampled CV. The yearly bias values for the depletion data are then drawn from this distribution. Positive real numbers.</t>
+  </si>
+  <si>
+    <t>Log-normal coefficient of variation for sampling persistent bias in recruitment variability. sigmaRbiascv is a single value specifying the standard deviation of a log-normal distribution with a mean of 1  and a standard deviation equal to the sampled CV. For each simulation a bias value is drawn from this distribution, and that bias is applied across all years. Positive real numbers.</t>
+  </si>
+  <si>
+    <t>Observation error around the total effort. Observation error in the total effort is expressed as a coefficient of variation (CV). Eobs requires upper and lower bounds of a uniform distribution, and for each simulation a CV is sampled from this distribution. Each CV is used to specify a log-normal error distribution with a mean of 1 and a standard deviation equal to the sampled CV. The yearly observation error values for the effort data are then drawn from this distribution. For each time step the simulation model records the true effort, but the observed effort is generated by applying this yearly error term (plus any bias, if specified) to the true effort.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Log-normally distributed coefficient of variation controlling the sampling bias in observed effort for each simulation. Bias occurs when effort is systematically skewed away from the true effort level. Ebiascv is a single value specifying the standard deviation of a log-normal distribution with a mean of 1  and a standard deviation equal to the sampled CV. For each simulation a bias value is drawn from this distribution, and that bias is applied across all years. </t>
   </si>
 </sst>
 </file>
@@ -3250,8 +3250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3307,7 +3307,7 @@
         <v>15</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -3321,7 +3321,7 @@
         <v>15</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
@@ -3335,7 +3335,7 @@
         <v>15</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="F5" t="s">
         <v>529</v>
@@ -3352,7 +3352,7 @@
         <v>15</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="F6" t="s">
         <v>531</v>
@@ -3369,7 +3369,7 @@
         <v>15</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="F7" t="s">
         <v>530</v>
@@ -3386,7 +3386,7 @@
         <v>15</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="F8" t="s">
         <v>532</v>
@@ -3403,7 +3403,7 @@
         <v>15</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
@@ -3417,13 +3417,13 @@
         <v>15</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>209</v>
       </c>
@@ -3431,7 +3431,7 @@
         <v>15</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
@@ -3445,7 +3445,7 @@
         <v>15</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>603</v>
+        <v>589</v>
       </c>
       <c r="F12" t="s">
         <v>533</v>
@@ -3462,13 +3462,13 @@
         <v>15</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>212</v>
       </c>
@@ -3476,7 +3476,7 @@
         <v>15</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
@@ -3490,13 +3490,13 @@
         <v>15</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>214</v>
       </c>
@@ -3504,7 +3504,7 @@
         <v>15</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
@@ -3518,7 +3518,7 @@
         <v>15</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
@@ -3532,7 +3532,7 @@
         <v>15</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
@@ -3546,13 +3546,13 @@
         <v>15</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>218</v>
       </c>
@@ -3560,13 +3560,13 @@
         <v>15</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>219</v>
       </c>
@@ -3574,7 +3574,7 @@
         <v>15</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
@@ -3588,7 +3588,7 @@
         <v>15</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>15</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
@@ -3616,7 +3616,7 @@
         <v>15</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
@@ -3630,7 +3630,7 @@
         <v>15</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
@@ -3644,7 +3644,7 @@
         <v>15</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
@@ -3658,7 +3658,7 @@
         <v>15</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
@@ -3672,7 +3672,7 @@
         <v>15</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
@@ -3686,7 +3686,7 @@
         <v>15</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
@@ -3700,7 +3700,7 @@
         <v>15</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>587</v>
+        <v>612</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>15</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>588</v>
+        <v>613</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>

--- a/build_tools/Class_definitions/Class_definitions.xlsx
+++ b/build_tools/Class_definitions/Class_definitions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adrian\Documents\GitHub\MSEtool\build_tools\Class_definitions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC54643-BEA9-44E4-B127-CAABF58FCCAA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4B7CBED-494D-459D-82EE-D2CF9CE16B49}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stock" sheetId="1" r:id="rId1"/>
@@ -879,24 +879,6 @@
     <t>Named list of annual MSY reference points MSY, FMSY, and SBMSY. Array with dimensions: nsim, nMPs, nyears+proyears. Will be the same as `Hist@Ref$ByYear` unless selectivity is changed by MP</t>
   </si>
   <si>
-    <t xml:space="preserve"> Mean fraction of TAC taken. Uniform distribution lower and upper bounds. Positive real number. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Log-normal coefficient of variation in the fraction of Total Allowable Catch (TAC) taken. Uniform distribution lower and upper bounds. Non-negative real numbers. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean fraction of TAE taken. Uniform distribution lower and upper bounds. Positive real number. </t>
-  </si>
-  <si>
-    <t>Log-normal coefficient of variation in the fraction of Total Allowable Effort (TAE) taken. Uniform distribution lower and upper bounds. Non-negative real numbers.</t>
-  </si>
-  <si>
-    <t>The real minimum size that is retained expressed as a fraction of the size of retention. Uniform distribution lower and upper bounds. Positive real number.</t>
-  </si>
-  <si>
-    <t>Log-normal coefficient of variation controlling mismatch between a minimum size limit and the real minimum size retained. Uniform distribution lower and upper bounds. Non-negative real numbers.</t>
-  </si>
-  <si>
     <t>sigmaRbiascv</t>
   </si>
   <si>
@@ -1873,6 +1855,24 @@
   </si>
   <si>
     <t xml:space="preserve">Log-normally distributed coefficient of variation controlling the sampling bias in observed effort for each simulation. Bias occurs when effort is systematically skewed away from the true effort level. Ebiascv is a single value specifying the standard deviation of a log-normal distribution with a mean of 1  and a standard deviation equal to the sampled CV. For each simulation a bias value is drawn from this distribution, and that bias is applied across all years. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean fraction of recommended TAC that is actually taken. For each historical simulation a single value is drawn from a uniform distribution specified by the upper and lower bounds provided. This value is the mean TAC fraction obtained across all years of that simulation, and a yearly TAC frac is drawn from a log-normal distribution with the simulation mean and a coefficient of variation specified by the value of `TACSD` drawn for that simulation. If the value drawn is greater than 1 the amount of catch taken is greater than that recommended by the TAC, and if it is less than 1 the amount of catch taken is less than that recommended by the TAC. Positive real numbers. </t>
+  </si>
+  <si>
+    <t>Log-normal coefficient of variation in the fraction of recommended TAC that is actually taken. For each historical simulation a single value is drawn from a uniform distribution specified by the upper and lower bounds provided. This value is used, along with the `TACFrac` drawn for that simulation, to create a log-normal distribution that yearly values specifying the actual amount of catch taken are drawn from. Positive real numbers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean fraction of recommended TAE that is actually taken. For each historical simulation a single value is drawn from a uniform distribution specified by the upper and lower bounds provided. This value is the mean TAE fraction obtained across all years of that simulation, and a yearly TAE frac is drawn from a log-normal distribution with the simulation mean and a coefficient of variation specified by the value of `TAESD` drawn for that simulation. If the value drawn is greater than 1 the amount of effort employed is greater than that recommended by the TAE, and if it is less than 1 the amount of effort employed is less than that recommended by the TAE. Positive real numbers. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Log-normal coefficient of variation in the fraction of recommended TAE that is actually taken. For each historical simulation a single value is drawn from a uniform distribution specified by the upper and lower bounds provided. This value is used, along with the `TAEFrac` drawn for that simulation, to create a log-normal distribution that yearly values speciying the actual amount of efort employed are drawn from. Positive real numbers. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean fraction of recommended size limit that is actually retained. For each historical simulation a single value is drawn from a uniform distribution specified by the upper and lower bounds provided. This value is the mean size limit fraction obtained across all years of that simulation, and a yearly size limit fraction is drawn from a log-normal distribution with the simulation mean and a coefficient of variation specified by the value of `SizeLimSD` drawn for that simulation. If the value drawn is greater than 1 the size of fish retained is greater than that recommended by the size limit, and if it is less than 1 the amount of size of fish retained is less than that recommended by the size limit. Positive real numbers. </t>
+  </si>
+  <si>
+    <t>Log-normal coefficient of variation in the fraction of recommended size limit that is actually retained. For each historical simulation a single value is drawn from a uniform distribution specified by the upper and lower bounds provided. This value is used, along with the `SizeLimFrac` drawn for that simulation, to create a log-normal distribution that yearly values speciying the actual fraction of the size limit retained are drawn from. Positive real numbers.</t>
   </si>
 </sst>
 </file>
@@ -2262,7 +2262,7 @@
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="E2" s="3" t="b">
         <v>0</v>
@@ -2281,7 +2281,7 @@
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="E3" s="3" t="b">
         <v>0</v>
@@ -2300,7 +2300,7 @@
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="E4" s="3" t="b">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="E5" s="3" t="b">
         <v>0</v>
@@ -2342,7 +2342,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" t="s">
@@ -2363,7 +2363,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" t="s">
@@ -2384,7 +2384,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" t="s">
@@ -2405,7 +2405,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" t="s">
@@ -2426,7 +2426,7 @@
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" t="s">
@@ -2447,7 +2447,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" t="s">
@@ -2468,7 +2468,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" t="s">
@@ -2489,7 +2489,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" t="s">
@@ -2510,7 +2510,7 @@
         <v>2</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" t="s">
@@ -2531,7 +2531,7 @@
         <v>2</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" t="s">
@@ -2552,7 +2552,7 @@
         <v>2</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" t="s">
@@ -2573,7 +2573,7 @@
         <v>2</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" t="s">
@@ -2594,7 +2594,7 @@
         <v>2</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" t="s">
@@ -2615,7 +2615,7 @@
         <v>2</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" t="s">
@@ -2636,7 +2636,7 @@
         <v>2</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" t="s">
@@ -2657,7 +2657,7 @@
         <v>2</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" t="s">
@@ -2678,7 +2678,7 @@
         <v>2</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="E22" s="3" t="b">
         <v>0</v>
@@ -2699,7 +2699,7 @@
         <v>2</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="E23" s="3" t="b">
         <v>0</v>
@@ -2720,7 +2720,7 @@
         <v>2</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" t="s">
@@ -2741,7 +2741,7 @@
         <v>2</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" t="s">
@@ -2762,7 +2762,7 @@
         <v>2</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" t="s">
@@ -2783,7 +2783,7 @@
         <v>2</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" t="s">
@@ -2822,8 +2822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="51.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2869,7 +2869,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="E2" s="3" t="b">
         <v>0</v>
@@ -2889,7 +2889,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="E3" s="3" t="b">
         <v>0</v>
@@ -2909,7 +2909,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="E4" s="3" t="b">
         <v>0</v>
@@ -2926,7 +2926,7 @@
         <v>15</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="E5" s="3" t="b">
         <v>0</v>
@@ -2943,7 +2943,7 @@
         <v>15</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="E6" s="3" t="b">
         <v>0</v>
@@ -2960,7 +2960,7 @@
         <v>15</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="E7" s="3" t="b">
         <v>0</v>
@@ -2980,7 +2980,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>200</v>
@@ -3000,10 +3000,10 @@
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>16</v>
@@ -3020,10 +3020,10 @@
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>16</v>
@@ -3040,10 +3040,10 @@
         <v>2</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>16</v>
@@ -3060,10 +3060,10 @@
         <v>2</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>16</v>
@@ -3080,10 +3080,10 @@
         <v>2</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>16</v>
@@ -3100,7 +3100,7 @@
         <v>2</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="E14" s="3" t="b">
         <v>0</v>
@@ -3117,10 +3117,10 @@
         <v>2</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>16</v>
@@ -3137,10 +3137,10 @@
         <v>2</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>16</v>
@@ -3157,10 +3157,10 @@
         <v>2</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>16</v>
@@ -3177,10 +3177,10 @@
         <v>2</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>16</v>
@@ -3197,10 +3197,10 @@
         <v>2</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>16</v>
@@ -3217,13 +3217,13 @@
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -3250,7 +3250,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -3293,7 +3293,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
@@ -3307,7 +3307,7 @@
         <v>15</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -3321,7 +3321,7 @@
         <v>15</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
@@ -3335,10 +3335,10 @@
         <v>15</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="F5" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>16</v>
@@ -3352,10 +3352,10 @@
         <v>15</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="F6" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>16</v>
@@ -3369,10 +3369,10 @@
         <v>15</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="F7" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>16</v>
@@ -3386,10 +3386,10 @@
         <v>15</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="F8" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>16</v>
@@ -3403,7 +3403,7 @@
         <v>15</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
@@ -3417,7 +3417,7 @@
         <v>15</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
@@ -3431,7 +3431,7 @@
         <v>15</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
@@ -3445,10 +3445,10 @@
         <v>15</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="F12" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>16</v>
@@ -3462,7 +3462,7 @@
         <v>15</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
@@ -3476,7 +3476,7 @@
         <v>15</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
@@ -3490,7 +3490,7 @@
         <v>15</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
@@ -3504,7 +3504,7 @@
         <v>15</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
@@ -3518,7 +3518,7 @@
         <v>15</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
@@ -3532,7 +3532,7 @@
         <v>15</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
@@ -3546,7 +3546,7 @@
         <v>15</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
@@ -3560,7 +3560,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
@@ -3574,7 +3574,7 @@
         <v>15</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
@@ -3588,7 +3588,7 @@
         <v>15</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>15</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
@@ -3616,7 +3616,7 @@
         <v>15</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
@@ -3630,7 +3630,7 @@
         <v>15</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
@@ -3644,7 +3644,7 @@
         <v>15</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
@@ -3658,7 +3658,7 @@
         <v>15</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
@@ -3672,7 +3672,7 @@
         <v>15</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
@@ -3680,13 +3680,13 @@
     </row>
     <row r="29" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="B29" t="s">
         <v>15</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
@@ -3694,13 +3694,13 @@
     </row>
     <row r="30" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="B30" t="s">
         <v>15</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
@@ -3708,13 +3708,13 @@
     </row>
     <row r="31" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B31" t="s">
         <v>15</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
@@ -3729,8 +3729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3776,7 +3776,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
@@ -3793,10 +3793,10 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>282</v>
+        <v>608</v>
       </c>
       <c r="F3" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>16</v>
@@ -3813,10 +3813,10 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>283</v>
+        <v>609</v>
       </c>
       <c r="F4" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>16</v>
@@ -3833,10 +3833,10 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>284</v>
+        <v>610</v>
       </c>
       <c r="F5" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>16</v>
@@ -3853,10 +3853,10 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>285</v>
+        <v>611</v>
       </c>
       <c r="F6" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>16</v>
@@ -3873,10 +3873,10 @@
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>286</v>
+        <v>612</v>
       </c>
       <c r="F7" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>16</v>
@@ -3893,10 +3893,10 @@
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>287</v>
+        <v>613</v>
       </c>
       <c r="F8" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>16</v>
@@ -3925,7 +3925,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -3939,13 +3939,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>80</v>
@@ -3956,7 +3956,7 @@
         <v>89</v>
       </c>
       <c r="B3" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="C3" t="s">
         <v>90</v>
@@ -4037,13 +4037,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="B9" t="s">
         <v>95</v>
       </c>
       <c r="C9" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="D9" t="s">
         <v>80</v>
@@ -4054,7 +4054,7 @@
         <v>117</v>
       </c>
       <c r="B10" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="C10" t="s">
         <v>118</v>
@@ -4068,7 +4068,7 @@
         <v>113</v>
       </c>
       <c r="B11" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="C11" t="s">
         <v>114</v>
@@ -4124,7 +4124,7 @@
         <v>115</v>
       </c>
       <c r="B15" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="C15" t="s">
         <v>116</v>
@@ -4138,7 +4138,7 @@
         <v>111</v>
       </c>
       <c r="B16" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="C16" t="s">
         <v>112</v>
@@ -4149,13 +4149,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="B17" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="C17" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D17" t="s">
         <v>80</v>
@@ -4163,13 +4163,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="B18" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="C18" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="D18" t="s">
         <v>80</v>
@@ -4180,7 +4180,7 @@
         <v>109</v>
       </c>
       <c r="B19" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="C19" t="s">
         <v>110</v>
@@ -4191,13 +4191,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="B20" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="C20" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="D20" t="s">
         <v>80</v>
@@ -4208,7 +4208,7 @@
         <v>119</v>
       </c>
       <c r="B21" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C21" t="s">
         <v>120</v>
@@ -4345,13 +4345,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B32" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="C32" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="D32" t="s">
         <v>127</v>
@@ -4362,7 +4362,7 @@
         <v>132</v>
       </c>
       <c r="B33" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="C33" t="s">
         <v>133</v>
@@ -4390,7 +4390,7 @@
         <v>137</v>
       </c>
       <c r="B35" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="C35" t="s">
         <v>138</v>
@@ -4429,13 +4429,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="B38" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="C38" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="D38" t="s">
         <v>127</v>
@@ -4443,13 +4443,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="B39" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="C39" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="D39" t="s">
         <v>127</v>
@@ -4460,10 +4460,10 @@
         <v>233</v>
       </c>
       <c r="B40" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="C40" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="D40" t="s">
         <v>127</v>
@@ -4471,13 +4471,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="B42" t="s">
         <v>16</v>
       </c>
       <c r="C42" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="D42" t="s">
         <v>142</v>
@@ -4485,13 +4485,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="B43" t="s">
         <v>16</v>
       </c>
       <c r="C43" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="D43" t="s">
         <v>142</v>
@@ -4499,13 +4499,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="B44" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="C44" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="D44" t="s">
         <v>142</v>
@@ -4513,13 +4513,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="B45" t="s">
         <v>16</v>
       </c>
       <c r="C45" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="D45" t="s">
         <v>142</v>
@@ -4527,13 +4527,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="B46" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="C46" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="D46" t="s">
         <v>142</v>
@@ -4541,13 +4541,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="B47" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="C47" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="D47" t="s">
         <v>142</v>
@@ -4555,13 +4555,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="B48" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="C48" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="D48" t="s">
         <v>142</v>
@@ -4569,13 +4569,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="B49" t="s">
         <v>16</v>
       </c>
       <c r="C49" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="D49" t="s">
         <v>142</v>
@@ -4597,13 +4597,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="B51" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="C51" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="D51" t="s">
         <v>142</v>
@@ -4681,13 +4681,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="B57" t="s">
         <v>16</v>
       </c>
       <c r="C57" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="D57" t="s">
         <v>142</v>
@@ -4695,13 +4695,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="B58" t="s">
         <v>16</v>
       </c>
       <c r="C58" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D58" t="s">
         <v>142</v>
@@ -4709,13 +4709,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="B59" t="s">
         <v>16</v>
       </c>
       <c r="C59" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D59" t="s">
         <v>142</v>
@@ -4723,13 +4723,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="B60" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="C60" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="D60" t="s">
         <v>142</v>
@@ -4821,13 +4821,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="B67" t="s">
         <v>16</v>
       </c>
       <c r="C67" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="D67" t="s">
         <v>142</v>
@@ -4835,13 +4835,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="B68" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="C68" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="D68" t="s">
         <v>142</v>
@@ -4849,13 +4849,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="B69" t="s">
         <v>16</v>
       </c>
       <c r="C69" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="D69" t="s">
         <v>142</v>
@@ -4863,13 +4863,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="B70" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="C70" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="D70" t="s">
         <v>142</v>
@@ -4877,13 +4877,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="B71" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="C71" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="D71" t="s">
         <v>142</v>
@@ -4947,13 +4947,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="B76" t="s">
         <v>16</v>
       </c>
       <c r="C76" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="D76" t="s">
         <v>142</v>
@@ -4961,13 +4961,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="B77" t="s">
         <v>16</v>
       </c>
       <c r="C77" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="D77" t="s">
         <v>142</v>
@@ -4975,13 +4975,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="B78" t="s">
         <v>16</v>
       </c>
       <c r="C78" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="D78" t="s">
         <v>142</v>
@@ -5242,7 +5242,7 @@
     </row>
     <row r="18" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="B18" t="s">
         <v>275</v>
@@ -5298,26 +5298,26 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="B25" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="B26" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="B27" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -5325,7 +5325,7 @@
         <v>244</v>
       </c>
       <c r="B28" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -5372,10 +5372,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -5391,7 +5391,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -5413,10 +5413,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="B5" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -5424,26 +5424,26 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B6" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="B7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="B8" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -5451,31 +5451,31 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B9" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="B10" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B13" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -5483,95 +5483,95 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="B15" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B16" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="B17" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B18" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B19" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="B20" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B21" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B23" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B24" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="B25" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -5579,31 +5579,31 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="B27" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B28" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="B29" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -5616,10 +5616,10 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="B31" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -5632,7 +5632,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="B33" t="s">
         <v>36</v>
@@ -5640,28 +5640,28 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="B36" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="B37" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="B38" t="s">
         <v>69</v>
@@ -5669,15 +5669,15 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="B39" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B40" t="s">
         <v>70</v>
@@ -5685,15 +5685,15 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B43" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="D43" t="b">
         <v>1</v>
@@ -5701,10 +5701,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="B44" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="D44" t="b">
         <v>1</v>
@@ -5712,10 +5712,10 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="B45" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="D45" t="b">
         <v>1</v>
@@ -5734,10 +5734,10 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="B47" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="D47" t="b">
         <v>1</v>
@@ -5745,10 +5745,10 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="B48" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="D48" t="b">
         <v>1</v>
@@ -5756,10 +5756,10 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B49" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="D49" t="b">
         <v>1</v>
@@ -5767,10 +5767,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="B50" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="D50" t="b">
         <v>1</v>
@@ -5778,10 +5778,10 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B51" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="D51" t="b">
         <v>1</v>
@@ -5789,10 +5789,10 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="B52" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="D52" t="b">
         <v>1</v>
@@ -5800,10 +5800,10 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B53" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="D53" t="b">
         <v>1</v>
@@ -5816,7 +5816,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="D55" t="b">
         <v>1</v>
@@ -5824,7 +5824,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="D56" t="b">
         <v>1</v>
@@ -5832,7 +5832,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D57" t="b">
         <v>1</v>
@@ -5840,7 +5840,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="D58" t="b">
         <v>1</v>
@@ -5848,7 +5848,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="D59" t="b">
         <v>1</v>
@@ -5856,7 +5856,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="D60" t="b">
         <v>1</v>
@@ -5864,10 +5864,10 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="B61" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -5880,10 +5880,10 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="B63" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="D63" t="b">
         <v>1</v>
@@ -5891,10 +5891,10 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="B64" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="D64" t="b">
         <v>1</v>
@@ -5902,10 +5902,10 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="B65" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="D65" t="b">
         <v>1</v>
@@ -5913,10 +5913,10 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B66" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="D66" t="b">
         <v>1</v>
@@ -5924,10 +5924,10 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="B67" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="D67" t="b">
         <v>1</v>
@@ -5935,15 +5935,15 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="B70" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="D70" t="b">
         <v>1</v>
@@ -5951,10 +5951,10 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="B71" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="D71" t="b">
         <v>1</v>
@@ -5962,15 +5962,15 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="B74" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="D74" t="b">
         <v>1</v>
@@ -5989,10 +5989,10 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="B76" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="D76" t="b">
         <v>1</v>
@@ -6000,10 +6000,10 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="B77" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="D77" t="b">
         <v>1</v>
@@ -6011,191 +6011,191 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="B80" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="B81" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="B82" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="B83" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="B84" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="B85" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="B86" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="B87" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="B88" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="B89" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="B90" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="B91" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="B92" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="B93" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="B94" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="B95" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="B96" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="B97" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="B98" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="B99" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="B100" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="B101" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="B102" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="C102" t="b">
         <v>0</v>

--- a/build_tools/Class_definitions/Class_definitions.xlsx
+++ b/build_tools/Class_definitions/Class_definitions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adrian\Documents\GitHub\MSEtool\build_tools\Class_definitions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4B7CBED-494D-459D-82EE-D2CF9CE16B49}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B20C4C-DA9C-451B-A6A9-79B33F31263C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-2385" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stock" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="623">
   <si>
     <t>Slot</t>
   </si>
@@ -1449,9 +1449,6 @@
     <t>numeric matrix dim=c(nsim, nyears+proyears)</t>
   </si>
   <si>
-    <t>Catch observation error by simulation and year</t>
-  </si>
-  <si>
     <t>Isd</t>
   </si>
   <si>
@@ -1873,6 +1870,36 @@
   </si>
   <si>
     <t>Log-normal coefficient of variation in the fraction of recommended size limit that is actually retained. For each historical simulation a single value is drawn from a uniform distribution specified by the upper and lower bounds provided. This value is used, along with the `SizeLimFrac` drawn for that simulation, to create a log-normal distribution that yearly values speciying the actual fraction of the size limit retained are drawn from. Positive real numbers.</t>
+  </si>
+  <si>
+    <t>Cobs_y</t>
+  </si>
+  <si>
+    <t>Catch observation error by simulation and year (no additional bias is added)</t>
+  </si>
+  <si>
+    <t>Catch observation error by simulation and year (Cbias is added to this)</t>
+  </si>
+  <si>
+    <t>TAC_y</t>
+  </si>
+  <si>
+    <t>E_y</t>
+  </si>
+  <si>
+    <t>SizeLim_y</t>
+  </si>
+  <si>
+    <t>Implementation error for TAC by simulation and year</t>
+  </si>
+  <si>
+    <t>Implementation error for TAE by simulation and year</t>
+  </si>
+  <si>
+    <t>Implementation error for size limit by simulation and year</t>
+  </si>
+  <si>
+    <t>Imp</t>
   </si>
 </sst>
 </file>
@@ -2262,7 +2289,7 @@
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E2" s="3" t="b">
         <v>0</v>
@@ -2281,7 +2308,7 @@
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E3" s="3" t="b">
         <v>0</v>
@@ -2300,7 +2327,7 @@
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E4" s="3" t="b">
         <v>0</v>
@@ -2321,7 +2348,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E5" s="3" t="b">
         <v>0</v>
@@ -2342,7 +2369,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" t="s">
@@ -2363,7 +2390,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" t="s">
@@ -2384,7 +2411,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" t="s">
@@ -2405,7 +2432,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" t="s">
@@ -2426,7 +2453,7 @@
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" t="s">
@@ -2447,7 +2474,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" t="s">
@@ -2468,7 +2495,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" t="s">
@@ -2489,7 +2516,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" t="s">
@@ -2510,7 +2537,7 @@
         <v>2</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" t="s">
@@ -2531,7 +2558,7 @@
         <v>2</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" t="s">
@@ -2552,7 +2579,7 @@
         <v>2</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" t="s">
@@ -2573,7 +2600,7 @@
         <v>2</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" t="s">
@@ -2594,7 +2621,7 @@
         <v>2</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" t="s">
@@ -2615,7 +2642,7 @@
         <v>2</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" t="s">
@@ -2636,7 +2663,7 @@
         <v>2</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" t="s">
@@ -2657,7 +2684,7 @@
         <v>2</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" t="s">
@@ -2678,7 +2705,7 @@
         <v>2</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E22" s="3" t="b">
         <v>0</v>
@@ -2699,7 +2726,7 @@
         <v>2</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E23" s="3" t="b">
         <v>0</v>
@@ -2720,7 +2747,7 @@
         <v>2</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" t="s">
@@ -2741,7 +2768,7 @@
         <v>2</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" t="s">
@@ -2762,7 +2789,7 @@
         <v>2</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" t="s">
@@ -2783,7 +2810,7 @@
         <v>2</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" t="s">
@@ -2869,7 +2896,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E2" s="3" t="b">
         <v>0</v>
@@ -2889,7 +2916,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E3" s="3" t="b">
         <v>0</v>
@@ -2909,7 +2936,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E4" s="3" t="b">
         <v>0</v>
@@ -2926,7 +2953,7 @@
         <v>15</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E5" s="3" t="b">
         <v>0</v>
@@ -2943,7 +2970,7 @@
         <v>15</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E6" s="3" t="b">
         <v>0</v>
@@ -2960,7 +2987,7 @@
         <v>15</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E7" s="3" t="b">
         <v>0</v>
@@ -2980,7 +3007,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>200</v>
@@ -3000,10 +3027,10 @@
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>16</v>
@@ -3020,10 +3047,10 @@
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>16</v>
@@ -3040,10 +3067,10 @@
         <v>2</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>16</v>
@@ -3060,10 +3087,10 @@
         <v>2</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>16</v>
@@ -3080,10 +3107,10 @@
         <v>2</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>16</v>
@@ -3100,7 +3127,7 @@
         <v>2</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E14" s="3" t="b">
         <v>0</v>
@@ -3117,10 +3144,10 @@
         <v>2</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>16</v>
@@ -3137,10 +3164,10 @@
         <v>2</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>16</v>
@@ -3157,10 +3184,10 @@
         <v>2</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>16</v>
@@ -3177,10 +3204,10 @@
         <v>2</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>16</v>
@@ -3197,10 +3224,10 @@
         <v>2</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>16</v>
@@ -3217,7 +3244,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>465</v>
@@ -3250,7 +3277,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -3307,7 +3334,7 @@
         <v>15</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -3321,7 +3348,7 @@
         <v>15</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
@@ -3335,10 +3362,10 @@
         <v>15</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="F5" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>16</v>
@@ -3352,10 +3379,10 @@
         <v>15</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>16</v>
@@ -3369,10 +3396,10 @@
         <v>15</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F7" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>16</v>
@@ -3386,10 +3413,10 @@
         <v>15</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>16</v>
@@ -3403,7 +3430,7 @@
         <v>15</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
@@ -3417,7 +3444,7 @@
         <v>15</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
@@ -3431,7 +3458,7 @@
         <v>15</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
@@ -3445,10 +3472,10 @@
         <v>15</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F12" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>16</v>
@@ -3462,7 +3489,7 @@
         <v>15</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
@@ -3476,7 +3503,7 @@
         <v>15</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
@@ -3490,7 +3517,7 @@
         <v>15</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
@@ -3504,7 +3531,7 @@
         <v>15</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
@@ -3518,7 +3545,7 @@
         <v>15</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
@@ -3532,7 +3559,7 @@
         <v>15</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
@@ -3546,7 +3573,7 @@
         <v>15</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
@@ -3560,7 +3587,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
@@ -3574,7 +3601,7 @@
         <v>15</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
@@ -3588,7 +3615,7 @@
         <v>15</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
@@ -3602,7 +3629,7 @@
         <v>15</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
@@ -3616,7 +3643,7 @@
         <v>15</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
@@ -3630,7 +3657,7 @@
         <v>15</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
@@ -3644,7 +3671,7 @@
         <v>15</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
@@ -3658,7 +3685,7 @@
         <v>15</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
@@ -3672,7 +3699,7 @@
         <v>15</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
@@ -3686,7 +3713,7 @@
         <v>15</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
@@ -3700,7 +3727,7 @@
         <v>15</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
@@ -3714,7 +3741,7 @@
         <v>15</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
@@ -3729,7 +3756,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -3793,10 +3820,10 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>16</v>
@@ -3813,10 +3840,10 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="F4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>16</v>
@@ -3833,10 +3860,10 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F5" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>16</v>
@@ -3853,10 +3880,10 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F6" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>16</v>
@@ -3873,10 +3900,10 @@
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="F7" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>16</v>
@@ -3893,10 +3920,10 @@
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F8" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>16</v>
@@ -3909,10 +3936,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D87"/>
+  <dimension ref="A1:D93"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C78" sqref="C78"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3925,7 +3952,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -4505,7 +4532,7 @@
         <v>471</v>
       </c>
       <c r="C44" t="s">
-        <v>472</v>
+        <v>615</v>
       </c>
       <c r="D44" t="s">
         <v>142</v>
@@ -4513,13 +4540,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>473</v>
+        <v>613</v>
       </c>
       <c r="B45" t="s">
-        <v>16</v>
+        <v>471</v>
       </c>
       <c r="C45" t="s">
-        <v>474</v>
+        <v>614</v>
       </c>
       <c r="D45" t="s">
         <v>142</v>
@@ -4527,13 +4554,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B46" t="s">
-        <v>471</v>
+        <v>16</v>
       </c>
       <c r="C46" t="s">
-        <v>490</v>
+        <v>473</v>
       </c>
       <c r="D46" t="s">
         <v>142</v>
@@ -4541,13 +4568,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B47" t="s">
         <v>471</v>
       </c>
       <c r="C47" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D47" t="s">
         <v>142</v>
@@ -4555,13 +4582,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B48" t="s">
         <v>471</v>
       </c>
       <c r="C48" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D48" t="s">
         <v>142</v>
@@ -4569,13 +4596,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B49" t="s">
-        <v>16</v>
+        <v>471</v>
       </c>
       <c r="C49" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D49" t="s">
         <v>142</v>
@@ -4583,13 +4610,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>164</v>
+        <v>477</v>
       </c>
       <c r="B50" t="s">
         <v>16</v>
       </c>
       <c r="C50" t="s">
-        <v>165</v>
+        <v>492</v>
       </c>
       <c r="D50" t="s">
         <v>142</v>
@@ -4597,13 +4624,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>479</v>
+        <v>164</v>
       </c>
       <c r="B51" t="s">
-        <v>471</v>
+        <v>16</v>
       </c>
       <c r="C51" t="s">
-        <v>494</v>
+        <v>165</v>
       </c>
       <c r="D51" t="s">
         <v>142</v>
@@ -4611,13 +4638,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>144</v>
+        <v>478</v>
       </c>
       <c r="B52" t="s">
-        <v>16</v>
+        <v>471</v>
       </c>
       <c r="C52" t="s">
-        <v>145</v>
+        <v>493</v>
       </c>
       <c r="D52" t="s">
         <v>142</v>
@@ -4625,13 +4652,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="B53" t="s">
         <v>16</v>
       </c>
       <c r="C53" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="D53" t="s">
         <v>142</v>
@@ -4639,13 +4666,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B54" t="s">
         <v>16</v>
       </c>
       <c r="C54" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D54" t="s">
         <v>142</v>
@@ -4653,13 +4680,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="B55" t="s">
         <v>16</v>
       </c>
       <c r="C55" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="D55" t="s">
         <v>142</v>
@@ -4667,13 +4694,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="B56" t="s">
         <v>16</v>
       </c>
       <c r="C56" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="D56" t="s">
         <v>142</v>
@@ -4681,13 +4708,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>480</v>
+        <v>152</v>
       </c>
       <c r="B57" t="s">
         <v>16</v>
       </c>
       <c r="C57" t="s">
-        <v>489</v>
+        <v>153</v>
       </c>
       <c r="D57" t="s">
         <v>142</v>
@@ -4695,13 +4722,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B58" t="s">
         <v>16</v>
       </c>
       <c r="C58" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="D58" t="s">
         <v>142</v>
@@ -4709,13 +4736,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B59" t="s">
         <v>16</v>
       </c>
       <c r="C59" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D59" t="s">
         <v>142</v>
@@ -4723,13 +4750,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B60" t="s">
-        <v>471</v>
+        <v>16</v>
       </c>
       <c r="C60" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D60" t="s">
         <v>142</v>
@@ -4737,13 +4764,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>146</v>
+        <v>482</v>
       </c>
       <c r="B61" t="s">
-        <v>16</v>
+        <v>471</v>
       </c>
       <c r="C61" t="s">
-        <v>147</v>
+        <v>496</v>
       </c>
       <c r="D61" t="s">
         <v>142</v>
@@ -4751,13 +4778,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B62" t="s">
         <v>16</v>
       </c>
       <c r="C62" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D62" t="s">
         <v>142</v>
@@ -4765,13 +4792,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B63" t="s">
         <v>16</v>
       </c>
       <c r="C63" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D63" t="s">
         <v>142</v>
@@ -4779,13 +4806,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="B64" t="s">
         <v>16</v>
       </c>
       <c r="C64" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D64" t="s">
         <v>142</v>
@@ -4793,13 +4820,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B65" t="s">
         <v>16</v>
       </c>
       <c r="C65" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D65" t="s">
         <v>142</v>
@@ -4807,13 +4834,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B66" t="s">
         <v>16</v>
       </c>
       <c r="C66" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D66" t="s">
         <v>142</v>
@@ -4821,13 +4848,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>484</v>
+        <v>160</v>
       </c>
       <c r="B67" t="s">
         <v>16</v>
       </c>
       <c r="C67" t="s">
-        <v>498</v>
+        <v>161</v>
       </c>
       <c r="D67" t="s">
         <v>142</v>
@@ -4835,13 +4862,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B68" t="s">
-        <v>471</v>
+        <v>16</v>
       </c>
       <c r="C68" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D68" t="s">
         <v>142</v>
@@ -4849,13 +4876,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B69" t="s">
-        <v>16</v>
+        <v>471</v>
       </c>
       <c r="C69" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D69" t="s">
         <v>142</v>
@@ -4863,13 +4890,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B70" t="s">
-        <v>471</v>
+        <v>16</v>
       </c>
       <c r="C70" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D70" t="s">
         <v>142</v>
@@ -4877,13 +4904,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B71" t="s">
         <v>471</v>
       </c>
       <c r="C71" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D71" t="s">
         <v>142</v>
@@ -4891,13 +4918,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>186</v>
+        <v>487</v>
       </c>
       <c r="B72" t="s">
-        <v>187</v>
+        <v>471</v>
       </c>
       <c r="C72" t="s">
-        <v>188</v>
+        <v>501</v>
       </c>
       <c r="D72" t="s">
         <v>142</v>
@@ -4905,13 +4932,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B73" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C73" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D73" t="s">
         <v>142</v>
@@ -4919,13 +4946,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B74" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C74" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D74" t="s">
         <v>142</v>
@@ -4933,13 +4960,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>166</v>
+        <v>192</v>
       </c>
       <c r="B75" t="s">
-        <v>16</v>
+        <v>193</v>
       </c>
       <c r="C75" t="s">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="D75" t="s">
         <v>142</v>
@@ -4947,13 +4974,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>528</v>
+        <v>166</v>
       </c>
       <c r="B76" t="s">
         <v>16</v>
       </c>
       <c r="C76" t="s">
-        <v>531</v>
+        <v>167</v>
       </c>
       <c r="D76" t="s">
         <v>142</v>
@@ -4961,13 +4988,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B77" t="s">
         <v>16</v>
       </c>
       <c r="C77" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D77" t="s">
         <v>142</v>
@@ -4975,113 +5002,169 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B78" t="s">
         <v>16</v>
       </c>
       <c r="C78" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D78" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>173</v>
-      </c>
-      <c r="B80" t="s">
-        <v>16</v>
-      </c>
-      <c r="C80" t="s">
-        <v>175</v>
-      </c>
-      <c r="D80" t="s">
-        <v>174</v>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>529</v>
+      </c>
+      <c r="B79" t="s">
+        <v>16</v>
+      </c>
+      <c r="C79" t="s">
+        <v>532</v>
+      </c>
+      <c r="D79" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>176</v>
+        <v>616</v>
       </c>
       <c r="B81" t="s">
-        <v>16</v>
+        <v>471</v>
       </c>
       <c r="C81" t="s">
-        <v>177</v>
+        <v>619</v>
       </c>
       <c r="D81" t="s">
-        <v>174</v>
+        <v>622</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>178</v>
+        <v>617</v>
       </c>
       <c r="B82" t="s">
-        <v>16</v>
+        <v>471</v>
       </c>
       <c r="C82" t="s">
-        <v>179</v>
+        <v>620</v>
       </c>
       <c r="D82" t="s">
-        <v>174</v>
+        <v>622</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>180</v>
+        <v>618</v>
       </c>
       <c r="B83" t="s">
-        <v>16</v>
+        <v>471</v>
       </c>
       <c r="C83" t="s">
-        <v>181</v>
+        <v>621</v>
       </c>
       <c r="D83" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>182</v>
-      </c>
-      <c r="B84" t="s">
-        <v>16</v>
-      </c>
-      <c r="C84" t="s">
-        <v>183</v>
-      </c>
-      <c r="D84" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>184</v>
-      </c>
-      <c r="B85" t="s">
-        <v>16</v>
-      </c>
-      <c r="C85" t="s">
-        <v>185</v>
-      </c>
-      <c r="D85" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>173</v>
+      </c>
+      <c r="B86" t="s">
+        <v>16</v>
+      </c>
+      <c r="C86" t="s">
+        <v>175</v>
+      </c>
+      <c r="D86" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
+        <v>176</v>
+      </c>
+      <c r="B87" t="s">
+        <v>16</v>
+      </c>
+      <c r="C87" t="s">
+        <v>177</v>
+      </c>
+      <c r="D87" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>178</v>
+      </c>
+      <c r="B88" t="s">
+        <v>16</v>
+      </c>
+      <c r="C88" t="s">
+        <v>179</v>
+      </c>
+      <c r="D88" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>180</v>
+      </c>
+      <c r="B89" t="s">
+        <v>16</v>
+      </c>
+      <c r="C89" t="s">
+        <v>181</v>
+      </c>
+      <c r="D89" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>182</v>
+      </c>
+      <c r="B90" t="s">
+        <v>16</v>
+      </c>
+      <c r="C90" t="s">
+        <v>183</v>
+      </c>
+      <c r="D90" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>184</v>
+      </c>
+      <c r="B91" t="s">
+        <v>16</v>
+      </c>
+      <c r="C91" t="s">
+        <v>185</v>
+      </c>
+      <c r="D91" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
         <v>170</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B93" t="s">
         <v>171</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C93" t="s">
         <v>172</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D93" t="s">
         <v>170</v>
       </c>
     </row>
@@ -5864,10 +5947,10 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B61" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -5943,7 +6026,7 @@
         <v>339</v>
       </c>
       <c r="B70" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D70" t="b">
         <v>1</v>
@@ -5970,7 +6053,7 @@
         <v>342</v>
       </c>
       <c r="B74" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D74" t="b">
         <v>1</v>

--- a/build_tools/Class_definitions/Class_definitions.xlsx
+++ b/build_tools/Class_definitions/Class_definitions.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adrian\Documents\GitHub\MSEtool\build_tools\Class_definitions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\MSEtool\build_tools\Class_definitions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B20C4C-DA9C-451B-A6A9-79B33F31263C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-2385" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-2390" windowWidth="29040" windowHeight="15840" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Stock" sheetId="1" r:id="rId1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="623">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="628">
   <si>
     <t>Slot</t>
   </si>
@@ -1900,12 +1899,27 @@
   </si>
   <si>
     <t>Imp</t>
+  </si>
+  <si>
+    <t>Wa</t>
+  </si>
+  <si>
+    <t>Wb</t>
+  </si>
+  <si>
+    <t>Alpha parameter of the length-weight relationship</t>
+  </si>
+  <si>
+    <t>Beta parameter of the length-weight relationship</t>
+  </si>
+  <si>
+    <t>numeric vector length 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2239,25 +2253,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="15.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="106.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.1796875" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="106.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="41" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2280,7 +2294,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -2299,7 +2313,7 @@
       </c>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -2318,7 +2332,7 @@
       </c>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -2337,7 +2351,7 @@
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
@@ -2358,7 +2372,7 @@
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
@@ -2379,7 +2393,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
@@ -2400,7 +2414,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>20</v>
       </c>
@@ -2421,7 +2435,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>22</v>
       </c>
@@ -2442,7 +2456,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
@@ -2463,7 +2477,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>26</v>
       </c>
@@ -2484,7 +2498,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>28</v>
       </c>
@@ -2505,7 +2519,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>30</v>
       </c>
@@ -2526,7 +2540,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>40</v>
       </c>
@@ -2547,7 +2561,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>32</v>
       </c>
@@ -2568,7 +2582,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>38</v>
       </c>
@@ -2589,7 +2603,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>34</v>
       </c>
@@ -2610,7 +2624,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>36</v>
       </c>
@@ -2631,7 +2645,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>42</v>
       </c>
@@ -2652,7 +2666,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>44</v>
       </c>
@@ -2673,7 +2687,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>46</v>
       </c>
@@ -2694,7 +2708,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>48</v>
       </c>
@@ -2715,7 +2729,7 @@
       </c>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>49</v>
       </c>
@@ -2736,7 +2750,7 @@
       </c>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>50</v>
       </c>
@@ -2757,7 +2771,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>52</v>
       </c>
@@ -2778,7 +2792,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>54</v>
       </c>
@@ -2799,7 +2813,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>56</v>
       </c>
@@ -2820,7 +2834,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>58</v>
       </c>
@@ -2846,26 +2860,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="51.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="51.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.453125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="91" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="42.42578125" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="51.28515625" style="3"/>
+    <col min="5" max="5" width="10.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="42.453125" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="51.26953125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2888,7 +2902,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -2905,7 +2919,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>60</v>
       </c>
@@ -2925,7 +2939,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>61</v>
       </c>
@@ -2945,7 +2959,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="116" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>62</v>
       </c>
@@ -2962,7 +2976,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>63</v>
       </c>
@@ -2979,7 +2993,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>64</v>
       </c>
@@ -2996,7 +3010,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>65</v>
       </c>
@@ -3016,7 +3030,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>66</v>
       </c>
@@ -3036,7 +3050,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>67</v>
       </c>
@@ -3056,7 +3070,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="87" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>68</v>
       </c>
@@ -3076,7 +3090,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="87" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>69</v>
       </c>
@@ -3096,7 +3110,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>70</v>
       </c>
@@ -3116,7 +3130,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>71</v>
       </c>
@@ -3133,7 +3147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>73</v>
       </c>
@@ -3153,7 +3167,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>74</v>
       </c>
@@ -3173,7 +3187,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>75</v>
       </c>
@@ -3193,7 +3207,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>76</v>
       </c>
@@ -3213,7 +3227,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="87" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>77</v>
       </c>
@@ -3233,7 +3247,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>233</v>
       </c>
@@ -3253,7 +3267,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>234</v>
       </c>
@@ -3274,22 +3288,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="75.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" customWidth="1"/>
-    <col min="6" max="6" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.7109375" customWidth="1"/>
+    <col min="4" max="4" width="75.1796875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="15.453125" customWidth="1"/>
+    <col min="6" max="6" width="34.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3312,7 +3326,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -3326,7 +3340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="116" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>201</v>
       </c>
@@ -3340,7 +3354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>202</v>
       </c>
@@ -3354,7 +3368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>203</v>
       </c>
@@ -3371,7 +3385,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>204</v>
       </c>
@@ -3388,7 +3402,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>205</v>
       </c>
@@ -3405,7 +3419,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>206</v>
       </c>
@@ -3422,7 +3436,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>207</v>
       </c>
@@ -3436,7 +3450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="116" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>208</v>
       </c>
@@ -3450,7 +3464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="87" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>209</v>
       </c>
@@ -3464,7 +3478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="87" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>210</v>
       </c>
@@ -3481,7 +3495,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>211</v>
       </c>
@@ -3495,7 +3509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>212</v>
       </c>
@@ -3509,7 +3523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>213</v>
       </c>
@@ -3523,7 +3537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>214</v>
       </c>
@@ -3537,7 +3551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>215</v>
       </c>
@@ -3551,7 +3565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>216</v>
       </c>
@@ -3565,7 +3579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>217</v>
       </c>
@@ -3579,7 +3593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="87" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>218</v>
       </c>
@@ -3593,7 +3607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>219</v>
       </c>
@@ -3607,7 +3621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>220</v>
       </c>
@@ -3621,7 +3635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>221</v>
       </c>
@@ -3635,7 +3649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>222</v>
       </c>
@@ -3649,7 +3663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>223</v>
       </c>
@@ -3663,7 +3677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>224</v>
       </c>
@@ -3677,7 +3691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>225</v>
       </c>
@@ -3691,7 +3705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="87" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>226</v>
       </c>
@@ -3705,7 +3719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>282</v>
       </c>
@@ -3719,7 +3733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="116" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>439</v>
       </c>
@@ -3733,7 +3747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="87" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>440</v>
       </c>
@@ -3753,23 +3767,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="98" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" customWidth="1"/>
-    <col min="6" max="6" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.453125" customWidth="1"/>
+    <col min="6" max="6" width="25.81640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3792,7 +3806,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -3809,7 +3823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>227</v>
       </c>
@@ -3829,7 +3843,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>228</v>
       </c>
@@ -3849,7 +3863,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>229</v>
       </c>
@@ -3869,7 +3883,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>230</v>
       </c>
@@ -3889,7 +3903,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>231</v>
       </c>
@@ -3909,7 +3923,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>232</v>
       </c>
@@ -3935,22 +3949,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D93"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="D84" sqref="D84"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="99.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="89.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="99.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="89.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>512</v>
       </c>
@@ -3964,7 +3978,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>441</v>
       </c>
@@ -3978,7 +3992,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>89</v>
       </c>
@@ -3992,7 +4006,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>103</v>
       </c>
@@ -4006,7 +4020,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>99</v>
       </c>
@@ -4020,7 +4034,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>101</v>
       </c>
@@ -4034,7 +4048,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>97</v>
       </c>
@@ -4048,7 +4062,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>94</v>
       </c>
@@ -4062,7 +4076,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>444</v>
       </c>
@@ -4076,7 +4090,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>117</v>
       </c>
@@ -4090,7 +4104,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>113</v>
       </c>
@@ -4104,7 +4118,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>79</v>
       </c>
@@ -4118,7 +4132,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>83</v>
       </c>
@@ -4132,7 +4146,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>123</v>
       </c>
@@ -4146,7 +4160,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>115</v>
       </c>
@@ -4160,7 +4174,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>111</v>
       </c>
@@ -4174,7 +4188,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>447</v>
       </c>
@@ -4188,7 +4202,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>450</v>
       </c>
@@ -4202,7 +4216,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>109</v>
       </c>
@@ -4216,7 +4230,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>452</v>
       </c>
@@ -4230,7 +4244,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>119</v>
       </c>
@@ -4244,7 +4258,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>86</v>
       </c>
@@ -4258,7 +4272,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>91</v>
       </c>
@@ -4272,7 +4286,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>105</v>
       </c>
@@ -4286,7 +4300,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>107</v>
       </c>
@@ -4300,7 +4314,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>121</v>
       </c>
@@ -4314,7 +4328,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>168</v>
       </c>
@@ -4328,843 +4342,871 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>623</v>
+      </c>
+      <c r="B28" t="s">
+        <v>627</v>
+      </c>
+      <c r="C28" t="s">
+        <v>625</v>
+      </c>
+      <c r="D28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
+        <v>624</v>
+      </c>
+      <c r="B29" t="s">
+        <v>627</v>
+      </c>
+      <c r="C29" t="s">
+        <v>626</v>
+      </c>
+      <c r="D29" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
         <v>126</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B32" t="s">
         <v>128</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C32" t="s">
         <v>129</v>
-      </c>
-      <c r="D29" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>130</v>
-      </c>
-      <c r="B30" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" t="s">
-        <v>131</v>
-      </c>
-      <c r="D30" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>195</v>
-      </c>
-      <c r="B31" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31" t="s">
-        <v>196</v>
-      </c>
-      <c r="D31" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>455</v>
-      </c>
-      <c r="B32" t="s">
-        <v>456</v>
-      </c>
-      <c r="C32" t="s">
-        <v>457</v>
       </c>
       <c r="D32" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B33" t="s">
-        <v>446</v>
+        <v>16</v>
       </c>
       <c r="C33" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D33" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>134</v>
+        <v>195</v>
       </c>
       <c r="B34" t="s">
-        <v>135</v>
+        <v>16</v>
       </c>
       <c r="C34" t="s">
-        <v>136</v>
+        <v>196</v>
       </c>
       <c r="D34" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>137</v>
+        <v>455</v>
       </c>
       <c r="B35" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="C35" t="s">
-        <v>138</v>
+        <v>457</v>
       </c>
       <c r="D35" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B36" t="s">
-        <v>135</v>
+        <v>446</v>
       </c>
       <c r="C36" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D36" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>197</v>
+        <v>134</v>
       </c>
       <c r="B37" t="s">
-        <v>198</v>
+        <v>135</v>
       </c>
       <c r="C37" t="s">
-        <v>199</v>
+        <v>136</v>
       </c>
       <c r="D37" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>458</v>
+        <v>137</v>
       </c>
       <c r="B38" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="C38" t="s">
-        <v>460</v>
+        <v>138</v>
       </c>
       <c r="D38" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>461</v>
+        <v>139</v>
       </c>
       <c r="B39" t="s">
-        <v>462</v>
+        <v>135</v>
       </c>
       <c r="C39" t="s">
-        <v>463</v>
+        <v>140</v>
       </c>
       <c r="D39" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>233</v>
+        <v>197</v>
       </c>
       <c r="B40" t="s">
-        <v>464</v>
+        <v>198</v>
       </c>
       <c r="C40" t="s">
-        <v>465</v>
+        <v>199</v>
       </c>
       <c r="D40" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>458</v>
+      </c>
+      <c r="B41" t="s">
+        <v>459</v>
+      </c>
+      <c r="C41" t="s">
+        <v>460</v>
+      </c>
+      <c r="D41" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
+        <v>461</v>
+      </c>
+      <c r="B42" t="s">
+        <v>462</v>
+      </c>
+      <c r="C42" t="s">
+        <v>463</v>
+      </c>
+      <c r="D42" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>233</v>
+      </c>
+      <c r="B43" t="s">
+        <v>464</v>
+      </c>
+      <c r="C43" t="s">
+        <v>465</v>
+      </c>
+      <c r="D43" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
         <v>466</v>
       </c>
-      <c r="B42" t="s">
-        <v>16</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="B45" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" t="s">
         <v>467</v>
-      </c>
-      <c r="D42" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>468</v>
-      </c>
-      <c r="B43" t="s">
-        <v>16</v>
-      </c>
-      <c r="C43" t="s">
-        <v>469</v>
-      </c>
-      <c r="D43" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>470</v>
-      </c>
-      <c r="B44" t="s">
-        <v>471</v>
-      </c>
-      <c r="C44" t="s">
-        <v>615</v>
-      </c>
-      <c r="D44" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>613</v>
-      </c>
-      <c r="B45" t="s">
-        <v>471</v>
-      </c>
-      <c r="C45" t="s">
-        <v>614</v>
       </c>
       <c r="D45" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="B46" t="s">
         <v>16</v>
       </c>
       <c r="C46" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="D46" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B47" t="s">
         <v>471</v>
       </c>
       <c r="C47" t="s">
-        <v>489</v>
+        <v>615</v>
       </c>
       <c r="D47" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>475</v>
+        <v>613</v>
       </c>
       <c r="B48" t="s">
         <v>471</v>
       </c>
       <c r="C48" t="s">
-        <v>490</v>
+        <v>614</v>
       </c>
       <c r="D48" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="B49" t="s">
-        <v>471</v>
+        <v>16</v>
       </c>
       <c r="C49" t="s">
-        <v>491</v>
+        <v>473</v>
       </c>
       <c r="D49" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B50" t="s">
-        <v>16</v>
+        <v>471</v>
       </c>
       <c r="C50" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D50" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>164</v>
+        <v>475</v>
       </c>
       <c r="B51" t="s">
-        <v>16</v>
+        <v>471</v>
       </c>
       <c r="C51" t="s">
-        <v>165</v>
+        <v>490</v>
       </c>
       <c r="D51" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B52" t="s">
         <v>471</v>
       </c>
       <c r="C52" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D52" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>144</v>
+        <v>477</v>
       </c>
       <c r="B53" t="s">
         <v>16</v>
       </c>
       <c r="C53" t="s">
-        <v>145</v>
+        <v>492</v>
       </c>
       <c r="D53" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="B54" t="s">
         <v>16</v>
       </c>
       <c r="C54" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="D54" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>156</v>
+        <v>478</v>
       </c>
       <c r="B55" t="s">
-        <v>16</v>
+        <v>471</v>
       </c>
       <c r="C55" t="s">
-        <v>157</v>
+        <v>493</v>
       </c>
       <c r="D55" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B56" t="s">
         <v>16</v>
       </c>
       <c r="C56" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D56" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B57" t="s">
         <v>16</v>
       </c>
       <c r="C57" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D57" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>479</v>
+        <v>156</v>
       </c>
       <c r="B58" t="s">
         <v>16</v>
       </c>
       <c r="C58" t="s">
-        <v>488</v>
+        <v>157</v>
       </c>
       <c r="D58" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>480</v>
+        <v>141</v>
       </c>
       <c r="B59" t="s">
         <v>16</v>
       </c>
       <c r="C59" t="s">
-        <v>494</v>
+        <v>143</v>
       </c>
       <c r="D59" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>481</v>
+        <v>152</v>
       </c>
       <c r="B60" t="s">
         <v>16</v>
       </c>
       <c r="C60" t="s">
-        <v>495</v>
+        <v>153</v>
       </c>
       <c r="D60" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B61" t="s">
-        <v>471</v>
+        <v>16</v>
       </c>
       <c r="C61" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="D61" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>146</v>
+        <v>480</v>
       </c>
       <c r="B62" t="s">
         <v>16</v>
       </c>
       <c r="C62" t="s">
-        <v>147</v>
+        <v>494</v>
       </c>
       <c r="D62" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>148</v>
+        <v>481</v>
       </c>
       <c r="B63" t="s">
         <v>16</v>
       </c>
       <c r="C63" t="s">
-        <v>149</v>
+        <v>495</v>
       </c>
       <c r="D63" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>150</v>
+        <v>482</v>
       </c>
       <c r="B64" t="s">
-        <v>16</v>
+        <v>471</v>
       </c>
       <c r="C64" t="s">
-        <v>151</v>
+        <v>496</v>
       </c>
       <c r="D64" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="B65" t="s">
         <v>16</v>
       </c>
       <c r="C65" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="D65" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="B66" t="s">
         <v>16</v>
       </c>
       <c r="C66" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="D66" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="B67" t="s">
         <v>16</v>
       </c>
       <c r="C67" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="D67" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>483</v>
+        <v>158</v>
       </c>
       <c r="B68" t="s">
         <v>16</v>
       </c>
       <c r="C68" t="s">
-        <v>497</v>
+        <v>159</v>
       </c>
       <c r="D68" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>484</v>
+        <v>162</v>
       </c>
       <c r="B69" t="s">
-        <v>471</v>
+        <v>16</v>
       </c>
       <c r="C69" t="s">
-        <v>498</v>
+        <v>163</v>
       </c>
       <c r="D69" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>485</v>
+        <v>160</v>
       </c>
       <c r="B70" t="s">
         <v>16</v>
       </c>
       <c r="C70" t="s">
-        <v>499</v>
+        <v>161</v>
       </c>
       <c r="D70" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B71" t="s">
-        <v>471</v>
+        <v>16</v>
       </c>
       <c r="C71" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="D71" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B72" t="s">
         <v>471</v>
       </c>
       <c r="C72" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="D72" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>186</v>
+        <v>485</v>
       </c>
       <c r="B73" t="s">
-        <v>187</v>
+        <v>16</v>
       </c>
       <c r="C73" t="s">
-        <v>188</v>
+        <v>499</v>
       </c>
       <c r="D73" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>189</v>
+        <v>486</v>
       </c>
       <c r="B74" t="s">
-        <v>190</v>
+        <v>471</v>
       </c>
       <c r="C74" t="s">
-        <v>191</v>
+        <v>500</v>
       </c>
       <c r="D74" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>192</v>
+        <v>487</v>
       </c>
       <c r="B75" t="s">
-        <v>193</v>
+        <v>471</v>
       </c>
       <c r="C75" t="s">
-        <v>194</v>
+        <v>501</v>
       </c>
       <c r="D75" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="B76" t="s">
-        <v>16</v>
+        <v>187</v>
       </c>
       <c r="C76" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="D76" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>527</v>
+        <v>189</v>
       </c>
       <c r="B77" t="s">
-        <v>16</v>
+        <v>190</v>
       </c>
       <c r="C77" t="s">
-        <v>530</v>
+        <v>191</v>
       </c>
       <c r="D77" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>528</v>
+        <v>192</v>
       </c>
       <c r="B78" t="s">
-        <v>16</v>
+        <v>193</v>
       </c>
       <c r="C78" t="s">
-        <v>531</v>
+        <v>194</v>
       </c>
       <c r="D78" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>529</v>
+        <v>166</v>
       </c>
       <c r="B79" t="s">
         <v>16</v>
       </c>
       <c r="C79" t="s">
-        <v>532</v>
+        <v>167</v>
       </c>
       <c r="D79" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>527</v>
+      </c>
+      <c r="B80" t="s">
+        <v>16</v>
+      </c>
+      <c r="C80" t="s">
+        <v>530</v>
+      </c>
+      <c r="D80" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
+        <v>528</v>
+      </c>
+      <c r="B81" t="s">
+        <v>16</v>
+      </c>
+      <c r="C81" t="s">
+        <v>531</v>
+      </c>
+      <c r="D81" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>529</v>
+      </c>
+      <c r="B82" t="s">
+        <v>16</v>
+      </c>
+      <c r="C82" t="s">
+        <v>532</v>
+      </c>
+      <c r="D82" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
         <v>616</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B84" t="s">
         <v>471</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C84" t="s">
         <v>619</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D84" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
         <v>617</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B85" t="s">
         <v>471</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C85" t="s">
         <v>620</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D85" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
         <v>618</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B86" t="s">
         <v>471</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C86" t="s">
         <v>621</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D86" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
         <v>173</v>
       </c>
-      <c r="B86" t="s">
-        <v>16</v>
-      </c>
-      <c r="C86" t="s">
+      <c r="B89" t="s">
+        <v>16</v>
+      </c>
+      <c r="C89" t="s">
         <v>175</v>
-      </c>
-      <c r="D86" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>176</v>
-      </c>
-      <c r="B87" t="s">
-        <v>16</v>
-      </c>
-      <c r="C87" t="s">
-        <v>177</v>
-      </c>
-      <c r="D87" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>178</v>
-      </c>
-      <c r="B88" t="s">
-        <v>16</v>
-      </c>
-      <c r="C88" t="s">
-        <v>179</v>
-      </c>
-      <c r="D88" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>180</v>
-      </c>
-      <c r="B89" t="s">
-        <v>16</v>
-      </c>
-      <c r="C89" t="s">
-        <v>181</v>
       </c>
       <c r="D89" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B90" t="s">
         <v>16</v>
       </c>
       <c r="C90" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D90" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B91" t="s">
         <v>16</v>
       </c>
       <c r="C91" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D91" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>180</v>
+      </c>
+      <c r="B92" t="s">
+        <v>16</v>
+      </c>
+      <c r="C92" t="s">
+        <v>181</v>
+      </c>
+      <c r="D92" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
+        <v>182</v>
+      </c>
+      <c r="B93" t="s">
+        <v>16</v>
+      </c>
+      <c r="C93" t="s">
+        <v>183</v>
+      </c>
+      <c r="D93" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>184</v>
+      </c>
+      <c r="B94" t="s">
+        <v>16</v>
+      </c>
+      <c r="C94" t="s">
+        <v>185</v>
+      </c>
+      <c r="D94" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
         <v>170</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B96" t="s">
         <v>171</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C96" t="s">
         <v>172</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D96" t="s">
         <v>170</v>
       </c>
     </row>
@@ -5175,19 +5217,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5195,7 +5237,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -5203,7 +5245,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>60</v>
       </c>
@@ -5211,7 +5253,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>237</v>
       </c>
@@ -5219,7 +5261,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>238</v>
       </c>
@@ -5227,7 +5269,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>239</v>
       </c>
@@ -5235,7 +5277,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>240</v>
       </c>
@@ -5243,7 +5285,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>241</v>
       </c>
@@ -5251,7 +5293,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>142</v>
       </c>
@@ -5259,7 +5301,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>242</v>
       </c>
@@ -5267,7 +5309,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>243</v>
       </c>
@@ -5275,7 +5317,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>273</v>
       </c>
@@ -5283,7 +5325,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>245</v>
       </c>
@@ -5291,7 +5333,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>247</v>
       </c>
@@ -5299,7 +5341,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>246</v>
       </c>
@@ -5307,7 +5349,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>248</v>
       </c>
@@ -5315,7 +5357,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>276</v>
       </c>
@@ -5323,7 +5365,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>318</v>
       </c>
@@ -5331,7 +5373,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>268</v>
       </c>
@@ -5339,7 +5381,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>250</v>
       </c>
@@ -5347,7 +5389,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>249</v>
       </c>
@@ -5355,7 +5397,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>265</v>
       </c>
@@ -5363,7 +5405,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>174</v>
       </c>
@@ -5371,7 +5413,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>263</v>
       </c>
@@ -5379,7 +5421,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>432</v>
       </c>
@@ -5387,7 +5429,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>433</v>
       </c>
@@ -5395,7 +5437,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>434</v>
       </c>
@@ -5403,7 +5445,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>244</v>
       </c>
@@ -5411,7 +5453,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>251</v>
       </c>
@@ -5419,7 +5461,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>234</v>
       </c>
@@ -5434,20 +5476,20 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D102"/>
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -5461,7 +5503,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -5472,7 +5514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>285</v>
       </c>
@@ -5483,7 +5525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -5494,7 +5536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>286</v>
       </c>
@@ -5505,7 +5547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>287</v>
       </c>
@@ -5513,7 +5555,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>288</v>
       </c>
@@ -5521,7 +5563,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>289</v>
       </c>
@@ -5532,7 +5574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>290</v>
       </c>
@@ -5540,7 +5582,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>291</v>
       </c>
@@ -5548,12 +5590,12 @@
         <v>291</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>293</v>
       </c>
@@ -5561,7 +5603,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -5569,7 +5611,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>294</v>
       </c>
@@ -5577,7 +5619,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>295</v>
       </c>
@@ -5585,7 +5627,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>296</v>
       </c>
@@ -5593,7 +5635,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>297</v>
       </c>
@@ -5601,7 +5643,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>298</v>
       </c>
@@ -5609,7 +5651,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>299</v>
       </c>
@@ -5617,7 +5659,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>300</v>
       </c>
@@ -5625,7 +5667,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>301</v>
       </c>
@@ -5633,7 +5675,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>302</v>
       </c>
@@ -5641,7 +5683,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>303</v>
       </c>
@@ -5649,7 +5691,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>304</v>
       </c>
@@ -5657,7 +5699,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -5665,7 +5707,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>305</v>
       </c>
@@ -5673,7 +5715,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>306</v>
       </c>
@@ -5681,7 +5723,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>307</v>
       </c>
@@ -5689,7 +5731,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>43</v>
       </c>
@@ -5697,7 +5739,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>308</v>
       </c>
@@ -5705,7 +5747,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>88</v>
       </c>
@@ -5713,7 +5755,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>309</v>
       </c>
@@ -5721,12 +5763,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>311</v>
       </c>
@@ -5734,7 +5776,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>312</v>
       </c>
@@ -5742,7 +5784,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>313</v>
       </c>
@@ -5750,7 +5792,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>314</v>
       </c>
@@ -5758,7 +5800,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>315</v>
       </c>
@@ -5766,12 +5808,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>317</v>
       </c>
@@ -5782,7 +5824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>318</v>
       </c>
@@ -5793,7 +5835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>319</v>
       </c>
@@ -5804,7 +5846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>250</v>
       </c>
@@ -5815,7 +5857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>320</v>
       </c>
@@ -5826,7 +5868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>321</v>
       </c>
@@ -5837,7 +5879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>322</v>
       </c>
@@ -5848,7 +5890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>323</v>
       </c>
@@ -5859,7 +5901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>324</v>
       </c>
@@ -5870,7 +5912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>325</v>
       </c>
@@ -5881,7 +5923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>326</v>
       </c>
@@ -5892,12 +5934,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D54" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="4" t="s">
         <v>327</v>
       </c>
@@ -5905,7 +5947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="4" t="s">
         <v>328</v>
       </c>
@@ -5913,7 +5955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="4" t="s">
         <v>329</v>
       </c>
@@ -5921,7 +5963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="4" t="s">
         <v>330</v>
       </c>
@@ -5929,7 +5971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="4" t="s">
         <v>331</v>
       </c>
@@ -5937,7 +5979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="4" t="s">
         <v>332</v>
       </c>
@@ -5945,7 +5987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>519</v>
       </c>
@@ -5953,7 +5995,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>192</v>
       </c>
@@ -5961,7 +6003,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>333</v>
       </c>
@@ -5972,7 +6014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>334</v>
       </c>
@@ -5983,7 +6025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>335</v>
       </c>
@@ -5994,7 +6036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>336</v>
       </c>
@@ -6005,7 +6047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>337</v>
       </c>
@@ -6016,12 +6058,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="4" t="s">
         <v>339</v>
       </c>
@@ -6032,7 +6074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>340</v>
       </c>
@@ -6043,12 +6085,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="4" t="s">
         <v>342</v>
       </c>
@@ -6059,7 +6101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>79</v>
       </c>
@@ -6070,7 +6112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>343</v>
       </c>
@@ -6081,7 +6123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>344</v>
       </c>
@@ -6092,12 +6134,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>346</v>
       </c>
@@ -6105,7 +6147,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>347</v>
       </c>
@@ -6113,7 +6155,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>348</v>
       </c>
@@ -6121,7 +6163,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>349</v>
       </c>
@@ -6129,7 +6171,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>350</v>
       </c>
@@ -6137,7 +6179,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>351</v>
       </c>
@@ -6145,7 +6187,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>352</v>
       </c>
@@ -6153,7 +6195,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>353</v>
       </c>
@@ -6161,7 +6203,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>354</v>
       </c>
@@ -6169,7 +6211,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>355</v>
       </c>
@@ -6177,7 +6219,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>356</v>
       </c>
@@ -6185,7 +6227,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>357</v>
       </c>
@@ -6193,7 +6235,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>358</v>
       </c>
@@ -6201,7 +6243,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>359</v>
       </c>
@@ -6209,7 +6251,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>360</v>
       </c>
@@ -6217,7 +6259,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>361</v>
       </c>
@@ -6225,7 +6267,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>362</v>
       </c>
@@ -6233,7 +6275,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>363</v>
       </c>
@@ -6241,7 +6283,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>364</v>
       </c>
@@ -6249,7 +6291,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>365</v>
       </c>
@@ -6257,7 +6299,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>366</v>
       </c>
@@ -6265,7 +6307,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>367</v>
       </c>
@@ -6273,7 +6315,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>368</v>
       </c>

--- a/build_tools/Class_definitions/Class_definitions.xlsx
+++ b/build_tools/Class_definitions/Class_definitions.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="630">
   <si>
     <t>Slot</t>
   </si>
@@ -1914,6 +1914,12 @@
   </si>
   <si>
     <t>numeric vector length 1</t>
+  </si>
+  <si>
+    <t>Wt_age_C</t>
+  </si>
+  <si>
+    <t>Optional weight-at-age for the catch by simulation, age, and year</t>
   </si>
 </sst>
 </file>
@@ -3950,10 +3956,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D96"/>
+  <dimension ref="A1:D97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4370,29 +4376,29 @@
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>126</v>
-      </c>
-      <c r="B32" t="s">
-        <v>128</v>
-      </c>
-      <c r="C32" t="s">
-        <v>129</v>
-      </c>
-      <c r="D32" t="s">
-        <v>127</v>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>628</v>
+      </c>
+      <c r="B30" t="s">
+        <v>446</v>
+      </c>
+      <c r="C30" t="s">
+        <v>629</v>
+      </c>
+      <c r="D30" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B33" t="s">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="C33" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D33" t="s">
         <v>127</v>
@@ -4400,13 +4406,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>195</v>
+        <v>130</v>
       </c>
       <c r="B34" t="s">
         <v>16</v>
       </c>
       <c r="C34" t="s">
-        <v>196</v>
+        <v>131</v>
       </c>
       <c r="D34" t="s">
         <v>127</v>
@@ -4414,13 +4420,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>455</v>
+        <v>195</v>
       </c>
       <c r="B35" t="s">
-        <v>456</v>
+        <v>16</v>
       </c>
       <c r="C35" t="s">
-        <v>457</v>
+        <v>196</v>
       </c>
       <c r="D35" t="s">
         <v>127</v>
@@ -4428,13 +4434,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>132</v>
+        <v>455</v>
       </c>
       <c r="B36" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="C36" t="s">
-        <v>133</v>
+        <v>457</v>
       </c>
       <c r="D36" t="s">
         <v>127</v>
@@ -4442,13 +4448,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B37" t="s">
-        <v>135</v>
+        <v>446</v>
       </c>
       <c r="C37" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D37" t="s">
         <v>127</v>
@@ -4456,13 +4462,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B38" t="s">
-        <v>446</v>
+        <v>135</v>
       </c>
       <c r="C38" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D38" t="s">
         <v>127</v>
@@ -4470,13 +4476,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B39" t="s">
-        <v>135</v>
+        <v>446</v>
       </c>
       <c r="C39" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D39" t="s">
         <v>127</v>
@@ -4484,13 +4490,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>197</v>
+        <v>139</v>
       </c>
       <c r="B40" t="s">
-        <v>198</v>
+        <v>135</v>
       </c>
       <c r="C40" t="s">
-        <v>199</v>
+        <v>140</v>
       </c>
       <c r="D40" t="s">
         <v>127</v>
@@ -4498,13 +4504,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>458</v>
+        <v>197</v>
       </c>
       <c r="B41" t="s">
-        <v>459</v>
+        <v>198</v>
       </c>
       <c r="C41" t="s">
-        <v>460</v>
+        <v>199</v>
       </c>
       <c r="D41" t="s">
         <v>127</v>
@@ -4512,13 +4518,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B42" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C42" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="D42" t="s">
         <v>127</v>
@@ -4526,41 +4532,41 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>233</v>
+        <v>461</v>
       </c>
       <c r="B43" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C43" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D43" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>466</v>
-      </c>
-      <c r="B45" t="s">
-        <v>16</v>
-      </c>
-      <c r="C45" t="s">
-        <v>467</v>
-      </c>
-      <c r="D45" t="s">
-        <v>142</v>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>233</v>
+      </c>
+      <c r="B44" t="s">
+        <v>464</v>
+      </c>
+      <c r="C44" t="s">
+        <v>465</v>
+      </c>
+      <c r="D44" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B46" t="s">
         <v>16</v>
       </c>
       <c r="C46" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D46" t="s">
         <v>142</v>
@@ -4568,13 +4574,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B47" t="s">
-        <v>471</v>
+        <v>16</v>
       </c>
       <c r="C47" t="s">
-        <v>615</v>
+        <v>469</v>
       </c>
       <c r="D47" t="s">
         <v>142</v>
@@ -4582,13 +4588,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>613</v>
+        <v>470</v>
       </c>
       <c r="B48" t="s">
         <v>471</v>
       </c>
       <c r="C48" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D48" t="s">
         <v>142</v>
@@ -4596,13 +4602,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>472</v>
+        <v>613</v>
       </c>
       <c r="B49" t="s">
-        <v>16</v>
+        <v>471</v>
       </c>
       <c r="C49" t="s">
-        <v>473</v>
+        <v>614</v>
       </c>
       <c r="D49" t="s">
         <v>142</v>
@@ -4610,13 +4616,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B50" t="s">
-        <v>471</v>
+        <v>16</v>
       </c>
       <c r="C50" t="s">
-        <v>489</v>
+        <v>473</v>
       </c>
       <c r="D50" t="s">
         <v>142</v>
@@ -4624,13 +4630,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B51" t="s">
         <v>471</v>
       </c>
       <c r="C51" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D51" t="s">
         <v>142</v>
@@ -4638,13 +4644,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B52" t="s">
         <v>471</v>
       </c>
       <c r="C52" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D52" t="s">
         <v>142</v>
@@ -4652,13 +4658,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B53" t="s">
-        <v>16</v>
+        <v>471</v>
       </c>
       <c r="C53" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D53" t="s">
         <v>142</v>
@@ -4666,13 +4672,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>164</v>
+        <v>477</v>
       </c>
       <c r="B54" t="s">
         <v>16</v>
       </c>
       <c r="C54" t="s">
-        <v>165</v>
+        <v>492</v>
       </c>
       <c r="D54" t="s">
         <v>142</v>
@@ -4680,13 +4686,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>478</v>
+        <v>164</v>
       </c>
       <c r="B55" t="s">
-        <v>471</v>
+        <v>16</v>
       </c>
       <c r="C55" t="s">
-        <v>493</v>
+        <v>165</v>
       </c>
       <c r="D55" t="s">
         <v>142</v>
@@ -4694,13 +4700,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>144</v>
+        <v>478</v>
       </c>
       <c r="B56" t="s">
-        <v>16</v>
+        <v>471</v>
       </c>
       <c r="C56" t="s">
-        <v>145</v>
+        <v>493</v>
       </c>
       <c r="D56" t="s">
         <v>142</v>
@@ -4708,13 +4714,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="B57" t="s">
         <v>16</v>
       </c>
       <c r="C57" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="D57" t="s">
         <v>142</v>
@@ -4722,13 +4728,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B58" t="s">
         <v>16</v>
       </c>
       <c r="C58" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D58" t="s">
         <v>142</v>
@@ -4736,13 +4742,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="B59" t="s">
         <v>16</v>
       </c>
       <c r="C59" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="D59" t="s">
         <v>142</v>
@@ -4750,13 +4756,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="B60" t="s">
         <v>16</v>
       </c>
       <c r="C60" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="D60" t="s">
         <v>142</v>
@@ -4764,13 +4770,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>479</v>
+        <v>152</v>
       </c>
       <c r="B61" t="s">
         <v>16</v>
       </c>
       <c r="C61" t="s">
-        <v>488</v>
+        <v>153</v>
       </c>
       <c r="D61" t="s">
         <v>142</v>
@@ -4778,13 +4784,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B62" t="s">
         <v>16</v>
       </c>
       <c r="C62" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="D62" t="s">
         <v>142</v>
@@ -4792,13 +4798,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B63" t="s">
         <v>16</v>
       </c>
       <c r="C63" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D63" t="s">
         <v>142</v>
@@ -4806,13 +4812,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B64" t="s">
-        <v>471</v>
+        <v>16</v>
       </c>
       <c r="C64" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D64" t="s">
         <v>142</v>
@@ -4820,13 +4826,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>146</v>
+        <v>482</v>
       </c>
       <c r="B65" t="s">
-        <v>16</v>
+        <v>471</v>
       </c>
       <c r="C65" t="s">
-        <v>147</v>
+        <v>496</v>
       </c>
       <c r="D65" t="s">
         <v>142</v>
@@ -4834,13 +4840,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B66" t="s">
         <v>16</v>
       </c>
       <c r="C66" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D66" t="s">
         <v>142</v>
@@ -4848,13 +4854,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B67" t="s">
         <v>16</v>
       </c>
       <c r="C67" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D67" t="s">
         <v>142</v>
@@ -4862,13 +4868,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="B68" t="s">
         <v>16</v>
       </c>
       <c r="C68" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D68" t="s">
         <v>142</v>
@@ -4876,13 +4882,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B69" t="s">
         <v>16</v>
       </c>
       <c r="C69" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D69" t="s">
         <v>142</v>
@@ -4890,13 +4896,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B70" t="s">
         <v>16</v>
       </c>
       <c r="C70" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D70" t="s">
         <v>142</v>
@@ -4904,13 +4910,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>483</v>
+        <v>160</v>
       </c>
       <c r="B71" t="s">
         <v>16</v>
       </c>
       <c r="C71" t="s">
-        <v>497</v>
+        <v>161</v>
       </c>
       <c r="D71" t="s">
         <v>142</v>
@@ -4918,13 +4924,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B72" t="s">
-        <v>471</v>
+        <v>16</v>
       </c>
       <c r="C72" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D72" t="s">
         <v>142</v>
@@ -4932,13 +4938,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B73" t="s">
-        <v>16</v>
+        <v>471</v>
       </c>
       <c r="C73" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D73" t="s">
         <v>142</v>
@@ -4946,13 +4952,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B74" t="s">
-        <v>471</v>
+        <v>16</v>
       </c>
       <c r="C74" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D74" t="s">
         <v>142</v>
@@ -4960,13 +4966,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B75" t="s">
         <v>471</v>
       </c>
       <c r="C75" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D75" t="s">
         <v>142</v>
@@ -4974,13 +4980,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>186</v>
+        <v>487</v>
       </c>
       <c r="B76" t="s">
-        <v>187</v>
+        <v>471</v>
       </c>
       <c r="C76" t="s">
-        <v>188</v>
+        <v>501</v>
       </c>
       <c r="D76" t="s">
         <v>142</v>
@@ -4988,13 +4994,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B77" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C77" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D77" t="s">
         <v>142</v>
@@ -5002,13 +5008,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B78" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C78" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D78" t="s">
         <v>142</v>
@@ -5016,13 +5022,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>166</v>
+        <v>192</v>
       </c>
       <c r="B79" t="s">
-        <v>16</v>
+        <v>193</v>
       </c>
       <c r="C79" t="s">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="D79" t="s">
         <v>142</v>
@@ -5030,13 +5036,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>527</v>
+        <v>166</v>
       </c>
       <c r="B80" t="s">
         <v>16</v>
       </c>
       <c r="C80" t="s">
-        <v>530</v>
+        <v>167</v>
       </c>
       <c r="D80" t="s">
         <v>142</v>
@@ -5044,13 +5050,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B81" t="s">
         <v>16</v>
       </c>
       <c r="C81" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D81" t="s">
         <v>142</v>
@@ -5058,41 +5064,41 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B82" t="s">
         <v>16</v>
       </c>
       <c r="C82" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D82" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
-        <v>616</v>
-      </c>
-      <c r="B84" t="s">
-        <v>471</v>
-      </c>
-      <c r="C84" t="s">
-        <v>619</v>
-      </c>
-      <c r="D84" t="s">
-        <v>622</v>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>529</v>
+      </c>
+      <c r="B83" t="s">
+        <v>16</v>
+      </c>
+      <c r="C83" t="s">
+        <v>532</v>
+      </c>
+      <c r="D83" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B85" t="s">
         <v>471</v>
       </c>
       <c r="C85" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D85" t="s">
         <v>622</v>
@@ -5100,41 +5106,41 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B86" t="s">
         <v>471</v>
       </c>
       <c r="C86" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D86" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A89" t="s">
-        <v>173</v>
-      </c>
-      <c r="B89" t="s">
-        <v>16</v>
-      </c>
-      <c r="C89" t="s">
-        <v>175</v>
-      </c>
-      <c r="D89" t="s">
-        <v>174</v>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>618</v>
+      </c>
+      <c r="B87" t="s">
+        <v>471</v>
+      </c>
+      <c r="C87" t="s">
+        <v>621</v>
+      </c>
+      <c r="D87" t="s">
+        <v>622</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B90" t="s">
         <v>16</v>
       </c>
       <c r="C90" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D90" t="s">
         <v>174</v>
@@ -5142,13 +5148,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B91" t="s">
         <v>16</v>
       </c>
       <c r="C91" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D91" t="s">
         <v>174</v>
@@ -5156,13 +5162,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B92" t="s">
         <v>16</v>
       </c>
       <c r="C92" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D92" t="s">
         <v>174</v>
@@ -5170,13 +5176,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B93" t="s">
         <v>16</v>
       </c>
       <c r="C93" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D93" t="s">
         <v>174</v>
@@ -5184,29 +5190,43 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B94" t="s">
         <v>16</v>
       </c>
       <c r="C94" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D94" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A96" t="s">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>184</v>
+      </c>
+      <c r="B95" t="s">
+        <v>16</v>
+      </c>
+      <c r="C95" t="s">
+        <v>185</v>
+      </c>
+      <c r="D95" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
         <v>170</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B97" t="s">
         <v>171</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C97" t="s">
         <v>172</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D97" t="s">
         <v>170</v>
       </c>
     </row>

--- a/build_tools/Class_definitions/Class_definitions.xlsx
+++ b/build_tools/Class_definitions/Class_definitions.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="631">
   <si>
     <t>Slot</t>
   </si>
@@ -1920,6 +1920,9 @@
   </si>
   <si>
     <t>Optional weight-at-age for the catch by simulation, age, and year</t>
+  </si>
+  <si>
+    <t>numeric matrix dim=c(nsim, proyears)</t>
   </si>
 </sst>
 </file>
@@ -1969,7 +1972,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1980,6 +1983,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3777,20 +3782,20 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="98" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="136.1796875" style="3" customWidth="1"/>
     <col min="5" max="5" width="17.453125" customWidth="1"/>
     <col min="6" max="6" width="25.81640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="39" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -3813,7 +3818,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
@@ -3822,15 +3827,15 @@
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>283</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="3" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
         <v>227</v>
       </c>
       <c r="B3" t="s">
@@ -3839,7 +3844,7 @@
       <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
         <v>607</v>
       </c>
       <c r="F3" t="s">
@@ -3849,8 +3854,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row r="4" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
         <v>228</v>
       </c>
       <c r="B4" t="s">
@@ -3859,7 +3864,7 @@
       <c r="C4">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="3" t="s">
         <v>608</v>
       </c>
       <c r="F4" t="s">
@@ -3869,8 +3874,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+    <row r="5" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
         <v>229</v>
       </c>
       <c r="B5" t="s">
@@ -3879,7 +3884,7 @@
       <c r="C5">
         <v>2</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="3" t="s">
         <v>609</v>
       </c>
       <c r="F5" t="s">
@@ -3889,8 +3894,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+    <row r="6" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
         <v>230</v>
       </c>
       <c r="B6" t="s">
@@ -3899,7 +3904,7 @@
       <c r="C6">
         <v>2</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="3" t="s">
         <v>610</v>
       </c>
       <c r="F6" t="s">
@@ -3909,8 +3914,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+    <row r="7" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="7" t="s">
         <v>231</v>
       </c>
       <c r="B7" t="s">
@@ -3919,7 +3924,7 @@
       <c r="C7">
         <v>2</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="3" t="s">
         <v>611</v>
       </c>
       <c r="F7" t="s">
@@ -3929,8 +3934,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+    <row r="8" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="7" t="s">
         <v>232</v>
       </c>
       <c r="B8" t="s">
@@ -3939,7 +3944,7 @@
       <c r="C8">
         <v>2</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="3" t="s">
         <v>612</v>
       </c>
       <c r="F8" t="s">
@@ -3958,8 +3963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5095,7 +5100,7 @@
         <v>616</v>
       </c>
       <c r="B85" t="s">
-        <v>471</v>
+        <v>630</v>
       </c>
       <c r="C85" t="s">
         <v>619</v>
@@ -5109,7 +5114,7 @@
         <v>617</v>
       </c>
       <c r="B86" t="s">
-        <v>471</v>
+        <v>630</v>
       </c>
       <c r="C86" t="s">
         <v>620</v>
@@ -5123,7 +5128,7 @@
         <v>618</v>
       </c>
       <c r="B87" t="s">
-        <v>471</v>
+        <v>630</v>
       </c>
       <c r="C87" t="s">
         <v>621</v>

--- a/build_tools/Class_definitions/Class_definitions.xlsx
+++ b/build_tools/Class_definitions/Class_definitions.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-2390" windowWidth="29040" windowHeight="15840" activeTab="4"/>
+    <workbookView xWindow="28680" yWindow="-2390" windowWidth="29040" windowHeight="15840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Stock" sheetId="1" r:id="rId1"/>
@@ -1769,9 +1769,6 @@
     <t>Number of catch-at-age observations collected per time step. For each time step a single value is drawn from a uniform distribution specified by the upper and lower bounds provided. Positive integers.</t>
   </si>
   <si>
-    <t>Effective sample size of catch-at-age observations collected per time step. For each time step a single value is drawn from a uniform distribution specified by the upper and lower bounds provided. CAA_ESS should not exceed CAA_nsamp. Positive integers.</t>
-  </si>
-  <si>
     <t>Number of catch-at-length observations collected per time step. For each time step a single value is drawn from a uniform distribution specified by the upper and lower bounds provided. Positive integers.</t>
   </si>
   <si>
@@ -1923,6 +1920,10 @@
   </si>
   <si>
     <t>numeric matrix dim=c(nsim, proyears)</t>
+  </si>
+  <si>
+    <t>Effective sample size of catch-at-age observations collected per time step. For each time step a single value is drawn from a uniform distribution specified by the upper and lower bounds provided. CAA_ESS should not exceed CAA_nsamp. If greater than 1, then this is the multinomial distribution sample size.
+If less than 1, this is the coefficient of variation for the logistic normal distribution (see ?simCAA for details).</t>
   </si>
 </sst>
 </file>
@@ -3302,8 +3303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3359,7 +3360,7 @@
         <v>15</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -3373,7 +3374,7 @@
         <v>15</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
@@ -3396,7 +3397,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="87" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>204</v>
       </c>
@@ -3404,7 +3405,7 @@
         <v>15</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>579</v>
+        <v>630</v>
       </c>
       <c r="F6" t="s">
         <v>524</v>
@@ -3421,7 +3422,7 @@
         <v>15</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F7" t="s">
         <v>523</v>
@@ -3438,7 +3439,7 @@
         <v>15</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F8" t="s">
         <v>525</v>
@@ -3455,7 +3456,7 @@
         <v>15</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
@@ -3469,7 +3470,7 @@
         <v>15</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
@@ -3483,7 +3484,7 @@
         <v>15</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
@@ -3497,7 +3498,7 @@
         <v>15</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F12" t="s">
         <v>526</v>
@@ -3514,7 +3515,7 @@
         <v>15</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
@@ -3528,7 +3529,7 @@
         <v>15</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
@@ -3542,7 +3543,7 @@
         <v>15</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
@@ -3556,7 +3557,7 @@
         <v>15</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
@@ -3570,7 +3571,7 @@
         <v>15</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
@@ -3584,7 +3585,7 @@
         <v>15</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
@@ -3598,7 +3599,7 @@
         <v>15</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
@@ -3612,7 +3613,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
@@ -3626,7 +3627,7 @@
         <v>15</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
@@ -3640,7 +3641,7 @@
         <v>15</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
@@ -3654,7 +3655,7 @@
         <v>15</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
@@ -3668,7 +3669,7 @@
         <v>15</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
@@ -3682,7 +3683,7 @@
         <v>15</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
@@ -3696,7 +3697,7 @@
         <v>15</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
@@ -3710,7 +3711,7 @@
         <v>15</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
@@ -3724,7 +3725,7 @@
         <v>15</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
@@ -3738,7 +3739,7 @@
         <v>15</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
@@ -3752,7 +3753,7 @@
         <v>15</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
@@ -3766,7 +3767,7 @@
         <v>15</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
@@ -3845,7 +3846,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F3" t="s">
         <v>513</v>
@@ -3865,7 +3866,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F4" t="s">
         <v>514</v>
@@ -3885,7 +3886,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="F5" t="s">
         <v>515</v>
@@ -3905,7 +3906,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F6" t="s">
         <v>516</v>
@@ -3925,7 +3926,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F7" t="s">
         <v>517</v>
@@ -3945,7 +3946,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="F8" t="s">
         <v>518</v>
@@ -3963,7 +3964,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
@@ -4355,13 +4356,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B28" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C28" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D28" t="s">
         <v>80</v>
@@ -4369,13 +4370,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B29" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C29" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D29" t="s">
         <v>80</v>
@@ -4383,13 +4384,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B30" t="s">
         <v>446</v>
       </c>
       <c r="C30" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D30" t="s">
         <v>80</v>
@@ -4599,7 +4600,7 @@
         <v>471</v>
       </c>
       <c r="C48" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D48" t="s">
         <v>142</v>
@@ -4607,13 +4608,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B49" t="s">
         <v>471</v>
       </c>
       <c r="C49" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D49" t="s">
         <v>142</v>
@@ -5097,44 +5098,44 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B85" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C85" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D85" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B86" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C86" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D86" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B87" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C87" t="s">
+        <v>620</v>
+      </c>
+      <c r="D87" t="s">
         <v>621</v>
-      </c>
-      <c r="D87" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">

--- a/build_tools/Class_definitions/Class_definitions.xlsx
+++ b/build_tools/Class_definitions/Class_definitions.xlsx
@@ -1604,9 +1604,6 @@
     <t>Catch-at-length sample size</t>
   </si>
   <si>
-    <t>Catch-at-age effective sample size</t>
-  </si>
-  <si>
     <t>Catch-at-length effective sample size</t>
   </si>
   <si>
@@ -1922,8 +1919,10 @@
     <t>numeric matrix dim=c(nsim, proyears)</t>
   </si>
   <si>
-    <t>Effective sample size of catch-at-age observations collected per time step. For each time step a single value is drawn from a uniform distribution specified by the upper and lower bounds provided. CAA_ESS should not exceed CAA_nsamp. If greater than 1, then this is the multinomial distribution sample size.
-If less than 1, this is the coefficient of variation for the logistic normal distribution (see ?simCAA for details).</t>
+    <t>Effective sample size of catch-at-age observations collected per time step. For each time step a single value is drawn from a uniform distribution specified by the upper and lower bounds provided. CAA_ESS should not exceed CAA_nsamp. If greater than 1, then this is the multinomial distribution sample size. If less than 1, this is the coefficient of variation for the logistic normal distribution (see help doucmentation for simCAA for details).</t>
+  </si>
+  <si>
+    <t>Catch-at-age effective sample size. If greater than 1, then this is the multinomial distribution sample size. If less than 1, this is the coefficient of variation for the logistic normal distribution (see help doucmentation for simCAA for details).</t>
   </si>
 </sst>
 </file>
@@ -2315,7 +2314,7 @@
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E2" s="3" t="b">
         <v>0</v>
@@ -2334,7 +2333,7 @@
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E3" s="3" t="b">
         <v>0</v>
@@ -2353,7 +2352,7 @@
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E4" s="3" t="b">
         <v>0</v>
@@ -2374,7 +2373,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E5" s="3" t="b">
         <v>0</v>
@@ -2395,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" t="s">
@@ -2416,7 +2415,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" t="s">
@@ -2437,7 +2436,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" t="s">
@@ -2458,7 +2457,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" t="s">
@@ -2479,7 +2478,7 @@
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" t="s">
@@ -2500,7 +2499,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" t="s">
@@ -2521,7 +2520,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" t="s">
@@ -2542,7 +2541,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" t="s">
@@ -2563,7 +2562,7 @@
         <v>2</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" t="s">
@@ -2584,7 +2583,7 @@
         <v>2</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" t="s">
@@ -2605,7 +2604,7 @@
         <v>2</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" t="s">
@@ -2626,7 +2625,7 @@
         <v>2</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" t="s">
@@ -2647,7 +2646,7 @@
         <v>2</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" t="s">
@@ -2668,7 +2667,7 @@
         <v>2</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" t="s">
@@ -2689,7 +2688,7 @@
         <v>2</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" t="s">
@@ -2710,7 +2709,7 @@
         <v>2</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" t="s">
@@ -2731,7 +2730,7 @@
         <v>2</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E22" s="3" t="b">
         <v>0</v>
@@ -2752,7 +2751,7 @@
         <v>2</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E23" s="3" t="b">
         <v>0</v>
@@ -2773,7 +2772,7 @@
         <v>2</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" t="s">
@@ -2794,7 +2793,7 @@
         <v>2</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" t="s">
@@ -2815,7 +2814,7 @@
         <v>2</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" t="s">
@@ -2836,7 +2835,7 @@
         <v>2</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" t="s">
@@ -2922,7 +2921,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E2" s="3" t="b">
         <v>0</v>
@@ -2942,7 +2941,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E3" s="3" t="b">
         <v>0</v>
@@ -2962,7 +2961,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E4" s="3" t="b">
         <v>0</v>
@@ -2979,7 +2978,7 @@
         <v>15</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E5" s="3" t="b">
         <v>0</v>
@@ -2996,7 +2995,7 @@
         <v>15</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E6" s="3" t="b">
         <v>0</v>
@@ -3013,7 +3012,7 @@
         <v>15</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E7" s="3" t="b">
         <v>0</v>
@@ -3033,7 +3032,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>200</v>
@@ -3053,7 +3052,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>502</v>
@@ -3073,7 +3072,7 @@
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>503</v>
@@ -3093,7 +3092,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>504</v>
@@ -3113,7 +3112,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>505</v>
@@ -3133,7 +3132,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>506</v>
@@ -3153,7 +3152,7 @@
         <v>2</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E14" s="3" t="b">
         <v>0</v>
@@ -3170,7 +3169,7 @@
         <v>2</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>507</v>
@@ -3190,7 +3189,7 @@
         <v>2</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>508</v>
@@ -3210,7 +3209,7 @@
         <v>2</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>510</v>
@@ -3230,7 +3229,7 @@
         <v>2</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>509</v>
@@ -3250,7 +3249,7 @@
         <v>2</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>511</v>
@@ -3270,7 +3269,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>465</v>
@@ -3304,7 +3303,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3360,7 +3359,7 @@
         <v>15</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -3374,7 +3373,7 @@
         <v>15</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
@@ -3388,7 +3387,7 @@
         <v>15</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F5" t="s">
         <v>522</v>
@@ -3405,10 +3404,10 @@
         <v>15</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="F6" t="s">
         <v>630</v>
-      </c>
-      <c r="F6" t="s">
-        <v>524</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>16</v>
@@ -3422,7 +3421,7 @@
         <v>15</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="F7" t="s">
         <v>523</v>
@@ -3439,10 +3438,10 @@
         <v>15</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F8" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>16</v>
@@ -3456,7 +3455,7 @@
         <v>15</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
@@ -3470,7 +3469,7 @@
         <v>15</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
@@ -3484,7 +3483,7 @@
         <v>15</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
@@ -3498,10 +3497,10 @@
         <v>15</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F12" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>16</v>
@@ -3515,7 +3514,7 @@
         <v>15</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
@@ -3529,7 +3528,7 @@
         <v>15</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
@@ -3543,7 +3542,7 @@
         <v>15</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
@@ -3557,7 +3556,7 @@
         <v>15</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
@@ -3571,7 +3570,7 @@
         <v>15</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
@@ -3585,7 +3584,7 @@
         <v>15</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
@@ -3599,7 +3598,7 @@
         <v>15</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
@@ -3613,7 +3612,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
@@ -3627,7 +3626,7 @@
         <v>15</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
@@ -3641,7 +3640,7 @@
         <v>15</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
@@ -3655,7 +3654,7 @@
         <v>15</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
@@ -3669,7 +3668,7 @@
         <v>15</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
@@ -3683,7 +3682,7 @@
         <v>15</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
@@ -3697,7 +3696,7 @@
         <v>15</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
@@ -3711,7 +3710,7 @@
         <v>15</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
@@ -3725,7 +3724,7 @@
         <v>15</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
@@ -3739,7 +3738,7 @@
         <v>15</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
@@ -3753,7 +3752,7 @@
         <v>15</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
@@ -3767,7 +3766,7 @@
         <v>15</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
@@ -3846,7 +3845,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F3" t="s">
         <v>513</v>
@@ -3866,7 +3865,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F4" t="s">
         <v>514</v>
@@ -3886,7 +3885,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F5" t="s">
         <v>515</v>
@@ -3906,7 +3905,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="F6" t="s">
         <v>516</v>
@@ -3926,7 +3925,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F7" t="s">
         <v>517</v>
@@ -3946,7 +3945,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F8" t="s">
         <v>518</v>
@@ -3964,7 +3963,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
@@ -4356,13 +4355,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B28" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C28" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D28" t="s">
         <v>80</v>
@@ -4370,13 +4369,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B29" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C29" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D29" t="s">
         <v>80</v>
@@ -4384,13 +4383,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B30" t="s">
         <v>446</v>
       </c>
       <c r="C30" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D30" t="s">
         <v>80</v>
@@ -4600,7 +4599,7 @@
         <v>471</v>
       </c>
       <c r="C48" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D48" t="s">
         <v>142</v>
@@ -4608,13 +4607,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B49" t="s">
         <v>471</v>
       </c>
       <c r="C49" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D49" t="s">
         <v>142</v>
@@ -5056,13 +5055,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B81" t="s">
         <v>16</v>
       </c>
       <c r="C81" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D81" t="s">
         <v>142</v>
@@ -5070,13 +5069,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B82" t="s">
         <v>16</v>
       </c>
       <c r="C82" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D82" t="s">
         <v>142</v>
@@ -5084,13 +5083,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B83" t="s">
         <v>16</v>
       </c>
       <c r="C83" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D83" t="s">
         <v>142</v>
@@ -5098,44 +5097,44 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B85" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C85" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D85" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B86" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C86" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D86" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B87" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C87" t="s">
+        <v>619</v>
+      </c>
+      <c r="D87" t="s">
         <v>620</v>
-      </c>
-      <c r="D87" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">

--- a/build_tools/Class_definitions/Class_definitions.xlsx
+++ b/build_tools/Class_definitions/Class_definitions.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-2390" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="28680" yWindow="-2390" windowWidth="29040" windowHeight="15840" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Stock" sheetId="1" r:id="rId1"/>
@@ -869,9 +869,6 @@
     <t>Observation parameters (last historical year used for time-varying parameters). Data.frame with `nsim` rows</t>
   </si>
   <si>
-    <t xml:space="preserve">Currently not used. </t>
-  </si>
-  <si>
     <t>Named list with bio-economic output Only used if bio-economic parameters are included in OM</t>
   </si>
   <si>
@@ -1923,6 +1920,9 @@
   </si>
   <si>
     <t>Catch-at-age effective sample size. If greater than 1, then this is the multinomial distribution sample size. If less than 1, this is the coefficient of variation for the logistic normal distribution (see help doucmentation for simCAA for details).</t>
+  </si>
+  <si>
+    <t>Named list with equilibrium and dynamic SPR. Each element is an array with dimensions: nsim, nMPs, proyears. Non-negative real numbers.</t>
   </si>
 </sst>
 </file>
@@ -2314,7 +2314,7 @@
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E2" s="3" t="b">
         <v>0</v>
@@ -2333,7 +2333,7 @@
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E3" s="3" t="b">
         <v>0</v>
@@ -2352,7 +2352,7 @@
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E4" s="3" t="b">
         <v>0</v>
@@ -2373,7 +2373,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E5" s="3" t="b">
         <v>0</v>
@@ -2394,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" t="s">
@@ -2415,7 +2415,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" t="s">
@@ -2436,7 +2436,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" t="s">
@@ -2457,7 +2457,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" t="s">
@@ -2478,7 +2478,7 @@
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" t="s">
@@ -2499,7 +2499,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" t="s">
@@ -2520,7 +2520,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" t="s">
@@ -2541,7 +2541,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" t="s">
@@ -2562,7 +2562,7 @@
         <v>2</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" t="s">
@@ -2583,7 +2583,7 @@
         <v>2</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" t="s">
@@ -2604,7 +2604,7 @@
         <v>2</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" t="s">
@@ -2625,7 +2625,7 @@
         <v>2</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" t="s">
@@ -2646,7 +2646,7 @@
         <v>2</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" t="s">
@@ -2667,7 +2667,7 @@
         <v>2</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" t="s">
@@ -2688,7 +2688,7 @@
         <v>2</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" t="s">
@@ -2709,7 +2709,7 @@
         <v>2</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" t="s">
@@ -2730,7 +2730,7 @@
         <v>2</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E22" s="3" t="b">
         <v>0</v>
@@ -2751,7 +2751,7 @@
         <v>2</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E23" s="3" t="b">
         <v>0</v>
@@ -2772,7 +2772,7 @@
         <v>2</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" t="s">
@@ -2793,7 +2793,7 @@
         <v>2</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" t="s">
@@ -2814,7 +2814,7 @@
         <v>2</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" t="s">
@@ -2835,7 +2835,7 @@
         <v>2</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" t="s">
@@ -2921,7 +2921,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E2" s="3" t="b">
         <v>0</v>
@@ -2941,7 +2941,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E3" s="3" t="b">
         <v>0</v>
@@ -2961,7 +2961,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E4" s="3" t="b">
         <v>0</v>
@@ -2978,7 +2978,7 @@
         <v>15</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E5" s="3" t="b">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>15</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E6" s="3" t="b">
         <v>0</v>
@@ -3012,7 +3012,7 @@
         <v>15</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E7" s="3" t="b">
         <v>0</v>
@@ -3032,7 +3032,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>200</v>
@@ -3052,10 +3052,10 @@
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>16</v>
@@ -3072,10 +3072,10 @@
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>16</v>
@@ -3092,10 +3092,10 @@
         <v>2</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>16</v>
@@ -3112,10 +3112,10 @@
         <v>2</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>16</v>
@@ -3132,10 +3132,10 @@
         <v>2</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>16</v>
@@ -3152,7 +3152,7 @@
         <v>2</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E14" s="3" t="b">
         <v>0</v>
@@ -3169,10 +3169,10 @@
         <v>2</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>16</v>
@@ -3189,10 +3189,10 @@
         <v>2</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>16</v>
@@ -3209,10 +3209,10 @@
         <v>2</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>16</v>
@@ -3229,10 +3229,10 @@
         <v>2</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>16</v>
@@ -3249,10 +3249,10 @@
         <v>2</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>16</v>
@@ -3269,13 +3269,13 @@
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
@@ -3302,7 +3302,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -3345,7 +3345,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
@@ -3359,7 +3359,7 @@
         <v>15</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -3373,7 +3373,7 @@
         <v>15</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
@@ -3387,10 +3387,10 @@
         <v>15</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="F5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>16</v>
@@ -3404,10 +3404,10 @@
         <v>15</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="F6" t="s">
         <v>629</v>
-      </c>
-      <c r="F6" t="s">
-        <v>630</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>16</v>
@@ -3421,10 +3421,10 @@
         <v>15</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F7" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>16</v>
@@ -3438,10 +3438,10 @@
         <v>15</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="F8" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>16</v>
@@ -3455,7 +3455,7 @@
         <v>15</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>15</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
@@ -3483,7 +3483,7 @@
         <v>15</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
@@ -3497,10 +3497,10 @@
         <v>15</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F12" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>16</v>
@@ -3514,7 +3514,7 @@
         <v>15</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
@@ -3528,7 +3528,7 @@
         <v>15</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>15</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>15</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
@@ -3570,7 +3570,7 @@
         <v>15</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
@@ -3584,7 +3584,7 @@
         <v>15</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
@@ -3598,7 +3598,7 @@
         <v>15</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
@@ -3612,7 +3612,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
@@ -3626,7 +3626,7 @@
         <v>15</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
@@ -3640,7 +3640,7 @@
         <v>15</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
@@ -3654,7 +3654,7 @@
         <v>15</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
@@ -3668,7 +3668,7 @@
         <v>15</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
@@ -3682,7 +3682,7 @@
         <v>15</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
@@ -3696,7 +3696,7 @@
         <v>15</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
@@ -3710,7 +3710,7 @@
         <v>15</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
@@ -3724,7 +3724,7 @@
         <v>15</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
@@ -3732,13 +3732,13 @@
     </row>
     <row r="29" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B29" t="s">
         <v>15</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
@@ -3746,13 +3746,13 @@
     </row>
     <row r="30" spans="1:5" ht="116" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B30" t="s">
         <v>15</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
@@ -3760,13 +3760,13 @@
     </row>
     <row r="31" spans="1:5" ht="87" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B31" t="s">
         <v>15</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
@@ -3828,7 +3828,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
@@ -3845,10 +3845,10 @@
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>16</v>
@@ -3865,10 +3865,10 @@
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>16</v>
@@ -3885,10 +3885,10 @@
         <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F5" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>16</v>
@@ -3905,10 +3905,10 @@
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F6" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>16</v>
@@ -3925,10 +3925,10 @@
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="F7" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>16</v>
@@ -3945,10 +3945,10 @@
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F8" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>16</v>
@@ -3977,7 +3977,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -3991,13 +3991,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>441</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>442</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>80</v>
@@ -4008,7 +4008,7 @@
         <v>89</v>
       </c>
       <c r="B3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C3" t="s">
         <v>90</v>
@@ -4089,13 +4089,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B9" t="s">
         <v>95</v>
       </c>
       <c r="C9" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D9" t="s">
         <v>80</v>
@@ -4106,7 +4106,7 @@
         <v>117</v>
       </c>
       <c r="B10" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C10" t="s">
         <v>118</v>
@@ -4120,7 +4120,7 @@
         <v>113</v>
       </c>
       <c r="B11" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C11" t="s">
         <v>114</v>
@@ -4176,7 +4176,7 @@
         <v>115</v>
       </c>
       <c r="B15" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C15" t="s">
         <v>116</v>
@@ -4190,7 +4190,7 @@
         <v>111</v>
       </c>
       <c r="B16" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C16" t="s">
         <v>112</v>
@@ -4201,13 +4201,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
+        <v>446</v>
+      </c>
+      <c r="B17" t="s">
         <v>447</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>448</v>
-      </c>
-      <c r="C17" t="s">
-        <v>449</v>
       </c>
       <c r="D17" t="s">
         <v>80</v>
@@ -4215,13 +4215,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
+        <v>449</v>
+      </c>
+      <c r="B18" t="s">
+        <v>447</v>
+      </c>
+      <c r="C18" t="s">
         <v>450</v>
-      </c>
-      <c r="B18" t="s">
-        <v>448</v>
-      </c>
-      <c r="C18" t="s">
-        <v>451</v>
       </c>
       <c r="D18" t="s">
         <v>80</v>
@@ -4232,7 +4232,7 @@
         <v>109</v>
       </c>
       <c r="B19" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C19" t="s">
         <v>110</v>
@@ -4243,13 +4243,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
+        <v>451</v>
+      </c>
+      <c r="B20" t="s">
+        <v>447</v>
+      </c>
+      <c r="C20" t="s">
         <v>452</v>
-      </c>
-      <c r="B20" t="s">
-        <v>448</v>
-      </c>
-      <c r="C20" t="s">
-        <v>453</v>
       </c>
       <c r="D20" t="s">
         <v>80</v>
@@ -4260,7 +4260,7 @@
         <v>119</v>
       </c>
       <c r="B21" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C21" t="s">
         <v>120</v>
@@ -4355,13 +4355,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B28" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C28" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D28" t="s">
         <v>80</v>
@@ -4369,13 +4369,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B29" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C29" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D29" t="s">
         <v>80</v>
@@ -4383,13 +4383,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
+        <v>625</v>
+      </c>
+      <c r="B30" t="s">
+        <v>445</v>
+      </c>
+      <c r="C30" t="s">
         <v>626</v>
-      </c>
-      <c r="B30" t="s">
-        <v>446</v>
-      </c>
-      <c r="C30" t="s">
-        <v>627</v>
       </c>
       <c r="D30" t="s">
         <v>80</v>
@@ -4439,13 +4439,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
+        <v>454</v>
+      </c>
+      <c r="B36" t="s">
         <v>455</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>456</v>
-      </c>
-      <c r="C36" t="s">
-        <v>457</v>
       </c>
       <c r="D36" t="s">
         <v>127</v>
@@ -4456,7 +4456,7 @@
         <v>132</v>
       </c>
       <c r="B37" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C37" t="s">
         <v>133</v>
@@ -4484,7 +4484,7 @@
         <v>137</v>
       </c>
       <c r="B39" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C39" t="s">
         <v>138</v>
@@ -4523,13 +4523,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
+        <v>457</v>
+      </c>
+      <c r="B42" t="s">
         <v>458</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>459</v>
-      </c>
-      <c r="C42" t="s">
-        <v>460</v>
       </c>
       <c r="D42" t="s">
         <v>127</v>
@@ -4537,13 +4537,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
+        <v>460</v>
+      </c>
+      <c r="B43" t="s">
         <v>461</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>462</v>
-      </c>
-      <c r="C43" t="s">
-        <v>463</v>
       </c>
       <c r="D43" t="s">
         <v>127</v>
@@ -4554,10 +4554,10 @@
         <v>233</v>
       </c>
       <c r="B44" t="s">
+        <v>463</v>
+      </c>
+      <c r="C44" t="s">
         <v>464</v>
-      </c>
-      <c r="C44" t="s">
-        <v>465</v>
       </c>
       <c r="D44" t="s">
         <v>127</v>
@@ -4565,13 +4565,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
+        <v>465</v>
+      </c>
+      <c r="B46" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" t="s">
         <v>466</v>
-      </c>
-      <c r="B46" t="s">
-        <v>16</v>
-      </c>
-      <c r="C46" t="s">
-        <v>467</v>
       </c>
       <c r="D46" t="s">
         <v>142</v>
@@ -4579,13 +4579,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
+        <v>467</v>
+      </c>
+      <c r="B47" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" t="s">
         <v>468</v>
-      </c>
-      <c r="B47" t="s">
-        <v>16</v>
-      </c>
-      <c r="C47" t="s">
-        <v>469</v>
       </c>
       <c r="D47" t="s">
         <v>142</v>
@@ -4593,13 +4593,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
+        <v>469</v>
+      </c>
+      <c r="B48" t="s">
         <v>470</v>
       </c>
-      <c r="B48" t="s">
-        <v>471</v>
-      </c>
       <c r="C48" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D48" t="s">
         <v>142</v>
@@ -4607,13 +4607,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
+        <v>610</v>
+      </c>
+      <c r="B49" t="s">
+        <v>470</v>
+      </c>
+      <c r="C49" t="s">
         <v>611</v>
-      </c>
-      <c r="B49" t="s">
-        <v>471</v>
-      </c>
-      <c r="C49" t="s">
-        <v>612</v>
       </c>
       <c r="D49" t="s">
         <v>142</v>
@@ -4621,13 +4621,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
+        <v>471</v>
+      </c>
+      <c r="B50" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" t="s">
         <v>472</v>
-      </c>
-      <c r="B50" t="s">
-        <v>16</v>
-      </c>
-      <c r="C50" t="s">
-        <v>473</v>
       </c>
       <c r="D50" t="s">
         <v>142</v>
@@ -4635,13 +4635,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B51" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C51" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D51" t="s">
         <v>142</v>
@@ -4649,13 +4649,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B52" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C52" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D52" t="s">
         <v>142</v>
@@ -4663,13 +4663,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B53" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C53" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D53" t="s">
         <v>142</v>
@@ -4677,13 +4677,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B54" t="s">
         <v>16</v>
       </c>
       <c r="C54" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D54" t="s">
         <v>142</v>
@@ -4705,13 +4705,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B56" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C56" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D56" t="s">
         <v>142</v>
@@ -4789,13 +4789,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B62" t="s">
         <v>16</v>
       </c>
       <c r="C62" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D62" t="s">
         <v>142</v>
@@ -4803,13 +4803,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B63" t="s">
         <v>16</v>
       </c>
       <c r="C63" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D63" t="s">
         <v>142</v>
@@ -4817,13 +4817,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B64" t="s">
         <v>16</v>
       </c>
       <c r="C64" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D64" t="s">
         <v>142</v>
@@ -4831,13 +4831,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B65" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C65" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D65" t="s">
         <v>142</v>
@@ -4929,13 +4929,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B72" t="s">
         <v>16</v>
       </c>
       <c r="C72" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D72" t="s">
         <v>142</v>
@@ -4943,13 +4943,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B73" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C73" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D73" t="s">
         <v>142</v>
@@ -4957,13 +4957,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B74" t="s">
         <v>16</v>
       </c>
       <c r="C74" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D74" t="s">
         <v>142</v>
@@ -4971,13 +4971,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B75" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C75" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D75" t="s">
         <v>142</v>
@@ -4985,13 +4985,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B76" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C76" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D76" t="s">
         <v>142</v>
@@ -5055,13 +5055,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B81" t="s">
         <v>16</v>
       </c>
       <c r="C81" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D81" t="s">
         <v>142</v>
@@ -5069,13 +5069,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B82" t="s">
         <v>16</v>
       </c>
       <c r="C82" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D82" t="s">
         <v>142</v>
@@ -5083,13 +5083,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B83" t="s">
         <v>16</v>
       </c>
       <c r="C83" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D83" t="s">
         <v>142</v>
@@ -5097,44 +5097,44 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B85" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C85" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D85" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B86" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C86" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D86" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B87" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C87" t="s">
+        <v>618</v>
+      </c>
+      <c r="D87" t="s">
         <v>619</v>
-      </c>
-      <c r="D87" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
@@ -5245,8 +5245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5387,12 +5387,12 @@
         <v>276</v>
       </c>
       <c r="B17" t="s">
-        <v>279</v>
+        <v>630</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B18" t="s">
         <v>275</v>
@@ -5435,7 +5435,7 @@
         <v>174</v>
       </c>
       <c r="B23" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
@@ -5443,31 +5443,31 @@
         <v>263</v>
       </c>
       <c r="B24" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B25" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B26" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B27" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
@@ -5475,7 +5475,7 @@
         <v>244</v>
       </c>
       <c r="B28" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
@@ -5522,10 +5522,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -5541,7 +5541,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -5563,10 +5563,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -5574,26 +5574,26 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -5601,31 +5601,31 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B9" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B13" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
@@ -5633,95 +5633,95 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B16" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B17" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B18" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B19" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B20" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B21" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B22" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B23" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B24" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
@@ -5729,31 +5729,31 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B27" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B28" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B29" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
@@ -5766,10 +5766,10 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B31" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
@@ -5782,7 +5782,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B33" t="s">
         <v>36</v>
@@ -5790,28 +5790,28 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B36" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B37" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B38" t="s">
         <v>69</v>
@@ -5819,15 +5819,15 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B39" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B40" t="s">
         <v>70</v>
@@ -5835,15 +5835,15 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B43" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D43" t="b">
         <v>1</v>
@@ -5851,10 +5851,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B44" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D44" t="b">
         <v>1</v>
@@ -5862,10 +5862,10 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B45" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D45" t="b">
         <v>1</v>
@@ -5884,10 +5884,10 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B47" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D47" t="b">
         <v>1</v>
@@ -5895,10 +5895,10 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B48" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D48" t="b">
         <v>1</v>
@@ -5906,10 +5906,10 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B49" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D49" t="b">
         <v>1</v>
@@ -5917,10 +5917,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B50" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D50" t="b">
         <v>1</v>
@@ -5928,10 +5928,10 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B51" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D51" t="b">
         <v>1</v>
@@ -5939,10 +5939,10 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B52" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D52" t="b">
         <v>1</v>
@@ -5950,10 +5950,10 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B53" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D53" t="b">
         <v>1</v>
@@ -5966,7 +5966,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D55" t="b">
         <v>1</v>
@@ -5974,7 +5974,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D56" t="b">
         <v>1</v>
@@ -5982,7 +5982,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D57" t="b">
         <v>1</v>
@@ -5990,7 +5990,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D58" t="b">
         <v>1</v>
@@ -5998,7 +5998,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D59" t="b">
         <v>1</v>
@@ -6006,7 +6006,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D60" t="b">
         <v>1</v>
@@ -6014,10 +6014,10 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B61" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
@@ -6030,10 +6030,10 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B63" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D63" t="b">
         <v>1</v>
@@ -6041,10 +6041,10 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B64" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D64" t="b">
         <v>1</v>
@@ -6052,10 +6052,10 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B65" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D65" t="b">
         <v>1</v>
@@ -6063,10 +6063,10 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B66" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D66" t="b">
         <v>1</v>
@@ -6074,10 +6074,10 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B67" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D67" t="b">
         <v>1</v>
@@ -6085,15 +6085,15 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B70" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D70" t="b">
         <v>1</v>
@@ -6101,10 +6101,10 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B71" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D71" t="b">
         <v>1</v>
@@ -6112,15 +6112,15 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B74" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D74" t="b">
         <v>1</v>
@@ -6139,10 +6139,10 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B76" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D76" t="b">
         <v>1</v>
@@ -6150,10 +6150,10 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B77" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D77" t="b">
         <v>1</v>
@@ -6161,191 +6161,191 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B80" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B81" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B82" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B83" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B84" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B85" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B86" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B87" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B88" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B89" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B90" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B91" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B92" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B93" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B94" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B95" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B96" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B97" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B98" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B99" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B100" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B101" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B102" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C102" t="b">
         <v>0</v>

--- a/build_tools/Class_definitions/Class_definitions.xlsx
+++ b/build_tools/Class_definitions/Class_definitions.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-2390" windowWidth="29040" windowHeight="15840" activeTab="5"/>
+    <workbookView xWindow="28680" yWindow="-2390" windowWidth="29040" windowHeight="15840" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Stock" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="633">
   <si>
     <t>Slot</t>
   </si>
@@ -1923,6 +1923,12 @@
   </si>
   <si>
     <t>Named list with equilibrium and dynamic SPR. Each element is an array with dimensions: nsim, nMPs, proyears. Non-negative real numbers.</t>
+  </si>
+  <si>
+    <t>Fec_age</t>
+  </si>
+  <si>
+    <t>Optional weight-at-age for mature females (fecundity used to calculate SB0) - otherwise Wt_age is used</t>
   </si>
 </sst>
 </file>
@@ -3963,8 +3969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B87" sqref="B87"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4395,6 +4401,20 @@
         <v>80</v>
       </c>
     </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>631</v>
+      </c>
+      <c r="B31" t="s">
+        <v>445</v>
+      </c>
+      <c r="C31" t="s">
+        <v>632</v>
+      </c>
+      <c r="D31" t="s">
+        <v>80</v>
+      </c>
+    </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>126</v>
@@ -5245,7 +5265,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>

--- a/build_tools/Class_definitions/Class_definitions.xlsx
+++ b/build_tools/Class_definitions/Class_definitions.xlsx
@@ -362,9 +362,6 @@
     <t>M_ageArray</t>
   </si>
   <si>
-    <t>M by simulation, age and year. No variability is added</t>
-  </si>
-  <si>
     <t>Mat_age</t>
   </si>
   <si>
@@ -1388,9 +1385,6 @@
     <t>Marray</t>
   </si>
   <si>
-    <t>Mean M (mature) by simulation and year</t>
-  </si>
-  <si>
     <t>numeric array dim = c(nsim, maxage+1, narea, narea) OR  dim = c(nsim, maxage+1, narea, narea, nyears+proyears)</t>
   </si>
   <si>
@@ -1929,6 +1923,12 @@
   </si>
   <si>
     <t>Optional weight-at-age for mature females (fecundity used to calculate SB0) - otherwise Wt_age is used</t>
+  </si>
+  <si>
+    <t>Mean natural mortality (mature) by simulation and year</t>
+  </si>
+  <si>
+    <t>Natural mortality (M) by simulation, age and year. No variability is added</t>
   </si>
 </sst>
 </file>
@@ -2320,7 +2320,7 @@
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E2" s="3" t="b">
         <v>0</v>
@@ -2339,7 +2339,7 @@
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E3" s="3" t="b">
         <v>0</v>
@@ -2358,7 +2358,7 @@
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E4" s="3" t="b">
         <v>0</v>
@@ -2379,7 +2379,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="E5" s="3" t="b">
         <v>0</v>
@@ -2400,7 +2400,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" t="s">
@@ -2421,7 +2421,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" t="s">
@@ -2442,7 +2442,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" t="s">
@@ -2463,7 +2463,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" t="s">
@@ -2484,7 +2484,7 @@
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" t="s">
@@ -2505,7 +2505,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" t="s">
@@ -2526,7 +2526,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" t="s">
@@ -2547,7 +2547,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" t="s">
@@ -2568,7 +2568,7 @@
         <v>2</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" t="s">
@@ -2589,7 +2589,7 @@
         <v>2</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" t="s">
@@ -2610,7 +2610,7 @@
         <v>2</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" t="s">
@@ -2631,7 +2631,7 @@
         <v>2</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" t="s">
@@ -2652,7 +2652,7 @@
         <v>2</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" t="s">
@@ -2673,7 +2673,7 @@
         <v>2</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" t="s">
@@ -2694,7 +2694,7 @@
         <v>2</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" t="s">
@@ -2715,7 +2715,7 @@
         <v>2</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" t="s">
@@ -2736,7 +2736,7 @@
         <v>2</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E22" s="3" t="b">
         <v>0</v>
@@ -2757,7 +2757,7 @@
         <v>2</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E23" s="3" t="b">
         <v>0</v>
@@ -2778,7 +2778,7 @@
         <v>2</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" t="s">
@@ -2799,7 +2799,7 @@
         <v>2</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" t="s">
@@ -2820,7 +2820,7 @@
         <v>2</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" t="s">
@@ -2841,7 +2841,7 @@
         <v>2</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" t="s">
@@ -2927,7 +2927,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E2" s="3" t="b">
         <v>0</v>
@@ -2947,7 +2947,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="E3" s="3" t="b">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="E4" s="3" t="b">
         <v>0</v>
@@ -2984,7 +2984,7 @@
         <v>15</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="E5" s="3" t="b">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>15</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="E6" s="3" t="b">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>15</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="E7" s="3" t="b">
         <v>0</v>
@@ -3038,10 +3038,10 @@
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>16</v>
@@ -3058,10 +3058,10 @@
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>16</v>
@@ -3078,10 +3078,10 @@
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>16</v>
@@ -3098,10 +3098,10 @@
         <v>2</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>16</v>
@@ -3118,10 +3118,10 @@
         <v>2</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>16</v>
@@ -3138,10 +3138,10 @@
         <v>2</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>16</v>
@@ -3158,7 +3158,7 @@
         <v>2</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="E14" s="3" t="b">
         <v>0</v>
@@ -3175,10 +3175,10 @@
         <v>2</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>16</v>
@@ -3195,10 +3195,10 @@
         <v>2</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>16</v>
@@ -3215,10 +3215,10 @@
         <v>2</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>16</v>
@@ -3235,10 +3235,10 @@
         <v>2</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>16</v>
@@ -3255,10 +3255,10 @@
         <v>2</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>16</v>
@@ -3266,7 +3266,7 @@
     </row>
     <row r="20" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>72</v>
@@ -3275,24 +3275,24 @@
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>235</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>236</v>
       </c>
       <c r="E21" s="3" t="b">
         <v>0</v>
@@ -3351,7 +3351,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
@@ -3359,13 +3359,13 @@
     </row>
     <row r="3" spans="1:7" ht="116" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -3373,13 +3373,13 @@
     </row>
     <row r="4" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
@@ -3387,16 +3387,16 @@
     </row>
     <row r="5" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="F5" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>16</v>
@@ -3404,16 +3404,16 @@
     </row>
     <row r="6" spans="1:7" ht="87" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="F6" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>16</v>
@@ -3421,16 +3421,16 @@
     </row>
     <row r="7" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F7" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>16</v>
@@ -3438,16 +3438,16 @@
     </row>
     <row r="8" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="F8" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>16</v>
@@ -3455,13 +3455,13 @@
     </row>
     <row r="9" spans="1:7" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
@@ -3469,13 +3469,13 @@
     </row>
     <row r="10" spans="1:7" ht="116" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
@@ -3483,13 +3483,13 @@
     </row>
     <row r="11" spans="1:7" ht="87" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
@@ -3497,16 +3497,16 @@
     </row>
     <row r="12" spans="1:7" ht="87" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F12" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>16</v>
@@ -3514,13 +3514,13 @@
     </row>
     <row r="13" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
@@ -3528,13 +3528,13 @@
     </row>
     <row r="14" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
@@ -3542,13 +3542,13 @@
     </row>
     <row r="15" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
@@ -3556,13 +3556,13 @@
     </row>
     <row r="16" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
@@ -3570,13 +3570,13 @@
     </row>
     <row r="17" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
@@ -3584,13 +3584,13 @@
     </row>
     <row r="18" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B18" t="s">
         <v>15</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
@@ -3598,13 +3598,13 @@
     </row>
     <row r="19" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B19" t="s">
         <v>15</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
@@ -3612,13 +3612,13 @@
     </row>
     <row r="20" spans="1:5" ht="87" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B20" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
@@ -3626,13 +3626,13 @@
     </row>
     <row r="21" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B21" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
@@ -3640,13 +3640,13 @@
     </row>
     <row r="22" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B22" t="s">
         <v>15</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
@@ -3654,13 +3654,13 @@
     </row>
     <row r="23" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B23" t="s">
         <v>15</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
@@ -3668,13 +3668,13 @@
     </row>
     <row r="24" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B24" t="s">
         <v>15</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
@@ -3682,13 +3682,13 @@
     </row>
     <row r="25" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B25" t="s">
         <v>15</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
@@ -3696,13 +3696,13 @@
     </row>
     <row r="26" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B26" t="s">
         <v>15</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
@@ -3710,13 +3710,13 @@
     </row>
     <row r="27" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B27" t="s">
         <v>15</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
@@ -3724,13 +3724,13 @@
     </row>
     <row r="28" spans="1:5" ht="87" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B28" t="s">
         <v>15</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
@@ -3738,13 +3738,13 @@
     </row>
     <row r="29" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B29" t="s">
         <v>15</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
@@ -3752,13 +3752,13 @@
     </row>
     <row r="30" spans="1:5" ht="116" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B30" t="s">
         <v>15</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
@@ -3766,13 +3766,13 @@
     </row>
     <row r="31" spans="1:5" ht="87" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B31" t="s">
         <v>15</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
@@ -3834,7 +3834,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
@@ -3842,7 +3842,7 @@
     </row>
     <row r="3" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
@@ -3851,10 +3851,10 @@
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="F3" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>16</v>
@@ -3862,7 +3862,7 @@
     </row>
     <row r="4" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -3871,10 +3871,10 @@
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F4" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>16</v>
@@ -3882,7 +3882,7 @@
     </row>
     <row r="5" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -3891,10 +3891,10 @@
         <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="F5" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>16</v>
@@ -3902,7 +3902,7 @@
     </row>
     <row r="6" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -3911,10 +3911,10 @@
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="F6" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>16</v>
@@ -3922,7 +3922,7 @@
     </row>
     <row r="7" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
@@ -3931,10 +3931,10 @@
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="F7" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>16</v>
@@ -3942,7 +3942,7 @@
     </row>
     <row r="8" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
@@ -3951,10 +3951,10 @@
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="F8" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>16</v>
@@ -3969,8 +3969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3983,7 +3983,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -3997,13 +3997,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>440</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>441</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>80</v>
@@ -4014,7 +4014,7 @@
         <v>89</v>
       </c>
       <c r="B3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C3" t="s">
         <v>90</v>
@@ -4095,13 +4095,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B9" t="s">
         <v>95</v>
       </c>
       <c r="C9" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D9" t="s">
         <v>80</v>
@@ -4109,13 +4109,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B10" t="s">
+        <v>444</v>
+      </c>
+      <c r="C10" t="s">
         <v>117</v>
-      </c>
-      <c r="B10" t="s">
-        <v>445</v>
-      </c>
-      <c r="C10" t="s">
-        <v>118</v>
       </c>
       <c r="D10" t="s">
         <v>80</v>
@@ -4123,13 +4123,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" t="s">
+        <v>444</v>
+      </c>
+      <c r="C11" t="s">
         <v>113</v>
-      </c>
-      <c r="B11" t="s">
-        <v>445</v>
-      </c>
-      <c r="C11" t="s">
-        <v>114</v>
       </c>
       <c r="D11" t="s">
         <v>80</v>
@@ -4165,13 +4165,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>122</v>
+      </c>
+      <c r="B14" t="s">
         <v>123</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>124</v>
-      </c>
-      <c r="C14" t="s">
-        <v>125</v>
       </c>
       <c r="D14" t="s">
         <v>80</v>
@@ -4179,13 +4179,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
+        <v>114</v>
+      </c>
+      <c r="B15" t="s">
+        <v>444</v>
+      </c>
+      <c r="C15" t="s">
         <v>115</v>
-      </c>
-      <c r="B15" t="s">
-        <v>445</v>
-      </c>
-      <c r="C15" t="s">
-        <v>116</v>
       </c>
       <c r="D15" t="s">
         <v>80</v>
@@ -4193,13 +4193,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
+        <v>110</v>
+      </c>
+      <c r="B16" t="s">
+        <v>444</v>
+      </c>
+      <c r="C16" t="s">
         <v>111</v>
-      </c>
-      <c r="B16" t="s">
-        <v>445</v>
-      </c>
-      <c r="C16" t="s">
-        <v>112</v>
       </c>
       <c r="D16" t="s">
         <v>80</v>
@@ -4207,13 +4207,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
+        <v>445</v>
+      </c>
+      <c r="B17" t="s">
         <v>446</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>447</v>
-      </c>
-      <c r="C17" t="s">
-        <v>448</v>
       </c>
       <c r="D17" t="s">
         <v>80</v>
@@ -4221,13 +4221,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
+        <v>448</v>
+      </c>
+      <c r="B18" t="s">
+        <v>446</v>
+      </c>
+      <c r="C18" t="s">
         <v>449</v>
-      </c>
-      <c r="B18" t="s">
-        <v>447</v>
-      </c>
-      <c r="C18" t="s">
-        <v>450</v>
       </c>
       <c r="D18" t="s">
         <v>80</v>
@@ -4238,10 +4238,10 @@
         <v>109</v>
       </c>
       <c r="B19" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C19" t="s">
-        <v>110</v>
+        <v>632</v>
       </c>
       <c r="D19" t="s">
         <v>80</v>
@@ -4249,13 +4249,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B20" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C20" t="s">
-        <v>452</v>
+        <v>631</v>
       </c>
       <c r="D20" t="s">
         <v>80</v>
@@ -4263,13 +4263,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B21" t="s">
+        <v>451</v>
+      </c>
+      <c r="C21" t="s">
         <v>119</v>
-      </c>
-      <c r="B21" t="s">
-        <v>453</v>
-      </c>
-      <c r="C21" t="s">
-        <v>120</v>
       </c>
       <c r="D21" t="s">
         <v>80</v>
@@ -4333,13 +4333,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
+        <v>120</v>
+      </c>
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" t="s">
         <v>121</v>
-      </c>
-      <c r="B26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" t="s">
-        <v>122</v>
       </c>
       <c r="D26" t="s">
         <v>80</v>
@@ -4347,13 +4347,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
+        <v>167</v>
+      </c>
+      <c r="B27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" t="s">
         <v>168</v>
-      </c>
-      <c r="B27" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" t="s">
-        <v>169</v>
       </c>
       <c r="D27" t="s">
         <v>80</v>
@@ -4361,13 +4361,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
+        <v>618</v>
+      </c>
+      <c r="B28" t="s">
+        <v>622</v>
+      </c>
+      <c r="C28" t="s">
         <v>620</v>
-      </c>
-      <c r="B28" t="s">
-        <v>624</v>
-      </c>
-      <c r="C28" t="s">
-        <v>622</v>
       </c>
       <c r="D28" t="s">
         <v>80</v>
@@ -4375,13 +4375,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
+        <v>619</v>
+      </c>
+      <c r="B29" t="s">
+        <v>622</v>
+      </c>
+      <c r="C29" t="s">
         <v>621</v>
-      </c>
-      <c r="B29" t="s">
-        <v>624</v>
-      </c>
-      <c r="C29" t="s">
-        <v>623</v>
       </c>
       <c r="D29" t="s">
         <v>80</v>
@@ -4389,13 +4389,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B30" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C30" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D30" t="s">
         <v>80</v>
@@ -4403,13 +4403,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B31" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C31" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="D31" t="s">
         <v>80</v>
@@ -4417,842 +4417,842 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
+        <v>125</v>
+      </c>
+      <c r="B33" t="s">
+        <v>127</v>
+      </c>
+      <c r="C33" t="s">
+        <v>128</v>
+      </c>
+      <c r="D33" t="s">
         <v>126</v>
-      </c>
-      <c r="B33" t="s">
-        <v>128</v>
-      </c>
-      <c r="C33" t="s">
-        <v>129</v>
-      </c>
-      <c r="D33" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
+        <v>129</v>
+      </c>
+      <c r="B34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" t="s">
         <v>130</v>
       </c>
-      <c r="B34" t="s">
-        <v>16</v>
-      </c>
-      <c r="C34" t="s">
-        <v>131</v>
-      </c>
       <c r="D34" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
+        <v>194</v>
+      </c>
+      <c r="B35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" t="s">
         <v>195</v>
       </c>
-      <c r="B35" t="s">
-        <v>16</v>
-      </c>
-      <c r="C35" t="s">
-        <v>196</v>
-      </c>
       <c r="D35" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
+        <v>452</v>
+      </c>
+      <c r="B36" t="s">
+        <v>453</v>
+      </c>
+      <c r="C36" t="s">
         <v>454</v>
       </c>
-      <c r="B36" t="s">
-        <v>455</v>
-      </c>
-      <c r="C36" t="s">
-        <v>456</v>
-      </c>
       <c r="D36" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
+        <v>131</v>
+      </c>
+      <c r="B37" t="s">
+        <v>444</v>
+      </c>
+      <c r="C37" t="s">
         <v>132</v>
       </c>
-      <c r="B37" t="s">
-        <v>445</v>
-      </c>
-      <c r="C37" t="s">
-        <v>133</v>
-      </c>
       <c r="D37" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
+        <v>133</v>
+      </c>
+      <c r="B38" t="s">
         <v>134</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>135</v>
       </c>
-      <c r="C38" t="s">
-        <v>136</v>
-      </c>
       <c r="D38" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
+        <v>136</v>
+      </c>
+      <c r="B39" t="s">
+        <v>444</v>
+      </c>
+      <c r="C39" t="s">
         <v>137</v>
       </c>
-      <c r="B39" t="s">
-        <v>445</v>
-      </c>
-      <c r="C39" t="s">
-        <v>138</v>
-      </c>
       <c r="D39" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
+        <v>138</v>
+      </c>
+      <c r="B40" t="s">
+        <v>134</v>
+      </c>
+      <c r="C40" t="s">
         <v>139</v>
       </c>
-      <c r="B40" t="s">
-        <v>135</v>
-      </c>
-      <c r="C40" t="s">
-        <v>140</v>
-      </c>
       <c r="D40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
+        <v>196</v>
+      </c>
+      <c r="B41" t="s">
         <v>197</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>198</v>
       </c>
-      <c r="C41" t="s">
-        <v>199</v>
-      </c>
       <c r="D41" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
+        <v>455</v>
+      </c>
+      <c r="B42" t="s">
+        <v>456</v>
+      </c>
+      <c r="C42" t="s">
         <v>457</v>
       </c>
-      <c r="B42" t="s">
-        <v>458</v>
-      </c>
-      <c r="C42" t="s">
-        <v>459</v>
-      </c>
       <c r="D42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
+        <v>458</v>
+      </c>
+      <c r="B43" t="s">
+        <v>459</v>
+      </c>
+      <c r="C43" t="s">
         <v>460</v>
       </c>
-      <c r="B43" t="s">
-        <v>461</v>
-      </c>
-      <c r="C43" t="s">
-        <v>462</v>
-      </c>
       <c r="D43" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B44" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C44" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D44" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B46" t="s">
         <v>16</v>
       </c>
       <c r="C46" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D46" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B47" t="s">
         <v>16</v>
       </c>
       <c r="C47" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D47" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B48" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C48" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D48" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B49" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C49" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D49" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B50" t="s">
         <v>16</v>
       </c>
       <c r="C50" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D50" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B51" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D51" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B52" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C52" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D52" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B53" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C53" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D53" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B54" t="s">
         <v>16</v>
       </c>
       <c r="C54" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D54" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
+        <v>163</v>
+      </c>
+      <c r="B55" t="s">
+        <v>16</v>
+      </c>
+      <c r="C55" t="s">
         <v>164</v>
       </c>
-      <c r="B55" t="s">
-        <v>16</v>
-      </c>
-      <c r="C55" t="s">
-        <v>165</v>
-      </c>
       <c r="D55" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B56" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C56" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D56" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
+        <v>143</v>
+      </c>
+      <c r="B57" t="s">
+        <v>16</v>
+      </c>
+      <c r="C57" t="s">
         <v>144</v>
       </c>
-      <c r="B57" t="s">
-        <v>16</v>
-      </c>
-      <c r="C57" t="s">
-        <v>145</v>
-      </c>
       <c r="D57" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
+        <v>153</v>
+      </c>
+      <c r="B58" t="s">
+        <v>16</v>
+      </c>
+      <c r="C58" t="s">
         <v>154</v>
       </c>
-      <c r="B58" t="s">
-        <v>16</v>
-      </c>
-      <c r="C58" t="s">
-        <v>155</v>
-      </c>
       <c r="D58" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
+        <v>155</v>
+      </c>
+      <c r="B59" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59" t="s">
         <v>156</v>
       </c>
-      <c r="B59" t="s">
-        <v>16</v>
-      </c>
-      <c r="C59" t="s">
-        <v>157</v>
-      </c>
       <c r="D59" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
+        <v>140</v>
+      </c>
+      <c r="B60" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60" t="s">
+        <v>142</v>
+      </c>
+      <c r="D60" t="s">
         <v>141</v>
-      </c>
-      <c r="B60" t="s">
-        <v>16</v>
-      </c>
-      <c r="C60" t="s">
-        <v>143</v>
-      </c>
-      <c r="D60" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
+        <v>151</v>
+      </c>
+      <c r="B61" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61" t="s">
         <v>152</v>
       </c>
-      <c r="B61" t="s">
-        <v>16</v>
-      </c>
-      <c r="C61" t="s">
-        <v>153</v>
-      </c>
       <c r="D61" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B62" t="s">
         <v>16</v>
       </c>
       <c r="C62" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D62" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B63" t="s">
         <v>16</v>
       </c>
       <c r="C63" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D63" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B64" t="s">
         <v>16</v>
       </c>
       <c r="C64" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D64" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B65" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C65" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D65" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
+        <v>145</v>
+      </c>
+      <c r="B66" t="s">
+        <v>16</v>
+      </c>
+      <c r="C66" t="s">
         <v>146</v>
       </c>
-      <c r="B66" t="s">
-        <v>16</v>
-      </c>
-      <c r="C66" t="s">
-        <v>147</v>
-      </c>
       <c r="D66" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
+        <v>147</v>
+      </c>
+      <c r="B67" t="s">
+        <v>16</v>
+      </c>
+      <c r="C67" t="s">
         <v>148</v>
       </c>
-      <c r="B67" t="s">
-        <v>16</v>
-      </c>
-      <c r="C67" t="s">
-        <v>149</v>
-      </c>
       <c r="D67" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
+        <v>149</v>
+      </c>
+      <c r="B68" t="s">
+        <v>16</v>
+      </c>
+      <c r="C68" t="s">
         <v>150</v>
       </c>
-      <c r="B68" t="s">
-        <v>16</v>
-      </c>
-      <c r="C68" t="s">
-        <v>151</v>
-      </c>
       <c r="D68" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
+        <v>157</v>
+      </c>
+      <c r="B69" t="s">
+        <v>16</v>
+      </c>
+      <c r="C69" t="s">
         <v>158</v>
       </c>
-      <c r="B69" t="s">
-        <v>16</v>
-      </c>
-      <c r="C69" t="s">
-        <v>159</v>
-      </c>
       <c r="D69" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
+        <v>161</v>
+      </c>
+      <c r="B70" t="s">
+        <v>16</v>
+      </c>
+      <c r="C70" t="s">
         <v>162</v>
       </c>
-      <c r="B70" t="s">
-        <v>16</v>
-      </c>
-      <c r="C70" t="s">
-        <v>163</v>
-      </c>
       <c r="D70" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
+        <v>159</v>
+      </c>
+      <c r="B71" t="s">
+        <v>16</v>
+      </c>
+      <c r="C71" t="s">
         <v>160</v>
       </c>
-      <c r="B71" t="s">
-        <v>16</v>
-      </c>
-      <c r="C71" t="s">
-        <v>161</v>
-      </c>
       <c r="D71" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B72" t="s">
         <v>16</v>
       </c>
       <c r="C72" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D72" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B73" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C73" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D73" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B74" t="s">
         <v>16</v>
       </c>
       <c r="C74" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D74" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B75" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C75" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D75" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B76" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C76" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D76" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
+        <v>185</v>
+      </c>
+      <c r="B77" t="s">
         <v>186</v>
       </c>
-      <c r="B77" t="s">
+      <c r="C77" t="s">
         <v>187</v>
       </c>
-      <c r="C77" t="s">
-        <v>188</v>
-      </c>
       <c r="D77" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
+        <v>188</v>
+      </c>
+      <c r="B78" t="s">
         <v>189</v>
       </c>
-      <c r="B78" t="s">
+      <c r="C78" t="s">
         <v>190</v>
       </c>
-      <c r="C78" t="s">
-        <v>191</v>
-      </c>
       <c r="D78" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
+        <v>191</v>
+      </c>
+      <c r="B79" t="s">
         <v>192</v>
       </c>
-      <c r="B79" t="s">
+      <c r="C79" t="s">
         <v>193</v>
       </c>
-      <c r="C79" t="s">
-        <v>194</v>
-      </c>
       <c r="D79" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
+        <v>165</v>
+      </c>
+      <c r="B80" t="s">
+        <v>16</v>
+      </c>
+      <c r="C80" t="s">
         <v>166</v>
       </c>
-      <c r="B80" t="s">
-        <v>16</v>
-      </c>
-      <c r="C80" t="s">
-        <v>167</v>
-      </c>
       <c r="D80" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B81" t="s">
         <v>16</v>
       </c>
       <c r="C81" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D81" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B82" t="s">
         <v>16</v>
       </c>
       <c r="C82" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D82" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B83" t="s">
         <v>16</v>
       </c>
       <c r="C83" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D83" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B85" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C85" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="D85" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B86" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C86" t="s">
+        <v>615</v>
+      </c>
+      <c r="D86" t="s">
         <v>617</v>
-      </c>
-      <c r="D86" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B87" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C87" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D87" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
+        <v>172</v>
+      </c>
+      <c r="B90" t="s">
+        <v>16</v>
+      </c>
+      <c r="C90" t="s">
+        <v>174</v>
+      </c>
+      <c r="D90" t="s">
         <v>173</v>
-      </c>
-      <c r="B90" t="s">
-        <v>16</v>
-      </c>
-      <c r="C90" t="s">
-        <v>175</v>
-      </c>
-      <c r="D90" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
+        <v>175</v>
+      </c>
+      <c r="B91" t="s">
+        <v>16</v>
+      </c>
+      <c r="C91" t="s">
         <v>176</v>
       </c>
-      <c r="B91" t="s">
-        <v>16</v>
-      </c>
-      <c r="C91" t="s">
-        <v>177</v>
-      </c>
       <c r="D91" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
+        <v>177</v>
+      </c>
+      <c r="B92" t="s">
+        <v>16</v>
+      </c>
+      <c r="C92" t="s">
         <v>178</v>
       </c>
-      <c r="B92" t="s">
-        <v>16</v>
-      </c>
-      <c r="C92" t="s">
-        <v>179</v>
-      </c>
       <c r="D92" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
+        <v>179</v>
+      </c>
+      <c r="B93" t="s">
+        <v>16</v>
+      </c>
+      <c r="C93" t="s">
         <v>180</v>
       </c>
-      <c r="B93" t="s">
-        <v>16</v>
-      </c>
-      <c r="C93" t="s">
-        <v>181</v>
-      </c>
       <c r="D93" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
+        <v>181</v>
+      </c>
+      <c r="B94" t="s">
+        <v>16</v>
+      </c>
+      <c r="C94" t="s">
         <v>182</v>
       </c>
-      <c r="B94" t="s">
-        <v>16</v>
-      </c>
-      <c r="C94" t="s">
-        <v>183</v>
-      </c>
       <c r="D94" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
+        <v>183</v>
+      </c>
+      <c r="B95" t="s">
+        <v>16</v>
+      </c>
+      <c r="C95" t="s">
         <v>184</v>
       </c>
-      <c r="B95" t="s">
-        <v>16</v>
-      </c>
-      <c r="C95" t="s">
-        <v>185</v>
-      </c>
       <c r="D95" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
+        <v>169</v>
+      </c>
+      <c r="B97" t="s">
         <v>170</v>
       </c>
-      <c r="B97" t="s">
+      <c r="C97" t="s">
         <v>171</v>
       </c>
-      <c r="C97" t="s">
-        <v>172</v>
-      </c>
       <c r="D97" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -5287,7 +5287,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -5295,223 +5295,223 @@
         <v>60</v>
       </c>
       <c r="B3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>272</v>
+      </c>
+      <c r="B12" t="s">
         <v>273</v>
-      </c>
-      <c r="B12" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B14" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B15" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B16" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B17" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
+        <v>267</v>
+      </c>
+      <c r="B19" t="s">
         <v>268</v>
-      </c>
-      <c r="B19" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B20" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B21" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B22" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B23" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B24" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B25" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B26" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B27" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B28" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B29" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B30" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -5542,10 +5542,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -5561,7 +5561,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -5583,10 +5583,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -5594,26 +5594,26 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B7" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -5621,31 +5621,31 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B9" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B13" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
@@ -5653,95 +5653,95 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B15" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B16" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B17" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B18" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B19" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B20" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B21" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B22" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B23" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B24" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B25" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
@@ -5749,31 +5749,31 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B27" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B28" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B29" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
@@ -5786,10 +5786,10 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B31" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
@@ -5802,7 +5802,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B33" t="s">
         <v>36</v>
@@ -5810,28 +5810,28 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B36" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B37" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B38" t="s">
         <v>69</v>
@@ -5839,15 +5839,15 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B39" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B40" t="s">
         <v>70</v>
@@ -5855,15 +5855,15 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B43" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D43" t="b">
         <v>1</v>
@@ -5871,10 +5871,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B44" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D44" t="b">
         <v>1</v>
@@ -5882,10 +5882,10 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B45" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D45" t="b">
         <v>1</v>
@@ -5893,10 +5893,10 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B46" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D46" t="b">
         <v>1</v>
@@ -5904,10 +5904,10 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B47" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D47" t="b">
         <v>1</v>
@@ -5915,10 +5915,10 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B48" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D48" t="b">
         <v>1</v>
@@ -5926,10 +5926,10 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B49" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D49" t="b">
         <v>1</v>
@@ -5937,10 +5937,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B50" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D50" t="b">
         <v>1</v>
@@ -5948,10 +5948,10 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B51" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D51" t="b">
         <v>1</v>
@@ -5959,10 +5959,10 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B52" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D52" t="b">
         <v>1</v>
@@ -5970,10 +5970,10 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B53" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D53" t="b">
         <v>1</v>
@@ -5986,7 +5986,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D55" t="b">
         <v>1</v>
@@ -5994,7 +5994,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D56" t="b">
         <v>1</v>
@@ -6002,7 +6002,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D57" t="b">
         <v>1</v>
@@ -6010,7 +6010,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D58" t="b">
         <v>1</v>
@@ -6018,7 +6018,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D59" t="b">
         <v>1</v>
@@ -6026,7 +6026,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D60" t="b">
         <v>1</v>
@@ -6034,26 +6034,26 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B61" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B62" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B63" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D63" t="b">
         <v>1</v>
@@ -6061,10 +6061,10 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B64" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D64" t="b">
         <v>1</v>
@@ -6072,10 +6072,10 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B65" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D65" t="b">
         <v>1</v>
@@ -6083,10 +6083,10 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B66" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D66" t="b">
         <v>1</v>
@@ -6094,10 +6094,10 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B67" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D67" t="b">
         <v>1</v>
@@ -6105,15 +6105,15 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B70" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D70" t="b">
         <v>1</v>
@@ -6121,10 +6121,10 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B71" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D71" t="b">
         <v>1</v>
@@ -6132,15 +6132,15 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B74" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D74" t="b">
         <v>1</v>
@@ -6159,10 +6159,10 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B76" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D76" t="b">
         <v>1</v>
@@ -6170,10 +6170,10 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B77" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D77" t="b">
         <v>1</v>
@@ -6181,191 +6181,191 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B80" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B81" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B82" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B83" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B84" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B85" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B86" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B87" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B88" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B89" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B90" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B91" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B92" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B93" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B94" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B95" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B96" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B97" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B98" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B99" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B100" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B101" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B102" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C102" t="b">
         <v>0</v>

--- a/build_tools/Class_definitions/Class_definitions.xlsx
+++ b/build_tools/Class_definitions/Class_definitions.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-2390" windowWidth="29040" windowHeight="15840" activeTab="4"/>
+    <workbookView xWindow="28680" yWindow="-2390" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Stock" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="644">
   <si>
     <t>Slot</t>
   </si>
@@ -1929,6 +1929,39 @@
   </si>
   <si>
     <t>Natural mortality (M) by simulation, age and year. No variability is added</t>
+  </si>
+  <si>
+    <t>Default</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Beverton-Holt</t>
+  </si>
+  <si>
+    <t>Alpha parameter for L-W</t>
+  </si>
+  <si>
+    <t>Beta parameter for L-W</t>
+  </si>
+  <si>
+    <t>equal size</t>
+  </si>
+  <si>
+    <t>equal distribution</t>
+  </si>
+  <si>
+    <t>fully mixed</t>
+  </si>
+  <si>
+    <t>Current Year</t>
+  </si>
+  <si>
+    <t>current year</t>
+  </si>
+  <si>
+    <t>`format(Sys.Date(), '%Y'))`</t>
   </si>
 </sst>
 </file>
@@ -1978,7 +2011,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1991,6 +2024,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2271,24 +2308,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="E16" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.1796875" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="106.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="41" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="106.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2310,8 +2349,14 @@
       <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H1" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -2330,7 +2375,7 @@
       </c>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -2349,7 +2394,7 @@
       </c>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -2368,7 +2413,7 @@
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
@@ -2389,7 +2434,7 @@
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
@@ -2409,8 +2454,11 @@
       <c r="G6" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="H6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
@@ -2431,7 +2479,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>20</v>
       </c>
@@ -2451,8 +2499,11 @@
       <c r="G8" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="H8" s="8">
+        <v>9.9999999999999995E-7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>22</v>
       </c>
@@ -2473,7 +2524,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
@@ -2493,8 +2544,14 @@
       <c r="G10" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>26</v>
       </c>
@@ -2515,7 +2572,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>28</v>
       </c>
@@ -2535,8 +2592,11 @@
       <c r="G12" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>30</v>
       </c>
@@ -2557,7 +2617,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>40</v>
       </c>
@@ -2577,8 +2637,11 @@
       <c r="G14" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H14" s="9">
+        <v>9.9999999999999995E-7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>32</v>
       </c>
@@ -2599,7 +2662,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>38</v>
       </c>
@@ -2619,8 +2682,11 @@
       <c r="G16" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="H16" s="9">
+        <v>9.9999999999999995E-7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>34</v>
       </c>
@@ -2641,7 +2707,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>36</v>
       </c>
@@ -2661,8 +2727,11 @@
       <c r="G18" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="H18">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>42</v>
       </c>
@@ -2683,7 +2752,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>44</v>
       </c>
@@ -2704,7 +2773,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>46</v>
       </c>
@@ -2725,7 +2794,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>48</v>
       </c>
@@ -2742,11 +2811,14 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>9</v>
+        <v>636</v>
       </c>
       <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="H22" s="9">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>49</v>
       </c>
@@ -2763,11 +2835,14 @@
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>9</v>
+        <v>637</v>
       </c>
       <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="H23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>50</v>
       </c>
@@ -2787,8 +2862,14 @@
       <c r="G24" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="H24">
+        <v>0.5</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>52</v>
       </c>
@@ -2808,8 +2889,14 @@
       <c r="G25" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="H25">
+        <v>0.5</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>54</v>
       </c>
@@ -2829,8 +2916,14 @@
       <c r="G26" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="H26">
+        <v>0.5</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>56</v>
       </c>
@@ -2850,8 +2943,11 @@
       <c r="G27" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>58</v>
       </c>
@@ -2878,25 +2974,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="51.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="91" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="42.453125" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="51.26953125" style="3"/>
+    <col min="1" max="1" width="8.90625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.90625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="51.26953125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2918,8 +3016,14 @@
       <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H1" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -2936,7 +3040,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>60</v>
       </c>
@@ -2956,7 +3060,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>61</v>
       </c>
@@ -2973,10 +3077,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="116" x14ac:dyDescent="0.35">
+        <v>641</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="232" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>62</v>
       </c>
@@ -2993,7 +3103,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>63</v>
       </c>
@@ -3010,7 +3120,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>64</v>
       </c>
@@ -3027,7 +3137,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="145" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>65</v>
       </c>
@@ -3047,7 +3157,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="145" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>66</v>
       </c>
@@ -3066,8 +3176,11 @@
       <c r="G9" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>67</v>
       </c>
@@ -3086,8 +3199,11 @@
       <c r="G10" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>68</v>
       </c>
@@ -3106,8 +3222,11 @@
       <c r="G11" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+      <c r="H11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>69</v>
       </c>
@@ -3126,8 +3245,11 @@
       <c r="G12" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>70</v>
       </c>
@@ -3147,7 +3269,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>71</v>
       </c>
@@ -3155,7 +3277,7 @@
         <v>72</v>
       </c>
       <c r="C14" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>561</v>
@@ -3164,7 +3286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>73</v>
       </c>
@@ -3183,8 +3305,11 @@
       <c r="G15" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>74</v>
       </c>
@@ -3203,8 +3328,11 @@
       <c r="G16" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="H16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="116" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>75</v>
       </c>
@@ -3223,8 +3351,11 @@
       <c r="G17" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="H17" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>76</v>
       </c>
@@ -3243,8 +3374,11 @@
       <c r="G18" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>77</v>
       </c>
@@ -3263,8 +3397,11 @@
       <c r="G19" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="H19" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="87" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>232</v>
       </c>
@@ -3283,8 +3420,11 @@
       <c r="G20" s="3" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H20" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>233</v>
       </c>
@@ -3306,10 +3446,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="H1" sqref="H1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3320,7 +3460,7 @@
     <col min="7" max="7" width="22.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3342,8 +3482,10 @@
       <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -3357,7 +3499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="116" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="116" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>200</v>
       </c>
@@ -3371,7 +3513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>201</v>
       </c>
@@ -3385,7 +3527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>202</v>
       </c>
@@ -3402,7 +3544,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>203</v>
       </c>
@@ -3419,7 +3561,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>204</v>
       </c>
@@ -3436,7 +3578,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>205</v>
       </c>
@@ -3453,7 +3595,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>206</v>
       </c>
@@ -3467,7 +3609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="116" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="116" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>207</v>
       </c>
@@ -3481,7 +3623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>208</v>
       </c>
@@ -3495,7 +3637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>209</v>
       </c>
@@ -3512,7 +3654,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>210</v>
       </c>
@@ -3526,7 +3668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>211</v>
       </c>
@@ -3540,7 +3682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>212</v>
       </c>
@@ -3554,7 +3696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>213</v>
       </c>
@@ -3785,22 +3927,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="H1" sqref="H1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.453125" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="136.1796875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="27.26953125" style="3" customWidth="1"/>
     <col min="5" max="5" width="17.453125" customWidth="1"/>
-    <col min="6" max="6" width="25.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="39" customWidth="1"/>
+    <col min="6" max="6" width="7.90625" customWidth="1"/>
+    <col min="7" max="7" width="15.54296875" customWidth="1"/>
+    <col min="9" max="9" width="8.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -3822,8 +3965,14 @@
       <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H1" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
@@ -3840,7 +3989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>226</v>
       </c>
@@ -3859,8 +4008,11 @@
       <c r="G3" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>227</v>
       </c>
@@ -3879,8 +4031,11 @@
       <c r="G4" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>228</v>
       </c>
@@ -3899,8 +4054,11 @@
       <c r="G5" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>229</v>
       </c>
@@ -3919,8 +4077,11 @@
       <c r="G6" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>230</v>
       </c>
@@ -3939,8 +4100,11 @@
       <c r="G7" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>231</v>
       </c>
@@ -3958,6 +4122,9 @@
       </c>
       <c r="G8" s="3" t="s">
         <v>16</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3967,10 +4134,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D97"/>
+  <dimension ref="A1:F97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3981,7 +4148,7 @@
     <col min="4" max="4" width="10.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>509</v>
       </c>
@@ -3994,8 +4161,10 @@
       <c r="D1" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>439</v>
       </c>
@@ -4009,7 +4178,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>89</v>
       </c>
@@ -4023,7 +4192,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>103</v>
       </c>
@@ -4037,7 +4206,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>99</v>
       </c>
@@ -4051,7 +4220,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>101</v>
       </c>
@@ -4065,7 +4234,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>97</v>
       </c>
@@ -4079,7 +4248,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>94</v>
       </c>
@@ -4093,7 +4262,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>442</v>
       </c>
@@ -4107,7 +4276,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>116</v>
       </c>
@@ -4121,7 +4290,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>112</v>
       </c>
@@ -4135,7 +4304,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>79</v>
       </c>
@@ -4149,7 +4318,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>83</v>
       </c>
@@ -4163,7 +4332,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>122</v>
       </c>
@@ -4177,7 +4346,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>114</v>
       </c>
@@ -4191,7 +4360,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>110</v>
       </c>

--- a/build_tools/Class_definitions/Class_definitions.xlsx
+++ b/build_tools/Class_definitions/Class_definitions.xlsx
@@ -2310,8 +2310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E16" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2532,7 +2532,7 @@
         <v>15</v>
       </c>
       <c r="C10" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>535</v>
@@ -2802,7 +2802,7 @@
         <v>15</v>
       </c>
       <c r="C22" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>545</v>
@@ -2826,7 +2826,7 @@
         <v>15</v>
       </c>
       <c r="C23" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>546</v>

--- a/build_tools/Class_definitions/Class_definitions.xlsx
+++ b/build_tools/Class_definitions/Class_definitions.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-2390" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="28680" yWindow="-2390" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Stock" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="644">
   <si>
     <t>Slot</t>
   </si>
@@ -1961,7 +1961,7 @@
     <t>current year</t>
   </si>
   <si>
-    <t>`format(Sys.Date(), '%Y'))`</t>
+    <t>`format(Sys.Date(), '%Y')`</t>
   </si>
 </sst>
 </file>
@@ -2310,8 +2310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="H1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2976,8 +2976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="51.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3448,8 +3448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:I1"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3482,8 +3482,12 @@
       <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="H1" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>634</v>
+      </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
@@ -3710,7 +3714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>214</v>
       </c>
@@ -3724,7 +3728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>215</v>
       </c>
@@ -3738,7 +3742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>216</v>
       </c>
@@ -3752,7 +3756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="87" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>217</v>
       </c>
@@ -3766,7 +3770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>218</v>
       </c>
@@ -3780,7 +3784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>219</v>
       </c>
@@ -3794,7 +3798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>220</v>
       </c>
@@ -3808,7 +3812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>221</v>
       </c>
@@ -3822,7 +3826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>222</v>
       </c>
@@ -3836,7 +3840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>223</v>
       </c>
@@ -3850,7 +3854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>224</v>
       </c>
@@ -3864,7 +3868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" ht="87" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>225</v>
       </c>
@@ -3878,7 +3882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>280</v>
       </c>
@@ -3892,31 +3896,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="116" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" ht="116" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>437</v>
       </c>
       <c r="B30" t="s">
         <v>15</v>
       </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
       <c r="D30" s="3" t="s">
         <v>600</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+      <c r="H30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="87" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>438</v>
       </c>
       <c r="B31" t="s">
         <v>15</v>
       </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
       <c r="D31" s="3" t="s">
         <v>601</v>
       </c>
       <c r="E31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31">
         <v>0</v>
       </c>
     </row>

--- a/build_tools/Class_definitions/Class_definitions.xlsx
+++ b/build_tools/Class_definitions/Class_definitions.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-2390" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="28680" yWindow="-2390" windowWidth="29040" windowHeight="15840" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Stock" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="648">
   <si>
     <t>Slot</t>
   </si>
@@ -1962,6 +1962,18 @@
   </si>
   <si>
     <t>`format(Sys.Date(), '%Y')`</t>
+  </si>
+  <si>
+    <t>V_real</t>
+  </si>
+  <si>
+    <t>retA_real</t>
+  </si>
+  <si>
+    <t>retL_real</t>
+  </si>
+  <si>
+    <t>SLarray_real</t>
   </si>
 </sst>
 </file>
@@ -2976,7 +2988,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
@@ -4150,10 +4162,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F97"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4714,13 +4726,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>196</v>
+        <v>644</v>
       </c>
       <c r="B41" t="s">
-        <v>197</v>
+        <v>444</v>
       </c>
       <c r="C41" t="s">
-        <v>198</v>
+        <v>132</v>
       </c>
       <c r="D41" t="s">
         <v>126</v>
@@ -4728,13 +4740,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>455</v>
+        <v>645</v>
       </c>
       <c r="B42" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="C42" t="s">
-        <v>457</v>
+        <v>135</v>
       </c>
       <c r="D42" t="s">
         <v>126</v>
@@ -4742,13 +4754,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>458</v>
+        <v>646</v>
       </c>
       <c r="B43" t="s">
-        <v>459</v>
+        <v>134</v>
       </c>
       <c r="C43" t="s">
-        <v>460</v>
+        <v>137</v>
       </c>
       <c r="D43" t="s">
         <v>126</v>
@@ -4756,83 +4768,83 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>232</v>
+        <v>647</v>
       </c>
       <c r="B44" t="s">
-        <v>461</v>
+        <v>134</v>
       </c>
       <c r="C44" t="s">
-        <v>462</v>
+        <v>139</v>
       </c>
       <c r="D44" t="s">
         <v>126</v>
       </c>
     </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>196</v>
+      </c>
+      <c r="B45" t="s">
+        <v>197</v>
+      </c>
+      <c r="C45" t="s">
+        <v>198</v>
+      </c>
+      <c r="D45" t="s">
+        <v>126</v>
+      </c>
+    </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="B46" t="s">
-        <v>16</v>
+        <v>456</v>
       </c>
       <c r="C46" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="D46" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="B47" t="s">
-        <v>16</v>
+        <v>459</v>
       </c>
       <c r="C47" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="D47" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>467</v>
+        <v>232</v>
       </c>
       <c r="B48" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="C48" t="s">
-        <v>610</v>
+        <v>462</v>
       </c>
       <c r="D48" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>608</v>
-      </c>
-      <c r="B49" t="s">
-        <v>468</v>
-      </c>
-      <c r="C49" t="s">
-        <v>609</v>
-      </c>
-      <c r="D49" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="B50" t="s">
         <v>16</v>
       </c>
       <c r="C50" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="D50" t="s">
         <v>141</v>
@@ -4840,13 +4852,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="B51" t="s">
-        <v>468</v>
+        <v>16</v>
       </c>
       <c r="C51" t="s">
-        <v>486</v>
+        <v>466</v>
       </c>
       <c r="D51" t="s">
         <v>141</v>
@@ -4854,13 +4866,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="B52" t="s">
         <v>468</v>
       </c>
       <c r="C52" t="s">
-        <v>487</v>
+        <v>610</v>
       </c>
       <c r="D52" t="s">
         <v>141</v>
@@ -4868,13 +4880,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>473</v>
+        <v>608</v>
       </c>
       <c r="B53" t="s">
         <v>468</v>
       </c>
       <c r="C53" t="s">
-        <v>488</v>
+        <v>609</v>
       </c>
       <c r="D53" t="s">
         <v>141</v>
@@ -4882,13 +4894,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="B54" t="s">
         <v>16</v>
       </c>
       <c r="C54" t="s">
-        <v>489</v>
+        <v>470</v>
       </c>
       <c r="D54" t="s">
         <v>141</v>
@@ -4896,13 +4908,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>163</v>
+        <v>471</v>
       </c>
       <c r="B55" t="s">
-        <v>16</v>
+        <v>468</v>
       </c>
       <c r="C55" t="s">
-        <v>164</v>
+        <v>486</v>
       </c>
       <c r="D55" t="s">
         <v>141</v>
@@ -4910,13 +4922,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B56" t="s">
         <v>468</v>
       </c>
       <c r="C56" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D56" t="s">
         <v>141</v>
@@ -4924,13 +4936,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>143</v>
+        <v>473</v>
       </c>
       <c r="B57" t="s">
-        <v>16</v>
+        <v>468</v>
       </c>
       <c r="C57" t="s">
-        <v>144</v>
+        <v>488</v>
       </c>
       <c r="D57" t="s">
         <v>141</v>
@@ -4938,13 +4950,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>153</v>
+        <v>474</v>
       </c>
       <c r="B58" t="s">
         <v>16</v>
       </c>
       <c r="C58" t="s">
-        <v>154</v>
+        <v>489</v>
       </c>
       <c r="D58" t="s">
         <v>141</v>
@@ -4952,13 +4964,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="B59" t="s">
         <v>16</v>
       </c>
       <c r="C59" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="D59" t="s">
         <v>141</v>
@@ -4966,13 +4978,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>140</v>
+        <v>475</v>
       </c>
       <c r="B60" t="s">
-        <v>16</v>
+        <v>468</v>
       </c>
       <c r="C60" t="s">
-        <v>142</v>
+        <v>490</v>
       </c>
       <c r="D60" t="s">
         <v>141</v>
@@ -4980,13 +4992,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B61" t="s">
         <v>16</v>
       </c>
       <c r="C61" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="D61" t="s">
         <v>141</v>
@@ -4994,13 +5006,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>476</v>
+        <v>153</v>
       </c>
       <c r="B62" t="s">
         <v>16</v>
       </c>
       <c r="C62" t="s">
-        <v>485</v>
+        <v>154</v>
       </c>
       <c r="D62" t="s">
         <v>141</v>
@@ -5008,13 +5020,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>477</v>
+        <v>155</v>
       </c>
       <c r="B63" t="s">
         <v>16</v>
       </c>
       <c r="C63" t="s">
-        <v>491</v>
+        <v>156</v>
       </c>
       <c r="D63" t="s">
         <v>141</v>
@@ -5022,13 +5034,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>478</v>
+        <v>140</v>
       </c>
       <c r="B64" t="s">
         <v>16</v>
       </c>
       <c r="C64" t="s">
-        <v>492</v>
+        <v>142</v>
       </c>
       <c r="D64" t="s">
         <v>141</v>
@@ -5036,13 +5048,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>479</v>
+        <v>151</v>
       </c>
       <c r="B65" t="s">
-        <v>468</v>
+        <v>16</v>
       </c>
       <c r="C65" t="s">
-        <v>493</v>
+        <v>152</v>
       </c>
       <c r="D65" t="s">
         <v>141</v>
@@ -5050,13 +5062,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>145</v>
+        <v>476</v>
       </c>
       <c r="B66" t="s">
         <v>16</v>
       </c>
       <c r="C66" t="s">
-        <v>146</v>
+        <v>485</v>
       </c>
       <c r="D66" t="s">
         <v>141</v>
@@ -5064,13 +5076,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>147</v>
+        <v>477</v>
       </c>
       <c r="B67" t="s">
         <v>16</v>
       </c>
       <c r="C67" t="s">
-        <v>148</v>
+        <v>491</v>
       </c>
       <c r="D67" t="s">
         <v>141</v>
@@ -5078,13 +5090,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>149</v>
+        <v>478</v>
       </c>
       <c r="B68" t="s">
         <v>16</v>
       </c>
       <c r="C68" t="s">
-        <v>150</v>
+        <v>492</v>
       </c>
       <c r="D68" t="s">
         <v>141</v>
@@ -5092,13 +5104,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>157</v>
+        <v>479</v>
       </c>
       <c r="B69" t="s">
-        <v>16</v>
+        <v>468</v>
       </c>
       <c r="C69" t="s">
-        <v>158</v>
+        <v>493</v>
       </c>
       <c r="D69" t="s">
         <v>141</v>
@@ -5106,13 +5118,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="B70" t="s">
         <v>16</v>
       </c>
       <c r="C70" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="D70" t="s">
         <v>141</v>
@@ -5120,13 +5132,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="B71" t="s">
         <v>16</v>
       </c>
       <c r="C71" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="D71" t="s">
         <v>141</v>
@@ -5134,13 +5146,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>480</v>
+        <v>149</v>
       </c>
       <c r="B72" t="s">
         <v>16</v>
       </c>
       <c r="C72" t="s">
-        <v>494</v>
+        <v>150</v>
       </c>
       <c r="D72" t="s">
         <v>141</v>
@@ -5148,13 +5160,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>481</v>
+        <v>157</v>
       </c>
       <c r="B73" t="s">
-        <v>468</v>
+        <v>16</v>
       </c>
       <c r="C73" t="s">
-        <v>495</v>
+        <v>158</v>
       </c>
       <c r="D73" t="s">
         <v>141</v>
@@ -5162,13 +5174,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>482</v>
+        <v>161</v>
       </c>
       <c r="B74" t="s">
         <v>16</v>
       </c>
       <c r="C74" t="s">
-        <v>496</v>
+        <v>162</v>
       </c>
       <c r="D74" t="s">
         <v>141</v>
@@ -5176,13 +5188,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>483</v>
+        <v>159</v>
       </c>
       <c r="B75" t="s">
-        <v>468</v>
+        <v>16</v>
       </c>
       <c r="C75" t="s">
-        <v>497</v>
+        <v>160</v>
       </c>
       <c r="D75" t="s">
         <v>141</v>
@@ -5190,13 +5202,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="B76" t="s">
-        <v>468</v>
+        <v>16</v>
       </c>
       <c r="C76" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="D76" t="s">
         <v>141</v>
@@ -5204,13 +5216,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>185</v>
+        <v>481</v>
       </c>
       <c r="B77" t="s">
-        <v>186</v>
+        <v>468</v>
       </c>
       <c r="C77" t="s">
-        <v>187</v>
+        <v>495</v>
       </c>
       <c r="D77" t="s">
         <v>141</v>
@@ -5218,13 +5230,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>188</v>
+        <v>482</v>
       </c>
       <c r="B78" t="s">
-        <v>189</v>
+        <v>16</v>
       </c>
       <c r="C78" t="s">
-        <v>190</v>
+        <v>496</v>
       </c>
       <c r="D78" t="s">
         <v>141</v>
@@ -5232,13 +5244,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>191</v>
+        <v>483</v>
       </c>
       <c r="B79" t="s">
-        <v>192</v>
+        <v>468</v>
       </c>
       <c r="C79" t="s">
-        <v>193</v>
+        <v>497</v>
       </c>
       <c r="D79" t="s">
         <v>141</v>
@@ -5246,13 +5258,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>165</v>
+        <v>484</v>
       </c>
       <c r="B80" t="s">
-        <v>16</v>
+        <v>468</v>
       </c>
       <c r="C80" t="s">
-        <v>166</v>
+        <v>498</v>
       </c>
       <c r="D80" t="s">
         <v>141</v>
@@ -5260,13 +5272,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>523</v>
+        <v>185</v>
       </c>
       <c r="B81" t="s">
-        <v>16</v>
+        <v>186</v>
       </c>
       <c r="C81" t="s">
-        <v>526</v>
+        <v>187</v>
       </c>
       <c r="D81" t="s">
         <v>141</v>
@@ -5274,13 +5286,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>524</v>
+        <v>188</v>
       </c>
       <c r="B82" t="s">
-        <v>16</v>
+        <v>189</v>
       </c>
       <c r="C82" t="s">
-        <v>527</v>
+        <v>190</v>
       </c>
       <c r="D82" t="s">
         <v>141</v>
@@ -5288,125 +5300,125 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>525</v>
+        <v>191</v>
       </c>
       <c r="B83" t="s">
-        <v>16</v>
+        <v>192</v>
       </c>
       <c r="C83" t="s">
-        <v>528</v>
+        <v>193</v>
       </c>
       <c r="D83" t="s">
         <v>141</v>
       </c>
     </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>165</v>
+      </c>
+      <c r="B84" t="s">
+        <v>16</v>
+      </c>
+      <c r="C84" t="s">
+        <v>166</v>
+      </c>
+      <c r="D84" t="s">
+        <v>141</v>
+      </c>
+    </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>611</v>
+        <v>523</v>
       </c>
       <c r="B85" t="s">
-        <v>625</v>
+        <v>16</v>
       </c>
       <c r="C85" t="s">
-        <v>614</v>
+        <v>526</v>
       </c>
       <c r="D85" t="s">
-        <v>617</v>
+        <v>141</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>612</v>
+        <v>524</v>
       </c>
       <c r="B86" t="s">
-        <v>625</v>
+        <v>16</v>
       </c>
       <c r="C86" t="s">
-        <v>615</v>
+        <v>527</v>
       </c>
       <c r="D86" t="s">
-        <v>617</v>
+        <v>141</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>613</v>
+        <v>525</v>
       </c>
       <c r="B87" t="s">
+        <v>16</v>
+      </c>
+      <c r="C87" t="s">
+        <v>528</v>
+      </c>
+      <c r="D87" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>611</v>
+      </c>
+      <c r="B89" t="s">
         <v>625</v>
       </c>
-      <c r="C87" t="s">
-        <v>616</v>
-      </c>
-      <c r="D87" t="s">
+      <c r="C89" t="s">
+        <v>614</v>
+      </c>
+      <c r="D89" t="s">
         <v>617</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>172</v>
+        <v>612</v>
       </c>
       <c r="B90" t="s">
-        <v>16</v>
+        <v>625</v>
       </c>
       <c r="C90" t="s">
-        <v>174</v>
+        <v>615</v>
       </c>
       <c r="D90" t="s">
-        <v>173</v>
+        <v>617</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>175</v>
+        <v>613</v>
       </c>
       <c r="B91" t="s">
-        <v>16</v>
+        <v>625</v>
       </c>
       <c r="C91" t="s">
-        <v>176</v>
+        <v>616</v>
       </c>
       <c r="D91" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A92" t="s">
-        <v>177</v>
-      </c>
-      <c r="B92" t="s">
-        <v>16</v>
-      </c>
-      <c r="C92" t="s">
-        <v>178</v>
-      </c>
-      <c r="D92" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A93" t="s">
-        <v>179</v>
-      </c>
-      <c r="B93" t="s">
-        <v>16</v>
-      </c>
-      <c r="C93" t="s">
-        <v>180</v>
-      </c>
-      <c r="D93" t="s">
-        <v>173</v>
+        <v>617</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="B94" t="s">
         <v>16</v>
       </c>
       <c r="C94" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="D94" t="s">
         <v>173</v>
@@ -5414,29 +5426,85 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="B95" t="s">
         <v>16</v>
       </c>
       <c r="C95" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="D95" t="s">
         <v>173</v>
       </c>
     </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>177</v>
+      </c>
+      <c r="B96" t="s">
+        <v>16</v>
+      </c>
+      <c r="C96" t="s">
+        <v>178</v>
+      </c>
+      <c r="D96" t="s">
+        <v>173</v>
+      </c>
+    </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
+        <v>179</v>
+      </c>
+      <c r="B97" t="s">
+        <v>16</v>
+      </c>
+      <c r="C97" t="s">
+        <v>180</v>
+      </c>
+      <c r="D97" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>181</v>
+      </c>
+      <c r="B98" t="s">
+        <v>16</v>
+      </c>
+      <c r="C98" t="s">
+        <v>182</v>
+      </c>
+      <c r="D98" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>183</v>
+      </c>
+      <c r="B99" t="s">
+        <v>16</v>
+      </c>
+      <c r="C99" t="s">
+        <v>184</v>
+      </c>
+      <c r="D99" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
         <v>169</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B101" t="s">
         <v>170</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C101" t="s">
         <v>171</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D101" t="s">
         <v>169</v>
       </c>
     </row>

--- a/build_tools/Class_definitions/Class_definitions.xlsx
+++ b/build_tools/Class_definitions/Class_definitions.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="660">
   <si>
     <t>Slot</t>
   </si>
@@ -1974,6 +1974,42 @@
   </si>
   <si>
     <t>SLarray_real</t>
+  </si>
+  <si>
+    <t>L5_y</t>
+  </si>
+  <si>
+    <t>LFS_y</t>
+  </si>
+  <si>
+    <t>Vmaxlen_y</t>
+  </si>
+  <si>
+    <t>LR5_y</t>
+  </si>
+  <si>
+    <t>LFR_y</t>
+  </si>
+  <si>
+    <t>Rmaxlen_y</t>
+  </si>
+  <si>
+    <t>length-at-5 percent selection by sim and year</t>
+  </si>
+  <si>
+    <t>length at full selection by sim and year</t>
+  </si>
+  <si>
+    <t>vulnerability at max length by sim and year</t>
+  </si>
+  <si>
+    <t>length-at-5 percent retention by sim and year</t>
+  </si>
+  <si>
+    <t>length at full retention by sim and year</t>
+  </si>
+  <si>
+    <t>retention at max length by sim and year</t>
   </si>
 </sst>
 </file>
@@ -4162,10 +4198,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F101"/>
+  <dimension ref="A1:F108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="C109" sqref="C109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5506,6 +5542,90 @@
       </c>
       <c r="D101" t="s">
         <v>169</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>648</v>
+      </c>
+      <c r="B103" t="s">
+        <v>468</v>
+      </c>
+      <c r="C103" t="s">
+        <v>654</v>
+      </c>
+      <c r="D103" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>649</v>
+      </c>
+      <c r="B104" t="s">
+        <v>468</v>
+      </c>
+      <c r="C104" t="s">
+        <v>655</v>
+      </c>
+      <c r="D104" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>650</v>
+      </c>
+      <c r="B105" t="s">
+        <v>468</v>
+      </c>
+      <c r="C105" t="s">
+        <v>656</v>
+      </c>
+      <c r="D105" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>651</v>
+      </c>
+      <c r="B106" t="s">
+        <v>468</v>
+      </c>
+      <c r="C106" t="s">
+        <v>657</v>
+      </c>
+      <c r="D106" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>652</v>
+      </c>
+      <c r="B107" t="s">
+        <v>468</v>
+      </c>
+      <c r="C107" t="s">
+        <v>658</v>
+      </c>
+      <c r="D107" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>653</v>
+      </c>
+      <c r="B108" t="s">
+        <v>468</v>
+      </c>
+      <c r="C108" t="s">
+        <v>659</v>
+      </c>
+      <c r="D108" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/build_tools/Class_definitions/Class_definitions.xlsx
+++ b/build_tools/Class_definitions/Class_definitions.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="660">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="663">
   <si>
     <t>Slot</t>
   </si>
@@ -2010,6 +2010,15 @@
   </si>
   <si>
     <t>retention at max length by sim and year</t>
+  </si>
+  <si>
+    <t>Real.Data.Map</t>
+  </si>
+  <si>
+    <t>numeric matrix dim=c(n.fleet, n.stock)</t>
+  </si>
+  <si>
+    <t>Map real data across stocks</t>
   </si>
 </sst>
 </file>
@@ -4198,15 +4207,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F108"/>
+  <dimension ref="A1:F110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="C109" sqref="C109"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="B111" sqref="B111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.26953125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="99.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="89.26953125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.453125" customWidth="1"/>
@@ -5626,6 +5635,20 @@
       </c>
       <c r="D108" t="s">
         <v>126</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>660</v>
+      </c>
+      <c r="B110" t="s">
+        <v>661</v>
+      </c>
+      <c r="C110" t="s">
+        <v>662</v>
+      </c>
+      <c r="D110" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>

--- a/build_tools/Class_definitions/Class_definitions.xlsx
+++ b/build_tools/Class_definitions/Class_definitions.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\MSEtool\build_tools\Class_definitions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adrian\GitHub\MSEtool\build_tools\Class_definitions\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC849F0-4EA5-414E-8B5B-E93BD32BE0EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-2390" windowWidth="29040" windowHeight="15840" activeTab="4"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stock" sheetId="1" r:id="rId1"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="666">
   <si>
     <t>Slot</t>
   </si>
@@ -2019,12 +2020,21 @@
   </si>
   <si>
     <t>Map real data across stocks</t>
+  </si>
+  <si>
+    <t>SRR</t>
+  </si>
+  <si>
+    <t>named list for custom stock-recruit relationship</t>
+  </si>
+  <si>
+    <t>A named list with elements SRRfun containing a stock-recruit function, and SRRpars a data.frame with nsim values for the parameters</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2068,7 +2078,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2078,9 +2088,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2364,27 +2371,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I1" sqref="H1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="15.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="106.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.47265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.62890625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.15625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="106.15625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="38" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.62890625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.47265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2413,7 +2420,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -2432,7 +2439,7 @@
       </c>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -2451,7 +2458,7 @@
       </c>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -2470,7 +2477,7 @@
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
@@ -2491,7 +2498,7 @@
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
@@ -2515,7 +2522,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
@@ -2536,7 +2543,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3" t="s">
         <v>20</v>
       </c>
@@ -2556,11 +2563,11 @@
       <c r="G8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="5">
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="3" t="s">
         <v>22</v>
       </c>
@@ -2581,7 +2588,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
@@ -2608,7 +2615,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="3" t="s">
         <v>26</v>
       </c>
@@ -2629,7 +2636,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="3" t="s">
         <v>28</v>
       </c>
@@ -2653,7 +2660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="3" t="s">
         <v>30</v>
       </c>
@@ -2674,7 +2681,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="3" t="s">
         <v>40</v>
       </c>
@@ -2694,11 +2701,11 @@
       <c r="G14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="6">
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="3" t="s">
         <v>32</v>
       </c>
@@ -2719,7 +2726,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="3" t="s">
         <v>38</v>
       </c>
@@ -2739,11 +2746,11 @@
       <c r="G16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="6">
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="3" t="s">
         <v>34</v>
       </c>
@@ -2764,7 +2771,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="3" t="s">
         <v>36</v>
       </c>
@@ -2788,7 +2795,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="3" t="s">
         <v>42</v>
       </c>
@@ -2809,7 +2816,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="3" t="s">
         <v>44</v>
       </c>
@@ -2830,7 +2837,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="3" t="s">
         <v>46</v>
       </c>
@@ -2851,7 +2858,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="3" t="s">
         <v>48</v>
       </c>
@@ -2871,11 +2878,11 @@
         <v>636</v>
       </c>
       <c r="G22" s="3"/>
-      <c r="H22" s="9">
+      <c r="H22" s="6">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="3" t="s">
         <v>49</v>
       </c>
@@ -2899,7 +2906,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="3" t="s">
         <v>50</v>
       </c>
@@ -2926,7 +2933,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="3" t="s">
         <v>52</v>
       </c>
@@ -2953,7 +2960,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="3" t="s">
         <v>54</v>
       </c>
@@ -2980,7 +2987,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="3" t="s">
         <v>56</v>
       </c>
@@ -3004,7 +3011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="3" t="s">
         <v>58</v>
       </c>
@@ -3030,28 +3037,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="51.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="51.26171875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="8.90625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="44.90625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.89453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.62890625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.15625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.89453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.47265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.47265625" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="51.26953125" style="3"/>
+    <col min="10" max="16384" width="51.26171875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3080,7 +3087,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -3097,7 +3104,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3" t="s">
         <v>60</v>
       </c>
@@ -3117,7 +3124,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3" t="s">
         <v>61</v>
       </c>
@@ -3143,7 +3150,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="232" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="216" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3" t="s">
         <v>62</v>
       </c>
@@ -3160,7 +3167,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3" t="s">
         <v>63</v>
       </c>
@@ -3177,7 +3184,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="3" t="s">
         <v>64</v>
       </c>
@@ -3194,7 +3201,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="145" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="129.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3" t="s">
         <v>65</v>
       </c>
@@ -3214,7 +3221,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="145" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="129.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="3" t="s">
         <v>66</v>
       </c>
@@ -3237,7 +3244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="3" t="s">
         <v>67</v>
       </c>
@@ -3260,7 +3267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="158.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="3" t="s">
         <v>68</v>
       </c>
@@ -3283,7 +3290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="158.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="3" t="s">
         <v>69</v>
       </c>
@@ -3306,7 +3313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="3" t="s">
         <v>70</v>
       </c>
@@ -3326,7 +3333,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="3" t="s">
         <v>71</v>
       </c>
@@ -3343,7 +3350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="144" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="3" t="s">
         <v>73</v>
       </c>
@@ -3366,7 +3373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="144" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="3" t="s">
         <v>74</v>
       </c>
@@ -3389,7 +3396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="116" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="3" t="s">
         <v>75</v>
       </c>
@@ -3412,7 +3419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="100.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="3" t="s">
         <v>76</v>
       </c>
@@ -3435,7 +3442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="172.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="3" t="s">
         <v>77</v>
       </c>
@@ -3458,7 +3465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="87" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="3" t="s">
         <v>232</v>
       </c>
@@ -3481,7 +3488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="3" t="s">
         <v>233</v>
       </c>
@@ -3502,22 +3509,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.26171875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="4" max="4" width="75.1796875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="15.453125" customWidth="1"/>
-    <col min="6" max="6" width="34.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.7265625" customWidth="1"/>
+    <col min="4" max="4" width="75.15625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="15.47265625" customWidth="1"/>
+    <col min="6" max="6" width="34.734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3546,7 +3553,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -3560,7 +3567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="116" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3" t="s">
         <v>200</v>
       </c>
@@ -3574,7 +3581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>201</v>
       </c>
@@ -3588,7 +3595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>202</v>
       </c>
@@ -3605,7 +3612,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>203</v>
       </c>
@@ -3622,7 +3629,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>204</v>
       </c>
@@ -3639,7 +3646,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>205</v>
       </c>
@@ -3656,7 +3663,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>206</v>
       </c>
@@ -3670,7 +3677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="116" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>207</v>
       </c>
@@ -3684,7 +3691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>208</v>
       </c>
@@ -3698,7 +3705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>209</v>
       </c>
@@ -3715,7 +3722,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>210</v>
       </c>
@@ -3729,7 +3736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>211</v>
       </c>
@@ -3743,7 +3750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>212</v>
       </c>
@@ -3757,7 +3764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>213</v>
       </c>
@@ -3771,7 +3778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>214</v>
       </c>
@@ -3785,7 +3792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>215</v>
       </c>
@@ -3799,7 +3806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>216</v>
       </c>
@@ -3813,7 +3820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="87" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>217</v>
       </c>
@@ -3827,7 +3834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>218</v>
       </c>
@@ -3841,7 +3848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>219</v>
       </c>
@@ -3855,7 +3862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>220</v>
       </c>
@@ -3869,7 +3876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>221</v>
       </c>
@@ -3883,7 +3890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>222</v>
       </c>
@@ -3897,7 +3904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>223</v>
       </c>
@@ -3911,7 +3918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>224</v>
       </c>
@@ -3925,7 +3932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="87" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>225</v>
       </c>
@@ -3939,7 +3946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>280</v>
       </c>
@@ -3953,7 +3960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="116" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>437</v>
       </c>
@@ -3973,7 +3980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="87" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>438</v>
       </c>
@@ -3999,25 +4006,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H1" sqref="H1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7890625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="10.453125" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.26953125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" customWidth="1"/>
-    <col min="6" max="6" width="7.90625" customWidth="1"/>
-    <col min="7" max="7" width="15.54296875" customWidth="1"/>
-    <col min="9" max="9" width="8.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.47265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.26171875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.47265625" customWidth="1"/>
+    <col min="6" max="6" width="7.89453125" customWidth="1"/>
+    <col min="7" max="7" width="15.5234375" customWidth="1"/>
+    <col min="9" max="9" width="8.3671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -4045,8 +4052,8 @@
         <v>634</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
@@ -4062,8 +4069,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:9" ht="316.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
         <v>226</v>
       </c>
       <c r="B3" t="s">
@@ -4085,8 +4092,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:9" ht="216" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
         <v>227</v>
       </c>
       <c r="B4" t="s">
@@ -4108,8 +4115,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:9" ht="316.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
         <v>228</v>
       </c>
       <c r="B5" t="s">
@@ -4131,8 +4138,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:9" ht="216" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
         <v>229</v>
       </c>
       <c r="B6" t="s">
@@ -4154,8 +4161,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:9" ht="331.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
         <v>230</v>
       </c>
       <c r="B7" t="s">
@@ -4177,8 +4184,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:9" ht="230.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
         <v>231</v>
       </c>
       <c r="B8" t="s">
@@ -4206,22 +4213,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F110"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:F112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="B111" sqref="B111"/>
+    <sheetView tabSelected="1" topLeftCell="C88" workbookViewId="0">
+      <selection activeCell="D113" sqref="D113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7890625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="99.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="89.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.453125" customWidth="1"/>
+    <col min="1" max="1" width="13.26171875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="99.47265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="89.26171875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.47265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>509</v>
       </c>
@@ -4237,21 +4244,21 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
         <v>439</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
         <v>440</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>89</v>
       </c>
@@ -4265,7 +4272,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>103</v>
       </c>
@@ -4279,7 +4286,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>99</v>
       </c>
@@ -4293,7 +4300,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>101</v>
       </c>
@@ -4307,7 +4314,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>97</v>
       </c>
@@ -4321,7 +4328,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>94</v>
       </c>
@@ -4335,7 +4342,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>442</v>
       </c>
@@ -4349,7 +4356,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>116</v>
       </c>
@@ -4363,7 +4370,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>112</v>
       </c>
@@ -4377,7 +4384,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>79</v>
       </c>
@@ -4391,7 +4398,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>83</v>
       </c>
@@ -4405,7 +4412,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>122</v>
       </c>
@@ -4419,7 +4426,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>114</v>
       </c>
@@ -4433,7 +4440,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>110</v>
       </c>
@@ -4447,7 +4454,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>445</v>
       </c>
@@ -4461,7 +4468,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>448</v>
       </c>
@@ -4475,7 +4482,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>109</v>
       </c>
@@ -4489,7 +4496,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>450</v>
       </c>
@@ -4503,7 +4510,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>118</v>
       </c>
@@ -4517,7 +4524,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>86</v>
       </c>
@@ -4531,7 +4538,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>91</v>
       </c>
@@ -4545,7 +4552,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>105</v>
       </c>
@@ -4559,7 +4566,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>107</v>
       </c>
@@ -4573,7 +4580,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>120</v>
       </c>
@@ -4587,7 +4594,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>167</v>
       </c>
@@ -4601,7 +4608,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>618</v>
       </c>
@@ -4615,7 +4622,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>619</v>
       </c>
@@ -4629,7 +4636,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>623</v>
       </c>
@@ -4643,7 +4650,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>629</v>
       </c>
@@ -4657,7 +4664,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>125</v>
       </c>
@@ -4671,7 +4678,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>129</v>
       </c>
@@ -4685,7 +4692,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>194</v>
       </c>
@@ -4699,7 +4706,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>452</v>
       </c>
@@ -4713,7 +4720,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>131</v>
       </c>
@@ -4727,7 +4734,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>133</v>
       </c>
@@ -4741,7 +4748,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>136</v>
       </c>
@@ -4755,7 +4762,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>138</v>
       </c>
@@ -4769,7 +4776,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>644</v>
       </c>
@@ -4783,7 +4790,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>645</v>
       </c>
@@ -4797,7 +4804,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>646</v>
       </c>
@@ -4811,7 +4818,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>647</v>
       </c>
@@ -4825,7 +4832,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>196</v>
       </c>
@@ -4839,7 +4846,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>455</v>
       </c>
@@ -4853,7 +4860,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>458</v>
       </c>
@@ -4867,7 +4874,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>232</v>
       </c>
@@ -4881,7 +4888,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>463</v>
       </c>
@@ -4895,7 +4902,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>465</v>
       </c>
@@ -4909,7 +4916,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>467</v>
       </c>
@@ -4923,7 +4930,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>608</v>
       </c>
@@ -4937,7 +4944,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>469</v>
       </c>
@@ -4951,7 +4958,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>471</v>
       </c>
@@ -4965,7 +4972,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>472</v>
       </c>
@@ -4979,7 +4986,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
         <v>473</v>
       </c>
@@ -4993,7 +5000,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>474</v>
       </c>
@@ -5007,7 +5014,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
         <v>163</v>
       </c>
@@ -5021,7 +5028,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
         <v>475</v>
       </c>
@@ -5035,7 +5042,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
         <v>143</v>
       </c>
@@ -5049,7 +5056,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
         <v>153</v>
       </c>
@@ -5063,7 +5070,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
         <v>155</v>
       </c>
@@ -5077,7 +5084,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
         <v>140</v>
       </c>
@@ -5091,7 +5098,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
         <v>151</v>
       </c>
@@ -5105,7 +5112,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
         <v>476</v>
       </c>
@@ -5119,7 +5126,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
         <v>477</v>
       </c>
@@ -5133,7 +5140,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
         <v>478</v>
       </c>
@@ -5147,7 +5154,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
         <v>479</v>
       </c>
@@ -5161,7 +5168,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
         <v>145</v>
       </c>
@@ -5175,7 +5182,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
         <v>147</v>
       </c>
@@ -5189,7 +5196,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
         <v>149</v>
       </c>
@@ -5203,7 +5210,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
         <v>157</v>
       </c>
@@ -5217,7 +5224,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
         <v>161</v>
       </c>
@@ -5231,7 +5238,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
         <v>159</v>
       </c>
@@ -5245,7 +5252,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
         <v>480</v>
       </c>
@@ -5259,7 +5266,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
         <v>481</v>
       </c>
@@ -5273,7 +5280,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
         <v>482</v>
       </c>
@@ -5287,7 +5294,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
         <v>483</v>
       </c>
@@ -5301,7 +5308,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
         <v>484</v>
       </c>
@@ -5315,7 +5322,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
         <v>185</v>
       </c>
@@ -5329,7 +5336,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
         <v>188</v>
       </c>
@@ -5343,7 +5350,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
         <v>191</v>
       </c>
@@ -5357,7 +5364,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
         <v>165</v>
       </c>
@@ -5371,7 +5378,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
         <v>523</v>
       </c>
@@ -5385,7 +5392,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
         <v>524</v>
       </c>
@@ -5399,7 +5406,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
         <v>525</v>
       </c>
@@ -5413,7 +5420,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="s">
         <v>611</v>
       </c>
@@ -5427,7 +5434,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
         <v>612</v>
       </c>
@@ -5441,7 +5448,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
         <v>613</v>
       </c>
@@ -5455,7 +5462,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
         <v>172</v>
       </c>
@@ -5469,7 +5476,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
         <v>175</v>
       </c>
@@ -5483,7 +5490,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
         <v>177</v>
       </c>
@@ -5497,7 +5504,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
         <v>179</v>
       </c>
@@ -5511,7 +5518,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" t="s">
         <v>181</v>
       </c>
@@ -5525,7 +5532,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" t="s">
         <v>183</v>
       </c>
@@ -5539,7 +5546,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" t="s">
         <v>169</v>
       </c>
@@ -5553,7 +5560,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" t="s">
         <v>648</v>
       </c>
@@ -5567,7 +5574,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" t="s">
         <v>649</v>
       </c>
@@ -5581,7 +5588,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" t="s">
         <v>650</v>
       </c>
@@ -5595,7 +5602,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" t="s">
         <v>651</v>
       </c>
@@ -5609,7 +5616,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" t="s">
         <v>652</v>
       </c>
@@ -5623,7 +5630,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" t="s">
         <v>653</v>
       </c>
@@ -5637,7 +5644,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" t="s">
         <v>660</v>
       </c>
@@ -5649,6 +5656,20 @@
       </c>
       <c r="D110" t="s">
         <v>169</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A112" t="s">
+        <v>663</v>
+      </c>
+      <c r="B112" t="s">
+        <v>664</v>
+      </c>
+      <c r="C112" t="s">
+        <v>665</v>
+      </c>
+      <c r="D112" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -5658,19 +5679,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7890625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5678,7 +5699,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -5686,7 +5707,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>60</v>
       </c>
@@ -5694,7 +5715,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>236</v>
       </c>
@@ -5702,7 +5723,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>237</v>
       </c>
@@ -5710,7 +5731,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>238</v>
       </c>
@@ -5718,7 +5739,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>239</v>
       </c>
@@ -5726,7 +5747,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>240</v>
       </c>
@@ -5734,7 +5755,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>141</v>
       </c>
@@ -5742,7 +5763,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>241</v>
       </c>
@@ -5750,7 +5771,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>242</v>
       </c>
@@ -5758,7 +5779,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>272</v>
       </c>
@@ -5766,7 +5787,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>244</v>
       </c>
@@ -5774,7 +5795,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>246</v>
       </c>
@@ -5782,7 +5803,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>245</v>
       </c>
@@ -5790,7 +5811,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>247</v>
       </c>
@@ -5798,7 +5819,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>275</v>
       </c>
@@ -5806,7 +5827,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>316</v>
       </c>
@@ -5814,7 +5835,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>267</v>
       </c>
@@ -5822,7 +5843,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>249</v>
       </c>
@@ -5830,7 +5851,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>248</v>
       </c>
@@ -5838,7 +5859,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>264</v>
       </c>
@@ -5846,7 +5867,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>173</v>
       </c>
@@ -5854,7 +5875,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>262</v>
       </c>
@@ -5862,7 +5883,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>430</v>
       </c>
@@ -5870,7 +5891,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>431</v>
       </c>
@@ -5878,7 +5899,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>432</v>
       </c>
@@ -5886,7 +5907,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>243</v>
       </c>
@@ -5894,7 +5915,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>250</v>
       </c>
@@ -5902,7 +5923,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>233</v>
       </c>
@@ -5917,20 +5938,20 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D102"/>
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7890625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="28.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.7890625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7890625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -5944,7 +5965,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -5955,7 +5976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>283</v>
       </c>
@@ -5966,7 +5987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -5977,7 +5998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>284</v>
       </c>
@@ -5988,7 +6009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>285</v>
       </c>
@@ -5996,7 +6017,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>286</v>
       </c>
@@ -6004,7 +6025,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>287</v>
       </c>
@@ -6015,7 +6036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>288</v>
       </c>
@@ -6023,7 +6044,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>289</v>
       </c>
@@ -6031,12 +6052,12 @@
         <v>289</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>291</v>
       </c>
@@ -6044,7 +6065,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -6052,7 +6073,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>292</v>
       </c>
@@ -6060,7 +6081,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>293</v>
       </c>
@@ -6068,7 +6089,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>294</v>
       </c>
@@ -6076,7 +6097,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>295</v>
       </c>
@@ -6084,7 +6105,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>296</v>
       </c>
@@ -6092,7 +6113,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>297</v>
       </c>
@@ -6100,7 +6121,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>298</v>
       </c>
@@ -6108,7 +6129,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>299</v>
       </c>
@@ -6116,7 +6137,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>300</v>
       </c>
@@ -6124,7 +6145,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>301</v>
       </c>
@@ -6132,7 +6153,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>302</v>
       </c>
@@ -6140,7 +6161,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -6148,7 +6169,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>303</v>
       </c>
@@ -6156,7 +6177,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>304</v>
       </c>
@@ -6164,7 +6185,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>305</v>
       </c>
@@ -6172,7 +6193,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>43</v>
       </c>
@@ -6180,7 +6201,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>306</v>
       </c>
@@ -6188,7 +6209,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>88</v>
       </c>
@@ -6196,7 +6217,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>307</v>
       </c>
@@ -6204,12 +6225,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>309</v>
       </c>
@@ -6217,7 +6238,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>310</v>
       </c>
@@ -6225,7 +6246,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>311</v>
       </c>
@@ -6233,7 +6254,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>312</v>
       </c>
@@ -6241,7 +6262,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>313</v>
       </c>
@@ -6249,12 +6270,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>315</v>
       </c>
@@ -6265,7 +6286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>316</v>
       </c>
@@ -6276,7 +6297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>317</v>
       </c>
@@ -6287,7 +6308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>249</v>
       </c>
@@ -6298,7 +6319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>318</v>
       </c>
@@ -6309,7 +6330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>319</v>
       </c>
@@ -6320,7 +6341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>320</v>
       </c>
@@ -6331,7 +6352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>321</v>
       </c>
@@ -6342,7 +6363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>322</v>
       </c>
@@ -6353,7 +6374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>323</v>
       </c>
@@ -6364,7 +6385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>324</v>
       </c>
@@ -6375,12 +6396,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D54" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="4" t="s">
         <v>325</v>
       </c>
@@ -6388,7 +6409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="4" t="s">
         <v>326</v>
       </c>
@@ -6396,7 +6417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="4" t="s">
         <v>327</v>
       </c>
@@ -6404,7 +6425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="4" t="s">
         <v>328</v>
       </c>
@@ -6412,7 +6433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="4" t="s">
         <v>329</v>
       </c>
@@ -6420,7 +6441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="4" t="s">
         <v>330</v>
       </c>
@@ -6428,7 +6449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
         <v>516</v>
       </c>
@@ -6436,7 +6457,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
         <v>191</v>
       </c>
@@ -6444,7 +6465,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
         <v>331</v>
       </c>
@@ -6455,7 +6476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
         <v>332</v>
       </c>
@@ -6466,7 +6487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
         <v>333</v>
       </c>
@@ -6477,7 +6498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
         <v>334</v>
       </c>
@@ -6488,7 +6509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
         <v>335</v>
       </c>
@@ -6499,12 +6520,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="1" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="4" t="s">
         <v>337</v>
       </c>
@@ -6515,7 +6536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
         <v>338</v>
       </c>
@@ -6526,12 +6547,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="1" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="4" t="s">
         <v>340</v>
       </c>
@@ -6542,7 +6563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
         <v>79</v>
       </c>
@@ -6553,7 +6574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
         <v>341</v>
       </c>
@@ -6564,7 +6585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
         <v>342</v>
       </c>
@@ -6575,12 +6596,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="1" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
         <v>344</v>
       </c>
@@ -6588,7 +6609,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
         <v>345</v>
       </c>
@@ -6596,7 +6617,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
         <v>346</v>
       </c>
@@ -6604,7 +6625,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
         <v>347</v>
       </c>
@@ -6612,7 +6633,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
         <v>348</v>
       </c>
@@ -6620,7 +6641,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
         <v>349</v>
       </c>
@@ -6628,7 +6649,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
         <v>350</v>
       </c>
@@ -6636,7 +6657,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
         <v>351</v>
       </c>
@@ -6644,7 +6665,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
         <v>352</v>
       </c>
@@ -6652,7 +6673,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="s">
         <v>353</v>
       </c>
@@ -6660,7 +6681,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
         <v>354</v>
       </c>
@@ -6668,7 +6689,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
         <v>355</v>
       </c>
@@ -6676,7 +6697,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
         <v>356</v>
       </c>
@@ -6684,7 +6705,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
         <v>357</v>
       </c>
@@ -6692,7 +6713,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
         <v>358</v>
       </c>
@@ -6700,7 +6721,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
         <v>359</v>
       </c>
@@ -6708,7 +6729,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
         <v>360</v>
       </c>
@@ -6716,7 +6737,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
         <v>361</v>
       </c>
@@ -6724,7 +6745,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" t="s">
         <v>362</v>
       </c>
@@ -6732,7 +6753,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" t="s">
         <v>363</v>
       </c>
@@ -6740,7 +6761,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" t="s">
         <v>364</v>
       </c>
@@ -6748,7 +6769,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" t="s">
         <v>365</v>
       </c>
@@ -6756,7 +6777,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" t="s">
         <v>366</v>
       </c>

--- a/build_tools/Class_definitions/Class_definitions.xlsx
+++ b/build_tools/Class_definitions/Class_definitions.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adrian\GitHub\MSEtool\build_tools\Class_definitions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\MSEtool\build_tools\Class_definitions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC849F0-4EA5-414E-8B5B-E93BD32BE0EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-100" yWindow="-100" windowWidth="23230" windowHeight="13870" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Stock" sheetId="1" r:id="rId1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="666">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="668">
   <si>
     <t>Slot</t>
   </si>
@@ -2029,12 +2028,18 @@
   </si>
   <si>
     <t>A named list with elements SRRfun containing a stock-recruit function, and SRRpars a data.frame with nsim values for the parameters</t>
+  </si>
+  <si>
+    <t>spawn_time_frac</t>
+  </si>
+  <si>
+    <t>Fraction of the year when spawning occurs (default 0; beginning of year)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2371,27 +2376,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I1" sqref="H1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="15.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.47265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.62890625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.15625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="106.15625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="106.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7265625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="38" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.62890625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.6328125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.47265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2420,7 +2425,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -2439,7 +2444,7 @@
       </c>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -2458,7 +2463,7 @@
       </c>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -2477,7 +2482,7 @@
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
@@ -2498,7 +2503,7 @@
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:9" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
@@ -2522,7 +2527,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
@@ -2543,7 +2548,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>20</v>
       </c>
@@ -2567,7 +2572,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>22</v>
       </c>
@@ -2588,7 +2593,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
@@ -2615,7 +2620,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>26</v>
       </c>
@@ -2636,7 +2641,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>28</v>
       </c>
@@ -2660,7 +2665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>30</v>
       </c>
@@ -2681,7 +2686,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>40</v>
       </c>
@@ -2705,7 +2710,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>32</v>
       </c>
@@ -2726,7 +2731,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>38</v>
       </c>
@@ -2750,7 +2755,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>34</v>
       </c>
@@ -2771,7 +2776,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>36</v>
       </c>
@@ -2795,7 +2800,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>42</v>
       </c>
@@ -2816,7 +2821,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>44</v>
       </c>
@@ -2837,7 +2842,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>46</v>
       </c>
@@ -2858,7 +2863,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>48</v>
       </c>
@@ -2882,7 +2887,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>49</v>
       </c>
@@ -2906,7 +2911,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>50</v>
       </c>
@@ -2933,7 +2938,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>52</v>
       </c>
@@ -2960,7 +2965,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>54</v>
       </c>
@@ -2987,7 +2992,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>56</v>
       </c>
@@ -3011,7 +3016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>58</v>
       </c>
@@ -3037,28 +3042,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="51.26171875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="51.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.89453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.62890625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.15625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="44.89453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.47265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.47265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.90625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.90625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.453125" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="51.26171875" style="3"/>
+    <col min="10" max="16384" width="51.26953125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3087,7 +3092,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -3104,7 +3109,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>60</v>
       </c>
@@ -3124,7 +3129,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>61</v>
       </c>
@@ -3150,7 +3155,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="216" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:9" ht="232" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>62</v>
       </c>
@@ -3167,7 +3172,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="115.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:9" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>63</v>
       </c>
@@ -3184,7 +3189,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="115.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:9" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>64</v>
       </c>
@@ -3201,7 +3206,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="129.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:9" ht="145" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>65</v>
       </c>
@@ -3221,7 +3226,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="129.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:9" ht="145" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>66</v>
       </c>
@@ -3244,7 +3249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>67</v>
       </c>
@@ -3267,7 +3272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="158.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:9" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>68</v>
       </c>
@@ -3290,7 +3295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="158.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:9" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>69</v>
       </c>
@@ -3313,7 +3318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="115.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:9" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>70</v>
       </c>
@@ -3333,7 +3338,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>71</v>
       </c>
@@ -3350,7 +3355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="144" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:9" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>73</v>
       </c>
@@ -3373,7 +3378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="144" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:9" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>74</v>
       </c>
@@ -3396,7 +3401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="115.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:8" ht="116" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>75</v>
       </c>
@@ -3419,7 +3424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="100.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>76</v>
       </c>
@@ -3442,7 +3447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="172.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:8" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>77</v>
       </c>
@@ -3465,7 +3470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:8" ht="87" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>232</v>
       </c>
@@ -3488,7 +3493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>233</v>
       </c>
@@ -3509,22 +3514,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.26171875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="11.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="75.15625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="15.47265625" customWidth="1"/>
-    <col min="6" max="6" width="34.734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.734375" customWidth="1"/>
+    <col min="4" max="4" width="75.1796875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="15.453125" customWidth="1"/>
+    <col min="6" max="6" width="34.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3553,7 +3558,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -3567,7 +3572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="115.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:9" ht="116" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>200</v>
       </c>
@@ -3581,7 +3586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>201</v>
       </c>
@@ -3595,7 +3600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>202</v>
       </c>
@@ -3612,7 +3617,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>203</v>
       </c>
@@ -3629,7 +3634,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>204</v>
       </c>
@@ -3646,7 +3651,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>205</v>
       </c>
@@ -3663,7 +3668,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="115.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:9" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>206</v>
       </c>
@@ -3677,7 +3682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="115.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:9" ht="116" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>207</v>
       </c>
@@ -3691,7 +3696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>208</v>
       </c>
@@ -3705,7 +3710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>209</v>
       </c>
@@ -3722,7 +3727,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>210</v>
       </c>
@@ -3736,7 +3741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>211</v>
       </c>
@@ -3750,7 +3755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>212</v>
       </c>
@@ -3764,7 +3769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>213</v>
       </c>
@@ -3778,7 +3783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>214</v>
       </c>
@@ -3792,7 +3797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>215</v>
       </c>
@@ -3806,7 +3811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>216</v>
       </c>
@@ -3820,7 +3825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:8" ht="87" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>217</v>
       </c>
@@ -3834,7 +3839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>218</v>
       </c>
@@ -3848,7 +3853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>219</v>
       </c>
@@ -3862,7 +3867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>220</v>
       </c>
@@ -3876,7 +3881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>221</v>
       </c>
@@ -3890,7 +3895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>222</v>
       </c>
@@ -3904,7 +3909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="115.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>223</v>
       </c>
@@ -3918,7 +3923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>224</v>
       </c>
@@ -3932,7 +3937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:8" ht="87" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>225</v>
       </c>
@@ -3946,7 +3951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>280</v>
       </c>
@@ -3960,7 +3965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="115.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:8" ht="116" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>437</v>
       </c>
@@ -3980,7 +3985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:8" ht="87" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>438</v>
       </c>
@@ -4006,24 +4011,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H1" sqref="H1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7890625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.47265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.26171875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.47265625" customWidth="1"/>
-    <col min="6" max="6" width="7.89453125" customWidth="1"/>
-    <col min="7" max="7" width="15.5234375" customWidth="1"/>
-    <col min="9" max="9" width="8.3671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.26953125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.453125" customWidth="1"/>
+    <col min="6" max="6" width="7.90625" customWidth="1"/>
+    <col min="7" max="7" width="15.54296875" customWidth="1"/>
+    <col min="9" max="9" width="8.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4052,7 +4057,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -4069,7 +4074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="316.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:9" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>226</v>
       </c>
@@ -4092,7 +4097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="216" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:9" ht="232" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>227</v>
       </c>
@@ -4115,7 +4120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="316.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:9" ht="377" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>228</v>
       </c>
@@ -4138,7 +4143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="216" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:9" ht="232" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>229</v>
       </c>
@@ -4161,7 +4166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="331.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:9" ht="377" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>230</v>
       </c>
@@ -4184,7 +4189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="230.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:9" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>231</v>
       </c>
@@ -4213,22 +4218,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:F112"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C88" workbookViewId="0">
-      <selection activeCell="D113" sqref="D113"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="B114" sqref="B114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7890625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.26171875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="99.47265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="89.26171875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.47265625" customWidth="1"/>
+    <col min="1" max="1" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="99.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="89.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>509</v>
       </c>
@@ -4244,7 +4249,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>439</v>
       </c>
@@ -4258,7 +4263,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>89</v>
       </c>
@@ -4272,7 +4277,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>103</v>
       </c>
@@ -4286,7 +4291,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>99</v>
       </c>
@@ -4300,7 +4305,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>101</v>
       </c>
@@ -4314,7 +4319,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>97</v>
       </c>
@@ -4328,7 +4333,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>94</v>
       </c>
@@ -4342,7 +4347,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>442</v>
       </c>
@@ -4356,7 +4361,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>116</v>
       </c>
@@ -4370,7 +4375,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>112</v>
       </c>
@@ -4384,7 +4389,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>79</v>
       </c>
@@ -4398,7 +4403,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>83</v>
       </c>
@@ -4412,7 +4417,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>122</v>
       </c>
@@ -4426,7 +4431,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>114</v>
       </c>
@@ -4440,7 +4445,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>110</v>
       </c>
@@ -4454,7 +4459,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>445</v>
       </c>
@@ -4468,7 +4473,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>448</v>
       </c>
@@ -4482,7 +4487,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>109</v>
       </c>
@@ -4496,7 +4501,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>450</v>
       </c>
@@ -4510,7 +4515,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>118</v>
       </c>
@@ -4524,7 +4529,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>86</v>
       </c>
@@ -4538,7 +4543,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>91</v>
       </c>
@@ -4552,7 +4557,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>105</v>
       </c>
@@ -4566,7 +4571,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>107</v>
       </c>
@@ -4580,7 +4585,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>120</v>
       </c>
@@ -4594,7 +4599,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>167</v>
       </c>
@@ -4608,7 +4613,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>618</v>
       </c>
@@ -4622,7 +4627,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>619</v>
       </c>
@@ -4636,7 +4641,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>623</v>
       </c>
@@ -4650,7 +4655,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>629</v>
       </c>
@@ -4664,7 +4669,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>125</v>
       </c>
@@ -4678,7 +4683,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>129</v>
       </c>
@@ -4692,7 +4697,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>194</v>
       </c>
@@ -4706,7 +4711,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>452</v>
       </c>
@@ -4720,7 +4725,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>131</v>
       </c>
@@ -4734,7 +4739,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>133</v>
       </c>
@@ -4748,7 +4753,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>136</v>
       </c>
@@ -4762,7 +4767,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>138</v>
       </c>
@@ -4776,7 +4781,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>644</v>
       </c>
@@ -4790,7 +4795,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>645</v>
       </c>
@@ -4804,7 +4809,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>646</v>
       </c>
@@ -4818,7 +4823,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>647</v>
       </c>
@@ -4832,7 +4837,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>196</v>
       </c>
@@ -4846,7 +4851,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>455</v>
       </c>
@@ -4860,7 +4865,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>458</v>
       </c>
@@ -4874,7 +4879,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>232</v>
       </c>
@@ -4888,7 +4893,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>463</v>
       </c>
@@ -4902,7 +4907,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>465</v>
       </c>
@@ -4916,7 +4921,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>467</v>
       </c>
@@ -4930,7 +4935,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>608</v>
       </c>
@@ -4944,7 +4949,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>469</v>
       </c>
@@ -4958,7 +4963,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>471</v>
       </c>
@@ -4972,7 +4977,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>472</v>
       </c>
@@ -4986,7 +4991,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>473</v>
       </c>
@@ -5000,7 +5005,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>474</v>
       </c>
@@ -5014,7 +5019,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>163</v>
       </c>
@@ -5028,7 +5033,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>475</v>
       </c>
@@ -5042,7 +5047,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>143</v>
       </c>
@@ -5056,7 +5061,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>153</v>
       </c>
@@ -5070,7 +5075,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>155</v>
       </c>
@@ -5084,7 +5089,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>140</v>
       </c>
@@ -5098,7 +5103,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>151</v>
       </c>
@@ -5112,7 +5117,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>476</v>
       </c>
@@ -5126,7 +5131,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>477</v>
       </c>
@@ -5140,7 +5145,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>478</v>
       </c>
@@ -5154,7 +5159,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>479</v>
       </c>
@@ -5168,7 +5173,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>145</v>
       </c>
@@ -5182,7 +5187,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>147</v>
       </c>
@@ -5196,7 +5201,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>149</v>
       </c>
@@ -5210,7 +5215,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>157</v>
       </c>
@@ -5224,7 +5229,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>161</v>
       </c>
@@ -5238,7 +5243,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>159</v>
       </c>
@@ -5252,7 +5257,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>480</v>
       </c>
@@ -5266,7 +5271,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>481</v>
       </c>
@@ -5280,7 +5285,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>482</v>
       </c>
@@ -5294,7 +5299,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>483</v>
       </c>
@@ -5308,7 +5313,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>484</v>
       </c>
@@ -5322,7 +5327,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>185</v>
       </c>
@@ -5336,7 +5341,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>188</v>
       </c>
@@ -5350,7 +5355,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>191</v>
       </c>
@@ -5364,7 +5369,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>165</v>
       </c>
@@ -5378,7 +5383,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>523</v>
       </c>
@@ -5392,7 +5397,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>524</v>
       </c>
@@ -5406,7 +5411,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>525</v>
       </c>
@@ -5420,7 +5425,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>611</v>
       </c>
@@ -5434,7 +5439,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>612</v>
       </c>
@@ -5448,7 +5453,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>613</v>
       </c>
@@ -5462,7 +5467,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>172</v>
       </c>
@@ -5476,7 +5481,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>175</v>
       </c>
@@ -5490,7 +5495,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>177</v>
       </c>
@@ -5504,7 +5509,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>179</v>
       </c>
@@ -5518,7 +5523,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>181</v>
       </c>
@@ -5532,7 +5537,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>183</v>
       </c>
@@ -5546,7 +5551,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>169</v>
       </c>
@@ -5560,7 +5565,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>648</v>
       </c>
@@ -5574,7 +5579,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>649</v>
       </c>
@@ -5588,7 +5593,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>650</v>
       </c>
@@ -5602,7 +5607,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>651</v>
       </c>
@@ -5616,7 +5621,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>652</v>
       </c>
@@ -5630,7 +5635,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>653</v>
       </c>
@@ -5644,7 +5649,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>660</v>
       </c>
@@ -5658,7 +5663,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>663</v>
       </c>
@@ -5669,6 +5674,20 @@
         <v>665</v>
       </c>
       <c r="D112" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>666</v>
+      </c>
+      <c r="B113" t="s">
+        <v>16</v>
+      </c>
+      <c r="C113" t="s">
+        <v>667</v>
+      </c>
+      <c r="D113" t="s">
         <v>80</v>
       </c>
     </row>
@@ -5679,19 +5698,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7890625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5699,7 +5718,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -5707,7 +5726,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>60</v>
       </c>
@@ -5715,7 +5734,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>236</v>
       </c>
@@ -5723,7 +5742,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>237</v>
       </c>
@@ -5731,7 +5750,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>238</v>
       </c>
@@ -5739,7 +5758,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>239</v>
       </c>
@@ -5747,7 +5766,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>240</v>
       </c>
@@ -5755,7 +5774,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>141</v>
       </c>
@@ -5763,7 +5782,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>241</v>
       </c>
@@ -5771,7 +5790,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>242</v>
       </c>
@@ -5779,7 +5798,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>272</v>
       </c>
@@ -5787,7 +5806,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>244</v>
       </c>
@@ -5795,7 +5814,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>246</v>
       </c>
@@ -5803,7 +5822,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>245</v>
       </c>
@@ -5811,7 +5830,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>247</v>
       </c>
@@ -5819,7 +5838,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>275</v>
       </c>
@@ -5827,7 +5846,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>316</v>
       </c>
@@ -5835,7 +5854,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>267</v>
       </c>
@@ -5843,7 +5862,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>249</v>
       </c>
@@ -5851,7 +5870,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>248</v>
       </c>
@@ -5859,7 +5878,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>264</v>
       </c>
@@ -5867,7 +5886,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>173</v>
       </c>
@@ -5875,7 +5894,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>262</v>
       </c>
@@ -5883,7 +5902,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>430</v>
       </c>
@@ -5891,7 +5910,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>431</v>
       </c>
@@ -5899,7 +5918,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>432</v>
       </c>
@@ -5907,7 +5926,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>243</v>
       </c>
@@ -5915,7 +5934,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>250</v>
       </c>
@@ -5923,7 +5942,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>233</v>
       </c>
@@ -5938,20 +5957,20 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D102"/>
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7890625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.7890625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7890625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -5965,7 +5984,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -5976,7 +5995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>283</v>
       </c>
@@ -5987,7 +6006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -5998,7 +6017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>284</v>
       </c>
@@ -6009,7 +6028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>285</v>
       </c>
@@ -6017,7 +6036,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>286</v>
       </c>
@@ -6025,7 +6044,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>287</v>
       </c>
@@ -6036,7 +6055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>288</v>
       </c>
@@ -6044,7 +6063,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>289</v>
       </c>
@@ -6052,12 +6071,12 @@
         <v>289</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>291</v>
       </c>
@@ -6065,7 +6084,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -6073,7 +6092,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>292</v>
       </c>
@@ -6081,7 +6100,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>293</v>
       </c>
@@ -6089,7 +6108,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>294</v>
       </c>
@@ -6097,7 +6116,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>295</v>
       </c>
@@ -6105,7 +6124,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>296</v>
       </c>
@@ -6113,7 +6132,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>297</v>
       </c>
@@ -6121,7 +6140,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>298</v>
       </c>
@@ -6129,7 +6148,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>299</v>
       </c>
@@ -6137,7 +6156,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>300</v>
       </c>
@@ -6145,7 +6164,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>301</v>
       </c>
@@ -6153,7 +6172,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>302</v>
       </c>
@@ -6161,7 +6180,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -6169,7 +6188,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>303</v>
       </c>
@@ -6177,7 +6196,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>304</v>
       </c>
@@ -6185,7 +6204,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>305</v>
       </c>
@@ -6193,7 +6212,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>43</v>
       </c>
@@ -6201,7 +6220,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>306</v>
       </c>
@@ -6209,7 +6228,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>88</v>
       </c>
@@ -6217,7 +6236,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>307</v>
       </c>
@@ -6225,12 +6244,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>309</v>
       </c>
@@ -6238,7 +6257,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>310</v>
       </c>
@@ -6246,7 +6265,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>311</v>
       </c>
@@ -6254,7 +6273,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>312</v>
       </c>
@@ -6262,7 +6281,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>313</v>
       </c>
@@ -6270,12 +6289,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>315</v>
       </c>
@@ -6286,7 +6305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>316</v>
       </c>
@@ -6297,7 +6316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>317</v>
       </c>
@@ -6308,7 +6327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>249</v>
       </c>
@@ -6319,7 +6338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>318</v>
       </c>
@@ -6330,7 +6349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>319</v>
       </c>
@@ -6341,7 +6360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>320</v>
       </c>
@@ -6352,7 +6371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>321</v>
       </c>
@@ -6363,7 +6382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>322</v>
       </c>
@@ -6374,7 +6393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>323</v>
       </c>
@@ -6385,7 +6404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>324</v>
       </c>
@@ -6396,12 +6415,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D54" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="4" t="s">
         <v>325</v>
       </c>
@@ -6409,7 +6428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="4" t="s">
         <v>326</v>
       </c>
@@ -6417,7 +6436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="4" t="s">
         <v>327</v>
       </c>
@@ -6425,7 +6444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="4" t="s">
         <v>328</v>
       </c>
@@ -6433,7 +6452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="4" t="s">
         <v>329</v>
       </c>
@@ -6441,7 +6460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="4" t="s">
         <v>330</v>
       </c>
@@ -6449,7 +6468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>516</v>
       </c>
@@ -6457,7 +6476,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>191</v>
       </c>
@@ -6465,7 +6484,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>331</v>
       </c>
@@ -6476,7 +6495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>332</v>
       </c>
@@ -6487,7 +6506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>333</v>
       </c>
@@ -6498,7 +6517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>334</v>
       </c>
@@ -6509,7 +6528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>335</v>
       </c>
@@ -6520,12 +6539,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="4" t="s">
         <v>337</v>
       </c>
@@ -6536,7 +6555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>338</v>
       </c>
@@ -6547,12 +6566,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="4" t="s">
         <v>340</v>
       </c>
@@ -6563,7 +6582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>79</v>
       </c>
@@ -6574,7 +6593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>341</v>
       </c>
@@ -6585,7 +6604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>342</v>
       </c>
@@ -6596,12 +6615,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>344</v>
       </c>
@@ -6609,7 +6628,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>345</v>
       </c>
@@ -6617,7 +6636,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>346</v>
       </c>
@@ -6625,7 +6644,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>347</v>
       </c>
@@ -6633,7 +6652,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>348</v>
       </c>
@@ -6641,7 +6660,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>349</v>
       </c>
@@ -6649,7 +6668,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>350</v>
       </c>
@@ -6657,7 +6676,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>351</v>
       </c>
@@ -6665,7 +6684,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>352</v>
       </c>
@@ -6673,7 +6692,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>353</v>
       </c>
@@ -6681,7 +6700,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>354</v>
       </c>
@@ -6689,7 +6708,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>355</v>
       </c>
@@ -6697,7 +6716,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>356</v>
       </c>
@@ -6705,7 +6724,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>357</v>
       </c>
@@ -6713,7 +6732,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>358</v>
       </c>
@@ -6721,7 +6740,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>359</v>
       </c>
@@ -6729,7 +6748,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>360</v>
       </c>
@@ -6737,7 +6756,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>361</v>
       </c>
@@ -6745,7 +6764,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>362</v>
       </c>
@@ -6753,7 +6772,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>363</v>
       </c>
@@ -6761,7 +6780,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>364</v>
       </c>
@@ -6769,7 +6788,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>365</v>
       </c>
@@ -6777,7 +6796,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>366</v>
       </c>

--- a/build_tools/Class_definitions/Class_definitions.xlsx
+++ b/build_tools/Class_definitions/Class_definitions.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="668">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="674">
   <si>
     <t>Slot</t>
   </si>
@@ -2034,6 +2034,24 @@
   </si>
   <si>
     <t>Fraction of the year when spawning occurs (default 0; beginning of year)</t>
+  </si>
+  <si>
+    <t>Selectivity for additional indices; overrides Data@AddIndV</t>
+  </si>
+  <si>
+    <t>AddIV</t>
+  </si>
+  <si>
+    <t>Ind_Yrs</t>
+  </si>
+  <si>
+    <t>numeric vector length up to nyears</t>
+  </si>
+  <si>
+    <t>Numeric values indexing the historical years to use when calculating statistical properties of deviations for Data@Ind</t>
+  </si>
+  <si>
+    <t>numeric array dim= c(nsim, n_age, n_indices, nyears+proyears)</t>
   </si>
 </sst>
 </file>
@@ -4219,10 +4237,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F113"/>
+  <dimension ref="A1:F116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="B114" sqref="B114"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="B116" sqref="B116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5689,6 +5707,28 @@
       </c>
       <c r="D113" t="s">
         <v>80</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>669</v>
+      </c>
+      <c r="B115" t="s">
+        <v>673</v>
+      </c>
+      <c r="C115" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>670</v>
+      </c>
+      <c r="B116" t="s">
+        <v>671</v>
+      </c>
+      <c r="C116" t="s">
+        <v>672</v>
       </c>
     </row>
   </sheetData>

--- a/build_tools/Class_definitions/Class_definitions.xlsx
+++ b/build_tools/Class_definitions/Class_definitions.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="677">
   <si>
     <t>Slot</t>
   </si>
@@ -2052,6 +2052,15 @@
   </si>
   <si>
     <t>numeric array dim= c(nsim, n_age, n_indices, nyears+proyears)</t>
+  </si>
+  <si>
+    <t>Fdist</t>
+  </si>
+  <si>
+    <t>numeric vector length nareas</t>
+  </si>
+  <si>
+    <t>Relative distribution of fishing effort by area. Sums to 1.</t>
   </si>
 </sst>
 </file>
@@ -4237,10 +4246,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F116"/>
+  <dimension ref="A1:F117"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="B116" sqref="B116"/>
+      <selection activeCell="A118" sqref="A118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5729,6 +5738,17 @@
       </c>
       <c r="C116" t="s">
         <v>672</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>674</v>
+      </c>
+      <c r="B117" t="s">
+        <v>675</v>
+      </c>
+      <c r="C117" t="s">
+        <v>676</v>
       </c>
     </row>
   </sheetData>
